--- a/public/local/fixtures/calculator/Мониторинг калькуляторы.xlsx
+++ b/public/local/fixtures/calculator/Мониторинг калькуляторы.xlsx
@@ -1,16 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uzhne/project-extras/imarket/expert/src/public/local/fixtures/calculator/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="2300" yWindow="1400" windowWidth="28800" windowHeight="19580" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Мониторинг одно здания" sheetId="3" r:id="rId1"/>
-    <sheet name=" Мониторинг несколько зданий" sheetId="1" r:id="rId2"/>
+    <sheet name="Мониторинг одного здания" sheetId="3" r:id="rId1"/>
+    <sheet name="Мониторинг нескольких зданий" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="150001" refMode="R1C1" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -605,7 +615,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -855,6 +865,24 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1171,43 +1199,43 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1251,6 +1279,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1347,50 +1377,52 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="43">
-    <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Финансовый" xfId="42" builtinId="3"/>
-    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
+  <cellStyles count="45">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="42" builtinId="3"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1660,7 +1692,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1670,52 +1702,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE257"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
+    <sheetView topLeftCell="A164" workbookViewId="0">
       <selection activeCell="D246" sqref="D246"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="15" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="15" customWidth="1"/>
-    <col min="11" max="28" width="9.140625" style="15"/>
-    <col min="29" max="31" width="9.140625" style="12"/>
+    <col min="1" max="1" width="53.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="15" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="15" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="15" customWidth="1"/>
+    <col min="11" max="28" width="8.83203125" style="15"/>
+    <col min="29" max="31" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B1" s="14"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B2" s="14"/>
     </row>
-    <row r="3" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B4" s="14"/>
     </row>
-    <row r="5" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B6" s="14"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1723,14 +1755,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="14"/>
       <c r="AC8" s="12"/>
       <c r="AD8" s="12"/>
       <c r="AE8" s="12"/>
     </row>
-    <row r="9" spans="1:31" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>178</v>
       </c>
@@ -1739,7 +1771,7 @@
       <c r="AD9" s="12"/>
       <c r="AE9" s="12"/>
     </row>
-    <row r="10" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -1750,7 +1782,7 @@
       <c r="AD10" s="12"/>
       <c r="AE10" s="12"/>
     </row>
-    <row r="11" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -1761,7 +1793,7 @@
       <c r="AD11" s="12"/>
       <c r="AE11" s="12"/>
     </row>
-    <row r="12" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -1772,7 +1804,7 @@
       <c r="AD12" s="12"/>
       <c r="AE12" s="12"/>
     </row>
-    <row r="13" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1783,7 +1815,7 @@
       <c r="AD13" s="12"/>
       <c r="AE13" s="12"/>
     </row>
-    <row r="14" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -1794,7 +1826,7 @@
       <c r="AD14" s="12"/>
       <c r="AE14" s="12"/>
     </row>
-    <row r="15" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -1805,7 +1837,7 @@
       <c r="AD15" s="12"/>
       <c r="AE15" s="12"/>
     </row>
-    <row r="16" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -1816,7 +1848,7 @@
       <c r="AD16" s="12"/>
       <c r="AE16" s="12"/>
     </row>
-    <row r="17" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -1827,7 +1859,7 @@
       <c r="AD17" s="12"/>
       <c r="AE17" s="12"/>
     </row>
-    <row r="18" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -1838,7 +1870,7 @@
       <c r="AD18" s="12"/>
       <c r="AE18" s="12"/>
     </row>
-    <row r="19" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -1849,7 +1881,7 @@
       <c r="AD19" s="12"/>
       <c r="AE19" s="12"/>
     </row>
-    <row r="20" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
@@ -1860,7 +1892,7 @@
       <c r="AD20" s="12"/>
       <c r="AE20" s="12"/>
     </row>
-    <row r="21" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
@@ -1871,7 +1903,7 @@
       <c r="AD21" s="12"/>
       <c r="AE21" s="12"/>
     </row>
-    <row r="22" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
@@ -1882,7 +1914,7 @@
       <c r="AD22" s="12"/>
       <c r="AE22" s="12"/>
     </row>
-    <row r="23" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -1893,7 +1925,7 @@
       <c r="AD23" s="12"/>
       <c r="AE23" s="12"/>
     </row>
-    <row r="24" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
@@ -1904,7 +1936,7 @@
       <c r="AD24" s="12"/>
       <c r="AE24" s="12"/>
     </row>
-    <row r="25" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
@@ -1915,7 +1947,7 @@
       <c r="AD25" s="12"/>
       <c r="AE25" s="12"/>
     </row>
-    <row r="26" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1926,7 +1958,7 @@
       <c r="AD26" s="12"/>
       <c r="AE26" s="12"/>
     </row>
-    <row r="27" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
@@ -1937,7 +1969,7 @@
       <c r="AD27" s="12"/>
       <c r="AE27" s="12"/>
     </row>
-    <row r="28" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>22</v>
       </c>
@@ -1948,7 +1980,7 @@
       <c r="AD28" s="12"/>
       <c r="AE28" s="12"/>
     </row>
-    <row r="29" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
@@ -1959,7 +1991,7 @@
       <c r="AD29" s="12"/>
       <c r="AE29" s="12"/>
     </row>
-    <row r="30" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
@@ -1970,7 +2002,7 @@
       <c r="AD30" s="12"/>
       <c r="AE30" s="12"/>
     </row>
-    <row r="31" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>25</v>
       </c>
@@ -1981,7 +2013,7 @@
       <c r="AD31" s="12"/>
       <c r="AE31" s="12"/>
     </row>
-    <row r="32" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
@@ -1992,7 +2024,7 @@
       <c r="AD32" s="12"/>
       <c r="AE32" s="12"/>
     </row>
-    <row r="33" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>27</v>
       </c>
@@ -2003,7 +2035,7 @@
       <c r="AD33" s="12"/>
       <c r="AE33" s="12"/>
     </row>
-    <row r="34" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>28</v>
       </c>
@@ -2014,7 +2046,7 @@
       <c r="AD34" s="12"/>
       <c r="AE34" s="12"/>
     </row>
-    <row r="35" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>29</v>
       </c>
@@ -2025,7 +2057,7 @@
       <c r="AD35" s="12"/>
       <c r="AE35" s="12"/>
     </row>
-    <row r="36" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
@@ -2036,7 +2068,7 @@
       <c r="AD36" s="12"/>
       <c r="AE36" s="12"/>
     </row>
-    <row r="37" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>31</v>
       </c>
@@ -2047,7 +2079,7 @@
       <c r="AD37" s="12"/>
       <c r="AE37" s="12"/>
     </row>
-    <row r="38" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>32</v>
       </c>
@@ -2058,7 +2090,7 @@
       <c r="AD38" s="12"/>
       <c r="AE38" s="12"/>
     </row>
-    <row r="39" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>33</v>
       </c>
@@ -2069,7 +2101,7 @@
       <c r="AD39" s="12"/>
       <c r="AE39" s="12"/>
     </row>
-    <row r="40" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>34</v>
       </c>
@@ -2080,7 +2112,7 @@
       <c r="AD40" s="12"/>
       <c r="AE40" s="12"/>
     </row>
-    <row r="41" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>35</v>
       </c>
@@ -2091,7 +2123,7 @@
       <c r="AD41" s="12"/>
       <c r="AE41" s="12"/>
     </row>
-    <row r="42" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>36</v>
       </c>
@@ -2102,7 +2134,7 @@
       <c r="AD42" s="12"/>
       <c r="AE42" s="12"/>
     </row>
-    <row r="43" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>37</v>
       </c>
@@ -2113,7 +2145,7 @@
       <c r="AD43" s="12"/>
       <c r="AE43" s="12"/>
     </row>
-    <row r="44" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>38</v>
       </c>
@@ -2124,7 +2156,7 @@
       <c r="AD44" s="12"/>
       <c r="AE44" s="12"/>
     </row>
-    <row r="45" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>39</v>
       </c>
@@ -2135,7 +2167,7 @@
       <c r="AD45" s="12"/>
       <c r="AE45" s="12"/>
     </row>
-    <row r="46" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>40</v>
       </c>
@@ -2146,7 +2178,7 @@
       <c r="AD46" s="12"/>
       <c r="AE46" s="12"/>
     </row>
-    <row r="47" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>41</v>
       </c>
@@ -2157,7 +2189,7 @@
       <c r="AD47" s="12"/>
       <c r="AE47" s="12"/>
     </row>
-    <row r="48" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>42</v>
       </c>
@@ -2168,7 +2200,7 @@
       <c r="AD48" s="12"/>
       <c r="AE48" s="12"/>
     </row>
-    <row r="49" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>43</v>
       </c>
@@ -2179,7 +2211,7 @@
       <c r="AD49" s="12"/>
       <c r="AE49" s="12"/>
     </row>
-    <row r="50" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>44</v>
       </c>
@@ -2190,7 +2222,7 @@
       <c r="AD50" s="12"/>
       <c r="AE50" s="12"/>
     </row>
-    <row r="51" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>45</v>
       </c>
@@ -2201,7 +2233,7 @@
       <c r="AD51" s="12"/>
       <c r="AE51" s="12"/>
     </row>
-    <row r="52" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>46</v>
       </c>
@@ -2212,7 +2244,7 @@
       <c r="AD52" s="12"/>
       <c r="AE52" s="12"/>
     </row>
-    <row r="53" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>47</v>
       </c>
@@ -2223,7 +2255,7 @@
       <c r="AD53" s="12"/>
       <c r="AE53" s="12"/>
     </row>
-    <row r="54" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>146</v>
       </c>
@@ -2234,7 +2266,7 @@
       <c r="AD54" s="12"/>
       <c r="AE54" s="12"/>
     </row>
-    <row r="55" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>48</v>
       </c>
@@ -2245,7 +2277,7 @@
       <c r="AD55" s="12"/>
       <c r="AE55" s="12"/>
     </row>
-    <row r="56" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>49</v>
       </c>
@@ -2256,7 +2288,7 @@
       <c r="AD56" s="12"/>
       <c r="AE56" s="12"/>
     </row>
-    <row r="57" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>50</v>
       </c>
@@ -2267,7 +2299,7 @@
       <c r="AD57" s="12"/>
       <c r="AE57" s="12"/>
     </row>
-    <row r="58" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>51</v>
       </c>
@@ -2278,7 +2310,7 @@
       <c r="AD58" s="12"/>
       <c r="AE58" s="12"/>
     </row>
-    <row r="59" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>52</v>
       </c>
@@ -2289,7 +2321,7 @@
       <c r="AD59" s="12"/>
       <c r="AE59" s="12"/>
     </row>
-    <row r="60" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>53</v>
       </c>
@@ -2300,7 +2332,7 @@
       <c r="AD60" s="12"/>
       <c r="AE60" s="12"/>
     </row>
-    <row r="61" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>54</v>
       </c>
@@ -2311,7 +2343,7 @@
       <c r="AD61" s="12"/>
       <c r="AE61" s="12"/>
     </row>
-    <row r="62" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>55</v>
       </c>
@@ -2322,7 +2354,7 @@
       <c r="AD62" s="12"/>
       <c r="AE62" s="12"/>
     </row>
-    <row r="63" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>56</v>
       </c>
@@ -2333,7 +2365,7 @@
       <c r="AD63" s="12"/>
       <c r="AE63" s="12"/>
     </row>
-    <row r="64" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>57</v>
       </c>
@@ -2344,7 +2376,7 @@
       <c r="AD64" s="12"/>
       <c r="AE64" s="12"/>
     </row>
-    <row r="65" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>147</v>
       </c>
@@ -2355,7 +2387,7 @@
       <c r="AD65" s="12"/>
       <c r="AE65" s="12"/>
     </row>
-    <row r="66" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>58</v>
       </c>
@@ -2366,7 +2398,7 @@
       <c r="AD66" s="12"/>
       <c r="AE66" s="12"/>
     </row>
-    <row r="67" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>59</v>
       </c>
@@ -2377,7 +2409,7 @@
       <c r="AD67" s="12"/>
       <c r="AE67" s="12"/>
     </row>
-    <row r="68" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>60</v>
       </c>
@@ -2388,7 +2420,7 @@
       <c r="AD68" s="12"/>
       <c r="AE68" s="12"/>
     </row>
-    <row r="69" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>61</v>
       </c>
@@ -2399,7 +2431,7 @@
       <c r="AD69" s="12"/>
       <c r="AE69" s="12"/>
     </row>
-    <row r="70" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>62</v>
       </c>
@@ -2410,7 +2442,7 @@
       <c r="AD70" s="12"/>
       <c r="AE70" s="12"/>
     </row>
-    <row r="71" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>63</v>
       </c>
@@ -2421,7 +2453,7 @@
       <c r="AD71" s="12"/>
       <c r="AE71" s="12"/>
     </row>
-    <row r="72" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>64</v>
       </c>
@@ -2432,7 +2464,7 @@
       <c r="AD72" s="12"/>
       <c r="AE72" s="12"/>
     </row>
-    <row r="73" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>65</v>
       </c>
@@ -2443,7 +2475,7 @@
       <c r="AD73" s="12"/>
       <c r="AE73" s="12"/>
     </row>
-    <row r="74" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>66</v>
       </c>
@@ -2454,7 +2486,7 @@
       <c r="AD74" s="12"/>
       <c r="AE74" s="12"/>
     </row>
-    <row r="75" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>67</v>
       </c>
@@ -2465,7 +2497,7 @@
       <c r="AD75" s="12"/>
       <c r="AE75" s="12"/>
     </row>
-    <row r="76" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>68</v>
       </c>
@@ -2476,7 +2508,7 @@
       <c r="AD76" s="12"/>
       <c r="AE76" s="12"/>
     </row>
-    <row r="77" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>69</v>
       </c>
@@ -2487,7 +2519,7 @@
       <c r="AD77" s="12"/>
       <c r="AE77" s="12"/>
     </row>
-    <row r="78" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>70</v>
       </c>
@@ -2498,7 +2530,7 @@
       <c r="AD78" s="12"/>
       <c r="AE78" s="12"/>
     </row>
-    <row r="79" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>72</v>
       </c>
@@ -2509,7 +2541,7 @@
       <c r="AD79" s="12"/>
       <c r="AE79" s="12"/>
     </row>
-    <row r="80" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>71</v>
       </c>
@@ -2520,7 +2552,7 @@
       <c r="AD80" s="12"/>
       <c r="AE80" s="12"/>
     </row>
-    <row r="81" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>73</v>
       </c>
@@ -2531,7 +2563,7 @@
       <c r="AD81" s="12"/>
       <c r="AE81" s="12"/>
     </row>
-    <row r="82" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>74</v>
       </c>
@@ -2542,7 +2574,7 @@
       <c r="AD82" s="12"/>
       <c r="AE82" s="12"/>
     </row>
-    <row r="83" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>75</v>
       </c>
@@ -2553,7 +2585,7 @@
       <c r="AD83" s="12"/>
       <c r="AE83" s="12"/>
     </row>
-    <row r="84" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>76</v>
       </c>
@@ -2564,7 +2596,7 @@
       <c r="AD84" s="12"/>
       <c r="AE84" s="12"/>
     </row>
-    <row r="85" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>77</v>
       </c>
@@ -2575,7 +2607,7 @@
       <c r="AD85" s="12"/>
       <c r="AE85" s="12"/>
     </row>
-    <row r="86" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>78</v>
       </c>
@@ -2586,7 +2618,7 @@
       <c r="AD86" s="12"/>
       <c r="AE86" s="12"/>
     </row>
-    <row r="87" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>79</v>
       </c>
@@ -2597,7 +2629,7 @@
       <c r="AD87" s="12"/>
       <c r="AE87" s="12"/>
     </row>
-    <row r="88" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>80</v>
       </c>
@@ -2608,7 +2640,7 @@
       <c r="AD88" s="12"/>
       <c r="AE88" s="12"/>
     </row>
-    <row r="89" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>81</v>
       </c>
@@ -2619,7 +2651,7 @@
       <c r="AD89" s="12"/>
       <c r="AE89" s="12"/>
     </row>
-    <row r="90" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>82</v>
       </c>
@@ -2630,7 +2662,7 @@
       <c r="AD90" s="12"/>
       <c r="AE90" s="12"/>
     </row>
-    <row r="91" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>83</v>
       </c>
@@ -2641,7 +2673,7 @@
       <c r="AD91" s="12"/>
       <c r="AE91" s="12"/>
     </row>
-    <row r="92" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>84</v>
       </c>
@@ -2652,7 +2684,7 @@
       <c r="AD92" s="12"/>
       <c r="AE92" s="12"/>
     </row>
-    <row r="93" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>85</v>
       </c>
@@ -2663,14 +2695,14 @@
       <c r="AD93" s="12"/>
       <c r="AE93" s="12"/>
     </row>
-    <row r="94" spans="1:31" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="14"/>
       <c r="AC94" s="12"/>
       <c r="AD94" s="12"/>
       <c r="AE94" s="12"/>
     </row>
-    <row r="95" spans="1:31" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
@@ -2679,14 +2711,14 @@
       <c r="AD95" s="12"/>
       <c r="AE95" s="12"/>
     </row>
-    <row r="96" spans="1:31" s="31" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:31" s="31" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="29"/>
       <c r="B96" s="30"/>
       <c r="AC96" s="32"/>
       <c r="AD96" s="32"/>
       <c r="AE96" s="32"/>
     </row>
-    <row r="97" spans="1:31" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>179</v>
       </c>
@@ -2695,7 +2727,7 @@
       <c r="AD97" s="12"/>
       <c r="AE97" s="12"/>
     </row>
-    <row r="98" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>86</v>
       </c>
@@ -2706,7 +2738,7 @@
       <c r="AD98" s="12"/>
       <c r="AE98" s="12"/>
     </row>
-    <row r="99" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>87</v>
       </c>
@@ -2717,7 +2749,7 @@
       <c r="AD99" s="12"/>
       <c r="AE99" s="12"/>
     </row>
-    <row r="100" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>88</v>
       </c>
@@ -2728,7 +2760,7 @@
       <c r="AD100" s="12"/>
       <c r="AE100" s="12"/>
     </row>
-    <row r="101" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>89</v>
       </c>
@@ -2739,7 +2771,7 @@
       <c r="AD101" s="12"/>
       <c r="AE101" s="12"/>
     </row>
-    <row r="102" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>90</v>
       </c>
@@ -2750,7 +2782,7 @@
       <c r="AD102" s="12"/>
       <c r="AE102" s="12"/>
     </row>
-    <row r="103" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>91</v>
       </c>
@@ -2761,7 +2793,7 @@
       <c r="AD103" s="12"/>
       <c r="AE103" s="12"/>
     </row>
-    <row r="104" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>92</v>
       </c>
@@ -2772,7 +2804,7 @@
       <c r="AD104" s="12"/>
       <c r="AE104" s="12"/>
     </row>
-    <row r="105" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>93</v>
       </c>
@@ -2783,7 +2815,7 @@
       <c r="AD105" s="12"/>
       <c r="AE105" s="12"/>
     </row>
-    <row r="106" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>94</v>
       </c>
@@ -2794,7 +2826,7 @@
       <c r="AD106" s="12"/>
       <c r="AE106" s="12"/>
     </row>
-    <row r="107" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>148</v>
       </c>
@@ -2805,7 +2837,7 @@
       <c r="AD107" s="12"/>
       <c r="AE107" s="12"/>
     </row>
-    <row r="108" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>95</v>
       </c>
@@ -2816,7 +2848,7 @@
       <c r="AD108" s="12"/>
       <c r="AE108" s="12"/>
     </row>
-    <row r="109" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>96</v>
       </c>
@@ -2827,14 +2859,14 @@
       <c r="AD109" s="12"/>
       <c r="AE109" s="12"/>
     </row>
-    <row r="110" spans="1:31" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="14"/>
       <c r="AC110" s="12"/>
       <c r="AD110" s="12"/>
       <c r="AE110" s="12"/>
     </row>
-    <row r="111" spans="1:31" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>180</v>
       </c>
@@ -2843,7 +2875,7 @@
       <c r="AD111" s="12"/>
       <c r="AE111" s="12"/>
     </row>
-    <row r="112" spans="1:31" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:31" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="25">
         <v>20000</v>
@@ -2865,14 +2897,14 @@
       <c r="AD112" s="12"/>
       <c r="AE112" s="12"/>
     </row>
-    <row r="113" spans="1:31" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="14"/>
       <c r="AC113" s="12"/>
       <c r="AD113" s="12"/>
       <c r="AE113" s="12"/>
     </row>
-    <row r="114" spans="1:31" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>141</v>
       </c>
@@ -2881,7 +2913,7 @@
       <c r="AD114" s="12"/>
       <c r="AE114" s="12"/>
     </row>
-    <row r="115" spans="1:31" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="14">
         <v>1</v>
@@ -2890,7 +2922,7 @@
       <c r="AD115" s="12"/>
       <c r="AE115" s="12"/>
     </row>
-    <row r="116" spans="1:31" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
         <v>181</v>
       </c>
@@ -2899,7 +2931,7 @@
       <c r="AD116" s="12"/>
       <c r="AE116" s="12"/>
     </row>
-    <row r="117" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>1</v>
       </c>
@@ -2910,7 +2942,7 @@
       <c r="AD117" s="12"/>
       <c r="AE117" s="12"/>
     </row>
-    <row r="118" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>2</v>
       </c>
@@ -2921,7 +2953,7 @@
       <c r="AD118" s="12"/>
       <c r="AE118" s="12"/>
     </row>
-    <row r="119" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>3</v>
       </c>
@@ -2932,7 +2964,7 @@
       <c r="AD119" s="12"/>
       <c r="AE119" s="12"/>
     </row>
-    <row r="120" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>4</v>
       </c>
@@ -2943,7 +2975,7 @@
       <c r="AD120" s="12"/>
       <c r="AE120" s="12"/>
     </row>
-    <row r="121" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>5</v>
       </c>
@@ -2954,7 +2986,7 @@
       <c r="AD121" s="12"/>
       <c r="AE121" s="12"/>
     </row>
-    <row r="122" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>6</v>
       </c>
@@ -2965,7 +2997,7 @@
       <c r="AD122" s="12"/>
       <c r="AE122" s="12"/>
     </row>
-    <row r="123" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>7</v>
       </c>
@@ -2976,7 +3008,7 @@
       <c r="AD123" s="12"/>
       <c r="AE123" s="12"/>
     </row>
-    <row r="124" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>8</v>
       </c>
@@ -2987,7 +3019,7 @@
       <c r="AD124" s="12"/>
       <c r="AE124" s="12"/>
     </row>
-    <row r="125" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>9</v>
       </c>
@@ -2998,7 +3030,7 @@
       <c r="AD125" s="12"/>
       <c r="AE125" s="12"/>
     </row>
-    <row r="126" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>10</v>
       </c>
@@ -3009,7 +3041,7 @@
       <c r="AD126" s="12"/>
       <c r="AE126" s="12"/>
     </row>
-    <row r="127" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>11</v>
       </c>
@@ -3020,7 +3052,7 @@
       <c r="AD127" s="12"/>
       <c r="AE127" s="12"/>
     </row>
-    <row r="128" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>12</v>
       </c>
@@ -3031,7 +3063,7 @@
       <c r="AD128" s="12"/>
       <c r="AE128" s="12"/>
     </row>
-    <row r="129" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>13</v>
       </c>
@@ -3042,7 +3074,7 @@
       <c r="AD129" s="12"/>
       <c r="AE129" s="12"/>
     </row>
-    <row r="130" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>14</v>
       </c>
@@ -3053,7 +3085,7 @@
       <c r="AD130" s="12"/>
       <c r="AE130" s="12"/>
     </row>
-    <row r="131" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>15</v>
       </c>
@@ -3064,7 +3096,7 @@
       <c r="AD131" s="12"/>
       <c r="AE131" s="12"/>
     </row>
-    <row r="132" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>16</v>
       </c>
@@ -3075,7 +3107,7 @@
       <c r="AD132" s="12"/>
       <c r="AE132" s="12"/>
     </row>
-    <row r="133" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>17</v>
       </c>
@@ -3086,7 +3118,7 @@
       <c r="AD133" s="12"/>
       <c r="AE133" s="12"/>
     </row>
-    <row r="134" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>18</v>
       </c>
@@ -3097,7 +3129,7 @@
       <c r="AD134" s="12"/>
       <c r="AE134" s="12"/>
     </row>
-    <row r="135" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>19</v>
       </c>
@@ -3108,7 +3140,7 @@
       <c r="AD135" s="12"/>
       <c r="AE135" s="12"/>
     </row>
-    <row r="136" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>20</v>
       </c>
@@ -3119,7 +3151,7 @@
       <c r="AD136" s="12"/>
       <c r="AE136" s="12"/>
     </row>
-    <row r="137" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>21</v>
       </c>
@@ -3130,7 +3162,7 @@
       <c r="AD137" s="12"/>
       <c r="AE137" s="12"/>
     </row>
-    <row r="138" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>22</v>
       </c>
@@ -3141,7 +3173,7 @@
       <c r="AD138" s="12"/>
       <c r="AE138" s="12"/>
     </row>
-    <row r="139" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
         <v>23</v>
       </c>
@@ -3152,7 +3184,7 @@
       <c r="AD139" s="12"/>
       <c r="AE139" s="12"/>
     </row>
-    <row r="140" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>24</v>
       </c>
@@ -3163,7 +3195,7 @@
       <c r="AD140" s="12"/>
       <c r="AE140" s="12"/>
     </row>
-    <row r="141" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>25</v>
       </c>
@@ -3174,7 +3206,7 @@
       <c r="AD141" s="12"/>
       <c r="AE141" s="12"/>
     </row>
-    <row r="142" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>26</v>
       </c>
@@ -3185,7 +3217,7 @@
       <c r="AD142" s="12"/>
       <c r="AE142" s="12"/>
     </row>
-    <row r="143" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>27</v>
       </c>
@@ -3196,7 +3228,7 @@
       <c r="AD143" s="12"/>
       <c r="AE143" s="12"/>
     </row>
-    <row r="144" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>28</v>
       </c>
@@ -3207,7 +3239,7 @@
       <c r="AD144" s="12"/>
       <c r="AE144" s="12"/>
     </row>
-    <row r="145" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>29</v>
       </c>
@@ -3218,7 +3250,7 @@
       <c r="AD145" s="12"/>
       <c r="AE145" s="12"/>
     </row>
-    <row r="146" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>30</v>
       </c>
@@ -3229,7 +3261,7 @@
       <c r="AD146" s="12"/>
       <c r="AE146" s="12"/>
     </row>
-    <row r="147" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>110</v>
       </c>
@@ -3240,14 +3272,14 @@
       <c r="AD147" s="12"/>
       <c r="AE147" s="12"/>
     </row>
-    <row r="148" spans="1:31" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="14"/>
       <c r="AC148" s="12"/>
       <c r="AD148" s="12"/>
       <c r="AE148" s="12"/>
     </row>
-    <row r="149" spans="1:31" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:31" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A149" s="8" t="s">
         <v>182</v>
       </c>
@@ -3256,7 +3288,7 @@
       <c r="AD149" s="12"/>
       <c r="AE149" s="12"/>
     </row>
-    <row r="150" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>108</v>
       </c>
@@ -3267,7 +3299,7 @@
       <c r="AD150" s="12"/>
       <c r="AE150" s="12"/>
     </row>
-    <row r="151" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>109</v>
       </c>
@@ -3278,14 +3310,14 @@
       <c r="AD151" s="12"/>
       <c r="AE151" s="12"/>
     </row>
-    <row r="152" spans="1:31" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="14"/>
       <c r="AC152" s="12"/>
       <c r="AD152" s="12"/>
       <c r="AE152" s="12"/>
     </row>
-    <row r="153" spans="1:31" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="8" t="s">
         <v>183</v>
       </c>
@@ -3294,7 +3326,7 @@
       <c r="AD153" s="12"/>
       <c r="AE153" s="12"/>
     </row>
-    <row r="154" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="5">
         <v>1</v>
       </c>
@@ -3305,7 +3337,7 @@
       <c r="AD154" s="12"/>
       <c r="AE154" s="12"/>
     </row>
-    <row r="155" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5">
         <v>2</v>
       </c>
@@ -3316,7 +3348,7 @@
       <c r="AD155" s="12"/>
       <c r="AE155" s="12"/>
     </row>
-    <row r="156" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="5">
         <v>3</v>
       </c>
@@ -3327,7 +3359,7 @@
       <c r="AD156" s="12"/>
       <c r="AE156" s="12"/>
     </row>
-    <row r="157" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
         <v>113</v>
       </c>
@@ -3338,14 +3370,14 @@
       <c r="AD157" s="12"/>
       <c r="AE157" s="12"/>
     </row>
-    <row r="158" spans="1:31" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9"/>
       <c r="B158" s="14"/>
       <c r="AC158" s="12"/>
       <c r="AD158" s="12"/>
       <c r="AE158" s="12"/>
     </row>
-    <row r="159" spans="1:31" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="8" t="s">
         <v>184</v>
       </c>
@@ -3354,7 +3386,7 @@
       <c r="AD159" s="12"/>
       <c r="AE159" s="12"/>
     </row>
-    <row r="160" spans="1:31" s="15" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:31" s="15" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>125</v>
       </c>
@@ -3365,7 +3397,7 @@
       <c r="AD160" s="12"/>
       <c r="AE160" s="12"/>
     </row>
-    <row r="161" spans="1:31" s="15" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:31" s="15" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>126</v>
       </c>
@@ -3376,7 +3408,7 @@
       <c r="AD161" s="12"/>
       <c r="AE161" s="12"/>
     </row>
-    <row r="162" spans="1:31" s="15" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:31" s="15" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>127</v>
       </c>
@@ -3387,7 +3419,7 @@
       <c r="AD162" s="12"/>
       <c r="AE162" s="12"/>
     </row>
-    <row r="163" spans="1:31" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:31" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>128</v>
       </c>
@@ -3398,7 +3430,7 @@
       <c r="AD163" s="12"/>
       <c r="AE163" s="12"/>
     </row>
-    <row r="164" spans="1:31" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:31" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>129</v>
       </c>
@@ -3409,7 +3441,7 @@
       <c r="AD164" s="12"/>
       <c r="AE164" s="12"/>
     </row>
-    <row r="165" spans="1:31" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:31" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>130</v>
       </c>
@@ -3420,7 +3452,7 @@
       <c r="AD165" s="12"/>
       <c r="AE165" s="12"/>
     </row>
-    <row r="166" spans="1:31" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:31" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>131</v>
       </c>
@@ -3431,7 +3463,7 @@
       <c r="AD166" s="12"/>
       <c r="AE166" s="12"/>
     </row>
-    <row r="167" spans="1:31" s="15" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:31" s="15" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>132</v>
       </c>
@@ -3442,7 +3474,7 @@
       <c r="AD167" s="12"/>
       <c r="AE167" s="12"/>
     </row>
-    <row r="168" spans="1:31" s="15" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:31" s="15" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>133</v>
       </c>
@@ -3453,7 +3485,7 @@
       <c r="AD168" s="12"/>
       <c r="AE168" s="12"/>
     </row>
-    <row r="169" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>134</v>
       </c>
@@ -3464,14 +3496,14 @@
       <c r="AD169" s="12"/>
       <c r="AE169" s="12"/>
     </row>
-    <row r="170" spans="1:31" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="14"/>
       <c r="AC170" s="12"/>
       <c r="AD170" s="12"/>
       <c r="AE170" s="12"/>
     </row>
-    <row r="171" spans="1:31" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="8" t="s">
         <v>185</v>
       </c>
@@ -3480,7 +3512,7 @@
       <c r="AD171" s="12"/>
       <c r="AE171" s="12"/>
     </row>
-    <row r="172" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>114</v>
       </c>
@@ -3489,7 +3521,7 @@
       <c r="AD172" s="12"/>
       <c r="AE172" s="12"/>
     </row>
-    <row r="173" spans="1:31" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:31" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>115</v>
       </c>
@@ -3500,7 +3532,7 @@
       <c r="AD173" s="12"/>
       <c r="AE173" s="12"/>
     </row>
-    <row r="174" spans="1:31" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:31" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>124</v>
       </c>
@@ -3523,7 +3555,7 @@
       <c r="AD174" s="12"/>
       <c r="AE174" s="12"/>
     </row>
-    <row r="175" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>116</v>
       </c>
@@ -3553,7 +3585,7 @@
       <c r="AD175" s="12"/>
       <c r="AE175" s="12"/>
     </row>
-    <row r="176" spans="1:31" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:31" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>117</v>
       </c>
@@ -3583,7 +3615,7 @@
       <c r="AD176" s="12"/>
       <c r="AE176" s="12"/>
     </row>
-    <row r="177" spans="1:31" s="15" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:31" s="15" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>118</v>
       </c>
@@ -3613,7 +3645,7 @@
       <c r="AD177" s="12"/>
       <c r="AE177" s="12"/>
     </row>
-    <row r="178" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>119</v>
       </c>
@@ -3643,7 +3675,7 @@
       <c r="AD178" s="12"/>
       <c r="AE178" s="12"/>
     </row>
-    <row r="179" spans="1:31" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:31" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>120</v>
       </c>
@@ -3673,7 +3705,7 @@
       <c r="AD179" s="12"/>
       <c r="AE179" s="12"/>
     </row>
-    <row r="180" spans="1:31" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:31" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>121</v>
       </c>
@@ -3703,7 +3735,7 @@
       <c r="AD180" s="12"/>
       <c r="AE180" s="12"/>
     </row>
-    <row r="181" spans="1:31" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:31" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>122</v>
       </c>
@@ -3733,7 +3765,7 @@
       <c r="AD181" s="12"/>
       <c r="AE181" s="12"/>
     </row>
-    <row r="182" spans="1:31" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:31" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>123</v>
       </c>
@@ -3763,14 +3795,14 @@
       <c r="AD182" s="12"/>
       <c r="AE182" s="12"/>
     </row>
-    <row r="183" spans="1:31" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:31" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="14"/>
       <c r="AC183" s="12"/>
       <c r="AD183" s="12"/>
       <c r="AE183" s="12"/>
     </row>
-    <row r="184" spans="1:31" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>186</v>
       </c>
@@ -3779,7 +3811,7 @@
       <c r="AD184" s="12"/>
       <c r="AE184" s="12"/>
     </row>
-    <row r="185" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="5">
         <v>1</v>
       </c>
@@ -3790,7 +3822,7 @@
       <c r="AD185" s="12"/>
       <c r="AE185" s="12"/>
     </row>
-    <row r="186" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="5">
         <v>2</v>
       </c>
@@ -3801,7 +3833,7 @@
       <c r="AD186" s="12"/>
       <c r="AE186" s="12"/>
     </row>
-    <row r="187" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="5">
         <v>3</v>
       </c>
@@ -3812,7 +3844,7 @@
       <c r="AD187" s="12"/>
       <c r="AE187" s="12"/>
     </row>
-    <row r="188" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="5">
         <v>4</v>
       </c>
@@ -3823,7 +3855,7 @@
       <c r="AD188" s="12"/>
       <c r="AE188" s="12"/>
     </row>
-    <row r="189" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5">
         <v>5</v>
       </c>
@@ -3834,7 +3866,7 @@
       <c r="AD189" s="12"/>
       <c r="AE189" s="12"/>
     </row>
-    <row r="190" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="5">
         <v>6</v>
       </c>
@@ -3845,7 +3877,7 @@
       <c r="AD190" s="12"/>
       <c r="AE190" s="12"/>
     </row>
-    <row r="191" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="5">
         <v>7</v>
       </c>
@@ -3856,7 +3888,7 @@
       <c r="AD191" s="12"/>
       <c r="AE191" s="12"/>
     </row>
-    <row r="192" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="5">
         <v>8</v>
       </c>
@@ -3867,7 +3899,7 @@
       <c r="AD192" s="12"/>
       <c r="AE192" s="12"/>
     </row>
-    <row r="193" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="5">
         <v>9</v>
       </c>
@@ -3878,7 +3910,7 @@
       <c r="AD193" s="12"/>
       <c r="AE193" s="12"/>
     </row>
-    <row r="194" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="5">
         <v>10</v>
       </c>
@@ -3889,7 +3921,7 @@
       <c r="AD194" s="12"/>
       <c r="AE194" s="12"/>
     </row>
-    <row r="195" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5">
         <v>11</v>
       </c>
@@ -3900,7 +3932,7 @@
       <c r="AD195" s="12"/>
       <c r="AE195" s="12"/>
     </row>
-    <row r="196" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5">
         <v>12</v>
       </c>
@@ -3911,7 +3943,7 @@
       <c r="AD196" s="12"/>
       <c r="AE196" s="12"/>
     </row>
-    <row r="197" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="5">
         <v>13</v>
       </c>
@@ -3922,7 +3954,7 @@
       <c r="AD197" s="12"/>
       <c r="AE197" s="12"/>
     </row>
-    <row r="198" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5">
         <v>14</v>
       </c>
@@ -3933,7 +3965,7 @@
       <c r="AD198" s="12"/>
       <c r="AE198" s="12"/>
     </row>
-    <row r="199" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5">
         <v>15</v>
       </c>
@@ -3944,7 +3976,7 @@
       <c r="AD199" s="12"/>
       <c r="AE199" s="12"/>
     </row>
-    <row r="200" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5">
         <v>16</v>
       </c>
@@ -3955,7 +3987,7 @@
       <c r="AD200" s="12"/>
       <c r="AE200" s="12"/>
     </row>
-    <row r="201" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="5">
         <v>17</v>
       </c>
@@ -3966,7 +3998,7 @@
       <c r="AD201" s="12"/>
       <c r="AE201" s="12"/>
     </row>
-    <row r="202" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="5">
         <v>18</v>
       </c>
@@ -3977,7 +4009,7 @@
       <c r="AD202" s="12"/>
       <c r="AE202" s="12"/>
     </row>
-    <row r="203" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="5">
         <v>19</v>
       </c>
@@ -3988,7 +4020,7 @@
       <c r="AD203" s="12"/>
       <c r="AE203" s="12"/>
     </row>
-    <row r="204" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="5">
         <v>20</v>
       </c>
@@ -3999,7 +4031,7 @@
       <c r="AD204" s="12"/>
       <c r="AE204" s="12"/>
     </row>
-    <row r="205" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="5">
         <v>21</v>
       </c>
@@ -4010,7 +4042,7 @@
       <c r="AD205" s="12"/>
       <c r="AE205" s="12"/>
     </row>
-    <row r="206" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="5">
         <v>22</v>
       </c>
@@ -4021,7 +4053,7 @@
       <c r="AD206" s="12"/>
       <c r="AE206" s="12"/>
     </row>
-    <row r="207" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="5">
         <v>23</v>
       </c>
@@ -4032,7 +4064,7 @@
       <c r="AD207" s="12"/>
       <c r="AE207" s="12"/>
     </row>
-    <row r="208" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="5">
         <v>24</v>
       </c>
@@ -4043,7 +4075,7 @@
       <c r="AD208" s="12"/>
       <c r="AE208" s="12"/>
     </row>
-    <row r="209" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
         <v>111</v>
       </c>
@@ -4054,14 +4086,14 @@
       <c r="AD209" s="12"/>
       <c r="AE209" s="12"/>
     </row>
-    <row r="210" spans="1:31" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="5"/>
       <c r="B210" s="14"/>
       <c r="AC210" s="12"/>
       <c r="AD210" s="12"/>
       <c r="AE210" s="12"/>
     </row>
-    <row r="211" spans="1:31" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="35" t="s">
         <v>1</v>
       </c>
@@ -4070,7 +4102,7 @@
       <c r="AD211" s="12"/>
       <c r="AE211" s="12"/>
     </row>
-    <row r="212" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="33" t="s">
         <v>97</v>
       </c>
@@ -4079,7 +4111,7 @@
       <c r="AD212" s="12"/>
       <c r="AE212" s="12"/>
     </row>
-    <row r="213" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="33" t="s">
         <v>174</v>
       </c>
@@ -4088,7 +4120,7 @@
       <c r="AD213" s="12"/>
       <c r="AE213" s="12"/>
     </row>
-    <row r="214" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="33" t="s">
         <v>175</v>
       </c>
@@ -4097,14 +4129,14 @@
       <c r="AD214" s="12"/>
       <c r="AE214" s="12"/>
     </row>
-    <row r="215" spans="1:31" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="9"/>
       <c r="B215" s="14"/>
       <c r="AC215" s="12"/>
       <c r="AD215" s="12"/>
       <c r="AE215" s="12"/>
     </row>
-    <row r="216" spans="1:31" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>187</v>
       </c>
@@ -4113,7 +4145,7 @@
       <c r="AD216" s="12"/>
       <c r="AE216" s="12"/>
     </row>
-    <row r="217" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
         <v>100</v>
       </c>
@@ -4124,7 +4156,7 @@
       <c r="AD217" s="12"/>
       <c r="AE217" s="12"/>
     </row>
-    <row r="218" spans="1:31" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:31" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
         <v>101</v>
       </c>
@@ -4135,7 +4167,7 @@
       <c r="AD218" s="12"/>
       <c r="AE218" s="12"/>
     </row>
-    <row r="219" spans="1:31" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:31" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
         <v>102</v>
       </c>
@@ -4146,7 +4178,7 @@
       <c r="AD219" s="12"/>
       <c r="AE219" s="12"/>
     </row>
-    <row r="220" spans="1:31" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:31" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
         <v>103</v>
       </c>
@@ -4157,7 +4189,7 @@
       <c r="AD220" s="12"/>
       <c r="AE220" s="12"/>
     </row>
-    <row r="221" spans="1:31" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:31" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
         <v>104</v>
       </c>
@@ -4168,7 +4200,7 @@
       <c r="AD221" s="12"/>
       <c r="AE221" s="12"/>
     </row>
-    <row r="222" spans="1:31" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:31" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
         <v>105</v>
       </c>
@@ -4179,7 +4211,7 @@
       <c r="AD222" s="12"/>
       <c r="AE222" s="12"/>
     </row>
-    <row r="223" spans="1:31" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:31" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
         <v>106</v>
       </c>
@@ -4190,7 +4222,7 @@
       <c r="AD223" s="12"/>
       <c r="AE223" s="12"/>
     </row>
-    <row r="224" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>107</v>
       </c>
@@ -4201,14 +4233,14 @@
       <c r="AD224" s="12"/>
       <c r="AE224" s="12"/>
     </row>
-    <row r="225" spans="1:31" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="14"/>
       <c r="AC225" s="12"/>
       <c r="AD225" s="12"/>
       <c r="AE225" s="12"/>
     </row>
-    <row r="226" spans="1:31" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:31" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="s">
         <v>3</v>
       </c>
@@ -4217,7 +4249,7 @@
       <c r="AD226" s="12"/>
       <c r="AE226" s="12"/>
     </row>
-    <row r="227" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="10" t="s">
         <v>135</v>
       </c>
@@ -4226,7 +4258,7 @@
       <c r="AD227" s="12"/>
       <c r="AE227" s="12"/>
     </row>
-    <row r="228" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="10" t="s">
         <v>144</v>
       </c>
@@ -4237,14 +4269,14 @@
       <c r="AD228" s="12"/>
       <c r="AE228" s="12"/>
     </row>
-    <row r="229" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="10"/>
       <c r="B229" s="17"/>
       <c r="AC229" s="12"/>
       <c r="AD229" s="12"/>
       <c r="AE229" s="12"/>
     </row>
-    <row r="230" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="10" t="s">
         <v>136</v>
       </c>
@@ -4253,7 +4285,7 @@
       <c r="AD230" s="12"/>
       <c r="AE230" s="12"/>
     </row>
-    <row r="231" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="10" t="s">
         <v>144</v>
       </c>
@@ -4264,14 +4296,14 @@
       <c r="AD231" s="12"/>
       <c r="AE231" s="12"/>
     </row>
-    <row r="232" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A232" s="10"/>
       <c r="B232" s="17"/>
       <c r="AC232" s="12"/>
       <c r="AD232" s="12"/>
       <c r="AE232" s="12"/>
     </row>
-    <row r="233" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A233" s="10" t="s">
         <v>137</v>
       </c>
@@ -4280,7 +4312,7 @@
       <c r="AD233" s="12"/>
       <c r="AE233" s="12"/>
     </row>
-    <row r="234" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="10" t="s">
         <v>144</v>
       </c>
@@ -4291,14 +4323,14 @@
       <c r="AD234" s="12"/>
       <c r="AE234" s="12"/>
     </row>
-    <row r="235" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="10"/>
       <c r="B235" s="17"/>
       <c r="AC235" s="12"/>
       <c r="AD235" s="12"/>
       <c r="AE235" s="12"/>
     </row>
-    <row r="236" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="10" t="s">
         <v>138</v>
       </c>
@@ -4307,7 +4339,7 @@
       <c r="AD236" s="12"/>
       <c r="AE236" s="12"/>
     </row>
-    <row r="237" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" s="10" t="s">
         <v>144</v>
       </c>
@@ -4318,14 +4350,14 @@
       <c r="AD237" s="12"/>
       <c r="AE237" s="12"/>
     </row>
-    <row r="238" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="10"/>
       <c r="B238" s="17"/>
       <c r="AC238" s="12"/>
       <c r="AD238" s="12"/>
       <c r="AE238" s="12"/>
     </row>
-    <row r="239" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" s="10" t="s">
         <v>139</v>
       </c>
@@ -4334,7 +4366,7 @@
       <c r="AD239" s="12"/>
       <c r="AE239" s="12"/>
     </row>
-    <row r="240" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A240" s="10" t="s">
         <v>144</v>
       </c>
@@ -4345,14 +4377,14 @@
       <c r="AD240" s="12"/>
       <c r="AE240" s="12"/>
     </row>
-    <row r="241" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" s="10"/>
       <c r="B241" s="17"/>
       <c r="AC241" s="12"/>
       <c r="AD241" s="12"/>
       <c r="AE241" s="12"/>
     </row>
-    <row r="242" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A242" s="10" t="s">
         <v>140</v>
       </c>
@@ -4361,7 +4393,7 @@
       <c r="AD242" s="12"/>
       <c r="AE242" s="12"/>
     </row>
-    <row r="243" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" s="10" t="s">
         <v>144</v>
       </c>
@@ -4372,14 +4404,14 @@
       <c r="AD243" s="12"/>
       <c r="AE243" s="12"/>
     </row>
-    <row r="244" spans="1:31" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A244" s="11"/>
       <c r="B244" s="17"/>
       <c r="AC244" s="12"/>
       <c r="AD244" s="12"/>
       <c r="AE244" s="12"/>
     </row>
-    <row r="246" spans="1:31" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:31" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A246" s="13"/>
       <c r="C246" s="19"/>
       <c r="D246" s="19">
@@ -4399,7 +4431,7 @@
       <c r="AD246" s="12"/>
       <c r="AE246" s="12"/>
     </row>
-    <row r="247" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247"/>
       <c r="C247" s="19"/>
       <c r="D247" s="19"/>
@@ -4409,7 +4441,7 @@
       <c r="AD247" s="12"/>
       <c r="AE247" s="12"/>
     </row>
-    <row r="248" spans="1:31" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:31" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A248" s="13"/>
       <c r="C248" s="19"/>
       <c r="D248" s="19"/>
@@ -4419,12 +4451,12 @@
       <c r="AD248" s="12"/>
       <c r="AE248" s="12"/>
     </row>
-    <row r="251" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:31" ht="21" x14ac:dyDescent="0.25">
       <c r="A251" s="28" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="252" spans="1:31" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:31" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A252" s="20" t="s">
         <v>172</v>
       </c>
@@ -4435,7 +4467,7 @@
       <c r="AD252" s="12"/>
       <c r="AE252" s="12"/>
     </row>
-    <row r="253" spans="1:31" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:31" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A253" s="20" t="s">
         <v>169</v>
       </c>
@@ -4446,7 +4478,7 @@
       <c r="AD253" s="12"/>
       <c r="AE253" s="12"/>
     </row>
-    <row r="257" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A257" s="28"/>
     </row>
   </sheetData>
@@ -4475,48 +4507,48 @@
       <selection activeCell="B216" sqref="B216"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="15" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="15" customWidth="1"/>
-    <col min="11" max="28" width="9.140625" style="15"/>
-    <col min="29" max="31" width="9.140625" style="12"/>
+    <col min="1" max="1" width="53.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="15" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="15" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="15" customWidth="1"/>
+    <col min="11" max="28" width="8.83203125" style="15"/>
+    <col min="29" max="31" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="14"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" s="14"/>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B4" s="14"/>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B6" s="14"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -4524,7 +4556,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -4532,7 +4564,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -4540,7 +4572,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -4548,7 +4580,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>6</v>
       </c>
@@ -4556,7 +4588,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>7</v>
       </c>
@@ -4564,7 +4596,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -4572,7 +4604,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>9</v>
       </c>
@@ -4580,7 +4612,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>10</v>
       </c>
@@ -4588,7 +4620,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>11</v>
       </c>
@@ -4596,7 +4628,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>12</v>
       </c>
@@ -4604,7 +4636,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>13</v>
       </c>
@@ -4612,7 +4644,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>14</v>
       </c>
@@ -4620,7 +4652,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>15</v>
       </c>
@@ -4628,7 +4660,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>16</v>
       </c>
@@ -4636,7 +4668,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>17</v>
       </c>
@@ -4644,7 +4676,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>18</v>
       </c>
@@ -4652,7 +4684,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>19</v>
       </c>
@@ -4660,7 +4692,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>20</v>
       </c>
@@ -4668,7 +4700,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>21</v>
       </c>
@@ -4676,7 +4708,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>22</v>
       </c>
@@ -4684,7 +4716,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>23</v>
       </c>
@@ -4692,7 +4724,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>24</v>
       </c>
@@ -4700,7 +4732,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>25</v>
       </c>
@@ -4708,7 +4740,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>26</v>
       </c>
@@ -4716,7 +4748,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>27</v>
       </c>
@@ -4724,7 +4756,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>28</v>
       </c>
@@ -4732,7 +4764,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>29</v>
       </c>
@@ -4740,7 +4772,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>30</v>
       </c>
@@ -4748,7 +4780,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>31</v>
       </c>
@@ -4756,7 +4788,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>32</v>
       </c>
@@ -4764,7 +4796,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>33</v>
       </c>
@@ -4772,7 +4804,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>34</v>
       </c>
@@ -4780,7 +4812,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>35</v>
       </c>
@@ -4788,7 +4820,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>36</v>
       </c>
@@ -4796,7 +4828,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>37</v>
       </c>
@@ -4804,7 +4836,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>38</v>
       </c>
@@ -4812,7 +4844,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>39</v>
       </c>
@@ -4820,7 +4852,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>40</v>
       </c>
@@ -4828,7 +4860,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>41</v>
       </c>
@@ -4836,7 +4868,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>42</v>
       </c>
@@ -4844,7 +4876,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>43</v>
       </c>
@@ -4852,7 +4884,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>44</v>
       </c>
@@ -4860,7 +4892,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>45</v>
       </c>
@@ -4868,7 +4900,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>46</v>
       </c>
@@ -4876,7 +4908,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>47</v>
       </c>
@@ -4884,7 +4916,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>48</v>
       </c>
@@ -4892,7 +4924,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>49</v>
       </c>
@@ -4900,7 +4932,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>50</v>
       </c>
@@ -4908,7 +4940,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>51</v>
       </c>
@@ -4916,7 +4948,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>52</v>
       </c>
@@ -4924,7 +4956,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>53</v>
       </c>
@@ -4932,7 +4964,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>54</v>
       </c>
@@ -4940,7 +4972,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>55</v>
       </c>
@@ -4948,7 +4980,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>56</v>
       </c>
@@ -4956,7 +4988,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>57</v>
       </c>
@@ -4964,7 +4996,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>58</v>
       </c>
@@ -4972,7 +5004,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>59</v>
       </c>
@@ -4980,7 +5012,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>60</v>
       </c>
@@ -4988,7 +5020,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>61</v>
       </c>
@@ -4996,7 +5028,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>62</v>
       </c>
@@ -5004,7 +5036,7 @@
         <v>1.905</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>63</v>
       </c>
@@ -5012,7 +5044,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>64</v>
       </c>
@@ -5020,7 +5052,7 @@
         <v>1.915</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>65</v>
       </c>
@@ -5028,7 +5060,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>66</v>
       </c>
@@ -5036,7 +5068,7 @@
         <v>1.925</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>67</v>
       </c>
@@ -5044,7 +5076,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>68</v>
       </c>
@@ -5052,7 +5084,7 @@
         <v>1.9350000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>69</v>
       </c>
@@ -5060,7 +5092,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>70</v>
       </c>
@@ -5068,7 +5100,7 @@
         <v>1.9450000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>71</v>
       </c>
@@ -5076,7 +5108,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>72</v>
       </c>
@@ -5084,7 +5116,7 @@
         <v>1.9550000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>73</v>
       </c>
@@ -5092,7 +5124,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>74</v>
       </c>
@@ -5100,7 +5132,7 @@
         <v>1.9650000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>75</v>
       </c>
@@ -5108,7 +5140,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>76</v>
       </c>
@@ -5116,7 +5148,7 @@
         <v>1.9750000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>77</v>
       </c>
@@ -5124,7 +5156,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>78</v>
       </c>
@@ -5132,7 +5164,7 @@
         <v>1.9850000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>79</v>
       </c>
@@ -5140,7 +5172,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>80</v>
       </c>
@@ -5148,7 +5180,7 @@
         <v>1.9950000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>81</v>
       </c>
@@ -5156,7 +5188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>82</v>
       </c>
@@ -5164,7 +5196,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>83</v>
       </c>
@@ -5172,7 +5204,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>84</v>
       </c>
@@ -5180,7 +5212,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>85</v>
       </c>
@@ -5188,7 +5220,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>86</v>
       </c>
@@ -5196,7 +5228,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>87</v>
       </c>
@@ -5204,7 +5236,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>88</v>
       </c>
@@ -5212,7 +5244,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>89</v>
       </c>
@@ -5220,7 +5252,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>90</v>
       </c>
@@ -5228,7 +5260,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>91</v>
       </c>
@@ -5236,7 +5268,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>92</v>
       </c>
@@ -5244,7 +5276,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>93</v>
       </c>
@@ -5252,7 +5284,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>94</v>
       </c>
@@ -5260,7 +5292,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>95</v>
       </c>
@@ -5268,7 +5300,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>96</v>
       </c>
@@ -5276,7 +5308,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>97</v>
       </c>
@@ -5284,7 +5316,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>98</v>
       </c>
@@ -5292,7 +5324,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>99</v>
       </c>
@@ -5300,7 +5332,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>100</v>
       </c>
@@ -5308,7 +5340,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>112</v>
       </c>
@@ -5316,17 +5348,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="14"/>
     </row>
-    <row r="108" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B108" s="14"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>4</v>
       </c>
@@ -5334,7 +5366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>5</v>
       </c>
@@ -5342,7 +5374,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>6</v>
       </c>
@@ -5350,7 +5382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>7</v>
       </c>
@@ -5358,7 +5390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>8</v>
       </c>
@@ -5366,7 +5398,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>9</v>
       </c>
@@ -5374,7 +5406,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>10</v>
       </c>
@@ -5382,7 +5414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>11</v>
       </c>
@@ -5390,7 +5422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>12</v>
       </c>
@@ -5398,7 +5430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>13</v>
       </c>
@@ -5406,7 +5438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>14</v>
       </c>
@@ -5414,7 +5446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>15</v>
       </c>
@@ -5422,7 +5454,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>16</v>
       </c>
@@ -5430,7 +5462,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>17</v>
       </c>
@@ -5438,7 +5470,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>18</v>
       </c>
@@ -5446,7 +5478,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>19</v>
       </c>
@@ -5454,7 +5486,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>20</v>
       </c>
@@ -5462,7 +5494,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>21</v>
       </c>
@@ -5470,7 +5502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>22</v>
       </c>
@@ -5478,7 +5510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>23</v>
       </c>
@@ -5486,7 +5518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>24</v>
       </c>
@@ -5494,7 +5526,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>25</v>
       </c>
@@ -5502,7 +5534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>26</v>
       </c>
@@ -5510,7 +5542,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>27</v>
       </c>
@@ -5518,7 +5550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>28</v>
       </c>
@@ -5526,7 +5558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>29</v>
       </c>
@@ -5534,7 +5566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>30</v>
       </c>
@@ -5542,7 +5574,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>31</v>
       </c>
@@ -5550,7 +5582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>32</v>
       </c>
@@ -5558,7 +5590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>33</v>
       </c>
@@ -5566,7 +5598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>34</v>
       </c>
@@ -5574,7 +5606,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>35</v>
       </c>
@@ -5582,7 +5614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>36</v>
       </c>
@@ -5590,7 +5622,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>37</v>
       </c>
@@ -5598,7 +5630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>38</v>
       </c>
@@ -5606,7 +5638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>39</v>
       </c>
@@ -5614,7 +5646,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>40</v>
       </c>
@@ -5622,7 +5654,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>41</v>
       </c>
@@ -5630,7 +5662,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>42</v>
       </c>
@@ -5638,7 +5670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>43</v>
       </c>
@@ -5646,7 +5678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>44</v>
       </c>
@@ -5654,7 +5686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>45</v>
       </c>
@@ -5662,7 +5694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>46</v>
       </c>
@@ -5670,7 +5702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>47</v>
       </c>
@@ -5678,7 +5710,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>146</v>
       </c>
@@ -5686,7 +5718,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>48</v>
       </c>
@@ -5694,7 +5726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>49</v>
       </c>
@@ -5702,7 +5734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>50</v>
       </c>
@@ -5710,7 +5742,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>51</v>
       </c>
@@ -5718,7 +5750,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>52</v>
       </c>
@@ -5726,7 +5758,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>53</v>
       </c>
@@ -5734,7 +5766,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>54</v>
       </c>
@@ -5742,7 +5774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>55</v>
       </c>
@@ -5750,7 +5782,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>56</v>
       </c>
@@ -5758,7 +5790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>57</v>
       </c>
@@ -5766,7 +5798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>147</v>
       </c>
@@ -5774,7 +5806,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>58</v>
       </c>
@@ -5782,7 +5814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>59</v>
       </c>
@@ -5790,7 +5822,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>60</v>
       </c>
@@ -5798,7 +5830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>61</v>
       </c>
@@ -5806,7 +5838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>62</v>
       </c>
@@ -5814,7 +5846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>63</v>
       </c>
@@ -5822,7 +5854,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>64</v>
       </c>
@@ -5830,7 +5862,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>65</v>
       </c>
@@ -5838,7 +5870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>66</v>
       </c>
@@ -5846,7 +5878,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>67</v>
       </c>
@@ -5854,7 +5886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>68</v>
       </c>
@@ -5862,7 +5894,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>69</v>
       </c>
@@ -5870,7 +5902,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>70</v>
       </c>
@@ -5878,7 +5910,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>72</v>
       </c>
@@ -5886,7 +5918,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>71</v>
       </c>
@@ -5894,7 +5926,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>73</v>
       </c>
@@ -5902,7 +5934,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>74</v>
       </c>
@@ -5910,7 +5942,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>75</v>
       </c>
@@ -5918,7 +5950,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>76</v>
       </c>
@@ -5926,7 +5958,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>77</v>
       </c>
@@ -5934,7 +5966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>78</v>
       </c>
@@ -5942,7 +5974,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>79</v>
       </c>
@@ -5950,7 +5982,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>80</v>
       </c>
@@ -5958,7 +5990,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>81</v>
       </c>
@@ -5966,7 +5998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>82</v>
       </c>
@@ -5974,7 +6006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>83</v>
       </c>
@@ -5982,7 +6014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
         <v>84</v>
       </c>
@@ -5990,7 +6022,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>85</v>
       </c>
@@ -5998,17 +6030,17 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="193" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="14"/>
     </row>
-    <row r="194" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B194" s="14"/>
     </row>
-    <row r="195" spans="1:31" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:31" s="34" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="29"/>
       <c r="B195" s="30"/>
       <c r="C195" s="31"/>
@@ -6041,61 +6073,61 @@
       <c r="AD195" s="32"/>
       <c r="AE195" s="32"/>
     </row>
-    <row r="196" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B196" s="14"/>
     </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A197" s="38" t="s">
         <v>150</v>
       </c>
       <c r="B197" s="24"/>
     </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A198" s="38" t="s">
         <v>151</v>
       </c>
       <c r="B198" s="24"/>
     </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A199" s="38" t="s">
         <v>152</v>
       </c>
       <c r="B199" s="24"/>
     </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A200" s="38" t="s">
         <v>153</v>
       </c>
       <c r="B200" s="24"/>
     </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A201" s="38" t="s">
         <v>154</v>
       </c>
       <c r="B201" s="24"/>
     </row>
-    <row r="202" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A202" s="38" t="s">
         <v>155</v>
       </c>
       <c r="B202" s="24"/>
     </row>
-    <row r="203" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A203" s="38" t="s">
         <v>156</v>
       </c>
       <c r="B203" s="24"/>
     </row>
-    <row r="204" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A204" s="38" t="s">
         <v>157</v>
       </c>
       <c r="B204" s="24"/>
     </row>
-    <row r="205" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A205" s="38" t="s">
         <v>158</v>
       </c>
@@ -6103,65 +6135,65 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A206" s="38" t="s">
         <v>159</v>
       </c>
       <c r="B206" s="24"/>
     </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A207" s="38" t="s">
         <v>160</v>
       </c>
       <c r="B207" s="24"/>
     </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A208" s="38" t="s">
         <v>161</v>
       </c>
       <c r="B208" s="24"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="38" t="s">
         <v>162</v>
       </c>
       <c r="B209" s="24"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="38" t="s">
         <v>163</v>
       </c>
       <c r="B210" s="24"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="38" t="s">
         <v>164</v>
       </c>
       <c r="B211" s="24"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="38" t="s">
         <v>165</v>
       </c>
       <c r="B212" s="24"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="38" t="s">
         <v>166</v>
       </c>
       <c r="B213" s="24"/>
     </row>
-    <row r="214" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="14"/>
     </row>
-    <row r="215" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="8" t="s">
         <v>189</v>
       </c>
       <c r="B215" s="14"/>
     </row>
-    <row r="216" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
       <c r="B216" s="26">
         <v>2000</v>
@@ -6172,123 +6204,123 @@
       <c r="F216" s="21"/>
       <c r="G216" s="21"/>
     </row>
-    <row r="217" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
       <c r="B217" s="14"/>
     </row>
-    <row r="218" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="8" t="s">
         <v>167</v>
       </c>
       <c r="B218" s="14"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
       <c r="B219" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="14"/>
     </row>
-    <row r="221" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="7" t="s">
         <v>181</v>
       </c>
       <c r="B221" s="14"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="36">
         <v>1</v>
       </c>
       <c r="B222" s="17"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="36">
         <v>2</v>
       </c>
       <c r="B223" s="17"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="36">
         <v>3</v>
       </c>
       <c r="B224" s="17"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="36">
         <v>4</v>
       </c>
       <c r="B225" s="17"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="36">
         <v>5</v>
       </c>
       <c r="B226" s="17"/>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="36">
         <v>6</v>
       </c>
       <c r="B227" s="17"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="36">
         <v>7</v>
       </c>
       <c r="B228" s="17"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="36">
         <v>8</v>
       </c>
       <c r="B229" s="17"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="36">
         <v>9</v>
       </c>
       <c r="B230" s="17"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="36">
         <v>10</v>
       </c>
       <c r="B231" s="17"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="36">
         <v>11</v>
       </c>
       <c r="B232" s="17"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="36">
         <v>12</v>
       </c>
       <c r="B233" s="17"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="36">
         <v>13</v>
       </c>
       <c r="B234" s="17"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="36">
         <v>14</v>
       </c>
       <c r="B235" s="17"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="36">
         <v>15</v>
       </c>
       <c r="B236" s="17"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="36">
         <v>16</v>
       </c>
@@ -6296,107 +6328,107 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="36">
         <v>17</v>
       </c>
       <c r="B238" s="17"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="36">
         <v>18</v>
       </c>
       <c r="B239" s="17"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="36">
         <v>19</v>
       </c>
       <c r="B240" s="17"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="36">
         <v>20</v>
       </c>
       <c r="B241" s="17"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="36">
         <v>21</v>
       </c>
       <c r="B242" s="17"/>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="36">
         <v>22</v>
       </c>
       <c r="B243" s="17"/>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="36">
         <v>23</v>
       </c>
       <c r="B244" s="17"/>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="36">
         <v>24</v>
       </c>
       <c r="B245" s="17"/>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="36">
         <v>25</v>
       </c>
       <c r="B246" s="17"/>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="36">
         <v>26</v>
       </c>
       <c r="B247" s="17"/>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="36">
         <v>27</v>
       </c>
       <c r="B248" s="17"/>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="36">
         <v>28</v>
       </c>
       <c r="B249" s="17"/>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="36">
         <v>29</v>
       </c>
       <c r="B250" s="17"/>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="36">
         <v>30</v>
       </c>
       <c r="B251" s="17"/>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="36" t="s">
         <v>110</v>
       </c>
       <c r="B252" s="17"/>
     </row>
-    <row r="253" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A253" s="37"/>
       <c r="B253" s="14"/>
     </row>
-    <row r="254" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A254" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B254" s="14"/>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
         <v>108</v>
       </c>
@@ -6404,7 +6436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
         <v>109</v>
       </c>
@@ -6412,29 +6444,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
       <c r="B257" s="14"/>
     </row>
-    <row r="258" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A258" s="8" t="s">
         <v>191</v>
       </c>
       <c r="B258" s="14"/>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="36">
         <v>1</v>
       </c>
       <c r="B259" s="24"/>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="36">
         <v>2</v>
       </c>
       <c r="B260" s="24"/>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="36">
         <v>3</v>
       </c>
@@ -6442,23 +6474,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="36" t="s">
         <v>113</v>
       </c>
       <c r="B262" s="24"/>
     </row>
-    <row r="263" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A263" s="5"/>
       <c r="B263" s="24"/>
     </row>
-    <row r="264" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="8" t="s">
         <v>184</v>
       </c>
       <c r="B264" s="14"/>
     </row>
-    <row r="265" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
         <v>125</v>
       </c>
@@ -6466,7 +6498,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
         <v>126</v>
       </c>
@@ -6474,7 +6506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
         <v>127</v>
       </c>
@@ -6482,7 +6514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
         <v>128</v>
       </c>
@@ -6490,7 +6522,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
         <v>129</v>
       </c>
@@ -6498,7 +6530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
         <v>130</v>
       </c>
@@ -6506,7 +6538,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
         <v>131</v>
       </c>
@@ -6514,7 +6546,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
         <v>132</v>
       </c>
@@ -6522,7 +6554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:37" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:37" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
         <v>133</v>
       </c>
@@ -6530,7 +6562,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="274" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
         <v>134</v>
       </c>
@@ -6538,23 +6570,23 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="275" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
       <c r="B275" s="14"/>
     </row>
-    <row r="276" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B276" s="14"/>
     </row>
-    <row r="277" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B277" s="14"/>
     </row>
-    <row r="278" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
         <v>115</v>
       </c>
@@ -6562,7 +6594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
         <v>124</v>
       </c>
@@ -6582,7 +6614,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="280" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
         <v>116</v>
       </c>
@@ -6618,7 +6650,7 @@
       <c r="AJ280" s="12"/>
       <c r="AK280" s="12"/>
     </row>
-    <row r="281" spans="1:37" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:37" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
         <v>117</v>
       </c>
@@ -6654,7 +6686,7 @@
       <c r="AJ281" s="12"/>
       <c r="AK281" s="12"/>
     </row>
-    <row r="282" spans="1:37" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:37" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
         <v>118</v>
       </c>
@@ -6690,7 +6722,7 @@
       <c r="AJ282" s="12"/>
       <c r="AK282" s="12"/>
     </row>
-    <row r="283" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
         <v>119</v>
       </c>
@@ -6726,7 +6758,7 @@
       <c r="AJ283" s="12"/>
       <c r="AK283" s="12"/>
     </row>
-    <row r="284" spans="1:37" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:37" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
         <v>120</v>
       </c>
@@ -6762,7 +6794,7 @@
       <c r="AJ284" s="12"/>
       <c r="AK284" s="12"/>
     </row>
-    <row r="285" spans="1:37" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:37" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
         <v>121</v>
       </c>
@@ -6798,7 +6830,7 @@
       <c r="AJ285" s="12"/>
       <c r="AK285" s="12"/>
     </row>
-    <row r="286" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
         <v>122</v>
       </c>
@@ -6834,7 +6866,7 @@
       <c r="AJ286" s="12"/>
       <c r="AK286" s="12"/>
     </row>
-    <row r="287" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="s">
         <v>123</v>
       </c>
@@ -6870,17 +6902,17 @@
       <c r="AJ287" s="12"/>
       <c r="AK287" s="12"/>
     </row>
-    <row r="288" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
       <c r="B288" s="14"/>
     </row>
-    <row r="289" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B289" s="14"/>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="5">
         <v>1</v>
       </c>
@@ -6888,7 +6920,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="5">
         <v>2</v>
       </c>
@@ -6896,7 +6928,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="5">
         <v>3</v>
       </c>
@@ -6904,7 +6936,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="5">
         <v>4</v>
       </c>
@@ -6912,7 +6944,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="5">
         <v>5</v>
       </c>
@@ -6920,7 +6952,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="5">
         <v>6</v>
       </c>
@@ -6928,7 +6960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="5">
         <v>7</v>
       </c>
@@ -6936,7 +6968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="5">
         <v>8</v>
       </c>
@@ -6944,7 +6976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="5">
         <v>9</v>
       </c>
@@ -6952,7 +6984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="5">
         <v>10</v>
       </c>
@@ -6960,7 +6992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="5">
         <v>11</v>
       </c>
@@ -6968,7 +7000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="5">
         <v>12</v>
       </c>
@@ -6976,7 +7008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="5">
         <v>13</v>
       </c>
@@ -6984,7 +7016,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="5">
         <v>14</v>
       </c>
@@ -6992,7 +7024,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="5">
         <v>15</v>
       </c>
@@ -7000,7 +7032,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="5">
         <v>16</v>
       </c>
@@ -7008,7 +7040,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="5">
         <v>17</v>
       </c>
@@ -7016,7 +7048,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="5">
         <v>18</v>
       </c>
@@ -7024,7 +7056,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="5">
         <v>19</v>
       </c>
@@ -7032,7 +7064,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="5">
         <v>20</v>
       </c>
@@ -7040,7 +7072,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="5">
         <v>21</v>
       </c>
@@ -7048,7 +7080,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="5">
         <v>22</v>
       </c>
@@ -7056,7 +7088,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="5">
         <v>23</v>
       </c>
@@ -7064,7 +7096,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="5">
         <v>24</v>
       </c>
@@ -7072,7 +7104,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="5" t="s">
         <v>111</v>
       </c>
@@ -7080,17 +7112,17 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A315" s="9"/>
       <c r="B315" s="14"/>
     </row>
-    <row r="316" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B316" s="14"/>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="4" t="s">
         <v>97</v>
       </c>
@@ -7098,7 +7130,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="4" t="s">
         <v>98</v>
       </c>
@@ -7106,7 +7138,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="4" t="s">
         <v>99</v>
       </c>
@@ -7114,17 +7146,17 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="14"/>
     </row>
-    <row r="321" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B321" s="14"/>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="4" t="s">
         <v>100</v>
       </c>
@@ -7132,7 +7164,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A323" s="4" t="s">
         <v>101</v>
       </c>
@@ -7140,7 +7172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A324" s="4" t="s">
         <v>102</v>
       </c>
@@ -7148,7 +7180,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A325" s="4" t="s">
         <v>168</v>
       </c>
@@ -7156,7 +7188,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A326" s="4" t="s">
         <v>104</v>
       </c>
@@ -7164,7 +7196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A327" s="4" t="s">
         <v>105</v>
       </c>
@@ -7172,7 +7204,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A328" s="4" t="s">
         <v>106</v>
       </c>
@@ -7180,7 +7212,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="4" t="s">
         <v>107</v>
       </c>
@@ -7188,23 +7220,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="14"/>
     </row>
-    <row r="331" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B331" s="14"/>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B332" s="14"/>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="10" t="s">
         <v>144</v>
       </c>
@@ -7212,19 +7244,19 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="10" t="s">
         <v>145</v>
       </c>
       <c r="B334" s="17"/>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B335" s="17"/>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="10" t="s">
         <v>144</v>
       </c>
@@ -7232,19 +7264,19 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="10" t="s">
         <v>145</v>
       </c>
       <c r="B337" s="17"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="10" t="s">
         <v>137</v>
       </c>
       <c r="B338" s="17"/>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="10" t="s">
         <v>144</v>
       </c>
@@ -7252,19 +7284,19 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="10" t="s">
         <v>145</v>
       </c>
       <c r="B340" s="17"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="10" t="s">
         <v>138</v>
       </c>
       <c r="B341" s="17"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="10" t="s">
         <v>144</v>
       </c>
@@ -7272,19 +7304,19 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" s="10" t="s">
         <v>145</v>
       </c>
       <c r="B343" s="17"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" s="10" t="s">
         <v>139</v>
       </c>
       <c r="B344" s="17"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="10" t="s">
         <v>144</v>
       </c>
@@ -7292,19 +7324,19 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="10" t="s">
         <v>145</v>
       </c>
       <c r="B346" s="17"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" s="10" t="s">
         <v>140</v>
       </c>
       <c r="B347" s="17"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" s="10" t="s">
         <v>144</v>
       </c>
@@ -7312,13 +7344,13 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A349" s="11" t="s">
         <v>145</v>
       </c>
       <c r="B349" s="17"/>
     </row>
-    <row r="351" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A351" s="13" t="s">
         <v>142</v>
       </c>
@@ -7327,13 +7359,13 @@
       <c r="E351" s="19"/>
       <c r="F351" s="19"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C352" s="19"/>
       <c r="D352" s="19"/>
       <c r="E352" s="19"/>
       <c r="F352" s="19"/>
     </row>
-    <row r="353" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A353" s="13" t="s">
         <v>143</v>
       </c>
@@ -7342,12 +7374,12 @@
       <c r="E353" s="19"/>
       <c r="F353" s="19"/>
     </row>
-    <row r="356" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A356" s="28" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A357" s="20" t="s">
         <v>172</v>
       </c>
@@ -7355,7 +7387,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A358" s="20" t="s">
         <v>149</v>
       </c>

--- a/public/local/fixtures/calculator/Мониторинг калькуляторы.xlsx
+++ b/public/local/fixtures/calculator/Мониторинг калькуляторы.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uzhne/project-extras/imarket/expert/src/public/local/fixtures/calculator/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="1400" windowWidth="28800" windowHeight="19580" activeTab="1"/>
+    <workbookView xWindow="2300" yWindow="1400" windowWidth="28800" windowHeight="19580"/>
   </bookViews>
   <sheets>
     <sheet name="Мониторинг одного здания" sheetId="3" r:id="rId1"/>
     <sheet name="Мониторинг нескольких зданий" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" refMode="R1C1" concurrentCalc="0"/>
+  <calcPr calcId="140001" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1480,7 +1475,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1515,7 +1510,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1692,7 +1687,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1700,13 +1695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE257"/>
+  <dimension ref="A1:AE252"/>
   <sheetViews>
-    <sheetView topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="D246" sqref="D246"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="A242" sqref="A242"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="53.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="15" bestFit="1" customWidth="1"/>
@@ -1722,32 +1717,32 @@
     <col min="29" max="31" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31">
       <c r="B1" s="14"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31">
       <c r="B2" s="14"/>
     </row>
-    <row r="3" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="15" thickBot="1">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" ht="15">
       <c r="A4" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B4" s="14"/>
     </row>
-    <row r="5" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="15" thickBot="1">
       <c r="A5" s="2"/>
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" ht="15">
       <c r="A6" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B6" s="14"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1755,14 +1750,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" s="15" customFormat="1" ht="15" thickBot="1">
       <c r="A8" s="2"/>
       <c r="B8" s="14"/>
       <c r="AC8" s="12"/>
       <c r="AD8" s="12"/>
       <c r="AE8" s="12"/>
     </row>
-    <row r="9" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" s="15" customFormat="1" ht="15">
       <c r="A9" s="1" t="s">
         <v>178</v>
       </c>
@@ -1771,7 +1766,7 @@
       <c r="AD9" s="12"/>
       <c r="AE9" s="12"/>
     </row>
-    <row r="10" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" s="15" customFormat="1">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -1782,7 +1777,7 @@
       <c r="AD10" s="12"/>
       <c r="AE10" s="12"/>
     </row>
-    <row r="11" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" s="15" customFormat="1">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -1793,7 +1788,7 @@
       <c r="AD11" s="12"/>
       <c r="AE11" s="12"/>
     </row>
-    <row r="12" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" s="15" customFormat="1">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -1804,7 +1799,7 @@
       <c r="AD12" s="12"/>
       <c r="AE12" s="12"/>
     </row>
-    <row r="13" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" s="15" customFormat="1">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1815,7 +1810,7 @@
       <c r="AD13" s="12"/>
       <c r="AE13" s="12"/>
     </row>
-    <row r="14" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" s="15" customFormat="1">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -1826,7 +1821,7 @@
       <c r="AD14" s="12"/>
       <c r="AE14" s="12"/>
     </row>
-    <row r="15" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" s="15" customFormat="1">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -1837,7 +1832,7 @@
       <c r="AD15" s="12"/>
       <c r="AE15" s="12"/>
     </row>
-    <row r="16" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" s="15" customFormat="1">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -1848,7 +1843,7 @@
       <c r="AD16" s="12"/>
       <c r="AE16" s="12"/>
     </row>
-    <row r="17" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" s="15" customFormat="1">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -1859,7 +1854,7 @@
       <c r="AD17" s="12"/>
       <c r="AE17" s="12"/>
     </row>
-    <row r="18" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" s="15" customFormat="1">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -1870,7 +1865,7 @@
       <c r="AD18" s="12"/>
       <c r="AE18" s="12"/>
     </row>
-    <row r="19" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" s="15" customFormat="1">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -1881,7 +1876,7 @@
       <c r="AD19" s="12"/>
       <c r="AE19" s="12"/>
     </row>
-    <row r="20" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" s="15" customFormat="1">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
@@ -1892,7 +1887,7 @@
       <c r="AD20" s="12"/>
       <c r="AE20" s="12"/>
     </row>
-    <row r="21" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" s="15" customFormat="1">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
@@ -1903,7 +1898,7 @@
       <c r="AD21" s="12"/>
       <c r="AE21" s="12"/>
     </row>
-    <row r="22" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" s="15" customFormat="1">
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
@@ -1914,7 +1909,7 @@
       <c r="AD22" s="12"/>
       <c r="AE22" s="12"/>
     </row>
-    <row r="23" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" s="15" customFormat="1">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -1925,7 +1920,7 @@
       <c r="AD23" s="12"/>
       <c r="AE23" s="12"/>
     </row>
-    <row r="24" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" s="15" customFormat="1">
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
@@ -1936,7 +1931,7 @@
       <c r="AD24" s="12"/>
       <c r="AE24" s="12"/>
     </row>
-    <row r="25" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" s="15" customFormat="1">
       <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
@@ -1947,7 +1942,7 @@
       <c r="AD25" s="12"/>
       <c r="AE25" s="12"/>
     </row>
-    <row r="26" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" s="15" customFormat="1">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1958,7 +1953,7 @@
       <c r="AD26" s="12"/>
       <c r="AE26" s="12"/>
     </row>
-    <row r="27" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" s="15" customFormat="1">
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
@@ -1969,7 +1964,7 @@
       <c r="AD27" s="12"/>
       <c r="AE27" s="12"/>
     </row>
-    <row r="28" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" s="15" customFormat="1">
       <c r="A28" s="4" t="s">
         <v>22</v>
       </c>
@@ -1980,7 +1975,7 @@
       <c r="AD28" s="12"/>
       <c r="AE28" s="12"/>
     </row>
-    <row r="29" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" s="15" customFormat="1">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
@@ -1991,7 +1986,7 @@
       <c r="AD29" s="12"/>
       <c r="AE29" s="12"/>
     </row>
-    <row r="30" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" s="15" customFormat="1">
       <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
@@ -2002,7 +1997,7 @@
       <c r="AD30" s="12"/>
       <c r="AE30" s="12"/>
     </row>
-    <row r="31" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" s="15" customFormat="1">
       <c r="A31" s="4" t="s">
         <v>25</v>
       </c>
@@ -2013,7 +2008,7 @@
       <c r="AD31" s="12"/>
       <c r="AE31" s="12"/>
     </row>
-    <row r="32" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" s="15" customFormat="1">
       <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
@@ -2024,7 +2019,7 @@
       <c r="AD32" s="12"/>
       <c r="AE32" s="12"/>
     </row>
-    <row r="33" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" s="15" customFormat="1">
       <c r="A33" s="4" t="s">
         <v>27</v>
       </c>
@@ -2035,7 +2030,7 @@
       <c r="AD33" s="12"/>
       <c r="AE33" s="12"/>
     </row>
-    <row r="34" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31" s="15" customFormat="1">
       <c r="A34" s="4" t="s">
         <v>28</v>
       </c>
@@ -2046,7 +2041,7 @@
       <c r="AD34" s="12"/>
       <c r="AE34" s="12"/>
     </row>
-    <row r="35" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" s="15" customFormat="1">
       <c r="A35" s="4" t="s">
         <v>29</v>
       </c>
@@ -2057,7 +2052,7 @@
       <c r="AD35" s="12"/>
       <c r="AE35" s="12"/>
     </row>
-    <row r="36" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31" s="15" customFormat="1">
       <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
@@ -2068,7 +2063,7 @@
       <c r="AD36" s="12"/>
       <c r="AE36" s="12"/>
     </row>
-    <row r="37" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31" s="15" customFormat="1">
       <c r="A37" s="4" t="s">
         <v>31</v>
       </c>
@@ -2079,7 +2074,7 @@
       <c r="AD37" s="12"/>
       <c r="AE37" s="12"/>
     </row>
-    <row r="38" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" s="15" customFormat="1">
       <c r="A38" s="4" t="s">
         <v>32</v>
       </c>
@@ -2090,7 +2085,7 @@
       <c r="AD38" s="12"/>
       <c r="AE38" s="12"/>
     </row>
-    <row r="39" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:31" s="15" customFormat="1">
       <c r="A39" s="4" t="s">
         <v>33</v>
       </c>
@@ -2101,7 +2096,7 @@
       <c r="AD39" s="12"/>
       <c r="AE39" s="12"/>
     </row>
-    <row r="40" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" s="15" customFormat="1">
       <c r="A40" s="4" t="s">
         <v>34</v>
       </c>
@@ -2112,7 +2107,7 @@
       <c r="AD40" s="12"/>
       <c r="AE40" s="12"/>
     </row>
-    <row r="41" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" s="15" customFormat="1">
       <c r="A41" s="4" t="s">
         <v>35</v>
       </c>
@@ -2123,7 +2118,7 @@
       <c r="AD41" s="12"/>
       <c r="AE41" s="12"/>
     </row>
-    <row r="42" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" s="15" customFormat="1">
       <c r="A42" s="4" t="s">
         <v>36</v>
       </c>
@@ -2134,7 +2129,7 @@
       <c r="AD42" s="12"/>
       <c r="AE42" s="12"/>
     </row>
-    <row r="43" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" s="15" customFormat="1">
       <c r="A43" s="4" t="s">
         <v>37</v>
       </c>
@@ -2145,7 +2140,7 @@
       <c r="AD43" s="12"/>
       <c r="AE43" s="12"/>
     </row>
-    <row r="44" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" s="15" customFormat="1">
       <c r="A44" s="4" t="s">
         <v>38</v>
       </c>
@@ -2156,7 +2151,7 @@
       <c r="AD44" s="12"/>
       <c r="AE44" s="12"/>
     </row>
-    <row r="45" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:31" s="15" customFormat="1">
       <c r="A45" s="4" t="s">
         <v>39</v>
       </c>
@@ -2167,7 +2162,7 @@
       <c r="AD45" s="12"/>
       <c r="AE45" s="12"/>
     </row>
-    <row r="46" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:31" s="15" customFormat="1">
       <c r="A46" s="4" t="s">
         <v>40</v>
       </c>
@@ -2178,7 +2173,7 @@
       <c r="AD46" s="12"/>
       <c r="AE46" s="12"/>
     </row>
-    <row r="47" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:31" s="15" customFormat="1">
       <c r="A47" s="4" t="s">
         <v>41</v>
       </c>
@@ -2189,7 +2184,7 @@
       <c r="AD47" s="12"/>
       <c r="AE47" s="12"/>
     </row>
-    <row r="48" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:31" s="15" customFormat="1">
       <c r="A48" s="4" t="s">
         <v>42</v>
       </c>
@@ -2200,7 +2195,7 @@
       <c r="AD48" s="12"/>
       <c r="AE48" s="12"/>
     </row>
-    <row r="49" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" s="15" customFormat="1">
       <c r="A49" s="4" t="s">
         <v>43</v>
       </c>
@@ -2211,7 +2206,7 @@
       <c r="AD49" s="12"/>
       <c r="AE49" s="12"/>
     </row>
-    <row r="50" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31" s="15" customFormat="1">
       <c r="A50" s="4" t="s">
         <v>44</v>
       </c>
@@ -2222,7 +2217,7 @@
       <c r="AD50" s="12"/>
       <c r="AE50" s="12"/>
     </row>
-    <row r="51" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:31" s="15" customFormat="1">
       <c r="A51" s="4" t="s">
         <v>45</v>
       </c>
@@ -2233,7 +2228,7 @@
       <c r="AD51" s="12"/>
       <c r="AE51" s="12"/>
     </row>
-    <row r="52" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:31" s="15" customFormat="1">
       <c r="A52" s="4" t="s">
         <v>46</v>
       </c>
@@ -2244,7 +2239,7 @@
       <c r="AD52" s="12"/>
       <c r="AE52" s="12"/>
     </row>
-    <row r="53" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:31" s="15" customFormat="1">
       <c r="A53" s="4" t="s">
         <v>47</v>
       </c>
@@ -2255,7 +2250,7 @@
       <c r="AD53" s="12"/>
       <c r="AE53" s="12"/>
     </row>
-    <row r="54" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:31" s="15" customFormat="1">
       <c r="A54" s="4" t="s">
         <v>146</v>
       </c>
@@ -2266,7 +2261,7 @@
       <c r="AD54" s="12"/>
       <c r="AE54" s="12"/>
     </row>
-    <row r="55" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:31" s="15" customFormat="1">
       <c r="A55" s="4" t="s">
         <v>48</v>
       </c>
@@ -2277,7 +2272,7 @@
       <c r="AD55" s="12"/>
       <c r="AE55" s="12"/>
     </row>
-    <row r="56" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:31" s="15" customFormat="1">
       <c r="A56" s="4" t="s">
         <v>49</v>
       </c>
@@ -2288,7 +2283,7 @@
       <c r="AD56" s="12"/>
       <c r="AE56" s="12"/>
     </row>
-    <row r="57" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:31" s="15" customFormat="1">
       <c r="A57" s="4" t="s">
         <v>50</v>
       </c>
@@ -2299,7 +2294,7 @@
       <c r="AD57" s="12"/>
       <c r="AE57" s="12"/>
     </row>
-    <row r="58" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:31" s="15" customFormat="1">
       <c r="A58" s="4" t="s">
         <v>51</v>
       </c>
@@ -2310,7 +2305,7 @@
       <c r="AD58" s="12"/>
       <c r="AE58" s="12"/>
     </row>
-    <row r="59" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:31" s="15" customFormat="1">
       <c r="A59" s="4" t="s">
         <v>52</v>
       </c>
@@ -2321,7 +2316,7 @@
       <c r="AD59" s="12"/>
       <c r="AE59" s="12"/>
     </row>
-    <row r="60" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:31" s="15" customFormat="1">
       <c r="A60" s="4" t="s">
         <v>53</v>
       </c>
@@ -2332,7 +2327,7 @@
       <c r="AD60" s="12"/>
       <c r="AE60" s="12"/>
     </row>
-    <row r="61" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:31" s="15" customFormat="1">
       <c r="A61" s="4" t="s">
         <v>54</v>
       </c>
@@ -2343,7 +2338,7 @@
       <c r="AD61" s="12"/>
       <c r="AE61" s="12"/>
     </row>
-    <row r="62" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:31" s="15" customFormat="1">
       <c r="A62" s="4" t="s">
         <v>55</v>
       </c>
@@ -2354,7 +2349,7 @@
       <c r="AD62" s="12"/>
       <c r="AE62" s="12"/>
     </row>
-    <row r="63" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:31" s="15" customFormat="1">
       <c r="A63" s="4" t="s">
         <v>56</v>
       </c>
@@ -2365,7 +2360,7 @@
       <c r="AD63" s="12"/>
       <c r="AE63" s="12"/>
     </row>
-    <row r="64" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:31" s="15" customFormat="1">
       <c r="A64" s="4" t="s">
         <v>57</v>
       </c>
@@ -2376,7 +2371,7 @@
       <c r="AD64" s="12"/>
       <c r="AE64" s="12"/>
     </row>
-    <row r="65" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:31" s="15" customFormat="1">
       <c r="A65" s="4" t="s">
         <v>147</v>
       </c>
@@ -2387,7 +2382,7 @@
       <c r="AD65" s="12"/>
       <c r="AE65" s="12"/>
     </row>
-    <row r="66" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:31" s="15" customFormat="1">
       <c r="A66" s="4" t="s">
         <v>58</v>
       </c>
@@ -2398,7 +2393,7 @@
       <c r="AD66" s="12"/>
       <c r="AE66" s="12"/>
     </row>
-    <row r="67" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:31" s="15" customFormat="1">
       <c r="A67" s="4" t="s">
         <v>59</v>
       </c>
@@ -2409,7 +2404,7 @@
       <c r="AD67" s="12"/>
       <c r="AE67" s="12"/>
     </row>
-    <row r="68" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:31" s="15" customFormat="1">
       <c r="A68" s="4" t="s">
         <v>60</v>
       </c>
@@ -2420,7 +2415,7 @@
       <c r="AD68" s="12"/>
       <c r="AE68" s="12"/>
     </row>
-    <row r="69" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:31" s="15" customFormat="1">
       <c r="A69" s="4" t="s">
         <v>61</v>
       </c>
@@ -2431,7 +2426,7 @@
       <c r="AD69" s="12"/>
       <c r="AE69" s="12"/>
     </row>
-    <row r="70" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:31" s="15" customFormat="1">
       <c r="A70" s="4" t="s">
         <v>62</v>
       </c>
@@ -2442,7 +2437,7 @@
       <c r="AD70" s="12"/>
       <c r="AE70" s="12"/>
     </row>
-    <row r="71" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:31" s="15" customFormat="1">
       <c r="A71" s="4" t="s">
         <v>63</v>
       </c>
@@ -2453,7 +2448,7 @@
       <c r="AD71" s="12"/>
       <c r="AE71" s="12"/>
     </row>
-    <row r="72" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:31" s="15" customFormat="1">
       <c r="A72" s="4" t="s">
         <v>64</v>
       </c>
@@ -2464,7 +2459,7 @@
       <c r="AD72" s="12"/>
       <c r="AE72" s="12"/>
     </row>
-    <row r="73" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:31" s="15" customFormat="1">
       <c r="A73" s="4" t="s">
         <v>65</v>
       </c>
@@ -2475,7 +2470,7 @@
       <c r="AD73" s="12"/>
       <c r="AE73" s="12"/>
     </row>
-    <row r="74" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:31" s="15" customFormat="1">
       <c r="A74" s="4" t="s">
         <v>66</v>
       </c>
@@ -2486,7 +2481,7 @@
       <c r="AD74" s="12"/>
       <c r="AE74" s="12"/>
     </row>
-    <row r="75" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:31" s="15" customFormat="1">
       <c r="A75" s="4" t="s">
         <v>67</v>
       </c>
@@ -2497,7 +2492,7 @@
       <c r="AD75" s="12"/>
       <c r="AE75" s="12"/>
     </row>
-    <row r="76" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:31" s="15" customFormat="1">
       <c r="A76" s="4" t="s">
         <v>68</v>
       </c>
@@ -2508,7 +2503,7 @@
       <c r="AD76" s="12"/>
       <c r="AE76" s="12"/>
     </row>
-    <row r="77" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:31" s="15" customFormat="1">
       <c r="A77" s="4" t="s">
         <v>69</v>
       </c>
@@ -2519,7 +2514,7 @@
       <c r="AD77" s="12"/>
       <c r="AE77" s="12"/>
     </row>
-    <row r="78" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:31" s="15" customFormat="1">
       <c r="A78" s="4" t="s">
         <v>70</v>
       </c>
@@ -2530,7 +2525,7 @@
       <c r="AD78" s="12"/>
       <c r="AE78" s="12"/>
     </row>
-    <row r="79" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:31" s="15" customFormat="1">
       <c r="A79" s="4" t="s">
         <v>72</v>
       </c>
@@ -2541,7 +2536,7 @@
       <c r="AD79" s="12"/>
       <c r="AE79" s="12"/>
     </row>
-    <row r="80" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:31" s="15" customFormat="1">
       <c r="A80" s="4" t="s">
         <v>71</v>
       </c>
@@ -2552,7 +2547,7 @@
       <c r="AD80" s="12"/>
       <c r="AE80" s="12"/>
     </row>
-    <row r="81" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:31" s="15" customFormat="1">
       <c r="A81" s="4" t="s">
         <v>73</v>
       </c>
@@ -2563,7 +2558,7 @@
       <c r="AD81" s="12"/>
       <c r="AE81" s="12"/>
     </row>
-    <row r="82" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:31" s="15" customFormat="1">
       <c r="A82" s="4" t="s">
         <v>74</v>
       </c>
@@ -2574,7 +2569,7 @@
       <c r="AD82" s="12"/>
       <c r="AE82" s="12"/>
     </row>
-    <row r="83" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:31" s="15" customFormat="1">
       <c r="A83" s="4" t="s">
         <v>75</v>
       </c>
@@ -2585,7 +2580,7 @@
       <c r="AD83" s="12"/>
       <c r="AE83" s="12"/>
     </row>
-    <row r="84" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:31" s="15" customFormat="1">
       <c r="A84" s="4" t="s">
         <v>76</v>
       </c>
@@ -2596,7 +2591,7 @@
       <c r="AD84" s="12"/>
       <c r="AE84" s="12"/>
     </row>
-    <row r="85" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:31" s="15" customFormat="1">
       <c r="A85" s="4" t="s">
         <v>77</v>
       </c>
@@ -2607,7 +2602,7 @@
       <c r="AD85" s="12"/>
       <c r="AE85" s="12"/>
     </row>
-    <row r="86" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:31" s="15" customFormat="1">
       <c r="A86" s="4" t="s">
         <v>78</v>
       </c>
@@ -2618,7 +2613,7 @@
       <c r="AD86" s="12"/>
       <c r="AE86" s="12"/>
     </row>
-    <row r="87" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:31" s="15" customFormat="1">
       <c r="A87" s="4" t="s">
         <v>79</v>
       </c>
@@ -2629,7 +2624,7 @@
       <c r="AD87" s="12"/>
       <c r="AE87" s="12"/>
     </row>
-    <row r="88" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:31" s="15" customFormat="1">
       <c r="A88" s="4" t="s">
         <v>80</v>
       </c>
@@ -2640,7 +2635,7 @@
       <c r="AD88" s="12"/>
       <c r="AE88" s="12"/>
     </row>
-    <row r="89" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:31" s="15" customFormat="1">
       <c r="A89" s="4" t="s">
         <v>81</v>
       </c>
@@ -2651,7 +2646,7 @@
       <c r="AD89" s="12"/>
       <c r="AE89" s="12"/>
     </row>
-    <row r="90" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:31" s="15" customFormat="1">
       <c r="A90" s="4" t="s">
         <v>82</v>
       </c>
@@ -2662,7 +2657,7 @@
       <c r="AD90" s="12"/>
       <c r="AE90" s="12"/>
     </row>
-    <row r="91" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:31" s="15" customFormat="1">
       <c r="A91" s="4" t="s">
         <v>83</v>
       </c>
@@ -2673,7 +2668,7 @@
       <c r="AD91" s="12"/>
       <c r="AE91" s="12"/>
     </row>
-    <row r="92" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:31" s="15" customFormat="1">
       <c r="A92" s="4" t="s">
         <v>84</v>
       </c>
@@ -2684,7 +2679,7 @@
       <c r="AD92" s="12"/>
       <c r="AE92" s="12"/>
     </row>
-    <row r="93" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:31" s="15" customFormat="1">
       <c r="A93" s="4" t="s">
         <v>85</v>
       </c>
@@ -2695,14 +2690,14 @@
       <c r="AD93" s="12"/>
       <c r="AE93" s="12"/>
     </row>
-    <row r="94" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:31" s="15" customFormat="1" ht="15" thickBot="1">
       <c r="A94" s="2"/>
       <c r="B94" s="14"/>
       <c r="AC94" s="12"/>
       <c r="AD94" s="12"/>
       <c r="AE94" s="12"/>
     </row>
-    <row r="95" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:31" s="15" customFormat="1" ht="15">
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
@@ -2711,14 +2706,14 @@
       <c r="AD95" s="12"/>
       <c r="AE95" s="12"/>
     </row>
-    <row r="96" spans="1:31" s="31" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:31" s="31" customFormat="1" ht="16" thickBot="1">
       <c r="A96" s="29"/>
       <c r="B96" s="30"/>
       <c r="AC96" s="32"/>
       <c r="AD96" s="32"/>
       <c r="AE96" s="32"/>
     </row>
-    <row r="97" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:31" s="15" customFormat="1" ht="15">
       <c r="A97" s="1" t="s">
         <v>179</v>
       </c>
@@ -2727,7 +2722,7 @@
       <c r="AD97" s="12"/>
       <c r="AE97" s="12"/>
     </row>
-    <row r="98" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:31" s="15" customFormat="1">
       <c r="A98" s="6" t="s">
         <v>86</v>
       </c>
@@ -2738,7 +2733,7 @@
       <c r="AD98" s="12"/>
       <c r="AE98" s="12"/>
     </row>
-    <row r="99" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:31" s="15" customFormat="1">
       <c r="A99" s="6" t="s">
         <v>87</v>
       </c>
@@ -2749,7 +2744,7 @@
       <c r="AD99" s="12"/>
       <c r="AE99" s="12"/>
     </row>
-    <row r="100" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:31" s="15" customFormat="1">
       <c r="A100" s="6" t="s">
         <v>88</v>
       </c>
@@ -2760,7 +2755,7 @@
       <c r="AD100" s="12"/>
       <c r="AE100" s="12"/>
     </row>
-    <row r="101" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:31" s="15" customFormat="1">
       <c r="A101" s="6" t="s">
         <v>89</v>
       </c>
@@ -2771,7 +2766,7 @@
       <c r="AD101" s="12"/>
       <c r="AE101" s="12"/>
     </row>
-    <row r="102" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:31" s="15" customFormat="1">
       <c r="A102" s="6" t="s">
         <v>90</v>
       </c>
@@ -2782,7 +2777,7 @@
       <c r="AD102" s="12"/>
       <c r="AE102" s="12"/>
     </row>
-    <row r="103" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:31" s="15" customFormat="1">
       <c r="A103" s="6" t="s">
         <v>91</v>
       </c>
@@ -2793,7 +2788,7 @@
       <c r="AD103" s="12"/>
       <c r="AE103" s="12"/>
     </row>
-    <row r="104" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:31" s="15" customFormat="1">
       <c r="A104" s="6" t="s">
         <v>92</v>
       </c>
@@ -2804,7 +2799,7 @@
       <c r="AD104" s="12"/>
       <c r="AE104" s="12"/>
     </row>
-    <row r="105" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:31" s="15" customFormat="1">
       <c r="A105" s="6" t="s">
         <v>93</v>
       </c>
@@ -2815,7 +2810,7 @@
       <c r="AD105" s="12"/>
       <c r="AE105" s="12"/>
     </row>
-    <row r="106" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:31" s="15" customFormat="1">
       <c r="A106" s="6" t="s">
         <v>94</v>
       </c>
@@ -2826,7 +2821,7 @@
       <c r="AD106" s="12"/>
       <c r="AE106" s="12"/>
     </row>
-    <row r="107" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:31" s="15" customFormat="1">
       <c r="A107" s="6" t="s">
         <v>148</v>
       </c>
@@ -2837,7 +2832,7 @@
       <c r="AD107" s="12"/>
       <c r="AE107" s="12"/>
     </row>
-    <row r="108" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:31" s="15" customFormat="1">
       <c r="A108" s="6" t="s">
         <v>95</v>
       </c>
@@ -2848,7 +2843,7 @@
       <c r="AD108" s="12"/>
       <c r="AE108" s="12"/>
     </row>
-    <row r="109" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:31" s="15" customFormat="1">
       <c r="A109" s="6" t="s">
         <v>96</v>
       </c>
@@ -2859,14 +2854,14 @@
       <c r="AD109" s="12"/>
       <c r="AE109" s="12"/>
     </row>
-    <row r="110" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:31" s="15" customFormat="1" ht="15" thickBot="1">
       <c r="A110" s="6"/>
       <c r="B110" s="14"/>
       <c r="AC110" s="12"/>
       <c r="AD110" s="12"/>
       <c r="AE110" s="12"/>
     </row>
-    <row r="111" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:31" s="15" customFormat="1" ht="15">
       <c r="A111" s="8" t="s">
         <v>180</v>
       </c>
@@ -2875,7 +2870,7 @@
       <c r="AD111" s="12"/>
       <c r="AE111" s="12"/>
     </row>
-    <row r="112" spans="1:31" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:31" s="15" customFormat="1" ht="18">
       <c r="A112" s="4"/>
       <c r="B112" s="25">
         <v>20000</v>
@@ -2897,14 +2892,14 @@
       <c r="AD112" s="12"/>
       <c r="AE112" s="12"/>
     </row>
-    <row r="113" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31" s="15" customFormat="1" ht="15" thickBot="1">
       <c r="A113" s="2"/>
       <c r="B113" s="14"/>
       <c r="AC113" s="12"/>
       <c r="AD113" s="12"/>
       <c r="AE113" s="12"/>
     </row>
-    <row r="114" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:31" s="15" customFormat="1" ht="15">
       <c r="A114" s="8" t="s">
         <v>141</v>
       </c>
@@ -2913,7 +2908,7 @@
       <c r="AD114" s="12"/>
       <c r="AE114" s="12"/>
     </row>
-    <row r="115" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31" s="15" customFormat="1" ht="15" thickBot="1">
       <c r="A115" s="4"/>
       <c r="B115" s="14">
         <v>1</v>
@@ -2922,7 +2917,7 @@
       <c r="AD115" s="12"/>
       <c r="AE115" s="12"/>
     </row>
-    <row r="116" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:31" s="15" customFormat="1" ht="15">
       <c r="A116" s="7" t="s">
         <v>181</v>
       </c>
@@ -2931,7 +2926,7 @@
       <c r="AD116" s="12"/>
       <c r="AE116" s="12"/>
     </row>
-    <row r="117" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:31" s="15" customFormat="1">
       <c r="A117" s="3">
         <v>1</v>
       </c>
@@ -2942,7 +2937,7 @@
       <c r="AD117" s="12"/>
       <c r="AE117" s="12"/>
     </row>
-    <row r="118" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:31" s="15" customFormat="1">
       <c r="A118" s="3">
         <v>2</v>
       </c>
@@ -2953,7 +2948,7 @@
       <c r="AD118" s="12"/>
       <c r="AE118" s="12"/>
     </row>
-    <row r="119" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:31" s="15" customFormat="1">
       <c r="A119" s="3">
         <v>3</v>
       </c>
@@ -2964,7 +2959,7 @@
       <c r="AD119" s="12"/>
       <c r="AE119" s="12"/>
     </row>
-    <row r="120" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:31" s="15" customFormat="1">
       <c r="A120" s="3">
         <v>4</v>
       </c>
@@ -2975,7 +2970,7 @@
       <c r="AD120" s="12"/>
       <c r="AE120" s="12"/>
     </row>
-    <row r="121" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:31" s="15" customFormat="1">
       <c r="A121" s="3">
         <v>5</v>
       </c>
@@ -2986,7 +2981,7 @@
       <c r="AD121" s="12"/>
       <c r="AE121" s="12"/>
     </row>
-    <row r="122" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:31" s="15" customFormat="1">
       <c r="A122" s="3">
         <v>6</v>
       </c>
@@ -2997,7 +2992,7 @@
       <c r="AD122" s="12"/>
       <c r="AE122" s="12"/>
     </row>
-    <row r="123" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:31" s="15" customFormat="1">
       <c r="A123" s="3">
         <v>7</v>
       </c>
@@ -3008,7 +3003,7 @@
       <c r="AD123" s="12"/>
       <c r="AE123" s="12"/>
     </row>
-    <row r="124" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:31" s="15" customFormat="1">
       <c r="A124" s="3">
         <v>8</v>
       </c>
@@ -3019,7 +3014,7 @@
       <c r="AD124" s="12"/>
       <c r="AE124" s="12"/>
     </row>
-    <row r="125" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:31" s="15" customFormat="1">
       <c r="A125" s="3">
         <v>9</v>
       </c>
@@ -3030,7 +3025,7 @@
       <c r="AD125" s="12"/>
       <c r="AE125" s="12"/>
     </row>
-    <row r="126" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:31" s="15" customFormat="1">
       <c r="A126" s="3">
         <v>10</v>
       </c>
@@ -3041,7 +3036,7 @@
       <c r="AD126" s="12"/>
       <c r="AE126" s="12"/>
     </row>
-    <row r="127" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:31" s="15" customFormat="1">
       <c r="A127" s="3">
         <v>11</v>
       </c>
@@ -3052,7 +3047,7 @@
       <c r="AD127" s="12"/>
       <c r="AE127" s="12"/>
     </row>
-    <row r="128" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:31" s="15" customFormat="1">
       <c r="A128" s="3">
         <v>12</v>
       </c>
@@ -3063,7 +3058,7 @@
       <c r="AD128" s="12"/>
       <c r="AE128" s="12"/>
     </row>
-    <row r="129" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:31" s="15" customFormat="1">
       <c r="A129" s="3">
         <v>13</v>
       </c>
@@ -3074,7 +3069,7 @@
       <c r="AD129" s="12"/>
       <c r="AE129" s="12"/>
     </row>
-    <row r="130" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:31" s="15" customFormat="1">
       <c r="A130" s="3">
         <v>14</v>
       </c>
@@ -3085,7 +3080,7 @@
       <c r="AD130" s="12"/>
       <c r="AE130" s="12"/>
     </row>
-    <row r="131" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:31" s="15" customFormat="1">
       <c r="A131" s="3">
         <v>15</v>
       </c>
@@ -3096,7 +3091,7 @@
       <c r="AD131" s="12"/>
       <c r="AE131" s="12"/>
     </row>
-    <row r="132" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:31" s="15" customFormat="1">
       <c r="A132" s="3">
         <v>16</v>
       </c>
@@ -3107,7 +3102,7 @@
       <c r="AD132" s="12"/>
       <c r="AE132" s="12"/>
     </row>
-    <row r="133" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:31" s="15" customFormat="1">
       <c r="A133" s="3">
         <v>17</v>
       </c>
@@ -3118,7 +3113,7 @@
       <c r="AD133" s="12"/>
       <c r="AE133" s="12"/>
     </row>
-    <row r="134" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:31" s="15" customFormat="1">
       <c r="A134" s="3">
         <v>18</v>
       </c>
@@ -3129,7 +3124,7 @@
       <c r="AD134" s="12"/>
       <c r="AE134" s="12"/>
     </row>
-    <row r="135" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:31" s="15" customFormat="1">
       <c r="A135" s="3">
         <v>19</v>
       </c>
@@ -3140,7 +3135,7 @@
       <c r="AD135" s="12"/>
       <c r="AE135" s="12"/>
     </row>
-    <row r="136" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:31" s="15" customFormat="1">
       <c r="A136" s="3">
         <v>20</v>
       </c>
@@ -3151,7 +3146,7 @@
       <c r="AD136" s="12"/>
       <c r="AE136" s="12"/>
     </row>
-    <row r="137" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:31" s="15" customFormat="1">
       <c r="A137" s="3">
         <v>21</v>
       </c>
@@ -3162,7 +3157,7 @@
       <c r="AD137" s="12"/>
       <c r="AE137" s="12"/>
     </row>
-    <row r="138" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:31" s="15" customFormat="1">
       <c r="A138" s="3">
         <v>22</v>
       </c>
@@ -3173,7 +3168,7 @@
       <c r="AD138" s="12"/>
       <c r="AE138" s="12"/>
     </row>
-    <row r="139" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:31" s="15" customFormat="1">
       <c r="A139" s="3">
         <v>23</v>
       </c>
@@ -3184,7 +3179,7 @@
       <c r="AD139" s="12"/>
       <c r="AE139" s="12"/>
     </row>
-    <row r="140" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:31" s="15" customFormat="1">
       <c r="A140" s="3">
         <v>24</v>
       </c>
@@ -3195,7 +3190,7 @@
       <c r="AD140" s="12"/>
       <c r="AE140" s="12"/>
     </row>
-    <row r="141" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:31" s="15" customFormat="1">
       <c r="A141" s="3">
         <v>25</v>
       </c>
@@ -3206,7 +3201,7 @@
       <c r="AD141" s="12"/>
       <c r="AE141" s="12"/>
     </row>
-    <row r="142" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:31" s="15" customFormat="1">
       <c r="A142" s="3">
         <v>26</v>
       </c>
@@ -3217,7 +3212,7 @@
       <c r="AD142" s="12"/>
       <c r="AE142" s="12"/>
     </row>
-    <row r="143" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:31" s="15" customFormat="1">
       <c r="A143" s="3">
         <v>27</v>
       </c>
@@ -3228,7 +3223,7 @@
       <c r="AD143" s="12"/>
       <c r="AE143" s="12"/>
     </row>
-    <row r="144" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:31" s="15" customFormat="1">
       <c r="A144" s="3">
         <v>28</v>
       </c>
@@ -3239,7 +3234,7 @@
       <c r="AD144" s="12"/>
       <c r="AE144" s="12"/>
     </row>
-    <row r="145" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:31" s="15" customFormat="1">
       <c r="A145" s="3">
         <v>29</v>
       </c>
@@ -3250,7 +3245,7 @@
       <c r="AD145" s="12"/>
       <c r="AE145" s="12"/>
     </row>
-    <row r="146" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:31" s="15" customFormat="1">
       <c r="A146" s="3">
         <v>30</v>
       </c>
@@ -3261,7 +3256,7 @@
       <c r="AD146" s="12"/>
       <c r="AE146" s="12"/>
     </row>
-    <row r="147" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:31" s="15" customFormat="1">
       <c r="A147" s="3" t="s">
         <v>110</v>
       </c>
@@ -3272,14 +3267,14 @@
       <c r="AD147" s="12"/>
       <c r="AE147" s="12"/>
     </row>
-    <row r="148" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:31" s="15" customFormat="1" ht="15" thickBot="1">
       <c r="A148" s="3"/>
       <c r="B148" s="14"/>
       <c r="AC148" s="12"/>
       <c r="AD148" s="12"/>
       <c r="AE148" s="12"/>
     </row>
-    <row r="149" spans="1:31" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:31" s="15" customFormat="1" ht="30">
       <c r="A149" s="8" t="s">
         <v>182</v>
       </c>
@@ -3288,7 +3283,7 @@
       <c r="AD149" s="12"/>
       <c r="AE149" s="12"/>
     </row>
-    <row r="150" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:31" s="15" customFormat="1">
       <c r="A150" s="4" t="s">
         <v>108</v>
       </c>
@@ -3299,7 +3294,7 @@
       <c r="AD150" s="12"/>
       <c r="AE150" s="12"/>
     </row>
-    <row r="151" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:31" s="15" customFormat="1">
       <c r="A151" s="4" t="s">
         <v>109</v>
       </c>
@@ -3310,14 +3305,14 @@
       <c r="AD151" s="12"/>
       <c r="AE151" s="12"/>
     </row>
-    <row r="152" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:31" s="15" customFormat="1" ht="15" thickBot="1">
       <c r="A152" s="2"/>
       <c r="B152" s="14"/>
       <c r="AC152" s="12"/>
       <c r="AD152" s="12"/>
       <c r="AE152" s="12"/>
     </row>
-    <row r="153" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:31" s="15" customFormat="1" ht="15">
       <c r="A153" s="8" t="s">
         <v>183</v>
       </c>
@@ -3326,7 +3321,7 @@
       <c r="AD153" s="12"/>
       <c r="AE153" s="12"/>
     </row>
-    <row r="154" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:31" s="15" customFormat="1">
       <c r="A154" s="5">
         <v>1</v>
       </c>
@@ -3337,7 +3332,7 @@
       <c r="AD154" s="12"/>
       <c r="AE154" s="12"/>
     </row>
-    <row r="155" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:31" s="15" customFormat="1">
       <c r="A155" s="5">
         <v>2</v>
       </c>
@@ -3348,7 +3343,7 @@
       <c r="AD155" s="12"/>
       <c r="AE155" s="12"/>
     </row>
-    <row r="156" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:31" s="15" customFormat="1">
       <c r="A156" s="5">
         <v>3</v>
       </c>
@@ -3359,7 +3354,7 @@
       <c r="AD156" s="12"/>
       <c r="AE156" s="12"/>
     </row>
-    <row r="157" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:31" s="15" customFormat="1">
       <c r="A157" s="5" t="s">
         <v>113</v>
       </c>
@@ -3370,14 +3365,14 @@
       <c r="AD157" s="12"/>
       <c r="AE157" s="12"/>
     </row>
-    <row r="158" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:31" s="15" customFormat="1" ht="15" thickBot="1">
       <c r="A158" s="9"/>
       <c r="B158" s="14"/>
       <c r="AC158" s="12"/>
       <c r="AD158" s="12"/>
       <c r="AE158" s="12"/>
     </row>
-    <row r="159" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:31" s="15" customFormat="1" ht="15">
       <c r="A159" s="8" t="s">
         <v>184</v>
       </c>
@@ -3386,7 +3381,7 @@
       <c r="AD159" s="12"/>
       <c r="AE159" s="12"/>
     </row>
-    <row r="160" spans="1:31" s="15" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:31" s="15" customFormat="1" ht="28.5" customHeight="1">
       <c r="A160" s="4" t="s">
         <v>125</v>
       </c>
@@ -3397,7 +3392,7 @@
       <c r="AD160" s="12"/>
       <c r="AE160" s="12"/>
     </row>
-    <row r="161" spans="1:31" s="15" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:31" s="15" customFormat="1" ht="43.5" customHeight="1">
       <c r="A161" s="4" t="s">
         <v>126</v>
       </c>
@@ -3408,7 +3403,7 @@
       <c r="AD161" s="12"/>
       <c r="AE161" s="12"/>
     </row>
-    <row r="162" spans="1:31" s="15" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:31" s="15" customFormat="1" ht="46.5" customHeight="1">
       <c r="A162" s="4" t="s">
         <v>127</v>
       </c>
@@ -3419,7 +3414,7 @@
       <c r="AD162" s="12"/>
       <c r="AE162" s="12"/>
     </row>
-    <row r="163" spans="1:31" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:31" s="15" customFormat="1" ht="45" customHeight="1">
       <c r="A163" s="4" t="s">
         <v>128</v>
       </c>
@@ -3430,7 +3425,7 @@
       <c r="AD163" s="12"/>
       <c r="AE163" s="12"/>
     </row>
-    <row r="164" spans="1:31" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:31" s="15" customFormat="1" ht="45" customHeight="1">
       <c r="A164" s="4" t="s">
         <v>129</v>
       </c>
@@ -3441,7 +3436,7 @@
       <c r="AD164" s="12"/>
       <c r="AE164" s="12"/>
     </row>
-    <row r="165" spans="1:31" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:31" s="15" customFormat="1" ht="60" customHeight="1">
       <c r="A165" s="4" t="s">
         <v>130</v>
       </c>
@@ -3452,7 +3447,7 @@
       <c r="AD165" s="12"/>
       <c r="AE165" s="12"/>
     </row>
-    <row r="166" spans="1:31" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:31" s="15" customFormat="1" ht="30" customHeight="1">
       <c r="A166" s="4" t="s">
         <v>131</v>
       </c>
@@ -3463,7 +3458,7 @@
       <c r="AD166" s="12"/>
       <c r="AE166" s="12"/>
     </row>
-    <row r="167" spans="1:31" s="15" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:31" s="15" customFormat="1" ht="45.75" customHeight="1">
       <c r="A167" s="4" t="s">
         <v>132</v>
       </c>
@@ -3474,7 +3469,7 @@
       <c r="AD167" s="12"/>
       <c r="AE167" s="12"/>
     </row>
-    <row r="168" spans="1:31" s="15" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:31" s="15" customFormat="1" ht="29.25" customHeight="1">
       <c r="A168" s="4" t="s">
         <v>133</v>
       </c>
@@ -3485,7 +3480,7 @@
       <c r="AD168" s="12"/>
       <c r="AE168" s="12"/>
     </row>
-    <row r="169" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:31" s="15" customFormat="1">
       <c r="A169" s="4" t="s">
         <v>134</v>
       </c>
@@ -3496,14 +3491,14 @@
       <c r="AD169" s="12"/>
       <c r="AE169" s="12"/>
     </row>
-    <row r="170" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:31" s="15" customFormat="1" ht="15" thickBot="1">
       <c r="A170" s="2"/>
       <c r="B170" s="14"/>
       <c r="AC170" s="12"/>
       <c r="AD170" s="12"/>
       <c r="AE170" s="12"/>
     </row>
-    <row r="171" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:31" s="15" customFormat="1" ht="15">
       <c r="A171" s="8" t="s">
         <v>185</v>
       </c>
@@ -3512,7 +3507,7 @@
       <c r="AD171" s="12"/>
       <c r="AE171" s="12"/>
     </row>
-    <row r="172" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:31" s="15" customFormat="1">
       <c r="A172" s="4" t="s">
         <v>114</v>
       </c>
@@ -3521,7 +3516,7 @@
       <c r="AD172" s="12"/>
       <c r="AE172" s="12"/>
     </row>
-    <row r="173" spans="1:31" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:31" s="15" customFormat="1" ht="30" customHeight="1">
       <c r="A173" s="4" t="s">
         <v>115</v>
       </c>
@@ -3532,7 +3527,7 @@
       <c r="AD173" s="12"/>
       <c r="AE173" s="12"/>
     </row>
-    <row r="174" spans="1:31" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:31" s="15" customFormat="1" ht="15.75" customHeight="1">
       <c r="A174" s="4" t="s">
         <v>124</v>
       </c>
@@ -3555,7 +3550,7 @@
       <c r="AD174" s="12"/>
       <c r="AE174" s="12"/>
     </row>
-    <row r="175" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:31" s="15" customFormat="1">
       <c r="A175" s="4" t="s">
         <v>116</v>
       </c>
@@ -3585,7 +3580,7 @@
       <c r="AD175" s="12"/>
       <c r="AE175" s="12"/>
     </row>
-    <row r="176" spans="1:31" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:31" s="15" customFormat="1" ht="30.75" customHeight="1">
       <c r="A176" s="4" t="s">
         <v>117</v>
       </c>
@@ -3615,7 +3610,7 @@
       <c r="AD176" s="12"/>
       <c r="AE176" s="12"/>
     </row>
-    <row r="177" spans="1:31" s="15" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:31" s="15" customFormat="1" ht="32.25" customHeight="1">
       <c r="A177" s="4" t="s">
         <v>118</v>
       </c>
@@ -3645,7 +3640,7 @@
       <c r="AD177" s="12"/>
       <c r="AE177" s="12"/>
     </row>
-    <row r="178" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:31" s="15" customFormat="1">
       <c r="A178" s="4" t="s">
         <v>119</v>
       </c>
@@ -3675,7 +3670,7 @@
       <c r="AD178" s="12"/>
       <c r="AE178" s="12"/>
     </row>
-    <row r="179" spans="1:31" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:31" s="15" customFormat="1" ht="30.75" customHeight="1">
       <c r="A179" s="4" t="s">
         <v>120</v>
       </c>
@@ -3705,7 +3700,7 @@
       <c r="AD179" s="12"/>
       <c r="AE179" s="12"/>
     </row>
-    <row r="180" spans="1:31" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:31" s="15" customFormat="1" ht="30.75" customHeight="1">
       <c r="A180" s="4" t="s">
         <v>121</v>
       </c>
@@ -3735,7 +3730,7 @@
       <c r="AD180" s="12"/>
       <c r="AE180" s="12"/>
     </row>
-    <row r="181" spans="1:31" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:31" s="15" customFormat="1" ht="16.5" customHeight="1">
       <c r="A181" s="4" t="s">
         <v>122</v>
       </c>
@@ -3765,7 +3760,7 @@
       <c r="AD181" s="12"/>
       <c r="AE181" s="12"/>
     </row>
-    <row r="182" spans="1:31" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:31" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A182" s="4" t="s">
         <v>123</v>
       </c>
@@ -3795,14 +3790,14 @@
       <c r="AD182" s="12"/>
       <c r="AE182" s="12"/>
     </row>
-    <row r="183" spans="1:31" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:31" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A183" s="2"/>
       <c r="B183" s="14"/>
       <c r="AC183" s="12"/>
       <c r="AD183" s="12"/>
       <c r="AE183" s="12"/>
     </row>
-    <row r="184" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:31" s="15" customFormat="1" ht="15">
       <c r="A184" s="1" t="s">
         <v>186</v>
       </c>
@@ -3811,7 +3806,7 @@
       <c r="AD184" s="12"/>
       <c r="AE184" s="12"/>
     </row>
-    <row r="185" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:31" s="15" customFormat="1">
       <c r="A185" s="5">
         <v>1</v>
       </c>
@@ -3822,7 +3817,7 @@
       <c r="AD185" s="12"/>
       <c r="AE185" s="12"/>
     </row>
-    <row r="186" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:31" s="15" customFormat="1">
       <c r="A186" s="5">
         <v>2</v>
       </c>
@@ -3833,7 +3828,7 @@
       <c r="AD186" s="12"/>
       <c r="AE186" s="12"/>
     </row>
-    <row r="187" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:31" s="15" customFormat="1">
       <c r="A187" s="5">
         <v>3</v>
       </c>
@@ -3844,7 +3839,7 @@
       <c r="AD187" s="12"/>
       <c r="AE187" s="12"/>
     </row>
-    <row r="188" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:31" s="15" customFormat="1">
       <c r="A188" s="5">
         <v>4</v>
       </c>
@@ -3855,7 +3850,7 @@
       <c r="AD188" s="12"/>
       <c r="AE188" s="12"/>
     </row>
-    <row r="189" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:31" s="15" customFormat="1">
       <c r="A189" s="5">
         <v>5</v>
       </c>
@@ -3866,7 +3861,7 @@
       <c r="AD189" s="12"/>
       <c r="AE189" s="12"/>
     </row>
-    <row r="190" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:31" s="15" customFormat="1">
       <c r="A190" s="5">
         <v>6</v>
       </c>
@@ -3877,7 +3872,7 @@
       <c r="AD190" s="12"/>
       <c r="AE190" s="12"/>
     </row>
-    <row r="191" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:31" s="15" customFormat="1">
       <c r="A191" s="5">
         <v>7</v>
       </c>
@@ -3888,7 +3883,7 @@
       <c r="AD191" s="12"/>
       <c r="AE191" s="12"/>
     </row>
-    <row r="192" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:31" s="15" customFormat="1">
       <c r="A192" s="5">
         <v>8</v>
       </c>
@@ -3899,7 +3894,7 @@
       <c r="AD192" s="12"/>
       <c r="AE192" s="12"/>
     </row>
-    <row r="193" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:31" s="15" customFormat="1">
       <c r="A193" s="5">
         <v>9</v>
       </c>
@@ -3910,7 +3905,7 @@
       <c r="AD193" s="12"/>
       <c r="AE193" s="12"/>
     </row>
-    <row r="194" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:31" s="15" customFormat="1">
       <c r="A194" s="5">
         <v>10</v>
       </c>
@@ -3921,7 +3916,7 @@
       <c r="AD194" s="12"/>
       <c r="AE194" s="12"/>
     </row>
-    <row r="195" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:31" s="15" customFormat="1">
       <c r="A195" s="5">
         <v>11</v>
       </c>
@@ -3932,7 +3927,7 @@
       <c r="AD195" s="12"/>
       <c r="AE195" s="12"/>
     </row>
-    <row r="196" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:31" s="15" customFormat="1">
       <c r="A196" s="5">
         <v>12</v>
       </c>
@@ -3943,7 +3938,7 @@
       <c r="AD196" s="12"/>
       <c r="AE196" s="12"/>
     </row>
-    <row r="197" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:31" s="15" customFormat="1">
       <c r="A197" s="5">
         <v>13</v>
       </c>
@@ -3954,7 +3949,7 @@
       <c r="AD197" s="12"/>
       <c r="AE197" s="12"/>
     </row>
-    <row r="198" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:31" s="15" customFormat="1">
       <c r="A198" s="5">
         <v>14</v>
       </c>
@@ -3965,7 +3960,7 @@
       <c r="AD198" s="12"/>
       <c r="AE198" s="12"/>
     </row>
-    <row r="199" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:31" s="15" customFormat="1">
       <c r="A199" s="5">
         <v>15</v>
       </c>
@@ -3976,7 +3971,7 @@
       <c r="AD199" s="12"/>
       <c r="AE199" s="12"/>
     </row>
-    <row r="200" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:31" s="15" customFormat="1">
       <c r="A200" s="5">
         <v>16</v>
       </c>
@@ -3987,7 +3982,7 @@
       <c r="AD200" s="12"/>
       <c r="AE200" s="12"/>
     </row>
-    <row r="201" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:31" s="15" customFormat="1">
       <c r="A201" s="5">
         <v>17</v>
       </c>
@@ -3998,7 +3993,7 @@
       <c r="AD201" s="12"/>
       <c r="AE201" s="12"/>
     </row>
-    <row r="202" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:31" s="15" customFormat="1">
       <c r="A202" s="5">
         <v>18</v>
       </c>
@@ -4009,7 +4004,7 @@
       <c r="AD202" s="12"/>
       <c r="AE202" s="12"/>
     </row>
-    <row r="203" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:31" s="15" customFormat="1">
       <c r="A203" s="5">
         <v>19</v>
       </c>
@@ -4020,7 +4015,7 @@
       <c r="AD203" s="12"/>
       <c r="AE203" s="12"/>
     </row>
-    <row r="204" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:31" s="15" customFormat="1">
       <c r="A204" s="5">
         <v>20</v>
       </c>
@@ -4031,7 +4026,7 @@
       <c r="AD204" s="12"/>
       <c r="AE204" s="12"/>
     </row>
-    <row r="205" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:31" s="15" customFormat="1">
       <c r="A205" s="5">
         <v>21</v>
       </c>
@@ -4042,7 +4037,7 @@
       <c r="AD205" s="12"/>
       <c r="AE205" s="12"/>
     </row>
-    <row r="206" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:31" s="15" customFormat="1">
       <c r="A206" s="5">
         <v>22</v>
       </c>
@@ -4053,7 +4048,7 @@
       <c r="AD206" s="12"/>
       <c r="AE206" s="12"/>
     </row>
-    <row r="207" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:31" s="15" customFormat="1">
       <c r="A207" s="5">
         <v>23</v>
       </c>
@@ -4064,7 +4059,7 @@
       <c r="AD207" s="12"/>
       <c r="AE207" s="12"/>
     </row>
-    <row r="208" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:31" s="15" customFormat="1">
       <c r="A208" s="5">
         <v>24</v>
       </c>
@@ -4075,7 +4070,7 @@
       <c r="AD208" s="12"/>
       <c r="AE208" s="12"/>
     </row>
-    <row r="209" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:31" s="15" customFormat="1">
       <c r="A209" s="5" t="s">
         <v>111</v>
       </c>
@@ -4086,14 +4081,14 @@
       <c r="AD209" s="12"/>
       <c r="AE209" s="12"/>
     </row>
-    <row r="210" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:31" s="15" customFormat="1" ht="15" thickBot="1">
       <c r="A210" s="5"/>
       <c r="B210" s="14"/>
       <c r="AC210" s="12"/>
       <c r="AD210" s="12"/>
       <c r="AE210" s="12"/>
     </row>
-    <row r="211" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:31" s="15" customFormat="1" ht="15">
       <c r="A211" s="35" t="s">
         <v>1</v>
       </c>
@@ -4102,7 +4097,7 @@
       <c r="AD211" s="12"/>
       <c r="AE211" s="12"/>
     </row>
-    <row r="212" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:31" s="15" customFormat="1">
       <c r="A212" s="33" t="s">
         <v>97</v>
       </c>
@@ -4111,7 +4106,7 @@
       <c r="AD212" s="12"/>
       <c r="AE212" s="12"/>
     </row>
-    <row r="213" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:31" s="15" customFormat="1">
       <c r="A213" s="33" t="s">
         <v>174</v>
       </c>
@@ -4120,7 +4115,7 @@
       <c r="AD213" s="12"/>
       <c r="AE213" s="12"/>
     </row>
-    <row r="214" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:31" s="15" customFormat="1">
       <c r="A214" s="33" t="s">
         <v>175</v>
       </c>
@@ -4129,14 +4124,14 @@
       <c r="AD214" s="12"/>
       <c r="AE214" s="12"/>
     </row>
-    <row r="215" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:31" s="15" customFormat="1" ht="15" thickBot="1">
       <c r="A215" s="9"/>
       <c r="B215" s="14"/>
       <c r="AC215" s="12"/>
       <c r="AD215" s="12"/>
       <c r="AE215" s="12"/>
     </row>
-    <row r="216" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:31" s="15" customFormat="1" ht="15">
       <c r="A216" s="1" t="s">
         <v>187</v>
       </c>
@@ -4145,7 +4140,7 @@
       <c r="AD216" s="12"/>
       <c r="AE216" s="12"/>
     </row>
-    <row r="217" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:31" s="15" customFormat="1">
       <c r="A217" s="4" t="s">
         <v>100</v>
       </c>
@@ -4156,7 +4151,7 @@
       <c r="AD217" s="12"/>
       <c r="AE217" s="12"/>
     </row>
-    <row r="218" spans="1:31" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:31" s="15" customFormat="1" ht="28">
       <c r="A218" s="4" t="s">
         <v>101</v>
       </c>
@@ -4167,7 +4162,7 @@
       <c r="AD218" s="12"/>
       <c r="AE218" s="12"/>
     </row>
-    <row r="219" spans="1:31" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:31" s="15" customFormat="1" ht="28">
       <c r="A219" s="4" t="s">
         <v>102</v>
       </c>
@@ -4178,7 +4173,7 @@
       <c r="AD219" s="12"/>
       <c r="AE219" s="12"/>
     </row>
-    <row r="220" spans="1:31" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:31" s="15" customFormat="1" ht="28">
       <c r="A220" s="4" t="s">
         <v>103</v>
       </c>
@@ -4189,7 +4184,7 @@
       <c r="AD220" s="12"/>
       <c r="AE220" s="12"/>
     </row>
-    <row r="221" spans="1:31" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:31" s="15" customFormat="1" ht="28">
       <c r="A221" s="4" t="s">
         <v>104</v>
       </c>
@@ -4200,7 +4195,7 @@
       <c r="AD221" s="12"/>
       <c r="AE221" s="12"/>
     </row>
-    <row r="222" spans="1:31" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:31" s="15" customFormat="1" ht="28">
       <c r="A222" s="4" t="s">
         <v>105</v>
       </c>
@@ -4211,7 +4206,7 @@
       <c r="AD222" s="12"/>
       <c r="AE222" s="12"/>
     </row>
-    <row r="223" spans="1:31" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:31" s="15" customFormat="1" ht="28">
       <c r="A223" s="4" t="s">
         <v>106</v>
       </c>
@@ -4222,7 +4217,7 @@
       <c r="AD223" s="12"/>
       <c r="AE223" s="12"/>
     </row>
-    <row r="224" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:31" s="15" customFormat="1">
       <c r="A224" s="4" t="s">
         <v>107</v>
       </c>
@@ -4233,14 +4228,14 @@
       <c r="AD224" s="12"/>
       <c r="AE224" s="12"/>
     </row>
-    <row r="225" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:31" s="15" customFormat="1" ht="15" thickBot="1">
       <c r="A225" s="2"/>
       <c r="B225" s="14"/>
       <c r="AC225" s="12"/>
       <c r="AD225" s="12"/>
       <c r="AE225" s="12"/>
     </row>
-    <row r="226" spans="1:31" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:31" s="15" customFormat="1" ht="14.25" customHeight="1">
       <c r="A226" s="8" t="s">
         <v>3</v>
       </c>
@@ -4249,7 +4244,7 @@
       <c r="AD226" s="12"/>
       <c r="AE226" s="12"/>
     </row>
-    <row r="227" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:31" s="15" customFormat="1">
       <c r="A227" s="10" t="s">
         <v>135</v>
       </c>
@@ -4258,7 +4253,7 @@
       <c r="AD227" s="12"/>
       <c r="AE227" s="12"/>
     </row>
-    <row r="228" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:31" s="15" customFormat="1">
       <c r="A228" s="10" t="s">
         <v>144</v>
       </c>
@@ -4269,217 +4264,182 @@
       <c r="AD228" s="12"/>
       <c r="AE228" s="12"/>
     </row>
-    <row r="229" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="10"/>
+    <row r="229" spans="1:31" s="15" customFormat="1">
+      <c r="A229" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="B229" s="17"/>
       <c r="AC229" s="12"/>
       <c r="AD229" s="12"/>
       <c r="AE229" s="12"/>
     </row>
-    <row r="230" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:31" s="15" customFormat="1">
       <c r="A230" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B230" s="17"/>
+        <v>144</v>
+      </c>
+      <c r="B230" s="17">
+        <v>0.99</v>
+      </c>
       <c r="AC230" s="12"/>
       <c r="AD230" s="12"/>
       <c r="AE230" s="12"/>
     </row>
-    <row r="231" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:31" s="15" customFormat="1">
       <c r="A231" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B231" s="17">
-        <v>0.99</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B231" s="17"/>
       <c r="AC231" s="12"/>
       <c r="AD231" s="12"/>
       <c r="AE231" s="12"/>
     </row>
-    <row r="232" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="10"/>
-      <c r="B232" s="17"/>
+    <row r="232" spans="1:31" s="15" customFormat="1">
+      <c r="A232" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B232" s="17">
+        <v>0.99</v>
+      </c>
       <c r="AC232" s="12"/>
       <c r="AD232" s="12"/>
       <c r="AE232" s="12"/>
     </row>
-    <row r="233" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:31" s="15" customFormat="1">
       <c r="A233" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B233" s="17"/>
       <c r="AC233" s="12"/>
       <c r="AD233" s="12"/>
       <c r="AE233" s="12"/>
     </row>
-    <row r="234" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:31" s="15" customFormat="1">
       <c r="A234" s="10" t="s">
         <v>144</v>
       </c>
       <c r="B234" s="17">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="AC234" s="12"/>
       <c r="AD234" s="12"/>
       <c r="AE234" s="12"/>
     </row>
-    <row r="235" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="10"/>
+    <row r="235" spans="1:31" s="15" customFormat="1">
+      <c r="A235" s="10" t="s">
+        <v>139</v>
+      </c>
       <c r="B235" s="17"/>
       <c r="AC235" s="12"/>
       <c r="AD235" s="12"/>
       <c r="AE235" s="12"/>
     </row>
-    <row r="236" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:31" s="15" customFormat="1">
       <c r="A236" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B236" s="17"/>
+        <v>144</v>
+      </c>
+      <c r="B236" s="17">
+        <v>0.98</v>
+      </c>
       <c r="AC236" s="12"/>
       <c r="AD236" s="12"/>
       <c r="AE236" s="12"/>
     </row>
-    <row r="237" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:31" s="15" customFormat="1">
       <c r="A237" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B237" s="17">
-        <v>0.98</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B237" s="17"/>
       <c r="AC237" s="12"/>
       <c r="AD237" s="12"/>
       <c r="AE237" s="12"/>
     </row>
-    <row r="238" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="10"/>
-      <c r="B238" s="17"/>
+    <row r="238" spans="1:31" s="15" customFormat="1">
+      <c r="A238" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B238" s="17">
+        <v>0.99</v>
+      </c>
       <c r="AC238" s="12"/>
       <c r="AD238" s="12"/>
       <c r="AE238" s="12"/>
     </row>
-    <row r="239" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="10" t="s">
-        <v>139</v>
-      </c>
+    <row r="239" spans="1:31" s="15" customFormat="1" ht="15" thickBot="1">
+      <c r="A239" s="11"/>
       <c r="B239" s="17"/>
       <c r="AC239" s="12"/>
       <c r="AD239" s="12"/>
       <c r="AE239" s="12"/>
     </row>
-    <row r="240" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B240" s="17">
-        <v>0.98</v>
-      </c>
-      <c r="AC240" s="12"/>
-      <c r="AD240" s="12"/>
-      <c r="AE240" s="12"/>
-    </row>
-    <row r="241" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="10"/>
-      <c r="B241" s="17"/>
+    <row r="241" spans="1:31" s="15" customFormat="1" ht="18">
+      <c r="A241" s="13"/>
+      <c r="C241" s="19"/>
+      <c r="D241" s="19">
+        <f>B7*B11*B100*B112*B126*B150*B154*B164*B173*B186*B218*B247</f>
+        <v>580800.00000000012</v>
+      </c>
+      <c r="E241" s="19"/>
+      <c r="F241" s="19"/>
+      <c r="G241" s="19"/>
+      <c r="H241" s="19"/>
+      <c r="I241" s="19"/>
+      <c r="J241" s="19"/>
+      <c r="K241" s="19"/>
+      <c r="L241" s="19"/>
+      <c r="M241" s="19"/>
       <c r="AC241" s="12"/>
       <c r="AD241" s="12"/>
       <c r="AE241" s="12"/>
     </row>
-    <row r="242" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B242" s="17"/>
+    <row r="242" spans="1:31" s="15" customFormat="1">
+      <c r="A242"/>
+      <c r="C242" s="19"/>
+      <c r="D242" s="19"/>
+      <c r="E242" s="19"/>
+      <c r="F242" s="19"/>
       <c r="AC242" s="12"/>
       <c r="AD242" s="12"/>
       <c r="AE242" s="12"/>
     </row>
-    <row r="243" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B243" s="17">
-        <v>0.99</v>
-      </c>
+    <row r="243" spans="1:31" s="15" customFormat="1" ht="18">
+      <c r="A243" s="13"/>
+      <c r="C243" s="19"/>
+      <c r="D243" s="19"/>
+      <c r="E243" s="19"/>
+      <c r="F243" s="19"/>
       <c r="AC243" s="12"/>
       <c r="AD243" s="12"/>
       <c r="AE243" s="12"/>
     </row>
-    <row r="244" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="11"/>
-      <c r="B244" s="17"/>
-      <c r="AC244" s="12"/>
-      <c r="AD244" s="12"/>
-      <c r="AE244" s="12"/>
-    </row>
-    <row r="246" spans="1:31" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A246" s="13"/>
-      <c r="C246" s="19"/>
-      <c r="D246" s="19">
-        <f>B7*B11*B100*B112*B126*B150*B154*B164*B173*B186*B218*B252</f>
-        <v>580800.00000000012</v>
-      </c>
-      <c r="E246" s="19"/>
-      <c r="F246" s="19"/>
-      <c r="G246" s="19"/>
-      <c r="H246" s="19"/>
-      <c r="I246" s="19"/>
-      <c r="J246" s="19"/>
-      <c r="K246" s="19"/>
-      <c r="L246" s="19"/>
-      <c r="M246" s="19"/>
-      <c r="AC246" s="12"/>
-      <c r="AD246" s="12"/>
-      <c r="AE246" s="12"/>
-    </row>
-    <row r="247" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A247"/>
-      <c r="C247" s="19"/>
-      <c r="D247" s="19"/>
-      <c r="E247" s="19"/>
-      <c r="F247" s="19"/>
+    <row r="246" spans="1:31" ht="20">
+      <c r="A246" s="28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="247" spans="1:31" s="15" customFormat="1" ht="18">
+      <c r="A247" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B247" s="16">
+        <v>20</v>
+      </c>
       <c r="AC247" s="12"/>
       <c r="AD247" s="12"/>
       <c r="AE247" s="12"/>
     </row>
-    <row r="248" spans="1:31" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A248" s="13"/>
-      <c r="C248" s="19"/>
-      <c r="D248" s="19"/>
-      <c r="E248" s="19"/>
-      <c r="F248" s="19"/>
+    <row r="248" spans="1:31" s="15" customFormat="1" ht="18">
+      <c r="A248" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B248" s="16">
+        <v>2</v>
+      </c>
       <c r="AC248" s="12"/>
       <c r="AD248" s="12"/>
       <c r="AE248" s="12"/>
     </row>
-    <row r="251" spans="1:31" ht="21" x14ac:dyDescent="0.25">
-      <c r="A251" s="28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="252" spans="1:31" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A252" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="B252" s="16">
-        <v>20</v>
-      </c>
-      <c r="AC252" s="12"/>
-      <c r="AD252" s="12"/>
-      <c r="AE252" s="12"/>
-    </row>
-    <row r="253" spans="1:31" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A253" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="B253" s="16">
-        <v>2</v>
-      </c>
-      <c r="AC253" s="12"/>
-      <c r="AD253" s="12"/>
-      <c r="AE253" s="12"/>
-    </row>
-    <row r="257" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A257" s="28"/>
+    <row r="252" spans="1:31" ht="20">
+      <c r="A252" s="28"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
@@ -4495,7 +4455,11 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4503,11 +4467,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A311" workbookViewId="0">
       <selection activeCell="B216" sqref="B216"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="53.6640625" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="15" bestFit="1" customWidth="1"/>
@@ -4523,32 +4487,32 @@
     <col min="29" max="31" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="B1" s="14"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="B2" s="14"/>
     </row>
-    <row r="3" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" thickBot="1">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15">
       <c r="A4" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B4" s="14"/>
     </row>
-    <row r="5" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" thickBot="1">
       <c r="A5" s="2"/>
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15">
       <c r="A6" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B6" s="14"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -4556,7 +4520,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -4564,7 +4528,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -4572,7 +4536,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -4580,7 +4544,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="3">
         <v>6</v>
       </c>
@@ -4588,7 +4552,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="3">
         <v>7</v>
       </c>
@@ -4596,7 +4560,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -4604,7 +4568,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="3">
         <v>9</v>
       </c>
@@ -4612,7 +4576,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="3">
         <v>10</v>
       </c>
@@ -4620,7 +4584,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="3">
         <v>11</v>
       </c>
@@ -4628,7 +4592,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="3">
         <v>12</v>
       </c>
@@ -4636,7 +4600,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="3">
         <v>13</v>
       </c>
@@ -4644,7 +4608,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="3">
         <v>14</v>
       </c>
@@ -4652,7 +4616,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="3">
         <v>15</v>
       </c>
@@ -4660,7 +4624,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="3">
         <v>16</v>
       </c>
@@ -4668,7 +4632,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="3">
         <v>17</v>
       </c>
@@ -4676,7 +4640,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="3">
         <v>18</v>
       </c>
@@ -4684,7 +4648,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="3">
         <v>19</v>
       </c>
@@ -4692,7 +4656,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="3">
         <v>20</v>
       </c>
@@ -4700,7 +4664,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="3">
         <v>21</v>
       </c>
@@ -4708,7 +4672,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="3">
         <v>22</v>
       </c>
@@ -4716,7 +4680,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="3">
         <v>23</v>
       </c>
@@ -4724,7 +4688,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="3">
         <v>24</v>
       </c>
@@ -4732,7 +4696,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="3">
         <v>25</v>
       </c>
@@ -4740,7 +4704,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" s="3">
         <v>26</v>
       </c>
@@ -4748,7 +4712,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" s="3">
         <v>27</v>
       </c>
@@ -4756,7 +4720,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="3">
         <v>28</v>
       </c>
@@ -4764,7 +4728,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="3">
         <v>29</v>
       </c>
@@ -4772,7 +4736,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="3">
         <v>30</v>
       </c>
@@ -4780,7 +4744,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="3">
         <v>31</v>
       </c>
@@ -4788,7 +4752,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" s="3">
         <v>32</v>
       </c>
@@ -4796,7 +4760,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" s="3">
         <v>33</v>
       </c>
@@ -4804,7 +4768,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" s="3">
         <v>34</v>
       </c>
@@ -4812,7 +4776,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" s="3">
         <v>35</v>
       </c>
@@ -4820,7 +4784,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" s="3">
         <v>36</v>
       </c>
@@ -4828,7 +4792,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" s="3">
         <v>37</v>
       </c>
@@ -4836,7 +4800,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" s="3">
         <v>38</v>
       </c>
@@ -4844,7 +4808,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" s="3">
         <v>39</v>
       </c>
@@ -4852,7 +4816,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" s="3">
         <v>40</v>
       </c>
@@ -4860,7 +4824,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" s="3">
         <v>41</v>
       </c>
@@ -4868,7 +4832,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" s="3">
         <v>42</v>
       </c>
@@ -4876,7 +4840,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" s="3">
         <v>43</v>
       </c>
@@ -4884,7 +4848,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" s="3">
         <v>44</v>
       </c>
@@ -4892,7 +4856,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" s="3">
         <v>45</v>
       </c>
@@ -4900,7 +4864,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" s="3">
         <v>46</v>
       </c>
@@ -4908,7 +4872,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" s="3">
         <v>47</v>
       </c>
@@ -4916,7 +4880,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" s="3">
         <v>48</v>
       </c>
@@ -4924,7 +4888,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" s="3">
         <v>49</v>
       </c>
@@ -4932,7 +4896,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" s="3">
         <v>50</v>
       </c>
@@ -4940,7 +4904,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" s="3">
         <v>51</v>
       </c>
@@ -4948,7 +4912,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" s="3">
         <v>52</v>
       </c>
@@ -4956,7 +4920,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" s="3">
         <v>53</v>
       </c>
@@ -4964,7 +4928,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" s="3">
         <v>54</v>
       </c>
@@ -4972,7 +4936,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" s="3">
         <v>55</v>
       </c>
@@ -4980,7 +4944,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" s="3">
         <v>56</v>
       </c>
@@ -4988,7 +4952,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" s="3">
         <v>57</v>
       </c>
@@ -4996,7 +4960,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" s="3">
         <v>58</v>
       </c>
@@ -5004,7 +4968,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" s="3">
         <v>59</v>
       </c>
@@ -5012,7 +4976,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65" s="3">
         <v>60</v>
       </c>
@@ -5020,7 +4984,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" s="3">
         <v>61</v>
       </c>
@@ -5028,7 +4992,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67" s="3">
         <v>62</v>
       </c>
@@ -5036,7 +5000,7 @@
         <v>1.905</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68" s="3">
         <v>63</v>
       </c>
@@ -5044,7 +5008,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69" s="3">
         <v>64</v>
       </c>
@@ -5052,7 +5016,7 @@
         <v>1.915</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70" s="3">
         <v>65</v>
       </c>
@@ -5060,7 +5024,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71" s="3">
         <v>66</v>
       </c>
@@ -5068,7 +5032,7 @@
         <v>1.925</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72" s="3">
         <v>67</v>
       </c>
@@ -5076,7 +5040,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73" s="3">
         <v>68</v>
       </c>
@@ -5084,7 +5048,7 @@
         <v>1.9350000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74" s="3">
         <v>69</v>
       </c>
@@ -5092,7 +5056,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75" s="3">
         <v>70</v>
       </c>
@@ -5100,7 +5064,7 @@
         <v>1.9450000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76" s="3">
         <v>71</v>
       </c>
@@ -5108,7 +5072,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77" s="3">
         <v>72</v>
       </c>
@@ -5116,7 +5080,7 @@
         <v>1.9550000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78" s="3">
         <v>73</v>
       </c>
@@ -5124,7 +5088,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79" s="3">
         <v>74</v>
       </c>
@@ -5132,7 +5096,7 @@
         <v>1.9650000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80" s="3">
         <v>75</v>
       </c>
@@ -5140,7 +5104,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81" s="3">
         <v>76</v>
       </c>
@@ -5148,7 +5112,7 @@
         <v>1.9750000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82" s="3">
         <v>77</v>
       </c>
@@ -5156,7 +5120,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83" s="3">
         <v>78</v>
       </c>
@@ -5164,7 +5128,7 @@
         <v>1.9850000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84" s="3">
         <v>79</v>
       </c>
@@ -5172,7 +5136,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85" s="3">
         <v>80</v>
       </c>
@@ -5180,7 +5144,7 @@
         <v>1.9950000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86" s="3">
         <v>81</v>
       </c>
@@ -5188,7 +5152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87" s="3">
         <v>82</v>
       </c>
@@ -5196,7 +5160,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88" s="3">
         <v>83</v>
       </c>
@@ -5204,7 +5168,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89" s="3">
         <v>84</v>
       </c>
@@ -5212,7 +5176,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90" s="3">
         <v>85</v>
       </c>
@@ -5220,7 +5184,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="A91" s="3">
         <v>86</v>
       </c>
@@ -5228,7 +5192,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92" s="3">
         <v>87</v>
       </c>
@@ -5236,7 +5200,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2">
       <c r="A93" s="3">
         <v>88</v>
       </c>
@@ -5244,7 +5208,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2">
       <c r="A94" s="3">
         <v>89</v>
       </c>
@@ -5252,7 +5216,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2">
       <c r="A95" s="3">
         <v>90</v>
       </c>
@@ -5260,7 +5224,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2">
       <c r="A96" s="3">
         <v>91</v>
       </c>
@@ -5268,7 +5232,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="A97" s="3">
         <v>92</v>
       </c>
@@ -5276,7 +5240,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2">
       <c r="A98" s="3">
         <v>93</v>
       </c>
@@ -5284,7 +5248,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2">
       <c r="A99" s="3">
         <v>94</v>
       </c>
@@ -5292,7 +5256,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2">
       <c r="A100" s="3">
         <v>95</v>
       </c>
@@ -5300,7 +5264,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2">
       <c r="A101" s="3">
         <v>96</v>
       </c>
@@ -5308,7 +5272,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2">
       <c r="A102" s="3">
         <v>97</v>
       </c>
@@ -5316,7 +5280,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2">
       <c r="A103" s="3">
         <v>98</v>
       </c>
@@ -5324,7 +5288,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2">
       <c r="A104" s="3">
         <v>99</v>
       </c>
@@ -5332,7 +5296,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2">
       <c r="A105" s="3">
         <v>100</v>
       </c>
@@ -5340,7 +5304,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2">
       <c r="A106" s="3" t="s">
         <v>112</v>
       </c>
@@ -5348,17 +5312,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="15" thickBot="1">
       <c r="A107" s="2"/>
       <c r="B107" s="14"/>
     </row>
-    <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" ht="15">
       <c r="A108" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B108" s="14"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2">
       <c r="A109" s="4" t="s">
         <v>4</v>
       </c>
@@ -5366,7 +5330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2">
       <c r="A110" s="4" t="s">
         <v>5</v>
       </c>
@@ -5374,7 +5338,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2">
       <c r="A111" s="4" t="s">
         <v>6</v>
       </c>
@@ -5382,7 +5346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2">
       <c r="A112" s="4" t="s">
         <v>7</v>
       </c>
@@ -5390,7 +5354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2">
       <c r="A113" s="4" t="s">
         <v>8</v>
       </c>
@@ -5398,7 +5362,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2">
       <c r="A114" s="4" t="s">
         <v>9</v>
       </c>
@@ -5406,7 +5370,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2">
       <c r="A115" s="4" t="s">
         <v>10</v>
       </c>
@@ -5414,7 +5378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2">
       <c r="A116" s="4" t="s">
         <v>11</v>
       </c>
@@ -5422,7 +5386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2">
       <c r="A117" s="4" t="s">
         <v>12</v>
       </c>
@@ -5430,7 +5394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2">
       <c r="A118" s="4" t="s">
         <v>13</v>
       </c>
@@ -5438,7 +5402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2">
       <c r="A119" s="4" t="s">
         <v>14</v>
       </c>
@@ -5446,7 +5410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2">
       <c r="A120" s="4" t="s">
         <v>15</v>
       </c>
@@ -5454,7 +5418,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2">
       <c r="A121" s="4" t="s">
         <v>16</v>
       </c>
@@ -5462,7 +5426,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2">
       <c r="A122" s="4" t="s">
         <v>17</v>
       </c>
@@ -5470,7 +5434,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2">
       <c r="A123" s="4" t="s">
         <v>18</v>
       </c>
@@ -5478,7 +5442,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2">
       <c r="A124" s="4" t="s">
         <v>19</v>
       </c>
@@ -5486,7 +5450,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2">
       <c r="A125" s="4" t="s">
         <v>20</v>
       </c>
@@ -5494,7 +5458,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2">
       <c r="A126" s="4" t="s">
         <v>21</v>
       </c>
@@ -5502,7 +5466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2">
       <c r="A127" s="4" t="s">
         <v>22</v>
       </c>
@@ -5510,7 +5474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2">
       <c r="A128" s="4" t="s">
         <v>23</v>
       </c>
@@ -5518,7 +5482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2">
       <c r="A129" s="4" t="s">
         <v>24</v>
       </c>
@@ -5526,7 +5490,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2">
       <c r="A130" s="4" t="s">
         <v>25</v>
       </c>
@@ -5534,7 +5498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2">
       <c r="A131" s="4" t="s">
         <v>26</v>
       </c>
@@ -5542,7 +5506,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2">
       <c r="A132" s="4" t="s">
         <v>27</v>
       </c>
@@ -5550,7 +5514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2">
       <c r="A133" s="4" t="s">
         <v>28</v>
       </c>
@@ -5558,7 +5522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2">
       <c r="A134" s="4" t="s">
         <v>29</v>
       </c>
@@ -5566,7 +5530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2">
       <c r="A135" s="4" t="s">
         <v>30</v>
       </c>
@@ -5574,7 +5538,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2">
       <c r="A136" s="4" t="s">
         <v>31</v>
       </c>
@@ -5582,7 +5546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2">
       <c r="A137" s="4" t="s">
         <v>32</v>
       </c>
@@ -5590,7 +5554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2">
       <c r="A138" s="4" t="s">
         <v>33</v>
       </c>
@@ -5598,7 +5562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2">
       <c r="A139" s="4" t="s">
         <v>34</v>
       </c>
@@ -5606,7 +5570,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2">
       <c r="A140" s="4" t="s">
         <v>35</v>
       </c>
@@ -5614,7 +5578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2">
       <c r="A141" s="4" t="s">
         <v>36</v>
       </c>
@@ -5622,7 +5586,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2">
       <c r="A142" s="4" t="s">
         <v>37</v>
       </c>
@@ -5630,7 +5594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2">
       <c r="A143" s="4" t="s">
         <v>38</v>
       </c>
@@ -5638,7 +5602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2">
       <c r="A144" s="4" t="s">
         <v>39</v>
       </c>
@@ -5646,7 +5610,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2">
       <c r="A145" s="4" t="s">
         <v>40</v>
       </c>
@@ -5654,7 +5618,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2">
       <c r="A146" s="4" t="s">
         <v>41</v>
       </c>
@@ -5662,7 +5626,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2">
       <c r="A147" s="4" t="s">
         <v>42</v>
       </c>
@@ -5670,7 +5634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2">
       <c r="A148" s="4" t="s">
         <v>43</v>
       </c>
@@ -5678,7 +5642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2">
       <c r="A149" s="4" t="s">
         <v>44</v>
       </c>
@@ -5686,7 +5650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2">
       <c r="A150" s="4" t="s">
         <v>45</v>
       </c>
@@ -5694,7 +5658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2">
       <c r="A151" s="4" t="s">
         <v>46</v>
       </c>
@@ -5702,7 +5666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2">
       <c r="A152" s="4" t="s">
         <v>47</v>
       </c>
@@ -5710,7 +5674,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2">
       <c r="A153" s="4" t="s">
         <v>146</v>
       </c>
@@ -5718,7 +5682,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2">
       <c r="A154" s="4" t="s">
         <v>48</v>
       </c>
@@ -5726,7 +5690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2">
       <c r="A155" s="4" t="s">
         <v>49</v>
       </c>
@@ -5734,7 +5698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2">
       <c r="A156" s="4" t="s">
         <v>50</v>
       </c>
@@ -5742,7 +5706,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2">
       <c r="A157" s="4" t="s">
         <v>51</v>
       </c>
@@ -5750,7 +5714,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2">
       <c r="A158" s="4" t="s">
         <v>52</v>
       </c>
@@ -5758,7 +5722,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2">
       <c r="A159" s="4" t="s">
         <v>53</v>
       </c>
@@ -5766,7 +5730,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2">
       <c r="A160" s="4" t="s">
         <v>54</v>
       </c>
@@ -5774,7 +5738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2">
       <c r="A161" s="4" t="s">
         <v>55</v>
       </c>
@@ -5782,7 +5746,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2">
       <c r="A162" s="4" t="s">
         <v>56</v>
       </c>
@@ -5790,7 +5754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2">
       <c r="A163" s="4" t="s">
         <v>57</v>
       </c>
@@ -5798,7 +5762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2">
       <c r="A164" s="4" t="s">
         <v>147</v>
       </c>
@@ -5806,7 +5770,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2">
       <c r="A165" s="4" t="s">
         <v>58</v>
       </c>
@@ -5814,7 +5778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2">
       <c r="A166" s="4" t="s">
         <v>59</v>
       </c>
@@ -5822,7 +5786,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2">
       <c r="A167" s="4" t="s">
         <v>60</v>
       </c>
@@ -5830,7 +5794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2">
       <c r="A168" s="4" t="s">
         <v>61</v>
       </c>
@@ -5838,7 +5802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2">
       <c r="A169" s="4" t="s">
         <v>62</v>
       </c>
@@ -5846,7 +5810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2">
       <c r="A170" s="4" t="s">
         <v>63</v>
       </c>
@@ -5854,7 +5818,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2">
       <c r="A171" s="4" t="s">
         <v>64</v>
       </c>
@@ -5862,7 +5826,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2">
       <c r="A172" s="4" t="s">
         <v>65</v>
       </c>
@@ -5870,7 +5834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2">
       <c r="A173" s="4" t="s">
         <v>66</v>
       </c>
@@ -5878,7 +5842,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2">
       <c r="A174" s="4" t="s">
         <v>67</v>
       </c>
@@ -5886,7 +5850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2">
       <c r="A175" s="4" t="s">
         <v>68</v>
       </c>
@@ -5894,7 +5858,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2">
       <c r="A176" s="4" t="s">
         <v>69</v>
       </c>
@@ -5902,7 +5866,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2">
       <c r="A177" s="4" t="s">
         <v>70</v>
       </c>
@@ -5910,7 +5874,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2">
       <c r="A178" s="4" t="s">
         <v>72</v>
       </c>
@@ -5918,7 +5882,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2">
       <c r="A179" s="4" t="s">
         <v>71</v>
       </c>
@@ -5926,7 +5890,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2">
       <c r="A180" s="4" t="s">
         <v>73</v>
       </c>
@@ -5934,7 +5898,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2">
       <c r="A181" s="4" t="s">
         <v>74</v>
       </c>
@@ -5942,7 +5906,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2">
       <c r="A182" s="4" t="s">
         <v>75</v>
       </c>
@@ -5950,7 +5914,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2">
       <c r="A183" s="4" t="s">
         <v>76</v>
       </c>
@@ -5958,7 +5922,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2">
       <c r="A184" s="4" t="s">
         <v>77</v>
       </c>
@@ -5966,7 +5930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2">
       <c r="A185" s="4" t="s">
         <v>78</v>
       </c>
@@ -5974,7 +5938,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2">
       <c r="A186" s="4" t="s">
         <v>79</v>
       </c>
@@ -5982,7 +5946,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2">
       <c r="A187" s="4" t="s">
         <v>80</v>
       </c>
@@ -5990,7 +5954,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2">
       <c r="A188" s="4" t="s">
         <v>81</v>
       </c>
@@ -5998,7 +5962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2">
       <c r="A189" s="4" t="s">
         <v>82</v>
       </c>
@@ -6006,7 +5970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2">
       <c r="A190" s="4" t="s">
         <v>83</v>
       </c>
@@ -6014,7 +5978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2">
       <c r="A191" s="4" t="s">
         <v>84</v>
       </c>
@@ -6022,7 +5986,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2">
       <c r="A192" s="4" t="s">
         <v>85</v>
       </c>
@@ -6030,17 +5994,17 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="193" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:31" ht="15" thickBot="1">
       <c r="A193" s="2"/>
       <c r="B193" s="14"/>
     </row>
-    <row r="194" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:31" ht="15">
       <c r="A194" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B194" s="14"/>
     </row>
-    <row r="195" spans="1:31" s="34" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:31" s="34" customFormat="1" ht="16" thickBot="1">
       <c r="A195" s="29"/>
       <c r="B195" s="30"/>
       <c r="C195" s="31"/>
@@ -6073,61 +6037,61 @@
       <c r="AD195" s="32"/>
       <c r="AE195" s="32"/>
     </row>
-    <row r="196" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:31" ht="15">
       <c r="A196" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B196" s="14"/>
     </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:31">
       <c r="A197" s="38" t="s">
         <v>150</v>
       </c>
       <c r="B197" s="24"/>
     </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:31">
       <c r="A198" s="38" t="s">
         <v>151</v>
       </c>
       <c r="B198" s="24"/>
     </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:31">
       <c r="A199" s="38" t="s">
         <v>152</v>
       </c>
       <c r="B199" s="24"/>
     </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:31">
       <c r="A200" s="38" t="s">
         <v>153</v>
       </c>
       <c r="B200" s="24"/>
     </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:31">
       <c r="A201" s="38" t="s">
         <v>154</v>
       </c>
       <c r="B201" s="24"/>
     </row>
-    <row r="202" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:31">
       <c r="A202" s="38" t="s">
         <v>155</v>
       </c>
       <c r="B202" s="24"/>
     </row>
-    <row r="203" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:31">
       <c r="A203" s="38" t="s">
         <v>156</v>
       </c>
       <c r="B203" s="24"/>
     </row>
-    <row r="204" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:31">
       <c r="A204" s="38" t="s">
         <v>157</v>
       </c>
       <c r="B204" s="24"/>
     </row>
-    <row r="205" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:31">
       <c r="A205" s="38" t="s">
         <v>158</v>
       </c>
@@ -6135,65 +6099,65 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:31">
       <c r="A206" s="38" t="s">
         <v>159</v>
       </c>
       <c r="B206" s="24"/>
     </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:31">
       <c r="A207" s="38" t="s">
         <v>160</v>
       </c>
       <c r="B207" s="24"/>
     </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:31">
       <c r="A208" s="38" t="s">
         <v>161</v>
       </c>
       <c r="B208" s="24"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7">
       <c r="A209" s="38" t="s">
         <v>162</v>
       </c>
       <c r="B209" s="24"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7">
       <c r="A210" s="38" t="s">
         <v>163</v>
       </c>
       <c r="B210" s="24"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7">
       <c r="A211" s="38" t="s">
         <v>164</v>
       </c>
       <c r="B211" s="24"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7">
       <c r="A212" s="38" t="s">
         <v>165</v>
       </c>
       <c r="B212" s="24"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7">
       <c r="A213" s="38" t="s">
         <v>166</v>
       </c>
       <c r="B213" s="24"/>
     </row>
-    <row r="214" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="15" thickBot="1">
       <c r="A214" s="6"/>
       <c r="B214" s="14"/>
     </row>
-    <row r="215" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" ht="15">
       <c r="A215" s="8" t="s">
         <v>189</v>
       </c>
       <c r="B215" s="14"/>
     </row>
-    <row r="216" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" ht="18">
       <c r="A216" s="4"/>
       <c r="B216" s="26">
         <v>2000</v>
@@ -6204,123 +6168,123 @@
       <c r="F216" s="21"/>
       <c r="G216" s="21"/>
     </row>
-    <row r="217" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="15" thickBot="1">
       <c r="A217" s="4"/>
       <c r="B217" s="14"/>
     </row>
-    <row r="218" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" ht="15">
       <c r="A218" s="8" t="s">
         <v>167</v>
       </c>
       <c r="B218" s="14"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7">
       <c r="A219" s="4"/>
       <c r="B219" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="15" thickBot="1">
       <c r="A220" s="4"/>
       <c r="B220" s="14"/>
     </row>
-    <row r="221" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" ht="15">
       <c r="A221" s="7" t="s">
         <v>181</v>
       </c>
       <c r="B221" s="14"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7">
       <c r="A222" s="36">
         <v>1</v>
       </c>
       <c r="B222" s="17"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7">
       <c r="A223" s="36">
         <v>2</v>
       </c>
       <c r="B223" s="17"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7">
       <c r="A224" s="36">
         <v>3</v>
       </c>
       <c r="B224" s="17"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2">
       <c r="A225" s="36">
         <v>4</v>
       </c>
       <c r="B225" s="17"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2">
       <c r="A226" s="36">
         <v>5</v>
       </c>
       <c r="B226" s="17"/>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2">
       <c r="A227" s="36">
         <v>6</v>
       </c>
       <c r="B227" s="17"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2">
       <c r="A228" s="36">
         <v>7</v>
       </c>
       <c r="B228" s="17"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2">
       <c r="A229" s="36">
         <v>8</v>
       </c>
       <c r="B229" s="17"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2">
       <c r="A230" s="36">
         <v>9</v>
       </c>
       <c r="B230" s="17"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2">
       <c r="A231" s="36">
         <v>10</v>
       </c>
       <c r="B231" s="17"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2">
       <c r="A232" s="36">
         <v>11</v>
       </c>
       <c r="B232" s="17"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2">
       <c r="A233" s="36">
         <v>12</v>
       </c>
       <c r="B233" s="17"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2">
       <c r="A234" s="36">
         <v>13</v>
       </c>
       <c r="B234" s="17"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2">
       <c r="A235" s="36">
         <v>14</v>
       </c>
       <c r="B235" s="17"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2">
       <c r="A236" s="36">
         <v>15</v>
       </c>
       <c r="B236" s="17"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2">
       <c r="A237" s="36">
         <v>16</v>
       </c>
@@ -6328,107 +6292,107 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2">
       <c r="A238" s="36">
         <v>17</v>
       </c>
       <c r="B238" s="17"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2">
       <c r="A239" s="36">
         <v>18</v>
       </c>
       <c r="B239" s="17"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2">
       <c r="A240" s="36">
         <v>19</v>
       </c>
       <c r="B240" s="17"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2">
       <c r="A241" s="36">
         <v>20</v>
       </c>
       <c r="B241" s="17"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2">
       <c r="A242" s="36">
         <v>21</v>
       </c>
       <c r="B242" s="17"/>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2">
       <c r="A243" s="36">
         <v>22</v>
       </c>
       <c r="B243" s="17"/>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2">
       <c r="A244" s="36">
         <v>23</v>
       </c>
       <c r="B244" s="17"/>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2">
       <c r="A245" s="36">
         <v>24</v>
       </c>
       <c r="B245" s="17"/>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2">
       <c r="A246" s="36">
         <v>25</v>
       </c>
       <c r="B246" s="17"/>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2">
       <c r="A247" s="36">
         <v>26</v>
       </c>
       <c r="B247" s="17"/>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2">
       <c r="A248" s="36">
         <v>27</v>
       </c>
       <c r="B248" s="17"/>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2">
       <c r="A249" s="36">
         <v>28</v>
       </c>
       <c r="B249" s="17"/>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2">
       <c r="A250" s="36">
         <v>29</v>
       </c>
       <c r="B250" s="17"/>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2">
       <c r="A251" s="36">
         <v>30</v>
       </c>
       <c r="B251" s="17"/>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2">
       <c r="A252" s="36" t="s">
         <v>110</v>
       </c>
       <c r="B252" s="17"/>
     </row>
-    <row r="253" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" ht="15" thickBot="1">
       <c r="A253" s="37"/>
       <c r="B253" s="14"/>
     </row>
-    <row r="254" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" ht="30">
       <c r="A254" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B254" s="14"/>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2">
       <c r="A255" s="4" t="s">
         <v>108</v>
       </c>
@@ -6436,7 +6400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2">
       <c r="A256" s="4" t="s">
         <v>109</v>
       </c>
@@ -6444,29 +6408,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" ht="15" thickBot="1">
       <c r="A257" s="4"/>
       <c r="B257" s="14"/>
     </row>
-    <row r="258" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" ht="30">
       <c r="A258" s="8" t="s">
         <v>191</v>
       </c>
       <c r="B258" s="14"/>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2">
       <c r="A259" s="36">
         <v>1</v>
       </c>
       <c r="B259" s="24"/>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2">
       <c r="A260" s="36">
         <v>2</v>
       </c>
       <c r="B260" s="24"/>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2">
       <c r="A261" s="36">
         <v>3</v>
       </c>
@@ -6474,23 +6438,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2">
       <c r="A262" s="36" t="s">
         <v>113</v>
       </c>
       <c r="B262" s="24"/>
     </row>
-    <row r="263" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" ht="15" thickBot="1">
       <c r="A263" s="5"/>
       <c r="B263" s="24"/>
     </row>
-    <row r="264" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" ht="15">
       <c r="A264" s="8" t="s">
         <v>184</v>
       </c>
       <c r="B264" s="14"/>
     </row>
-    <row r="265" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" ht="28.5" customHeight="1">
       <c r="A265" s="4" t="s">
         <v>125</v>
       </c>
@@ -6498,7 +6462,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" ht="43.5" customHeight="1">
       <c r="A266" s="4" t="s">
         <v>126</v>
       </c>
@@ -6506,7 +6470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" ht="46.5" customHeight="1">
       <c r="A267" s="4" t="s">
         <v>127</v>
       </c>
@@ -6514,7 +6478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" ht="45" customHeight="1">
       <c r="A268" s="4" t="s">
         <v>128</v>
       </c>
@@ -6522,7 +6486,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" ht="45" customHeight="1">
       <c r="A269" s="4" t="s">
         <v>129</v>
       </c>
@@ -6530,7 +6494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" ht="60" customHeight="1">
       <c r="A270" s="4" t="s">
         <v>130</v>
       </c>
@@ -6538,7 +6502,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" ht="30" customHeight="1">
       <c r="A271" s="4" t="s">
         <v>131</v>
       </c>
@@ -6546,7 +6510,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" ht="45.75" customHeight="1">
       <c r="A272" s="4" t="s">
         <v>132</v>
       </c>
@@ -6554,7 +6518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:37" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:37" ht="29.25" customHeight="1">
       <c r="A273" s="4" t="s">
         <v>133</v>
       </c>
@@ -6562,7 +6526,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="274" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:37">
       <c r="A274" s="4" t="s">
         <v>134</v>
       </c>
@@ -6570,23 +6534,23 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="275" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:37" ht="15" thickBot="1">
       <c r="A275" s="4"/>
       <c r="B275" s="14"/>
     </row>
-    <row r="276" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:37" ht="15">
       <c r="A276" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B276" s="14"/>
     </row>
-    <row r="277" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:37">
       <c r="A277" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B277" s="14"/>
     </row>
-    <row r="278" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:37" ht="30" customHeight="1">
       <c r="A278" s="4" t="s">
         <v>115</v>
       </c>
@@ -6594,7 +6558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:37" ht="15.75" customHeight="1">
       <c r="A279" s="4" t="s">
         <v>124</v>
       </c>
@@ -6614,7 +6578,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="280" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:37">
       <c r="A280" s="4" t="s">
         <v>116</v>
       </c>
@@ -6650,7 +6614,7 @@
       <c r="AJ280" s="12"/>
       <c r="AK280" s="12"/>
     </row>
-    <row r="281" spans="1:37" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:37" ht="30.75" customHeight="1">
       <c r="A281" s="4" t="s">
         <v>117</v>
       </c>
@@ -6686,7 +6650,7 @@
       <c r="AJ281" s="12"/>
       <c r="AK281" s="12"/>
     </row>
-    <row r="282" spans="1:37" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:37" ht="32.25" customHeight="1">
       <c r="A282" s="4" t="s">
         <v>118</v>
       </c>
@@ -6722,7 +6686,7 @@
       <c r="AJ282" s="12"/>
       <c r="AK282" s="12"/>
     </row>
-    <row r="283" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:37">
       <c r="A283" s="4" t="s">
         <v>119</v>
       </c>
@@ -6758,7 +6722,7 @@
       <c r="AJ283" s="12"/>
       <c r="AK283" s="12"/>
     </row>
-    <row r="284" spans="1:37" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:37" ht="30.75" customHeight="1">
       <c r="A284" s="4" t="s">
         <v>120</v>
       </c>
@@ -6794,7 +6758,7 @@
       <c r="AJ284" s="12"/>
       <c r="AK284" s="12"/>
     </row>
-    <row r="285" spans="1:37" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:37" ht="30.75" customHeight="1">
       <c r="A285" s="4" t="s">
         <v>121</v>
       </c>
@@ -6830,7 +6794,7 @@
       <c r="AJ285" s="12"/>
       <c r="AK285" s="12"/>
     </row>
-    <row r="286" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:37" ht="16.5" customHeight="1">
       <c r="A286" s="4" t="s">
         <v>122</v>
       </c>
@@ -6866,7 +6830,7 @@
       <c r="AJ286" s="12"/>
       <c r="AK286" s="12"/>
     </row>
-    <row r="287" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:37" ht="15" customHeight="1">
       <c r="A287" s="4" t="s">
         <v>123</v>
       </c>
@@ -6902,17 +6866,17 @@
       <c r="AJ287" s="12"/>
       <c r="AK287" s="12"/>
     </row>
-    <row r="288" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:37" ht="15.75" customHeight="1" thickBot="1">
       <c r="A288" s="4"/>
       <c r="B288" s="14"/>
     </row>
-    <row r="289" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" ht="15">
       <c r="A289" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B289" s="14"/>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2">
       <c r="A290" s="5">
         <v>1</v>
       </c>
@@ -6920,7 +6884,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2">
       <c r="A291" s="5">
         <v>2</v>
       </c>
@@ -6928,7 +6892,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2">
       <c r="A292" s="5">
         <v>3</v>
       </c>
@@ -6936,7 +6900,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2">
       <c r="A293" s="5">
         <v>4</v>
       </c>
@@ -6944,7 +6908,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2">
       <c r="A294" s="5">
         <v>5</v>
       </c>
@@ -6952,7 +6916,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2">
       <c r="A295" s="5">
         <v>6</v>
       </c>
@@ -6960,7 +6924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2">
       <c r="A296" s="5">
         <v>7</v>
       </c>
@@ -6968,7 +6932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2">
       <c r="A297" s="5">
         <v>8</v>
       </c>
@@ -6976,7 +6940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2">
       <c r="A298" s="5">
         <v>9</v>
       </c>
@@ -6984,7 +6948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2">
       <c r="A299" s="5">
         <v>10</v>
       </c>
@@ -6992,7 +6956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2">
       <c r="A300" s="5">
         <v>11</v>
       </c>
@@ -7000,7 +6964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2">
       <c r="A301" s="5">
         <v>12</v>
       </c>
@@ -7008,7 +6972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2">
       <c r="A302" s="5">
         <v>13</v>
       </c>
@@ -7016,7 +6980,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2">
       <c r="A303" s="5">
         <v>14</v>
       </c>
@@ -7024,7 +6988,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2">
       <c r="A304" s="5">
         <v>15</v>
       </c>
@@ -7032,7 +6996,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2">
       <c r="A305" s="5">
         <v>16</v>
       </c>
@@ -7040,7 +7004,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2">
       <c r="A306" s="5">
         <v>17</v>
       </c>
@@ -7048,7 +7012,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2">
       <c r="A307" s="5">
         <v>18</v>
       </c>
@@ -7056,7 +7020,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2">
       <c r="A308" s="5">
         <v>19</v>
       </c>
@@ -7064,7 +7028,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2">
       <c r="A309" s="5">
         <v>20</v>
       </c>
@@ -7072,7 +7036,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2">
       <c r="A310" s="5">
         <v>21</v>
       </c>
@@ -7080,7 +7044,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2">
       <c r="A311" s="5">
         <v>22</v>
       </c>
@@ -7088,7 +7052,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2">
       <c r="A312" s="5">
         <v>23</v>
       </c>
@@ -7096,7 +7060,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2">
       <c r="A313" s="5">
         <v>24</v>
       </c>
@@ -7104,7 +7068,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2">
       <c r="A314" s="5" t="s">
         <v>111</v>
       </c>
@@ -7112,17 +7076,17 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" ht="15" thickBot="1">
       <c r="A315" s="9"/>
       <c r="B315" s="14"/>
     </row>
-    <row r="316" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" ht="15">
       <c r="A316" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B316" s="14"/>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2">
       <c r="A317" s="4" t="s">
         <v>97</v>
       </c>
@@ -7130,7 +7094,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" ht="14.25" customHeight="1">
       <c r="A318" s="4" t="s">
         <v>98</v>
       </c>
@@ -7138,7 +7102,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2">
       <c r="A319" s="4" t="s">
         <v>99</v>
       </c>
@@ -7146,17 +7110,17 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" ht="15" thickBot="1">
       <c r="A320" s="2"/>
       <c r="B320" s="14"/>
     </row>
-    <row r="321" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" ht="15">
       <c r="A321" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B321" s="14"/>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2">
       <c r="A322" s="4" t="s">
         <v>100</v>
       </c>
@@ -7164,7 +7128,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" ht="28">
       <c r="A323" s="4" t="s">
         <v>101</v>
       </c>
@@ -7172,7 +7136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" ht="28">
       <c r="A324" s="4" t="s">
         <v>102</v>
       </c>
@@ -7180,7 +7144,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" ht="28">
       <c r="A325" s="4" t="s">
         <v>168</v>
       </c>
@@ -7188,7 +7152,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" ht="28">
       <c r="A326" s="4" t="s">
         <v>104</v>
       </c>
@@ -7196,7 +7160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" ht="28">
       <c r="A327" s="4" t="s">
         <v>105</v>
       </c>
@@ -7204,7 +7168,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" ht="28">
       <c r="A328" s="4" t="s">
         <v>106</v>
       </c>
@@ -7212,7 +7176,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2">
       <c r="A329" s="4" t="s">
         <v>107</v>
       </c>
@@ -7220,23 +7184,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" ht="15" thickBot="1">
       <c r="A330" s="2"/>
       <c r="B330" s="14"/>
     </row>
-    <row r="331" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" ht="14.25" customHeight="1">
       <c r="A331" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B331" s="14"/>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2">
       <c r="A332" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B332" s="14"/>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2">
       <c r="A333" s="10" t="s">
         <v>144</v>
       </c>
@@ -7244,19 +7208,19 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2">
       <c r="A334" s="10" t="s">
         <v>145</v>
       </c>
       <c r="B334" s="17"/>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2">
       <c r="A335" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B335" s="17"/>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2">
       <c r="A336" s="10" t="s">
         <v>144</v>
       </c>
@@ -7264,19 +7228,19 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6">
       <c r="A337" s="10" t="s">
         <v>145</v>
       </c>
       <c r="B337" s="17"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6">
       <c r="A338" s="10" t="s">
         <v>137</v>
       </c>
       <c r="B338" s="17"/>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6">
       <c r="A339" s="10" t="s">
         <v>144</v>
       </c>
@@ -7284,19 +7248,19 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6">
       <c r="A340" s="10" t="s">
         <v>145</v>
       </c>
       <c r="B340" s="17"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6">
       <c r="A341" s="10" t="s">
         <v>138</v>
       </c>
       <c r="B341" s="17"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6">
       <c r="A342" s="10" t="s">
         <v>144</v>
       </c>
@@ -7304,19 +7268,19 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6">
       <c r="A343" s="10" t="s">
         <v>145</v>
       </c>
       <c r="B343" s="17"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6">
       <c r="A344" s="10" t="s">
         <v>139</v>
       </c>
       <c r="B344" s="17"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6">
       <c r="A345" s="10" t="s">
         <v>144</v>
       </c>
@@ -7324,19 +7288,19 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6">
       <c r="A346" s="10" t="s">
         <v>145</v>
       </c>
       <c r="B346" s="17"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6">
       <c r="A347" s="10" t="s">
         <v>140</v>
       </c>
       <c r="B347" s="17"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6">
       <c r="A348" s="10" t="s">
         <v>144</v>
       </c>
@@ -7344,13 +7308,13 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" ht="15" thickBot="1">
       <c r="A349" s="11" t="s">
         <v>145</v>
       </c>
       <c r="B349" s="17"/>
     </row>
-    <row r="351" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" ht="18">
       <c r="A351" s="13" t="s">
         <v>142</v>
       </c>
@@ -7359,13 +7323,13 @@
       <c r="E351" s="19"/>
       <c r="F351" s="19"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6">
       <c r="C352" s="19"/>
       <c r="D352" s="19"/>
       <c r="E352" s="19"/>
       <c r="F352" s="19"/>
     </row>
-    <row r="353" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" ht="18">
       <c r="A353" s="13" t="s">
         <v>143</v>
       </c>
@@ -7374,12 +7338,12 @@
       <c r="E353" s="19"/>
       <c r="F353" s="19"/>
     </row>
-    <row r="356" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" ht="20">
       <c r="A356" s="28" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" ht="18">
       <c r="A357" s="20" t="s">
         <v>172</v>
       </c>
@@ -7387,7 +7351,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" ht="18">
       <c r="A358" s="20" t="s">
         <v>149</v>
       </c>
@@ -7409,6 +7373,10 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/public/local/fixtures/calculator/Мониторинг калькуляторы.xlsx
+++ b/public/local/fixtures/calculator/Мониторинг калькуляторы.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uzhne/project-extras/imarket/expert/src/public/local/fixtures/calculator/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="1400" windowWidth="28800" windowHeight="19580"/>
+    <workbookView xWindow="900" yWindow="460" windowWidth="37500" windowHeight="21140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Мониторинг одного здания" sheetId="3" r:id="rId1"/>
     <sheet name="Мониторинг нескольких зданий" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" refMode="R1C1" concurrentCalc="0"/>
+  <calcPr calcId="150001" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="191">
   <si>
     <t>Адрес</t>
   </si>
@@ -314,12 +319,6 @@
   </si>
   <si>
     <t>Объекты находятся в одном месте</t>
-  </si>
-  <si>
-    <t>Рассотояние между объектами не более 0,5км</t>
-  </si>
-  <si>
-    <t>Расстояние между объектами 0,5-3км</t>
   </si>
   <si>
     <t>Зона действия общественного транспорта</t>
@@ -610,7 +609,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -843,23 +842,6 @@
       <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0" tint="-0.14999847407452621"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.14999847407452621"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1274,10 +1256,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1355,13 +1337,7 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1370,6 +1346,9 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1687,7 +1666,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1695,13 +1674,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE252"/>
+  <dimension ref="A1:AE249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="A242" sqref="A242"/>
+    <sheetView topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="C215" sqref="C215"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="15" bestFit="1" customWidth="1"/>
@@ -1717,32 +1696,32 @@
     <col min="29" max="31" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B1" s="14"/>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B2" s="14"/>
     </row>
-    <row r="3" spans="1:31" ht="15" thickBot="1">
+    <row r="3" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:31" ht="15">
+    <row r="4" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B4" s="14"/>
     </row>
-    <row r="5" spans="1:31" ht="15" thickBot="1">
+    <row r="5" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:31" ht="15">
+    <row r="6" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B6" s="14"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1750,23 +1729,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="15" customFormat="1" ht="15" thickBot="1">
+    <row r="8" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="14"/>
       <c r="AC8" s="12"/>
       <c r="AD8" s="12"/>
       <c r="AE8" s="12"/>
     </row>
-    <row r="9" spans="1:31" s="15" customFormat="1" ht="15">
+    <row r="9" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B9" s="14"/>
       <c r="AC9" s="12"/>
       <c r="AD9" s="12"/>
       <c r="AE9" s="12"/>
     </row>
-    <row r="10" spans="1:31" s="15" customFormat="1">
+    <row r="10" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -1777,7 +1756,7 @@
       <c r="AD10" s="12"/>
       <c r="AE10" s="12"/>
     </row>
-    <row r="11" spans="1:31" s="15" customFormat="1">
+    <row r="11" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -1788,7 +1767,7 @@
       <c r="AD11" s="12"/>
       <c r="AE11" s="12"/>
     </row>
-    <row r="12" spans="1:31" s="15" customFormat="1">
+    <row r="12" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -1799,7 +1778,7 @@
       <c r="AD12" s="12"/>
       <c r="AE12" s="12"/>
     </row>
-    <row r="13" spans="1:31" s="15" customFormat="1">
+    <row r="13" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1810,7 +1789,7 @@
       <c r="AD13" s="12"/>
       <c r="AE13" s="12"/>
     </row>
-    <row r="14" spans="1:31" s="15" customFormat="1">
+    <row r="14" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -1821,7 +1800,7 @@
       <c r="AD14" s="12"/>
       <c r="AE14" s="12"/>
     </row>
-    <row r="15" spans="1:31" s="15" customFormat="1">
+    <row r="15" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -1832,7 +1811,7 @@
       <c r="AD15" s="12"/>
       <c r="AE15" s="12"/>
     </row>
-    <row r="16" spans="1:31" s="15" customFormat="1">
+    <row r="16" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -1843,7 +1822,7 @@
       <c r="AD16" s="12"/>
       <c r="AE16" s="12"/>
     </row>
-    <row r="17" spans="1:31" s="15" customFormat="1">
+    <row r="17" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -1854,7 +1833,7 @@
       <c r="AD17" s="12"/>
       <c r="AE17" s="12"/>
     </row>
-    <row r="18" spans="1:31" s="15" customFormat="1">
+    <row r="18" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -1865,7 +1844,7 @@
       <c r="AD18" s="12"/>
       <c r="AE18" s="12"/>
     </row>
-    <row r="19" spans="1:31" s="15" customFormat="1">
+    <row r="19" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -1876,7 +1855,7 @@
       <c r="AD19" s="12"/>
       <c r="AE19" s="12"/>
     </row>
-    <row r="20" spans="1:31" s="15" customFormat="1">
+    <row r="20" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
@@ -1887,7 +1866,7 @@
       <c r="AD20" s="12"/>
       <c r="AE20" s="12"/>
     </row>
-    <row r="21" spans="1:31" s="15" customFormat="1">
+    <row r="21" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
@@ -1898,7 +1877,7 @@
       <c r="AD21" s="12"/>
       <c r="AE21" s="12"/>
     </row>
-    <row r="22" spans="1:31" s="15" customFormat="1">
+    <row r="22" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
@@ -1909,7 +1888,7 @@
       <c r="AD22" s="12"/>
       <c r="AE22" s="12"/>
     </row>
-    <row r="23" spans="1:31" s="15" customFormat="1">
+    <row r="23" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -1920,7 +1899,7 @@
       <c r="AD23" s="12"/>
       <c r="AE23" s="12"/>
     </row>
-    <row r="24" spans="1:31" s="15" customFormat="1">
+    <row r="24" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
@@ -1931,7 +1910,7 @@
       <c r="AD24" s="12"/>
       <c r="AE24" s="12"/>
     </row>
-    <row r="25" spans="1:31" s="15" customFormat="1">
+    <row r="25" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
@@ -1942,7 +1921,7 @@
       <c r="AD25" s="12"/>
       <c r="AE25" s="12"/>
     </row>
-    <row r="26" spans="1:31" s="15" customFormat="1">
+    <row r="26" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1953,7 +1932,7 @@
       <c r="AD26" s="12"/>
       <c r="AE26" s="12"/>
     </row>
-    <row r="27" spans="1:31" s="15" customFormat="1">
+    <row r="27" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
@@ -1964,7 +1943,7 @@
       <c r="AD27" s="12"/>
       <c r="AE27" s="12"/>
     </row>
-    <row r="28" spans="1:31" s="15" customFormat="1">
+    <row r="28" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>22</v>
       </c>
@@ -1975,7 +1954,7 @@
       <c r="AD28" s="12"/>
       <c r="AE28" s="12"/>
     </row>
-    <row r="29" spans="1:31" s="15" customFormat="1">
+    <row r="29" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
@@ -1986,7 +1965,7 @@
       <c r="AD29" s="12"/>
       <c r="AE29" s="12"/>
     </row>
-    <row r="30" spans="1:31" s="15" customFormat="1">
+    <row r="30" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
@@ -1997,7 +1976,7 @@
       <c r="AD30" s="12"/>
       <c r="AE30" s="12"/>
     </row>
-    <row r="31" spans="1:31" s="15" customFormat="1">
+    <row r="31" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>25</v>
       </c>
@@ -2008,7 +1987,7 @@
       <c r="AD31" s="12"/>
       <c r="AE31" s="12"/>
     </row>
-    <row r="32" spans="1:31" s="15" customFormat="1">
+    <row r="32" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
@@ -2019,7 +1998,7 @@
       <c r="AD32" s="12"/>
       <c r="AE32" s="12"/>
     </row>
-    <row r="33" spans="1:31" s="15" customFormat="1">
+    <row r="33" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>27</v>
       </c>
@@ -2030,7 +2009,7 @@
       <c r="AD33" s="12"/>
       <c r="AE33" s="12"/>
     </row>
-    <row r="34" spans="1:31" s="15" customFormat="1">
+    <row r="34" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>28</v>
       </c>
@@ -2041,7 +2020,7 @@
       <c r="AD34" s="12"/>
       <c r="AE34" s="12"/>
     </row>
-    <row r="35" spans="1:31" s="15" customFormat="1">
+    <row r="35" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>29</v>
       </c>
@@ -2052,7 +2031,7 @@
       <c r="AD35" s="12"/>
       <c r="AE35" s="12"/>
     </row>
-    <row r="36" spans="1:31" s="15" customFormat="1">
+    <row r="36" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
@@ -2063,7 +2042,7 @@
       <c r="AD36" s="12"/>
       <c r="AE36" s="12"/>
     </row>
-    <row r="37" spans="1:31" s="15" customFormat="1">
+    <row r="37" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>31</v>
       </c>
@@ -2074,7 +2053,7 @@
       <c r="AD37" s="12"/>
       <c r="AE37" s="12"/>
     </row>
-    <row r="38" spans="1:31" s="15" customFormat="1">
+    <row r="38" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>32</v>
       </c>
@@ -2085,7 +2064,7 @@
       <c r="AD38" s="12"/>
       <c r="AE38" s="12"/>
     </row>
-    <row r="39" spans="1:31" s="15" customFormat="1">
+    <row r="39" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>33</v>
       </c>
@@ -2096,7 +2075,7 @@
       <c r="AD39" s="12"/>
       <c r="AE39" s="12"/>
     </row>
-    <row r="40" spans="1:31" s="15" customFormat="1">
+    <row r="40" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>34</v>
       </c>
@@ -2107,7 +2086,7 @@
       <c r="AD40" s="12"/>
       <c r="AE40" s="12"/>
     </row>
-    <row r="41" spans="1:31" s="15" customFormat="1">
+    <row r="41" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>35</v>
       </c>
@@ -2118,7 +2097,7 @@
       <c r="AD41" s="12"/>
       <c r="AE41" s="12"/>
     </row>
-    <row r="42" spans="1:31" s="15" customFormat="1">
+    <row r="42" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>36</v>
       </c>
@@ -2129,7 +2108,7 @@
       <c r="AD42" s="12"/>
       <c r="AE42" s="12"/>
     </row>
-    <row r="43" spans="1:31" s="15" customFormat="1">
+    <row r="43" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>37</v>
       </c>
@@ -2140,7 +2119,7 @@
       <c r="AD43" s="12"/>
       <c r="AE43" s="12"/>
     </row>
-    <row r="44" spans="1:31" s="15" customFormat="1">
+    <row r="44" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>38</v>
       </c>
@@ -2151,7 +2130,7 @@
       <c r="AD44" s="12"/>
       <c r="AE44" s="12"/>
     </row>
-    <row r="45" spans="1:31" s="15" customFormat="1">
+    <row r="45" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>39</v>
       </c>
@@ -2162,7 +2141,7 @@
       <c r="AD45" s="12"/>
       <c r="AE45" s="12"/>
     </row>
-    <row r="46" spans="1:31" s="15" customFormat="1">
+    <row r="46" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>40</v>
       </c>
@@ -2173,7 +2152,7 @@
       <c r="AD46" s="12"/>
       <c r="AE46" s="12"/>
     </row>
-    <row r="47" spans="1:31" s="15" customFormat="1">
+    <row r="47" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>41</v>
       </c>
@@ -2184,7 +2163,7 @@
       <c r="AD47" s="12"/>
       <c r="AE47" s="12"/>
     </row>
-    <row r="48" spans="1:31" s="15" customFormat="1">
+    <row r="48" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>42</v>
       </c>
@@ -2195,7 +2174,7 @@
       <c r="AD48" s="12"/>
       <c r="AE48" s="12"/>
     </row>
-    <row r="49" spans="1:31" s="15" customFormat="1">
+    <row r="49" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>43</v>
       </c>
@@ -2206,7 +2185,7 @@
       <c r="AD49" s="12"/>
       <c r="AE49" s="12"/>
     </row>
-    <row r="50" spans="1:31" s="15" customFormat="1">
+    <row r="50" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>44</v>
       </c>
@@ -2217,7 +2196,7 @@
       <c r="AD50" s="12"/>
       <c r="AE50" s="12"/>
     </row>
-    <row r="51" spans="1:31" s="15" customFormat="1">
+    <row r="51" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>45</v>
       </c>
@@ -2228,7 +2207,7 @@
       <c r="AD51" s="12"/>
       <c r="AE51" s="12"/>
     </row>
-    <row r="52" spans="1:31" s="15" customFormat="1">
+    <row r="52" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>46</v>
       </c>
@@ -2239,7 +2218,7 @@
       <c r="AD52" s="12"/>
       <c r="AE52" s="12"/>
     </row>
-    <row r="53" spans="1:31" s="15" customFormat="1">
+    <row r="53" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>47</v>
       </c>
@@ -2250,9 +2229,9 @@
       <c r="AD53" s="12"/>
       <c r="AE53" s="12"/>
     </row>
-    <row r="54" spans="1:31" s="15" customFormat="1">
+    <row r="54" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B54" s="14">
         <v>2.5</v>
@@ -2261,7 +2240,7 @@
       <c r="AD54" s="12"/>
       <c r="AE54" s="12"/>
     </row>
-    <row r="55" spans="1:31" s="15" customFormat="1">
+    <row r="55" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>48</v>
       </c>
@@ -2272,7 +2251,7 @@
       <c r="AD55" s="12"/>
       <c r="AE55" s="12"/>
     </row>
-    <row r="56" spans="1:31" s="15" customFormat="1">
+    <row r="56" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>49</v>
       </c>
@@ -2283,7 +2262,7 @@
       <c r="AD56" s="12"/>
       <c r="AE56" s="12"/>
     </row>
-    <row r="57" spans="1:31" s="15" customFormat="1">
+    <row r="57" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>50</v>
       </c>
@@ -2294,7 +2273,7 @@
       <c r="AD57" s="12"/>
       <c r="AE57" s="12"/>
     </row>
-    <row r="58" spans="1:31" s="15" customFormat="1">
+    <row r="58" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>51</v>
       </c>
@@ -2305,7 +2284,7 @@
       <c r="AD58" s="12"/>
       <c r="AE58" s="12"/>
     </row>
-    <row r="59" spans="1:31" s="15" customFormat="1">
+    <row r="59" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>52</v>
       </c>
@@ -2316,7 +2295,7 @@
       <c r="AD59" s="12"/>
       <c r="AE59" s="12"/>
     </row>
-    <row r="60" spans="1:31" s="15" customFormat="1">
+    <row r="60" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>53</v>
       </c>
@@ -2327,7 +2306,7 @@
       <c r="AD60" s="12"/>
       <c r="AE60" s="12"/>
     </row>
-    <row r="61" spans="1:31" s="15" customFormat="1">
+    <row r="61" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>54</v>
       </c>
@@ -2338,7 +2317,7 @@
       <c r="AD61" s="12"/>
       <c r="AE61" s="12"/>
     </row>
-    <row r="62" spans="1:31" s="15" customFormat="1">
+    <row r="62" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>55</v>
       </c>
@@ -2349,7 +2328,7 @@
       <c r="AD62" s="12"/>
       <c r="AE62" s="12"/>
     </row>
-    <row r="63" spans="1:31" s="15" customFormat="1">
+    <row r="63" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>56</v>
       </c>
@@ -2360,7 +2339,7 @@
       <c r="AD63" s="12"/>
       <c r="AE63" s="12"/>
     </row>
-    <row r="64" spans="1:31" s="15" customFormat="1">
+    <row r="64" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>57</v>
       </c>
@@ -2371,9 +2350,9 @@
       <c r="AD64" s="12"/>
       <c r="AE64" s="12"/>
     </row>
-    <row r="65" spans="1:31" s="15" customFormat="1">
+    <row r="65" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B65" s="14">
         <v>2.5</v>
@@ -2382,7 +2361,7 @@
       <c r="AD65" s="12"/>
       <c r="AE65" s="12"/>
     </row>
-    <row r="66" spans="1:31" s="15" customFormat="1">
+    <row r="66" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>58</v>
       </c>
@@ -2393,7 +2372,7 @@
       <c r="AD66" s="12"/>
       <c r="AE66" s="12"/>
     </row>
-    <row r="67" spans="1:31" s="15" customFormat="1">
+    <row r="67" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>59</v>
       </c>
@@ -2404,7 +2383,7 @@
       <c r="AD67" s="12"/>
       <c r="AE67" s="12"/>
     </row>
-    <row r="68" spans="1:31" s="15" customFormat="1">
+    <row r="68" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>60</v>
       </c>
@@ -2415,7 +2394,7 @@
       <c r="AD68" s="12"/>
       <c r="AE68" s="12"/>
     </row>
-    <row r="69" spans="1:31" s="15" customFormat="1">
+    <row r="69" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>61</v>
       </c>
@@ -2426,7 +2405,7 @@
       <c r="AD69" s="12"/>
       <c r="AE69" s="12"/>
     </row>
-    <row r="70" spans="1:31" s="15" customFormat="1">
+    <row r="70" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>62</v>
       </c>
@@ -2437,7 +2416,7 @@
       <c r="AD70" s="12"/>
       <c r="AE70" s="12"/>
     </row>
-    <row r="71" spans="1:31" s="15" customFormat="1">
+    <row r="71" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>63</v>
       </c>
@@ -2448,7 +2427,7 @@
       <c r="AD71" s="12"/>
       <c r="AE71" s="12"/>
     </row>
-    <row r="72" spans="1:31" s="15" customFormat="1">
+    <row r="72" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>64</v>
       </c>
@@ -2459,7 +2438,7 @@
       <c r="AD72" s="12"/>
       <c r="AE72" s="12"/>
     </row>
-    <row r="73" spans="1:31" s="15" customFormat="1">
+    <row r="73" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>65</v>
       </c>
@@ -2470,7 +2449,7 @@
       <c r="AD73" s="12"/>
       <c r="AE73" s="12"/>
     </row>
-    <row r="74" spans="1:31" s="15" customFormat="1">
+    <row r="74" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>66</v>
       </c>
@@ -2481,7 +2460,7 @@
       <c r="AD74" s="12"/>
       <c r="AE74" s="12"/>
     </row>
-    <row r="75" spans="1:31" s="15" customFormat="1">
+    <row r="75" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>67</v>
       </c>
@@ -2492,7 +2471,7 @@
       <c r="AD75" s="12"/>
       <c r="AE75" s="12"/>
     </row>
-    <row r="76" spans="1:31" s="15" customFormat="1">
+    <row r="76" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>68</v>
       </c>
@@ -2503,7 +2482,7 @@
       <c r="AD76" s="12"/>
       <c r="AE76" s="12"/>
     </row>
-    <row r="77" spans="1:31" s="15" customFormat="1">
+    <row r="77" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>69</v>
       </c>
@@ -2514,7 +2493,7 @@
       <c r="AD77" s="12"/>
       <c r="AE77" s="12"/>
     </row>
-    <row r="78" spans="1:31" s="15" customFormat="1">
+    <row r="78" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>70</v>
       </c>
@@ -2525,7 +2504,7 @@
       <c r="AD78" s="12"/>
       <c r="AE78" s="12"/>
     </row>
-    <row r="79" spans="1:31" s="15" customFormat="1">
+    <row r="79" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>72</v>
       </c>
@@ -2536,7 +2515,7 @@
       <c r="AD79" s="12"/>
       <c r="AE79" s="12"/>
     </row>
-    <row r="80" spans="1:31" s="15" customFormat="1">
+    <row r="80" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>71</v>
       </c>
@@ -2547,7 +2526,7 @@
       <c r="AD80" s="12"/>
       <c r="AE80" s="12"/>
     </row>
-    <row r="81" spans="1:31" s="15" customFormat="1">
+    <row r="81" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>73</v>
       </c>
@@ -2558,7 +2537,7 @@
       <c r="AD81" s="12"/>
       <c r="AE81" s="12"/>
     </row>
-    <row r="82" spans="1:31" s="15" customFormat="1">
+    <row r="82" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>74</v>
       </c>
@@ -2569,7 +2548,7 @@
       <c r="AD82" s="12"/>
       <c r="AE82" s="12"/>
     </row>
-    <row r="83" spans="1:31" s="15" customFormat="1">
+    <row r="83" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>75</v>
       </c>
@@ -2580,7 +2559,7 @@
       <c r="AD83" s="12"/>
       <c r="AE83" s="12"/>
     </row>
-    <row r="84" spans="1:31" s="15" customFormat="1">
+    <row r="84" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>76</v>
       </c>
@@ -2591,7 +2570,7 @@
       <c r="AD84" s="12"/>
       <c r="AE84" s="12"/>
     </row>
-    <row r="85" spans="1:31" s="15" customFormat="1">
+    <row r="85" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>77</v>
       </c>
@@ -2602,7 +2581,7 @@
       <c r="AD85" s="12"/>
       <c r="AE85" s="12"/>
     </row>
-    <row r="86" spans="1:31" s="15" customFormat="1">
+    <row r="86" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>78</v>
       </c>
@@ -2613,7 +2592,7 @@
       <c r="AD86" s="12"/>
       <c r="AE86" s="12"/>
     </row>
-    <row r="87" spans="1:31" s="15" customFormat="1">
+    <row r="87" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>79</v>
       </c>
@@ -2624,7 +2603,7 @@
       <c r="AD87" s="12"/>
       <c r="AE87" s="12"/>
     </row>
-    <row r="88" spans="1:31" s="15" customFormat="1">
+    <row r="88" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>80</v>
       </c>
@@ -2635,7 +2614,7 @@
       <c r="AD88" s="12"/>
       <c r="AE88" s="12"/>
     </row>
-    <row r="89" spans="1:31" s="15" customFormat="1">
+    <row r="89" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>81</v>
       </c>
@@ -2646,7 +2625,7 @@
       <c r="AD89" s="12"/>
       <c r="AE89" s="12"/>
     </row>
-    <row r="90" spans="1:31" s="15" customFormat="1">
+    <row r="90" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>82</v>
       </c>
@@ -2657,7 +2636,7 @@
       <c r="AD90" s="12"/>
       <c r="AE90" s="12"/>
     </row>
-    <row r="91" spans="1:31" s="15" customFormat="1">
+    <row r="91" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>83</v>
       </c>
@@ -2668,7 +2647,7 @@
       <c r="AD91" s="12"/>
       <c r="AE91" s="12"/>
     </row>
-    <row r="92" spans="1:31" s="15" customFormat="1">
+    <row r="92" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>84</v>
       </c>
@@ -2679,7 +2658,7 @@
       <c r="AD92" s="12"/>
       <c r="AE92" s="12"/>
     </row>
-    <row r="93" spans="1:31" s="15" customFormat="1">
+    <row r="93" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>85</v>
       </c>
@@ -2690,14 +2669,14 @@
       <c r="AD93" s="12"/>
       <c r="AE93" s="12"/>
     </row>
-    <row r="94" spans="1:31" s="15" customFormat="1" ht="15" thickBot="1">
+    <row r="94" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="14"/>
       <c r="AC94" s="12"/>
       <c r="AD94" s="12"/>
       <c r="AE94" s="12"/>
     </row>
-    <row r="95" spans="1:31" s="15" customFormat="1" ht="15">
+    <row r="95" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
@@ -2706,23 +2685,23 @@
       <c r="AD95" s="12"/>
       <c r="AE95" s="12"/>
     </row>
-    <row r="96" spans="1:31" s="31" customFormat="1" ht="16" thickBot="1">
+    <row r="96" spans="1:31" s="31" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="29"/>
       <c r="B96" s="30"/>
       <c r="AC96" s="32"/>
       <c r="AD96" s="32"/>
       <c r="AE96" s="32"/>
     </row>
-    <row r="97" spans="1:31" s="15" customFormat="1" ht="15">
+    <row r="97" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B97" s="14"/>
       <c r="AC97" s="12"/>
       <c r="AD97" s="12"/>
       <c r="AE97" s="12"/>
     </row>
-    <row r="98" spans="1:31" s="15" customFormat="1">
+    <row r="98" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>86</v>
       </c>
@@ -2733,7 +2712,7 @@
       <c r="AD98" s="12"/>
       <c r="AE98" s="12"/>
     </row>
-    <row r="99" spans="1:31" s="15" customFormat="1">
+    <row r="99" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>87</v>
       </c>
@@ -2744,7 +2723,7 @@
       <c r="AD99" s="12"/>
       <c r="AE99" s="12"/>
     </row>
-    <row r="100" spans="1:31" s="15" customFormat="1">
+    <row r="100" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>88</v>
       </c>
@@ -2755,7 +2734,7 @@
       <c r="AD100" s="12"/>
       <c r="AE100" s="12"/>
     </row>
-    <row r="101" spans="1:31" s="15" customFormat="1">
+    <row r="101" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>89</v>
       </c>
@@ -2766,7 +2745,7 @@
       <c r="AD101" s="12"/>
       <c r="AE101" s="12"/>
     </row>
-    <row r="102" spans="1:31" s="15" customFormat="1">
+    <row r="102" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>90</v>
       </c>
@@ -2777,7 +2756,7 @@
       <c r="AD102" s="12"/>
       <c r="AE102" s="12"/>
     </row>
-    <row r="103" spans="1:31" s="15" customFormat="1">
+    <row r="103" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>91</v>
       </c>
@@ -2788,7 +2767,7 @@
       <c r="AD103" s="12"/>
       <c r="AE103" s="12"/>
     </row>
-    <row r="104" spans="1:31" s="15" customFormat="1">
+    <row r="104" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>92</v>
       </c>
@@ -2799,7 +2778,7 @@
       <c r="AD104" s="12"/>
       <c r="AE104" s="12"/>
     </row>
-    <row r="105" spans="1:31" s="15" customFormat="1">
+    <row r="105" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>93</v>
       </c>
@@ -2810,7 +2789,7 @@
       <c r="AD105" s="12"/>
       <c r="AE105" s="12"/>
     </row>
-    <row r="106" spans="1:31" s="15" customFormat="1">
+    <row r="106" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>94</v>
       </c>
@@ -2821,9 +2800,9 @@
       <c r="AD106" s="12"/>
       <c r="AE106" s="12"/>
     </row>
-    <row r="107" spans="1:31" s="15" customFormat="1">
+    <row r="107" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B107" s="14">
         <v>1</v>
@@ -2832,7 +2811,7 @@
       <c r="AD107" s="12"/>
       <c r="AE107" s="12"/>
     </row>
-    <row r="108" spans="1:31" s="15" customFormat="1">
+    <row r="108" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>95</v>
       </c>
@@ -2843,7 +2822,7 @@
       <c r="AD108" s="12"/>
       <c r="AE108" s="12"/>
     </row>
-    <row r="109" spans="1:31" s="15" customFormat="1">
+    <row r="109" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>96</v>
       </c>
@@ -2854,23 +2833,23 @@
       <c r="AD109" s="12"/>
       <c r="AE109" s="12"/>
     </row>
-    <row r="110" spans="1:31" s="15" customFormat="1" ht="15" thickBot="1">
+    <row r="110" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="14"/>
       <c r="AC110" s="12"/>
       <c r="AD110" s="12"/>
       <c r="AE110" s="12"/>
     </row>
-    <row r="111" spans="1:31" s="15" customFormat="1" ht="15">
+    <row r="111" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B111" s="14"/>
       <c r="AC111" s="12"/>
       <c r="AD111" s="12"/>
       <c r="AE111" s="12"/>
     </row>
-    <row r="112" spans="1:31" s="15" customFormat="1" ht="18">
+    <row r="112" spans="1:31" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="25">
         <v>20000</v>
@@ -2892,23 +2871,23 @@
       <c r="AD112" s="12"/>
       <c r="AE112" s="12"/>
     </row>
-    <row r="113" spans="1:31" s="15" customFormat="1" ht="15" thickBot="1">
+    <row r="113" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="14"/>
       <c r="AC113" s="12"/>
       <c r="AD113" s="12"/>
       <c r="AE113" s="12"/>
     </row>
-    <row r="114" spans="1:31" s="15" customFormat="1" ht="15">
+    <row r="114" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B114" s="14"/>
       <c r="AC114" s="12"/>
       <c r="AD114" s="12"/>
       <c r="AE114" s="12"/>
     </row>
-    <row r="115" spans="1:31" s="15" customFormat="1" ht="15" thickBot="1">
+    <row r="115" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="14">
         <v>1</v>
@@ -2917,16 +2896,16 @@
       <c r="AD115" s="12"/>
       <c r="AE115" s="12"/>
     </row>
-    <row r="116" spans="1:31" s="15" customFormat="1" ht="15">
+    <row r="116" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B116" s="14"/>
       <c r="AC116" s="12"/>
       <c r="AD116" s="12"/>
       <c r="AE116" s="12"/>
     </row>
-    <row r="117" spans="1:31" s="15" customFormat="1">
+    <row r="117" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>1</v>
       </c>
@@ -2937,7 +2916,7 @@
       <c r="AD117" s="12"/>
       <c r="AE117" s="12"/>
     </row>
-    <row r="118" spans="1:31" s="15" customFormat="1">
+    <row r="118" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>2</v>
       </c>
@@ -2948,7 +2927,7 @@
       <c r="AD118" s="12"/>
       <c r="AE118" s="12"/>
     </row>
-    <row r="119" spans="1:31" s="15" customFormat="1">
+    <row r="119" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>3</v>
       </c>
@@ -2959,7 +2938,7 @@
       <c r="AD119" s="12"/>
       <c r="AE119" s="12"/>
     </row>
-    <row r="120" spans="1:31" s="15" customFormat="1">
+    <row r="120" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>4</v>
       </c>
@@ -2970,7 +2949,7 @@
       <c r="AD120" s="12"/>
       <c r="AE120" s="12"/>
     </row>
-    <row r="121" spans="1:31" s="15" customFormat="1">
+    <row r="121" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>5</v>
       </c>
@@ -2981,7 +2960,7 @@
       <c r="AD121" s="12"/>
       <c r="AE121" s="12"/>
     </row>
-    <row r="122" spans="1:31" s="15" customFormat="1">
+    <row r="122" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>6</v>
       </c>
@@ -2992,7 +2971,7 @@
       <c r="AD122" s="12"/>
       <c r="AE122" s="12"/>
     </row>
-    <row r="123" spans="1:31" s="15" customFormat="1">
+    <row r="123" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>7</v>
       </c>
@@ -3003,7 +2982,7 @@
       <c r="AD123" s="12"/>
       <c r="AE123" s="12"/>
     </row>
-    <row r="124" spans="1:31" s="15" customFormat="1">
+    <row r="124" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>8</v>
       </c>
@@ -3014,7 +2993,7 @@
       <c r="AD124" s="12"/>
       <c r="AE124" s="12"/>
     </row>
-    <row r="125" spans="1:31" s="15" customFormat="1">
+    <row r="125" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>9</v>
       </c>
@@ -3025,7 +3004,7 @@
       <c r="AD125" s="12"/>
       <c r="AE125" s="12"/>
     </row>
-    <row r="126" spans="1:31" s="15" customFormat="1">
+    <row r="126" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>10</v>
       </c>
@@ -3036,7 +3015,7 @@
       <c r="AD126" s="12"/>
       <c r="AE126" s="12"/>
     </row>
-    <row r="127" spans="1:31" s="15" customFormat="1">
+    <row r="127" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>11</v>
       </c>
@@ -3047,7 +3026,7 @@
       <c r="AD127" s="12"/>
       <c r="AE127" s="12"/>
     </row>
-    <row r="128" spans="1:31" s="15" customFormat="1">
+    <row r="128" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>12</v>
       </c>
@@ -3058,7 +3037,7 @@
       <c r="AD128" s="12"/>
       <c r="AE128" s="12"/>
     </row>
-    <row r="129" spans="1:31" s="15" customFormat="1">
+    <row r="129" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>13</v>
       </c>
@@ -3069,7 +3048,7 @@
       <c r="AD129" s="12"/>
       <c r="AE129" s="12"/>
     </row>
-    <row r="130" spans="1:31" s="15" customFormat="1">
+    <row r="130" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>14</v>
       </c>
@@ -3080,7 +3059,7 @@
       <c r="AD130" s="12"/>
       <c r="AE130" s="12"/>
     </row>
-    <row r="131" spans="1:31" s="15" customFormat="1">
+    <row r="131" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>15</v>
       </c>
@@ -3091,7 +3070,7 @@
       <c r="AD131" s="12"/>
       <c r="AE131" s="12"/>
     </row>
-    <row r="132" spans="1:31" s="15" customFormat="1">
+    <row r="132" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>16</v>
       </c>
@@ -3102,7 +3081,7 @@
       <c r="AD132" s="12"/>
       <c r="AE132" s="12"/>
     </row>
-    <row r="133" spans="1:31" s="15" customFormat="1">
+    <row r="133" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>17</v>
       </c>
@@ -3113,7 +3092,7 @@
       <c r="AD133" s="12"/>
       <c r="AE133" s="12"/>
     </row>
-    <row r="134" spans="1:31" s="15" customFormat="1">
+    <row r="134" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>18</v>
       </c>
@@ -3124,7 +3103,7 @@
       <c r="AD134" s="12"/>
       <c r="AE134" s="12"/>
     </row>
-    <row r="135" spans="1:31" s="15" customFormat="1">
+    <row r="135" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>19</v>
       </c>
@@ -3135,7 +3114,7 @@
       <c r="AD135" s="12"/>
       <c r="AE135" s="12"/>
     </row>
-    <row r="136" spans="1:31" s="15" customFormat="1">
+    <row r="136" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>20</v>
       </c>
@@ -3146,7 +3125,7 @@
       <c r="AD136" s="12"/>
       <c r="AE136" s="12"/>
     </row>
-    <row r="137" spans="1:31" s="15" customFormat="1">
+    <row r="137" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>21</v>
       </c>
@@ -3157,7 +3136,7 @@
       <c r="AD137" s="12"/>
       <c r="AE137" s="12"/>
     </row>
-    <row r="138" spans="1:31" s="15" customFormat="1">
+    <row r="138" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>22</v>
       </c>
@@ -3168,7 +3147,7 @@
       <c r="AD138" s="12"/>
       <c r="AE138" s="12"/>
     </row>
-    <row r="139" spans="1:31" s="15" customFormat="1">
+    <row r="139" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
         <v>23</v>
       </c>
@@ -3179,7 +3158,7 @@
       <c r="AD139" s="12"/>
       <c r="AE139" s="12"/>
     </row>
-    <row r="140" spans="1:31" s="15" customFormat="1">
+    <row r="140" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>24</v>
       </c>
@@ -3190,7 +3169,7 @@
       <c r="AD140" s="12"/>
       <c r="AE140" s="12"/>
     </row>
-    <row r="141" spans="1:31" s="15" customFormat="1">
+    <row r="141" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>25</v>
       </c>
@@ -3201,7 +3180,7 @@
       <c r="AD141" s="12"/>
       <c r="AE141" s="12"/>
     </row>
-    <row r="142" spans="1:31" s="15" customFormat="1">
+    <row r="142" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>26</v>
       </c>
@@ -3212,7 +3191,7 @@
       <c r="AD142" s="12"/>
       <c r="AE142" s="12"/>
     </row>
-    <row r="143" spans="1:31" s="15" customFormat="1">
+    <row r="143" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>27</v>
       </c>
@@ -3223,7 +3202,7 @@
       <c r="AD143" s="12"/>
       <c r="AE143" s="12"/>
     </row>
-    <row r="144" spans="1:31" s="15" customFormat="1">
+    <row r="144" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>28</v>
       </c>
@@ -3234,7 +3213,7 @@
       <c r="AD144" s="12"/>
       <c r="AE144" s="12"/>
     </row>
-    <row r="145" spans="1:31" s="15" customFormat="1">
+    <row r="145" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>29</v>
       </c>
@@ -3245,7 +3224,7 @@
       <c r="AD145" s="12"/>
       <c r="AE145" s="12"/>
     </row>
-    <row r="146" spans="1:31" s="15" customFormat="1">
+    <row r="146" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>30</v>
       </c>
@@ -3256,9 +3235,9 @@
       <c r="AD146" s="12"/>
       <c r="AE146" s="12"/>
     </row>
-    <row r="147" spans="1:31" s="15" customFormat="1">
+    <row r="147" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B147" s="14">
         <v>3</v>
@@ -3267,25 +3246,25 @@
       <c r="AD147" s="12"/>
       <c r="AE147" s="12"/>
     </row>
-    <row r="148" spans="1:31" s="15" customFormat="1" ht="15" thickBot="1">
+    <row r="148" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="14"/>
       <c r="AC148" s="12"/>
       <c r="AD148" s="12"/>
       <c r="AE148" s="12"/>
     </row>
-    <row r="149" spans="1:31" s="15" customFormat="1" ht="30">
+    <row r="149" spans="1:31" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A149" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B149" s="14"/>
       <c r="AC149" s="12"/>
       <c r="AD149" s="12"/>
       <c r="AE149" s="12"/>
     </row>
-    <row r="150" spans="1:31" s="15" customFormat="1">
+    <row r="150" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B150" s="14">
         <v>1</v>
@@ -3294,9 +3273,9 @@
       <c r="AD150" s="12"/>
       <c r="AE150" s="12"/>
     </row>
-    <row r="151" spans="1:31" s="15" customFormat="1">
+    <row r="151" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B151" s="14">
         <v>0.9</v>
@@ -3305,23 +3284,23 @@
       <c r="AD151" s="12"/>
       <c r="AE151" s="12"/>
     </row>
-    <row r="152" spans="1:31" s="15" customFormat="1" ht="15" thickBot="1">
+    <row r="152" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="14"/>
       <c r="AC152" s="12"/>
       <c r="AD152" s="12"/>
       <c r="AE152" s="12"/>
     </row>
-    <row r="153" spans="1:31" s="15" customFormat="1" ht="15">
+    <row r="153" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B153" s="14"/>
       <c r="AC153" s="12"/>
       <c r="AD153" s="12"/>
       <c r="AE153" s="12"/>
     </row>
-    <row r="154" spans="1:31" s="15" customFormat="1">
+    <row r="154" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="5">
         <v>1</v>
       </c>
@@ -3332,7 +3311,7 @@
       <c r="AD154" s="12"/>
       <c r="AE154" s="12"/>
     </row>
-    <row r="155" spans="1:31" s="15" customFormat="1">
+    <row r="155" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5">
         <v>2</v>
       </c>
@@ -3343,7 +3322,7 @@
       <c r="AD155" s="12"/>
       <c r="AE155" s="12"/>
     </row>
-    <row r="156" spans="1:31" s="15" customFormat="1">
+    <row r="156" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="5">
         <v>3</v>
       </c>
@@ -3354,9 +3333,9 @@
       <c r="AD156" s="12"/>
       <c r="AE156" s="12"/>
     </row>
-    <row r="157" spans="1:31" s="15" customFormat="1">
+    <row r="157" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B157" s="14">
         <v>1.2</v>
@@ -3365,25 +3344,25 @@
       <c r="AD157" s="12"/>
       <c r="AE157" s="12"/>
     </row>
-    <row r="158" spans="1:31" s="15" customFormat="1" ht="15" thickBot="1">
+    <row r="158" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9"/>
       <c r="B158" s="14"/>
       <c r="AC158" s="12"/>
       <c r="AD158" s="12"/>
       <c r="AE158" s="12"/>
     </row>
-    <row r="159" spans="1:31" s="15" customFormat="1" ht="15">
+    <row r="159" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B159" s="14"/>
       <c r="AC159" s="12"/>
       <c r="AD159" s="12"/>
       <c r="AE159" s="12"/>
     </row>
-    <row r="160" spans="1:31" s="15" customFormat="1" ht="28.5" customHeight="1">
+    <row r="160" spans="1:31" s="15" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B160" s="14">
         <v>0.9</v>
@@ -3392,9 +3371,9 @@
       <c r="AD160" s="12"/>
       <c r="AE160" s="12"/>
     </row>
-    <row r="161" spans="1:31" s="15" customFormat="1" ht="43.5" customHeight="1">
+    <row r="161" spans="1:31" s="15" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B161" s="14">
         <v>1</v>
@@ -3403,9 +3382,9 @@
       <c r="AD161" s="12"/>
       <c r="AE161" s="12"/>
     </row>
-    <row r="162" spans="1:31" s="15" customFormat="1" ht="46.5" customHeight="1">
+    <row r="162" spans="1:31" s="15" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B162" s="14">
         <v>1</v>
@@ -3414,9 +3393,9 @@
       <c r="AD162" s="12"/>
       <c r="AE162" s="12"/>
     </row>
-    <row r="163" spans="1:31" s="15" customFormat="1" ht="45" customHeight="1">
+    <row r="163" spans="1:31" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B163" s="14">
         <v>0.9</v>
@@ -3425,9 +3404,9 @@
       <c r="AD163" s="12"/>
       <c r="AE163" s="12"/>
     </row>
-    <row r="164" spans="1:31" s="15" customFormat="1" ht="45" customHeight="1">
+    <row r="164" spans="1:31" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B164" s="14">
         <v>1</v>
@@ -3436,9 +3415,9 @@
       <c r="AD164" s="12"/>
       <c r="AE164" s="12"/>
     </row>
-    <row r="165" spans="1:31" s="15" customFormat="1" ht="60" customHeight="1">
+    <row r="165" spans="1:31" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B165" s="14">
         <v>1.1000000000000001</v>
@@ -3447,9 +3426,9 @@
       <c r="AD165" s="12"/>
       <c r="AE165" s="12"/>
     </row>
-    <row r="166" spans="1:31" s="15" customFormat="1" ht="30" customHeight="1">
+    <row r="166" spans="1:31" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B166" s="14">
         <v>0.9</v>
@@ -3458,9 +3437,9 @@
       <c r="AD166" s="12"/>
       <c r="AE166" s="12"/>
     </row>
-    <row r="167" spans="1:31" s="15" customFormat="1" ht="45.75" customHeight="1">
+    <row r="167" spans="1:31" s="15" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B167" s="14">
         <v>1</v>
@@ -3469,9 +3448,9 @@
       <c r="AD167" s="12"/>
       <c r="AE167" s="12"/>
     </row>
-    <row r="168" spans="1:31" s="15" customFormat="1" ht="29.25" customHeight="1">
+    <row r="168" spans="1:31" s="15" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B168" s="14">
         <v>0.9</v>
@@ -3480,9 +3459,9 @@
       <c r="AD168" s="12"/>
       <c r="AE168" s="12"/>
     </row>
-    <row r="169" spans="1:31" s="15" customFormat="1">
+    <row r="169" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B169" s="14">
         <v>0.9</v>
@@ -3491,34 +3470,34 @@
       <c r="AD169" s="12"/>
       <c r="AE169" s="12"/>
     </row>
-    <row r="170" spans="1:31" s="15" customFormat="1" ht="15" thickBot="1">
+    <row r="170" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="14"/>
       <c r="AC170" s="12"/>
       <c r="AD170" s="12"/>
       <c r="AE170" s="12"/>
     </row>
-    <row r="171" spans="1:31" s="15" customFormat="1" ht="15">
+    <row r="171" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B171" s="14"/>
       <c r="AC171" s="12"/>
       <c r="AD171" s="12"/>
       <c r="AE171" s="12"/>
     </row>
-    <row r="172" spans="1:31" s="15" customFormat="1">
+    <row r="172" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B172" s="14"/>
       <c r="AC172" s="12"/>
       <c r="AD172" s="12"/>
       <c r="AE172" s="12"/>
     </row>
-    <row r="173" spans="1:31" s="15" customFormat="1" ht="30" customHeight="1">
+    <row r="173" spans="1:31" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B173" s="14">
         <v>1</v>
@@ -3527,9 +3506,9 @@
       <c r="AD173" s="12"/>
       <c r="AE173" s="12"/>
     </row>
-    <row r="174" spans="1:31" s="15" customFormat="1" ht="15.75" customHeight="1">
+    <row r="174" spans="1:31" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B174" s="27">
         <v>1</v>
@@ -3544,15 +3523,15 @@
         <v>4</v>
       </c>
       <c r="F174" s="27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AC174" s="12"/>
       <c r="AD174" s="12"/>
       <c r="AE174" s="12"/>
     </row>
-    <row r="175" spans="1:31" s="15" customFormat="1">
+    <row r="175" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B175" s="17">
         <v>0.68</v>
@@ -3580,9 +3559,9 @@
       <c r="AD175" s="12"/>
       <c r="AE175" s="12"/>
     </row>
-    <row r="176" spans="1:31" s="15" customFormat="1" ht="30.75" customHeight="1">
+    <row r="176" spans="1:31" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B176" s="17">
         <v>0.72</v>
@@ -3610,9 +3589,9 @@
       <c r="AD176" s="12"/>
       <c r="AE176" s="12"/>
     </row>
-    <row r="177" spans="1:31" s="15" customFormat="1" ht="32.25" customHeight="1">
+    <row r="177" spans="1:31" s="15" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B177" s="17">
         <v>0.69</v>
@@ -3640,9 +3619,9 @@
       <c r="AD177" s="12"/>
       <c r="AE177" s="12"/>
     </row>
-    <row r="178" spans="1:31" s="15" customFormat="1">
+    <row r="178" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B178" s="17">
         <v>0.74</v>
@@ -3670,9 +3649,9 @@
       <c r="AD178" s="12"/>
       <c r="AE178" s="12"/>
     </row>
-    <row r="179" spans="1:31" s="15" customFormat="1" ht="30.75" customHeight="1">
+    <row r="179" spans="1:31" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B179" s="17">
         <v>0.65</v>
@@ -3700,9 +3679,9 @@
       <c r="AD179" s="12"/>
       <c r="AE179" s="12"/>
     </row>
-    <row r="180" spans="1:31" s="15" customFormat="1" ht="30.75" customHeight="1">
+    <row r="180" spans="1:31" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B180" s="17">
         <v>0.73</v>
@@ -3730,9 +3709,9 @@
       <c r="AD180" s="12"/>
       <c r="AE180" s="12"/>
     </row>
-    <row r="181" spans="1:31" s="15" customFormat="1" ht="16.5" customHeight="1">
+    <row r="181" spans="1:31" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B181" s="17">
         <v>0.71</v>
@@ -3760,9 +3739,9 @@
       <c r="AD181" s="12"/>
       <c r="AE181" s="12"/>
     </row>
-    <row r="182" spans="1:31" s="15" customFormat="1" ht="15" customHeight="1">
+    <row r="182" spans="1:31" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B182" s="17">
         <v>0.72</v>
@@ -3790,23 +3769,23 @@
       <c r="AD182" s="12"/>
       <c r="AE182" s="12"/>
     </row>
-    <row r="183" spans="1:31" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="183" spans="1:31" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="14"/>
       <c r="AC183" s="12"/>
       <c r="AD183" s="12"/>
       <c r="AE183" s="12"/>
     </row>
-    <row r="184" spans="1:31" s="15" customFormat="1" ht="15">
+    <row r="184" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B184" s="14"/>
       <c r="AC184" s="12"/>
       <c r="AD184" s="12"/>
       <c r="AE184" s="12"/>
     </row>
-    <row r="185" spans="1:31" s="15" customFormat="1">
+    <row r="185" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="5">
         <v>1</v>
       </c>
@@ -3817,7 +3796,7 @@
       <c r="AD185" s="12"/>
       <c r="AE185" s="12"/>
     </row>
-    <row r="186" spans="1:31" s="15" customFormat="1">
+    <row r="186" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="5">
         <v>2</v>
       </c>
@@ -3828,7 +3807,7 @@
       <c r="AD186" s="12"/>
       <c r="AE186" s="12"/>
     </row>
-    <row r="187" spans="1:31" s="15" customFormat="1">
+    <row r="187" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="5">
         <v>3</v>
       </c>
@@ -3839,7 +3818,7 @@
       <c r="AD187" s="12"/>
       <c r="AE187" s="12"/>
     </row>
-    <row r="188" spans="1:31" s="15" customFormat="1">
+    <row r="188" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="5">
         <v>4</v>
       </c>
@@ -3850,7 +3829,7 @@
       <c r="AD188" s="12"/>
       <c r="AE188" s="12"/>
     </row>
-    <row r="189" spans="1:31" s="15" customFormat="1">
+    <row r="189" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5">
         <v>5</v>
       </c>
@@ -3861,7 +3840,7 @@
       <c r="AD189" s="12"/>
       <c r="AE189" s="12"/>
     </row>
-    <row r="190" spans="1:31" s="15" customFormat="1">
+    <row r="190" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="5">
         <v>6</v>
       </c>
@@ -3872,7 +3851,7 @@
       <c r="AD190" s="12"/>
       <c r="AE190" s="12"/>
     </row>
-    <row r="191" spans="1:31" s="15" customFormat="1">
+    <row r="191" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="5">
         <v>7</v>
       </c>
@@ -3883,7 +3862,7 @@
       <c r="AD191" s="12"/>
       <c r="AE191" s="12"/>
     </row>
-    <row r="192" spans="1:31" s="15" customFormat="1">
+    <row r="192" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="5">
         <v>8</v>
       </c>
@@ -3894,7 +3873,7 @@
       <c r="AD192" s="12"/>
       <c r="AE192" s="12"/>
     </row>
-    <row r="193" spans="1:31" s="15" customFormat="1">
+    <row r="193" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="5">
         <v>9</v>
       </c>
@@ -3905,7 +3884,7 @@
       <c r="AD193" s="12"/>
       <c r="AE193" s="12"/>
     </row>
-    <row r="194" spans="1:31" s="15" customFormat="1">
+    <row r="194" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="5">
         <v>10</v>
       </c>
@@ -3916,7 +3895,7 @@
       <c r="AD194" s="12"/>
       <c r="AE194" s="12"/>
     </row>
-    <row r="195" spans="1:31" s="15" customFormat="1">
+    <row r="195" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5">
         <v>11</v>
       </c>
@@ -3927,7 +3906,7 @@
       <c r="AD195" s="12"/>
       <c r="AE195" s="12"/>
     </row>
-    <row r="196" spans="1:31" s="15" customFormat="1">
+    <row r="196" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5">
         <v>12</v>
       </c>
@@ -3938,7 +3917,7 @@
       <c r="AD196" s="12"/>
       <c r="AE196" s="12"/>
     </row>
-    <row r="197" spans="1:31" s="15" customFormat="1">
+    <row r="197" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="5">
         <v>13</v>
       </c>
@@ -3949,7 +3928,7 @@
       <c r="AD197" s="12"/>
       <c r="AE197" s="12"/>
     </row>
-    <row r="198" spans="1:31" s="15" customFormat="1">
+    <row r="198" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5">
         <v>14</v>
       </c>
@@ -3960,7 +3939,7 @@
       <c r="AD198" s="12"/>
       <c r="AE198" s="12"/>
     </row>
-    <row r="199" spans="1:31" s="15" customFormat="1">
+    <row r="199" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5">
         <v>15</v>
       </c>
@@ -3971,7 +3950,7 @@
       <c r="AD199" s="12"/>
       <c r="AE199" s="12"/>
     </row>
-    <row r="200" spans="1:31" s="15" customFormat="1">
+    <row r="200" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5">
         <v>16</v>
       </c>
@@ -3982,7 +3961,7 @@
       <c r="AD200" s="12"/>
       <c r="AE200" s="12"/>
     </row>
-    <row r="201" spans="1:31" s="15" customFormat="1">
+    <row r="201" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="5">
         <v>17</v>
       </c>
@@ -3993,7 +3972,7 @@
       <c r="AD201" s="12"/>
       <c r="AE201" s="12"/>
     </row>
-    <row r="202" spans="1:31" s="15" customFormat="1">
+    <row r="202" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="5">
         <v>18</v>
       </c>
@@ -4004,7 +3983,7 @@
       <c r="AD202" s="12"/>
       <c r="AE202" s="12"/>
     </row>
-    <row r="203" spans="1:31" s="15" customFormat="1">
+    <row r="203" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="5">
         <v>19</v>
       </c>
@@ -4015,7 +3994,7 @@
       <c r="AD203" s="12"/>
       <c r="AE203" s="12"/>
     </row>
-    <row r="204" spans="1:31" s="15" customFormat="1">
+    <row r="204" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="5">
         <v>20</v>
       </c>
@@ -4026,7 +4005,7 @@
       <c r="AD204" s="12"/>
       <c r="AE204" s="12"/>
     </row>
-    <row r="205" spans="1:31" s="15" customFormat="1">
+    <row r="205" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="5">
         <v>21</v>
       </c>
@@ -4037,7 +4016,7 @@
       <c r="AD205" s="12"/>
       <c r="AE205" s="12"/>
     </row>
-    <row r="206" spans="1:31" s="15" customFormat="1">
+    <row r="206" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="5">
         <v>22</v>
       </c>
@@ -4048,7 +4027,7 @@
       <c r="AD206" s="12"/>
       <c r="AE206" s="12"/>
     </row>
-    <row r="207" spans="1:31" s="15" customFormat="1">
+    <row r="207" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="5">
         <v>23</v>
       </c>
@@ -4059,7 +4038,7 @@
       <c r="AD207" s="12"/>
       <c r="AE207" s="12"/>
     </row>
-    <row r="208" spans="1:31" s="15" customFormat="1">
+    <row r="208" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="5">
         <v>24</v>
       </c>
@@ -4070,9 +4049,9 @@
       <c r="AD208" s="12"/>
       <c r="AE208" s="12"/>
     </row>
-    <row r="209" spans="1:31" s="15" customFormat="1">
+    <row r="209" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B209" s="14">
         <v>0.8</v>
@@ -4081,15 +4060,15 @@
       <c r="AD209" s="12"/>
       <c r="AE209" s="12"/>
     </row>
-    <row r="210" spans="1:31" s="15" customFormat="1" ht="15" thickBot="1">
+    <row r="210" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="5"/>
       <c r="B210" s="14"/>
       <c r="AC210" s="12"/>
       <c r="AD210" s="12"/>
       <c r="AE210" s="12"/>
     </row>
-    <row r="211" spans="1:31" s="15" customFormat="1" ht="15">
-      <c r="A211" s="35" t="s">
+    <row r="211" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A211" s="37" t="s">
         <v>1</v>
       </c>
       <c r="B211" s="14"/>
@@ -4097,349 +4076,322 @@
       <c r="AD211" s="12"/>
       <c r="AE211" s="12"/>
     </row>
-    <row r="212" spans="1:31" s="15" customFormat="1">
-      <c r="A212" s="33" t="s">
-        <v>97</v>
-      </c>
+    <row r="212" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="9"/>
       <c r="B212" s="14"/>
       <c r="AC212" s="12"/>
       <c r="AD212" s="12"/>
       <c r="AE212" s="12"/>
     </row>
-    <row r="213" spans="1:31" s="15" customFormat="1">
-      <c r="A213" s="33" t="s">
-        <v>174</v>
+    <row r="213" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="B213" s="14"/>
       <c r="AC213" s="12"/>
       <c r="AD213" s="12"/>
       <c r="AE213" s="12"/>
     </row>
-    <row r="214" spans="1:31" s="15" customFormat="1">
-      <c r="A214" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="B214" s="14"/>
+    <row r="214" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B214" s="14">
+        <v>0.8</v>
+      </c>
       <c r="AC214" s="12"/>
       <c r="AD214" s="12"/>
       <c r="AE214" s="12"/>
     </row>
-    <row r="215" spans="1:31" s="15" customFormat="1" ht="15" thickBot="1">
-      <c r="A215" s="9"/>
-      <c r="B215" s="14"/>
+    <row r="215" spans="1:31" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A215" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B215" s="14">
+        <v>1</v>
+      </c>
       <c r="AC215" s="12"/>
       <c r="AD215" s="12"/>
       <c r="AE215" s="12"/>
     </row>
-    <row r="216" spans="1:31" s="15" customFormat="1" ht="15">
-      <c r="A216" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B216" s="14"/>
+    <row r="216" spans="1:31" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A216" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B216" s="14">
+        <v>1.2</v>
+      </c>
       <c r="AC216" s="12"/>
       <c r="AD216" s="12"/>
       <c r="AE216" s="12"/>
     </row>
-    <row r="217" spans="1:31" s="15" customFormat="1">
+    <row r="217" spans="1:31" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B217" s="14">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="AC217" s="12"/>
       <c r="AD217" s="12"/>
       <c r="AE217" s="12"/>
     </row>
-    <row r="218" spans="1:31" s="15" customFormat="1" ht="28">
+    <row r="218" spans="1:31" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B218" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC218" s="12"/>
       <c r="AD218" s="12"/>
       <c r="AE218" s="12"/>
     </row>
-    <row r="219" spans="1:31" s="15" customFormat="1" ht="28">
+    <row r="219" spans="1:31" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B219" s="14">
-        <v>1.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AC219" s="12"/>
       <c r="AD219" s="12"/>
       <c r="AE219" s="12"/>
     </row>
-    <row r="220" spans="1:31" s="15" customFormat="1" ht="28">
+    <row r="220" spans="1:31" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B220" s="14">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="AC220" s="12"/>
       <c r="AD220" s="12"/>
       <c r="AE220" s="12"/>
     </row>
-    <row r="221" spans="1:31" s="15" customFormat="1" ht="28">
+    <row r="221" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B221" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC221" s="12"/>
       <c r="AD221" s="12"/>
       <c r="AE221" s="12"/>
     </row>
-    <row r="222" spans="1:31" s="15" customFormat="1" ht="28">
-      <c r="A222" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B222" s="14">
-        <v>2.2000000000000002</v>
-      </c>
+    <row r="222" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="2"/>
+      <c r="B222" s="14"/>
       <c r="AC222" s="12"/>
       <c r="AD222" s="12"/>
       <c r="AE222" s="12"/>
     </row>
-    <row r="223" spans="1:31" s="15" customFormat="1" ht="28">
-      <c r="A223" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B223" s="14">
-        <v>2.5</v>
-      </c>
+    <row r="223" spans="1:31" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B223" s="14"/>
       <c r="AC223" s="12"/>
       <c r="AD223" s="12"/>
       <c r="AE223" s="12"/>
     </row>
-    <row r="224" spans="1:31" s="15" customFormat="1">
-      <c r="A224" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B224" s="14">
-        <v>3</v>
-      </c>
+    <row r="224" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B224" s="14"/>
       <c r="AC224" s="12"/>
       <c r="AD224" s="12"/>
       <c r="AE224" s="12"/>
     </row>
-    <row r="225" spans="1:31" s="15" customFormat="1" ht="15" thickBot="1">
-      <c r="A225" s="2"/>
-      <c r="B225" s="14"/>
+    <row r="225" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B225" s="17">
+        <v>0.99</v>
+      </c>
       <c r="AC225" s="12"/>
       <c r="AD225" s="12"/>
       <c r="AE225" s="12"/>
     </row>
-    <row r="226" spans="1:31" s="15" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A226" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B226" s="14"/>
+    <row r="226" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B226" s="17"/>
       <c r="AC226" s="12"/>
       <c r="AD226" s="12"/>
       <c r="AE226" s="12"/>
     </row>
-    <row r="227" spans="1:31" s="15" customFormat="1">
+    <row r="227" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B227" s="14"/>
+        <v>142</v>
+      </c>
+      <c r="B227" s="17">
+        <v>0.99</v>
+      </c>
       <c r="AC227" s="12"/>
       <c r="AD227" s="12"/>
       <c r="AE227" s="12"/>
     </row>
-    <row r="228" spans="1:31" s="15" customFormat="1">
+    <row r="228" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B228" s="17">
-        <v>0.99</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B228" s="17"/>
       <c r="AC228" s="12"/>
       <c r="AD228" s="12"/>
       <c r="AE228" s="12"/>
     </row>
-    <row r="229" spans="1:31" s="15" customFormat="1">
+    <row r="229" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B229" s="17"/>
+        <v>142</v>
+      </c>
+      <c r="B229" s="17">
+        <v>0.99</v>
+      </c>
       <c r="AC229" s="12"/>
       <c r="AD229" s="12"/>
       <c r="AE229" s="12"/>
     </row>
-    <row r="230" spans="1:31" s="15" customFormat="1">
+    <row r="230" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B230" s="17">
-        <v>0.99</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B230" s="17"/>
       <c r="AC230" s="12"/>
       <c r="AD230" s="12"/>
       <c r="AE230" s="12"/>
     </row>
-    <row r="231" spans="1:31" s="15" customFormat="1">
+    <row r="231" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B231" s="17"/>
+        <v>142</v>
+      </c>
+      <c r="B231" s="17">
+        <v>0.98</v>
+      </c>
       <c r="AC231" s="12"/>
       <c r="AD231" s="12"/>
       <c r="AE231" s="12"/>
     </row>
-    <row r="232" spans="1:31" s="15" customFormat="1">
+    <row r="232" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A232" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B232" s="17">
-        <v>0.99</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B232" s="17"/>
       <c r="AC232" s="12"/>
       <c r="AD232" s="12"/>
       <c r="AE232" s="12"/>
     </row>
-    <row r="233" spans="1:31" s="15" customFormat="1">
+    <row r="233" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A233" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B233" s="17"/>
+        <v>142</v>
+      </c>
+      <c r="B233" s="17">
+        <v>0.98</v>
+      </c>
       <c r="AC233" s="12"/>
       <c r="AD233" s="12"/>
       <c r="AE233" s="12"/>
     </row>
-    <row r="234" spans="1:31" s="15" customFormat="1">
+    <row r="234" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B234" s="17">
-        <v>0.98</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B234" s="17"/>
       <c r="AC234" s="12"/>
       <c r="AD234" s="12"/>
       <c r="AE234" s="12"/>
     </row>
-    <row r="235" spans="1:31" s="15" customFormat="1">
+    <row r="235" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B235" s="17"/>
+        <v>142</v>
+      </c>
+      <c r="B235" s="17">
+        <v>0.99</v>
+      </c>
       <c r="AC235" s="12"/>
       <c r="AD235" s="12"/>
       <c r="AE235" s="12"/>
     </row>
-    <row r="236" spans="1:31" s="15" customFormat="1">
-      <c r="A236" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B236" s="17">
-        <v>0.98</v>
-      </c>
+    <row r="236" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="11"/>
+      <c r="B236" s="17"/>
       <c r="AC236" s="12"/>
       <c r="AD236" s="12"/>
       <c r="AE236" s="12"/>
     </row>
-    <row r="237" spans="1:31" s="15" customFormat="1">
-      <c r="A237" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B237" s="17"/>
-      <c r="AC237" s="12"/>
-      <c r="AD237" s="12"/>
-      <c r="AE237" s="12"/>
-    </row>
-    <row r="238" spans="1:31" s="15" customFormat="1">
-      <c r="A238" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B238" s="17">
-        <v>0.99</v>
-      </c>
+    <row r="238" spans="1:31" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A238" s="13"/>
+      <c r="C238" s="19"/>
+      <c r="D238" s="19">
+        <f>B7*B11*B100*B112*B126*B150*B154*B164*B173*B186*B215*B244</f>
+        <v>580800.00000000012</v>
+      </c>
+      <c r="E238" s="19"/>
+      <c r="F238" s="19"/>
+      <c r="G238" s="19"/>
+      <c r="H238" s="19"/>
+      <c r="I238" s="19"/>
+      <c r="J238" s="19"/>
+      <c r="K238" s="19"/>
+      <c r="L238" s="19"/>
+      <c r="M238" s="19"/>
       <c r="AC238" s="12"/>
       <c r="AD238" s="12"/>
       <c r="AE238" s="12"/>
     </row>
-    <row r="239" spans="1:31" s="15" customFormat="1" ht="15" thickBot="1">
-      <c r="A239" s="11"/>
-      <c r="B239" s="17"/>
+    <row r="239" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A239"/>
+      <c r="C239" s="19"/>
+      <c r="D239" s="19"/>
+      <c r="E239" s="19"/>
+      <c r="F239" s="19"/>
       <c r="AC239" s="12"/>
       <c r="AD239" s="12"/>
       <c r="AE239" s="12"/>
     </row>
-    <row r="241" spans="1:31" s="15" customFormat="1" ht="18">
-      <c r="A241" s="13"/>
-      <c r="C241" s="19"/>
-      <c r="D241" s="19">
-        <f>B7*B11*B100*B112*B126*B150*B154*B164*B173*B186*B218*B247</f>
-        <v>580800.00000000012</v>
-      </c>
-      <c r="E241" s="19"/>
-      <c r="F241" s="19"/>
-      <c r="G241" s="19"/>
-      <c r="H241" s="19"/>
-      <c r="I241" s="19"/>
-      <c r="J241" s="19"/>
-      <c r="K241" s="19"/>
-      <c r="L241" s="19"/>
-      <c r="M241" s="19"/>
-      <c r="AC241" s="12"/>
-      <c r="AD241" s="12"/>
-      <c r="AE241" s="12"/>
-    </row>
-    <row r="242" spans="1:31" s="15" customFormat="1">
-      <c r="A242"/>
-      <c r="C242" s="19"/>
-      <c r="D242" s="19"/>
-      <c r="E242" s="19"/>
-      <c r="F242" s="19"/>
-      <c r="AC242" s="12"/>
-      <c r="AD242" s="12"/>
-      <c r="AE242" s="12"/>
-    </row>
-    <row r="243" spans="1:31" s="15" customFormat="1" ht="18">
-      <c r="A243" s="13"/>
-      <c r="C243" s="19"/>
-      <c r="D243" s="19"/>
-      <c r="E243" s="19"/>
-      <c r="F243" s="19"/>
-      <c r="AC243" s="12"/>
-      <c r="AD243" s="12"/>
-      <c r="AE243" s="12"/>
-    </row>
-    <row r="246" spans="1:31" ht="20">
-      <c r="A246" s="28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="247" spans="1:31" s="15" customFormat="1" ht="18">
-      <c r="A247" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="B247" s="16">
+    <row r="240" spans="1:31" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A240" s="13"/>
+      <c r="C240" s="19"/>
+      <c r="D240" s="19"/>
+      <c r="E240" s="19"/>
+      <c r="F240" s="19"/>
+      <c r="AC240" s="12"/>
+      <c r="AD240" s="12"/>
+      <c r="AE240" s="12"/>
+    </row>
+    <row r="243" spans="1:31" ht="21" x14ac:dyDescent="0.25">
+      <c r="A243" s="28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="244" spans="1:31" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A244" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B244" s="16">
         <v>20</v>
       </c>
-      <c r="AC247" s="12"/>
-      <c r="AD247" s="12"/>
-      <c r="AE247" s="12"/>
-    </row>
-    <row r="248" spans="1:31" s="15" customFormat="1" ht="18">
-      <c r="A248" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="B248" s="16">
-        <v>2</v>
-      </c>
-      <c r="AC248" s="12"/>
-      <c r="AD248" s="12"/>
-      <c r="AE248" s="12"/>
-    </row>
-    <row r="252" spans="1:31" ht="20">
-      <c r="A252" s="28"/>
+      <c r="AC244" s="12"/>
+      <c r="AD244" s="12"/>
+      <c r="AE244" s="12"/>
+    </row>
+    <row r="245" spans="1:31" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A245" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B245" s="16">
+        <v>2</v>
+      </c>
+      <c r="AC245" s="12"/>
+      <c r="AD245" s="12"/>
+      <c r="AE245" s="12"/>
+    </row>
+    <row r="249" spans="1:31" ht="21" x14ac:dyDescent="0.25">
+      <c r="A249" s="28"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
@@ -4455,11 +4407,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4467,11 +4414,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK358"/>
   <sheetViews>
-    <sheetView topLeftCell="A311" workbookViewId="0">
-      <selection activeCell="B216" sqref="B216"/>
+    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="C320" sqref="C320"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53.6640625" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="15" bestFit="1" customWidth="1"/>
@@ -4487,32 +4434,32 @@
     <col min="29" max="31" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="14"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" s="14"/>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1">
+    <row r="3" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:2" ht="15">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B4" s="14"/>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1">
+    <row r="5" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:2" ht="15">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B6" s="14"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -4520,7 +4467,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -4528,7 +4475,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -4536,7 +4483,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -4544,7 +4491,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>6</v>
       </c>
@@ -4552,7 +4499,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>7</v>
       </c>
@@ -4560,7 +4507,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -4568,7 +4515,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>9</v>
       </c>
@@ -4576,7 +4523,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>10</v>
       </c>
@@ -4584,7 +4531,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>11</v>
       </c>
@@ -4592,7 +4539,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>12</v>
       </c>
@@ -4600,7 +4547,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>13</v>
       </c>
@@ -4608,7 +4555,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>14</v>
       </c>
@@ -4616,7 +4563,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>15</v>
       </c>
@@ -4624,7 +4571,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>16</v>
       </c>
@@ -4632,7 +4579,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>17</v>
       </c>
@@ -4640,7 +4587,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>18</v>
       </c>
@@ -4648,7 +4595,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>19</v>
       </c>
@@ -4656,7 +4603,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>20</v>
       </c>
@@ -4664,7 +4611,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>21</v>
       </c>
@@ -4672,7 +4619,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>22</v>
       </c>
@@ -4680,7 +4627,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>23</v>
       </c>
@@ -4688,7 +4635,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>24</v>
       </c>
@@ -4696,7 +4643,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>25</v>
       </c>
@@ -4704,7 +4651,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>26</v>
       </c>
@@ -4712,7 +4659,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>27</v>
       </c>
@@ -4720,7 +4667,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>28</v>
       </c>
@@ -4728,7 +4675,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>29</v>
       </c>
@@ -4736,7 +4683,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>30</v>
       </c>
@@ -4744,7 +4691,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>31</v>
       </c>
@@ -4752,7 +4699,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>32</v>
       </c>
@@ -4760,7 +4707,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>33</v>
       </c>
@@ -4768,7 +4715,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>34</v>
       </c>
@@ -4776,7 +4723,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>35</v>
       </c>
@@ -4784,7 +4731,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>36</v>
       </c>
@@ -4792,7 +4739,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>37</v>
       </c>
@@ -4800,7 +4747,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>38</v>
       </c>
@@ -4808,7 +4755,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>39</v>
       </c>
@@ -4816,7 +4763,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>40</v>
       </c>
@@ -4824,7 +4771,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>41</v>
       </c>
@@ -4832,7 +4779,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>42</v>
       </c>
@@ -4840,7 +4787,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>43</v>
       </c>
@@ -4848,7 +4795,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>44</v>
       </c>
@@ -4856,7 +4803,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>45</v>
       </c>
@@ -4864,7 +4811,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>46</v>
       </c>
@@ -4872,7 +4819,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>47</v>
       </c>
@@ -4880,7 +4827,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>48</v>
       </c>
@@ -4888,7 +4835,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>49</v>
       </c>
@@ -4896,7 +4843,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>50</v>
       </c>
@@ -4904,7 +4851,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>51</v>
       </c>
@@ -4912,7 +4859,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>52</v>
       </c>
@@ -4920,7 +4867,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>53</v>
       </c>
@@ -4928,7 +4875,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>54</v>
       </c>
@@ -4936,7 +4883,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>55</v>
       </c>
@@ -4944,7 +4891,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>56</v>
       </c>
@@ -4952,7 +4899,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>57</v>
       </c>
@@ -4960,7 +4907,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>58</v>
       </c>
@@ -4968,7 +4915,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>59</v>
       </c>
@@ -4976,7 +4923,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>60</v>
       </c>
@@ -4984,7 +4931,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>61</v>
       </c>
@@ -4992,7 +4939,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>62</v>
       </c>
@@ -5000,7 +4947,7 @@
         <v>1.905</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>63</v>
       </c>
@@ -5008,7 +4955,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>64</v>
       </c>
@@ -5016,7 +4963,7 @@
         <v>1.915</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>65</v>
       </c>
@@ -5024,7 +4971,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>66</v>
       </c>
@@ -5032,7 +4979,7 @@
         <v>1.925</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>67</v>
       </c>
@@ -5040,7 +4987,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>68</v>
       </c>
@@ -5048,7 +4995,7 @@
         <v>1.9350000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>69</v>
       </c>
@@ -5056,7 +5003,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>70</v>
       </c>
@@ -5064,7 +5011,7 @@
         <v>1.9450000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>71</v>
       </c>
@@ -5072,7 +5019,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>72</v>
       </c>
@@ -5080,7 +5027,7 @@
         <v>1.9550000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>73</v>
       </c>
@@ -5088,7 +5035,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>74</v>
       </c>
@@ -5096,7 +5043,7 @@
         <v>1.9650000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>75</v>
       </c>
@@ -5104,7 +5051,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>76</v>
       </c>
@@ -5112,7 +5059,7 @@
         <v>1.9750000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>77</v>
       </c>
@@ -5120,7 +5067,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>78</v>
       </c>
@@ -5128,7 +5075,7 @@
         <v>1.9850000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>79</v>
       </c>
@@ -5136,7 +5083,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>80</v>
       </c>
@@ -5144,7 +5091,7 @@
         <v>1.9950000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>81</v>
       </c>
@@ -5152,7 +5099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>82</v>
       </c>
@@ -5160,7 +5107,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>83</v>
       </c>
@@ -5168,7 +5115,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>84</v>
       </c>
@@ -5176,7 +5123,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>85</v>
       </c>
@@ -5184,7 +5131,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>86</v>
       </c>
@@ -5192,7 +5139,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>87</v>
       </c>
@@ -5200,7 +5147,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>88</v>
       </c>
@@ -5208,7 +5155,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>89</v>
       </c>
@@ -5216,7 +5163,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>90</v>
       </c>
@@ -5224,7 +5171,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>91</v>
       </c>
@@ -5232,7 +5179,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>92</v>
       </c>
@@ -5240,7 +5187,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>93</v>
       </c>
@@ -5248,7 +5195,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>94</v>
       </c>
@@ -5256,7 +5203,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>95</v>
       </c>
@@ -5264,7 +5211,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>96</v>
       </c>
@@ -5272,7 +5219,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>97</v>
       </c>
@@ -5280,7 +5227,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>98</v>
       </c>
@@ -5288,7 +5235,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>99</v>
       </c>
@@ -5296,7 +5243,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>100</v>
       </c>
@@ -5304,25 +5251,25 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B106" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15" thickBot="1">
+    <row r="107" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="14"/>
     </row>
-    <row r="108" spans="1:2" ht="15">
+    <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B108" s="14"/>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>4</v>
       </c>
@@ -5330,7 +5277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>5</v>
       </c>
@@ -5338,7 +5285,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>6</v>
       </c>
@@ -5346,7 +5293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>7</v>
       </c>
@@ -5354,7 +5301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>8</v>
       </c>
@@ -5362,7 +5309,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>9</v>
       </c>
@@ -5370,7 +5317,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>10</v>
       </c>
@@ -5378,7 +5325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>11</v>
       </c>
@@ -5386,7 +5333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>12</v>
       </c>
@@ -5394,7 +5341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>13</v>
       </c>
@@ -5402,7 +5349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>14</v>
       </c>
@@ -5410,7 +5357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>15</v>
       </c>
@@ -5418,7 +5365,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>16</v>
       </c>
@@ -5426,7 +5373,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>17</v>
       </c>
@@ -5434,7 +5381,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>18</v>
       </c>
@@ -5442,7 +5389,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>19</v>
       </c>
@@ -5450,7 +5397,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>20</v>
       </c>
@@ -5458,7 +5405,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>21</v>
       </c>
@@ -5466,7 +5413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>22</v>
       </c>
@@ -5474,7 +5421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>23</v>
       </c>
@@ -5482,7 +5429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>24</v>
       </c>
@@ -5490,7 +5437,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>25</v>
       </c>
@@ -5498,7 +5445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>26</v>
       </c>
@@ -5506,7 +5453,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>27</v>
       </c>
@@ -5514,7 +5461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>28</v>
       </c>
@@ -5522,7 +5469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>29</v>
       </c>
@@ -5530,7 +5477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>30</v>
       </c>
@@ -5538,7 +5485,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>31</v>
       </c>
@@ -5546,7 +5493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>32</v>
       </c>
@@ -5554,7 +5501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>33</v>
       </c>
@@ -5562,7 +5509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>34</v>
       </c>
@@ -5570,7 +5517,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>35</v>
       </c>
@@ -5578,7 +5525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>36</v>
       </c>
@@ -5586,7 +5533,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>37</v>
       </c>
@@ -5594,7 +5541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>38</v>
       </c>
@@ -5602,7 +5549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>39</v>
       </c>
@@ -5610,7 +5557,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>40</v>
       </c>
@@ -5618,7 +5565,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>41</v>
       </c>
@@ -5626,7 +5573,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>42</v>
       </c>
@@ -5634,7 +5581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>43</v>
       </c>
@@ -5642,7 +5589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>44</v>
       </c>
@@ -5650,7 +5597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>45</v>
       </c>
@@ -5658,7 +5605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>46</v>
       </c>
@@ -5666,7 +5613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>47</v>
       </c>
@@ -5674,15 +5621,15 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B153" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>48</v>
       </c>
@@ -5690,7 +5637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>49</v>
       </c>
@@ -5698,7 +5645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>50</v>
       </c>
@@ -5706,7 +5653,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>51</v>
       </c>
@@ -5714,7 +5661,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>52</v>
       </c>
@@ -5722,7 +5669,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>53</v>
       </c>
@@ -5730,7 +5677,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>54</v>
       </c>
@@ -5738,7 +5685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>55</v>
       </c>
@@ -5746,7 +5693,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>56</v>
       </c>
@@ -5754,7 +5701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>57</v>
       </c>
@@ -5762,15 +5709,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B164" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>58</v>
       </c>
@@ -5778,7 +5725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>59</v>
       </c>
@@ -5786,7 +5733,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>60</v>
       </c>
@@ -5794,7 +5741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>61</v>
       </c>
@@ -5802,7 +5749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>62</v>
       </c>
@@ -5810,7 +5757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>63</v>
       </c>
@@ -5818,7 +5765,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>64</v>
       </c>
@@ -5826,7 +5773,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>65</v>
       </c>
@@ -5834,7 +5781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>66</v>
       </c>
@@ -5842,7 +5789,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>67</v>
       </c>
@@ -5850,7 +5797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>68</v>
       </c>
@@ -5858,7 +5805,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>69</v>
       </c>
@@ -5866,7 +5813,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>70</v>
       </c>
@@ -5874,7 +5821,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>72</v>
       </c>
@@ -5882,7 +5829,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>71</v>
       </c>
@@ -5890,7 +5837,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>73</v>
       </c>
@@ -5898,7 +5845,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>74</v>
       </c>
@@ -5906,7 +5853,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>75</v>
       </c>
@@ -5914,7 +5861,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>76</v>
       </c>
@@ -5922,7 +5869,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>77</v>
       </c>
@@ -5930,7 +5877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>78</v>
       </c>
@@ -5938,7 +5885,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>79</v>
       </c>
@@ -5946,7 +5893,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>80</v>
       </c>
@@ -5954,7 +5901,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>81</v>
       </c>
@@ -5962,7 +5909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>82</v>
       </c>
@@ -5970,7 +5917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>83</v>
       </c>
@@ -5978,7 +5925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
         <v>84</v>
       </c>
@@ -5986,7 +5933,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>85</v>
       </c>
@@ -5994,17 +5941,17 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="193" spans="1:31" ht="15" thickBot="1">
+    <row r="193" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="14"/>
     </row>
-    <row r="194" spans="1:31" ht="15">
+    <row r="194" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B194" s="14"/>
     </row>
-    <row r="195" spans="1:31" s="34" customFormat="1" ht="16" thickBot="1">
+    <row r="195" spans="1:31" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="29"/>
       <c r="B195" s="30"/>
       <c r="C195" s="31"/>
@@ -6037,127 +5984,127 @@
       <c r="AD195" s="32"/>
       <c r="AE195" s="32"/>
     </row>
-    <row r="196" spans="1:31" ht="15">
+    <row r="196" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B196" s="14"/>
     </row>
-    <row r="197" spans="1:31">
-      <c r="A197" s="38" t="s">
+    <row r="197" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A197" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B197" s="24"/>
+    </row>
+    <row r="198" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A198" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B198" s="24"/>
+    </row>
+    <row r="199" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A199" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="B197" s="24"/>
-    </row>
-    <row r="198" spans="1:31">
-      <c r="A198" s="38" t="s">
+      <c r="B199" s="24"/>
+    </row>
+    <row r="200" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A200" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="B198" s="24"/>
-    </row>
-    <row r="199" spans="1:31">
-      <c r="A199" s="38" t="s">
+      <c r="B200" s="24"/>
+    </row>
+    <row r="201" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A201" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="B199" s="24"/>
-    </row>
-    <row r="200" spans="1:31">
-      <c r="A200" s="38" t="s">
+      <c r="B201" s="24"/>
+    </row>
+    <row r="202" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A202" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="B200" s="24"/>
-    </row>
-    <row r="201" spans="1:31">
-      <c r="A201" s="38" t="s">
+      <c r="B202" s="24"/>
+    </row>
+    <row r="203" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A203" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="B201" s="24"/>
-    </row>
-    <row r="202" spans="1:31">
-      <c r="A202" s="38" t="s">
+      <c r="B203" s="24"/>
+    </row>
+    <row r="204" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A204" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="B202" s="24"/>
-    </row>
-    <row r="203" spans="1:31">
-      <c r="A203" s="38" t="s">
+      <c r="B204" s="24"/>
+    </row>
+    <row r="205" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A205" s="36" t="s">
         <v>156</v>
-      </c>
-      <c r="B203" s="24"/>
-    </row>
-    <row r="204" spans="1:31">
-      <c r="A204" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="B204" s="24"/>
-    </row>
-    <row r="205" spans="1:31">
-      <c r="A205" s="38" t="s">
-        <v>158</v>
       </c>
       <c r="B205" s="17">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:31">
-      <c r="A206" s="38" t="s">
+    <row r="206" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A206" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B206" s="24"/>
+    </row>
+    <row r="207" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A207" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B207" s="24"/>
+    </row>
+    <row r="208" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A208" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="B206" s="24"/>
-    </row>
-    <row r="207" spans="1:31">
-      <c r="A207" s="38" t="s">
+      <c r="B208" s="24"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="B207" s="24"/>
-    </row>
-    <row r="208" spans="1:31">
-      <c r="A208" s="38" t="s">
+      <c r="B209" s="24"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="B208" s="24"/>
-    </row>
-    <row r="209" spans="1:7">
-      <c r="A209" s="38" t="s">
+      <c r="B210" s="24"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="B209" s="24"/>
-    </row>
-    <row r="210" spans="1:7">
-      <c r="A210" s="38" t="s">
+      <c r="B211" s="24"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="B210" s="24"/>
-    </row>
-    <row r="211" spans="1:7">
-      <c r="A211" s="38" t="s">
+      <c r="B212" s="24"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="B211" s="24"/>
-    </row>
-    <row r="212" spans="1:7">
-      <c r="A212" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="B212" s="24"/>
-    </row>
-    <row r="213" spans="1:7">
-      <c r="A213" s="38" t="s">
-        <v>166</v>
-      </c>
       <c r="B213" s="24"/>
     </row>
-    <row r="214" spans="1:7" ht="15" thickBot="1">
+    <row r="214" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="14"/>
     </row>
-    <row r="215" spans="1:7" ht="15">
+    <row r="215" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B215" s="14"/>
     </row>
-    <row r="216" spans="1:7" ht="18">
+    <row r="216" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
       <c r="B216" s="26">
         <v>2000</v>
@@ -6168,399 +6115,399 @@
       <c r="F216" s="21"/>
       <c r="G216" s="21"/>
     </row>
-    <row r="217" spans="1:7" ht="15" thickBot="1">
+    <row r="217" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
       <c r="B217" s="14"/>
     </row>
-    <row r="218" spans="1:7" ht="15">
+    <row r="218" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B218" s="14"/>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
       <c r="B219" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="15" thickBot="1">
+    <row r="220" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="14"/>
     </row>
-    <row r="221" spans="1:7" ht="15">
+    <row r="221" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B221" s="14"/>
     </row>
-    <row r="222" spans="1:7">
-      <c r="A222" s="36">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" s="34">
         <v>1</v>
       </c>
       <c r="B222" s="17"/>
     </row>
-    <row r="223" spans="1:7">
-      <c r="A223" s="36">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" s="34">
         <v>2</v>
       </c>
       <c r="B223" s="17"/>
     </row>
-    <row r="224" spans="1:7">
-      <c r="A224" s="36">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224" s="34">
         <v>3</v>
       </c>
       <c r="B224" s="17"/>
     </row>
-    <row r="225" spans="1:2">
-      <c r="A225" s="36">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="34">
         <v>4</v>
       </c>
       <c r="B225" s="17"/>
     </row>
-    <row r="226" spans="1:2">
-      <c r="A226" s="36">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="34">
         <v>5</v>
       </c>
       <c r="B226" s="17"/>
     </row>
-    <row r="227" spans="1:2">
-      <c r="A227" s="36">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="34">
         <v>6</v>
       </c>
       <c r="B227" s="17"/>
     </row>
-    <row r="228" spans="1:2">
-      <c r="A228" s="36">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" s="34">
         <v>7</v>
       </c>
       <c r="B228" s="17"/>
     </row>
-    <row r="229" spans="1:2">
-      <c r="A229" s="36">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" s="34">
         <v>8</v>
       </c>
       <c r="B229" s="17"/>
     </row>
-    <row r="230" spans="1:2">
-      <c r="A230" s="36">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="34">
         <v>9</v>
       </c>
       <c r="B230" s="17"/>
     </row>
-    <row r="231" spans="1:2">
-      <c r="A231" s="36">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="34">
         <v>10</v>
       </c>
       <c r="B231" s="17"/>
     </row>
-    <row r="232" spans="1:2">
-      <c r="A232" s="36">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="34">
         <v>11</v>
       </c>
       <c r="B232" s="17"/>
     </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="36">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="34">
         <v>12</v>
       </c>
       <c r="B233" s="17"/>
     </row>
-    <row r="234" spans="1:2">
-      <c r="A234" s="36">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" s="34">
         <v>13</v>
       </c>
       <c r="B234" s="17"/>
     </row>
-    <row r="235" spans="1:2">
-      <c r="A235" s="36">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" s="34">
         <v>14</v>
       </c>
       <c r="B235" s="17"/>
     </row>
-    <row r="236" spans="1:2">
-      <c r="A236" s="36">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" s="34">
         <v>15</v>
       </c>
       <c r="B236" s="17"/>
     </row>
-    <row r="237" spans="1:2">
-      <c r="A237" s="36">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="34">
         <v>16</v>
       </c>
       <c r="B237" s="17">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
-      <c r="A238" s="36">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" s="34">
         <v>17</v>
       </c>
       <c r="B238" s="17"/>
     </row>
-    <row r="239" spans="1:2">
-      <c r="A239" s="36">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" s="34">
         <v>18</v>
       </c>
       <c r="B239" s="17"/>
     </row>
-    <row r="240" spans="1:2">
-      <c r="A240" s="36">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" s="34">
         <v>19</v>
       </c>
       <c r="B240" s="17"/>
     </row>
-    <row r="241" spans="1:2">
-      <c r="A241" s="36">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" s="34">
         <v>20</v>
       </c>
       <c r="B241" s="17"/>
     </row>
-    <row r="242" spans="1:2">
-      <c r="A242" s="36">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" s="34">
         <v>21</v>
       </c>
       <c r="B242" s="17"/>
     </row>
-    <row r="243" spans="1:2">
-      <c r="A243" s="36">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" s="34">
         <v>22</v>
       </c>
       <c r="B243" s="17"/>
     </row>
-    <row r="244" spans="1:2">
-      <c r="A244" s="36">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" s="34">
         <v>23</v>
       </c>
       <c r="B244" s="17"/>
     </row>
-    <row r="245" spans="1:2">
-      <c r="A245" s="36">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" s="34">
         <v>24</v>
       </c>
       <c r="B245" s="17"/>
     </row>
-    <row r="246" spans="1:2">
-      <c r="A246" s="36">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" s="34">
         <v>25</v>
       </c>
       <c r="B246" s="17"/>
     </row>
-    <row r="247" spans="1:2">
-      <c r="A247" s="36">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" s="34">
         <v>26</v>
       </c>
       <c r="B247" s="17"/>
     </row>
-    <row r="248" spans="1:2">
-      <c r="A248" s="36">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" s="34">
         <v>27</v>
       </c>
       <c r="B248" s="17"/>
     </row>
-    <row r="249" spans="1:2">
-      <c r="A249" s="36">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" s="34">
         <v>28</v>
       </c>
       <c r="B249" s="17"/>
     </row>
-    <row r="250" spans="1:2">
-      <c r="A250" s="36">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" s="34">
         <v>29</v>
       </c>
       <c r="B250" s="17"/>
     </row>
-    <row r="251" spans="1:2">
-      <c r="A251" s="36">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" s="34">
         <v>30</v>
       </c>
       <c r="B251" s="17"/>
     </row>
-    <row r="252" spans="1:2">
-      <c r="A252" s="36" t="s">
-        <v>110</v>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" s="34" t="s">
+        <v>108</v>
       </c>
       <c r="B252" s="17"/>
     </row>
-    <row r="253" spans="1:2" ht="15" thickBot="1">
-      <c r="A253" s="37"/>
+    <row r="253" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="35"/>
       <c r="B253" s="14"/>
     </row>
-    <row r="254" spans="1:2" ht="30">
+    <row r="254" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A254" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B254" s="14"/>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B255" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B256" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="15" thickBot="1">
+    <row r="257" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
       <c r="B257" s="14"/>
     </row>
-    <row r="258" spans="1:2" ht="30">
+    <row r="258" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A258" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B258" s="14"/>
     </row>
-    <row r="259" spans="1:2">
-      <c r="A259" s="36">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" s="34">
         <v>1</v>
       </c>
       <c r="B259" s="24"/>
     </row>
-    <row r="260" spans="1:2">
-      <c r="A260" s="36">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" s="34">
         <v>2</v>
       </c>
       <c r="B260" s="24"/>
     </row>
-    <row r="261" spans="1:2">
-      <c r="A261" s="36">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" s="34">
         <v>3</v>
       </c>
       <c r="B261" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
-      <c r="A262" s="36" t="s">
-        <v>113</v>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" s="34" t="s">
+        <v>111</v>
       </c>
       <c r="B262" s="24"/>
     </row>
-    <row r="263" spans="1:2" ht="15" thickBot="1">
+    <row r="263" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A263" s="5"/>
       <c r="B263" s="24"/>
     </row>
-    <row r="264" spans="1:2" ht="15">
+    <row r="264" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B264" s="14"/>
     </row>
-    <row r="265" spans="1:2" ht="28.5" customHeight="1">
+    <row r="265" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B265" s="14">
         <v>0.9</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="43.5" customHeight="1">
+    <row r="266" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B266" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="46.5" customHeight="1">
+    <row r="267" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B267" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="45" customHeight="1">
+    <row r="268" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B268" s="14">
         <v>0.9</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="45" customHeight="1">
+    <row r="269" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B269" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="60" customHeight="1">
+    <row r="270" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B270" s="14">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="30" customHeight="1">
+    <row r="271" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B271" s="14">
         <v>0.9</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="45.75" customHeight="1">
+    <row r="272" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B272" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:37" ht="29.25" customHeight="1">
+    <row r="273" spans="1:37" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B273" s="14">
         <v>0.9</v>
       </c>
     </row>
-    <row r="274" spans="1:37">
+    <row r="274" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B274" s="14">
         <v>0.9</v>
       </c>
     </row>
-    <row r="275" spans="1:37" ht="15" thickBot="1">
+    <row r="275" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
       <c r="B275" s="14"/>
     </row>
-    <row r="276" spans="1:37" ht="15">
+    <row r="276" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B276" s="14"/>
     </row>
-    <row r="277" spans="1:37">
+    <row r="277" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B277" s="14"/>
     </row>
-    <row r="278" spans="1:37" ht="30" customHeight="1">
+    <row r="278" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B278" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:37" ht="15.75" customHeight="1">
+    <row r="279" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B279" s="27">
         <v>1</v>
@@ -6575,12 +6522,12 @@
         <v>4</v>
       </c>
       <c r="F279" s="27" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="280" spans="1:37">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="280" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B280" s="17">
         <v>0.68</v>
@@ -6614,9 +6561,9 @@
       <c r="AJ280" s="12"/>
       <c r="AK280" s="12"/>
     </row>
-    <row r="281" spans="1:37" ht="30.75" customHeight="1">
+    <row r="281" spans="1:37" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B281" s="17">
         <v>0.72</v>
@@ -6650,9 +6597,9 @@
       <c r="AJ281" s="12"/>
       <c r="AK281" s="12"/>
     </row>
-    <row r="282" spans="1:37" ht="32.25" customHeight="1">
+    <row r="282" spans="1:37" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B282" s="17">
         <v>0.69</v>
@@ -6686,9 +6633,9 @@
       <c r="AJ282" s="12"/>
       <c r="AK282" s="12"/>
     </row>
-    <row r="283" spans="1:37">
+    <row r="283" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B283" s="17">
         <v>0.74</v>
@@ -6722,9 +6669,9 @@
       <c r="AJ283" s="12"/>
       <c r="AK283" s="12"/>
     </row>
-    <row r="284" spans="1:37" ht="30.75" customHeight="1">
+    <row r="284" spans="1:37" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B284" s="17">
         <v>0.65</v>
@@ -6758,9 +6705,9 @@
       <c r="AJ284" s="12"/>
       <c r="AK284" s="12"/>
     </row>
-    <row r="285" spans="1:37" ht="30.75" customHeight="1">
+    <row r="285" spans="1:37" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B285" s="17">
         <v>0.73</v>
@@ -6794,9 +6741,9 @@
       <c r="AJ285" s="12"/>
       <c r="AK285" s="12"/>
     </row>
-    <row r="286" spans="1:37" ht="16.5" customHeight="1">
+    <row r="286" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B286" s="17">
         <v>0.71</v>
@@ -6830,9 +6777,9 @@
       <c r="AJ286" s="12"/>
       <c r="AK286" s="12"/>
     </row>
-    <row r="287" spans="1:37" ht="15" customHeight="1">
+    <row r="287" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B287" s="17">
         <v>0.72</v>
@@ -6866,17 +6813,17 @@
       <c r="AJ287" s="12"/>
       <c r="AK287" s="12"/>
     </row>
-    <row r="288" spans="1:37" ht="15.75" customHeight="1" thickBot="1">
+    <row r="288" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
       <c r="B288" s="14"/>
     </row>
-    <row r="289" spans="1:2" ht="15">
+    <row r="289" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B289" s="14"/>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="5">
         <v>1</v>
       </c>
@@ -6884,7 +6831,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="5">
         <v>2</v>
       </c>
@@ -6892,7 +6839,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="5">
         <v>3</v>
       </c>
@@ -6900,7 +6847,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="5">
         <v>4</v>
       </c>
@@ -6908,7 +6855,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="5">
         <v>5</v>
       </c>
@@ -6916,7 +6863,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="5">
         <v>6</v>
       </c>
@@ -6924,7 +6871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="5">
         <v>7</v>
       </c>
@@ -6932,7 +6879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="5">
         <v>8</v>
       </c>
@@ -6940,7 +6887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="5">
         <v>9</v>
       </c>
@@ -6948,7 +6895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="5">
         <v>10</v>
       </c>
@@ -6956,7 +6903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="5">
         <v>11</v>
       </c>
@@ -6964,7 +6911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="5">
         <v>12</v>
       </c>
@@ -6972,7 +6919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="5">
         <v>13</v>
       </c>
@@ -6980,7 +6927,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="5">
         <v>14</v>
       </c>
@@ -6988,7 +6935,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="5">
         <v>15</v>
       </c>
@@ -6996,7 +6943,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="5">
         <v>16</v>
       </c>
@@ -7004,7 +6951,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="5">
         <v>17</v>
       </c>
@@ -7012,7 +6959,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="5">
         <v>18</v>
       </c>
@@ -7020,7 +6967,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="5">
         <v>19</v>
       </c>
@@ -7028,7 +6975,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="5">
         <v>20</v>
       </c>
@@ -7036,7 +6983,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="5">
         <v>21</v>
       </c>
@@ -7044,7 +6991,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="5">
         <v>22</v>
       </c>
@@ -7052,7 +6999,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="5">
         <v>23</v>
       </c>
@@ -7060,7 +7007,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="5">
         <v>24</v>
       </c>
@@ -7068,25 +7015,25 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B314" s="24">
         <v>0.8</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="15" thickBot="1">
+    <row r="315" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A315" s="9"/>
       <c r="B315" s="14"/>
     </row>
-    <row r="316" spans="1:2" ht="15">
+    <row r="316" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B316" s="14"/>
     </row>
-    <row r="317" spans="1:2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="4" t="s">
         <v>97</v>
       </c>
@@ -7094,266 +7041,266 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="14.25" customHeight="1">
+    <row r="318" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="4" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="B318" s="18">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="4" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="B319" s="18">
         <v>1.2</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="15" thickBot="1">
+    <row r="320" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="14"/>
     </row>
-    <row r="321" spans="1:2" ht="15">
+    <row r="321" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B321" s="14"/>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B322" s="24">
         <v>0.8</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="28">
+    <row r="323" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A323" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B323" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="28">
+    <row r="324" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A324" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B324" s="24">
         <v>1.2</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="28">
+    <row r="325" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A325" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B325" s="24">
         <v>1.5</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="28">
+    <row r="326" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A326" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B326" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="28">
+    <row r="327" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A327" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B327" s="24">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="28">
+    <row r="328" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A328" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B328" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B329" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="15" thickBot="1">
+    <row r="330" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="14"/>
     </row>
-    <row r="331" spans="1:2" ht="14.25" customHeight="1">
+    <row r="331" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B331" s="14"/>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B332" s="14"/>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B333" s="17">
         <v>0.99</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B334" s="17"/>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B335" s="17"/>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B336" s="17">
         <v>0.99</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B337" s="17"/>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B338" s="17"/>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B339" s="17">
         <v>0.99</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B340" s="17"/>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B341" s="17"/>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B342" s="17">
         <v>0.98</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B343" s="17"/>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B344" s="17"/>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B345" s="17">
         <v>0.98</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B346" s="17"/>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B347" s="17"/>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B348" s="17">
         <v>0.99</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="15" thickBot="1">
+    <row r="349" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A349" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B349" s="17"/>
     </row>
-    <row r="351" spans="1:6" ht="18">
+    <row r="351" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A351" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C351" s="19"/>
       <c r="D351" s="19"/>
       <c r="E351" s="19"/>
       <c r="F351" s="19"/>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C352" s="19"/>
       <c r="D352" s="19"/>
       <c r="E352" s="19"/>
       <c r="F352" s="19"/>
     </row>
-    <row r="353" spans="1:6" ht="18">
+    <row r="353" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A353" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C353" s="19"/>
       <c r="D353" s="19"/>
       <c r="E353" s="19"/>
       <c r="F353" s="19"/>
     </row>
-    <row r="356" spans="1:6" ht="20">
+    <row r="356" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A356" s="28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" ht="18">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A357" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B357" s="16">
         <v>80</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="18">
+    <row r="358" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A358" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B358" s="16">
         <v>2</v>
@@ -7373,10 +7320,5 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/public/local/fixtures/calculator/Мониторинг калькуляторы.xlsx
+++ b/public/local/fixtures/calculator/Мониторинг калькуляторы.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uzhne/project-extras/imarket/expert/src/public/local/fixtures/calculator/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="37500" windowHeight="21140" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="37520" windowHeight="21140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Мониторинг одного здания" sheetId="3" r:id="rId1"/>
     <sheet name="Мониторинг нескольких зданий" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" refMode="R1C1" concurrentCalc="0"/>
+  <calcPr calcId="140001" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1259,7 +1254,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1350,6 +1345,8 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1666,7 +1663,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1674,1187 +1671,1487 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE249"/>
+  <dimension ref="A1:AF249"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="C215" sqref="C215"/>
+    <sheetView topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="A236" sqref="A236"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="53.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="15" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="15" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="15" customWidth="1"/>
-    <col min="11" max="28" width="8.83203125" style="15"/>
-    <col min="29" max="31" width="8.83203125" style="12"/>
+    <col min="1" max="1" width="8.83203125" style="38"/>
+    <col min="2" max="2" width="53.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="15" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="15" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="15" customWidth="1"/>
+    <col min="12" max="29" width="8.83203125" style="15"/>
+    <col min="30" max="32" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B1" s="14"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B2" s="14"/>
-    </row>
-    <row r="3" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
-    </row>
-    <row r="4" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="1" spans="1:32">
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="1:32" ht="15" thickBot="1">
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:32" ht="15">
+      <c r="B4" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B4" s="14"/>
-    </row>
-    <row r="5" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="14"/>
-    </row>
-    <row r="6" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:32" ht="15" thickBot="1">
+      <c r="B5" s="2"/>
+      <c r="C5" s="14"/>
+    </row>
+    <row r="6" spans="1:32" ht="15">
+      <c r="B6" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="14"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" s="38">
         <v>1</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="14"/>
-      <c r="AC8" s="12"/>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" s="15" customFormat="1" ht="15" thickBot="1">
+      <c r="A8" s="38"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="14"/>
       <c r="AD8" s="12"/>
       <c r="AE8" s="12"/>
-    </row>
-    <row r="9" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="AF8" s="12"/>
+    </row>
+    <row r="9" spans="1:32" s="15" customFormat="1" ht="15">
+      <c r="A9" s="38"/>
+      <c r="B9" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="AC9" s="12"/>
+      <c r="C9" s="14"/>
       <c r="AD9" s="12"/>
       <c r="AE9" s="12"/>
-    </row>
-    <row r="10" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="AF9" s="12"/>
+    </row>
+    <row r="10" spans="1:32" s="15" customFormat="1">
+      <c r="A10" s="38">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="14">
+      <c r="C10" s="14">
         <v>1</v>
       </c>
-      <c r="AC10" s="12"/>
       <c r="AD10" s="12"/>
       <c r="AE10" s="12"/>
-    </row>
-    <row r="11" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="AF10" s="12"/>
+    </row>
+    <row r="11" spans="1:32" s="15" customFormat="1">
+      <c r="A11" s="38">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="14">
+      <c r="C11" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AC11" s="12"/>
       <c r="AD11" s="12"/>
       <c r="AE11" s="12"/>
-    </row>
-    <row r="12" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="AF11" s="12"/>
+    </row>
+    <row r="12" spans="1:32" s="15" customFormat="1">
+      <c r="A12" s="38">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC12" s="12"/>
+      <c r="C12" s="14">
+        <v>2</v>
+      </c>
       <c r="AD12" s="12"/>
       <c r="AE12" s="12"/>
-    </row>
-    <row r="13" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="AF12" s="12"/>
+    </row>
+    <row r="13" spans="1:32" s="15" customFormat="1">
+      <c r="A13" s="38">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC13" s="12"/>
+      <c r="C13" s="14">
+        <v>2</v>
+      </c>
       <c r="AD13" s="12"/>
       <c r="AE13" s="12"/>
-    </row>
-    <row r="14" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="AF13" s="12"/>
+    </row>
+    <row r="14" spans="1:32" s="15" customFormat="1">
+      <c r="A14" s="38">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="14">
+      <c r="C14" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AC14" s="12"/>
       <c r="AD14" s="12"/>
       <c r="AE14" s="12"/>
-    </row>
-    <row r="15" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="AF14" s="12"/>
+    </row>
+    <row r="15" spans="1:32" s="15" customFormat="1">
+      <c r="A15" s="38">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="14">
+      <c r="C15" s="14">
         <v>2.5</v>
       </c>
-      <c r="AC15" s="12"/>
       <c r="AD15" s="12"/>
       <c r="AE15" s="12"/>
-    </row>
-    <row r="16" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="AF15" s="12"/>
+    </row>
+    <row r="16" spans="1:32" s="15" customFormat="1">
+      <c r="A16" s="38">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="14">
+      <c r="C16" s="14">
         <v>3</v>
       </c>
-      <c r="AC16" s="12"/>
       <c r="AD16" s="12"/>
       <c r="AE16" s="12"/>
-    </row>
-    <row r="17" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="AF16" s="12"/>
+    </row>
+    <row r="17" spans="1:32" s="15" customFormat="1">
+      <c r="A17" s="38">
+        <v>8</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC17" s="12"/>
+      <c r="C17" s="14">
+        <v>2</v>
+      </c>
       <c r="AD17" s="12"/>
       <c r="AE17" s="12"/>
-    </row>
-    <row r="18" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="AF17" s="12"/>
+    </row>
+    <row r="18" spans="1:32" s="15" customFormat="1">
+      <c r="A18" s="38">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC18" s="12"/>
+      <c r="C18" s="14">
+        <v>2</v>
+      </c>
       <c r="AD18" s="12"/>
       <c r="AE18" s="12"/>
-    </row>
-    <row r="19" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="AF18" s="12"/>
+    </row>
+    <row r="19" spans="1:32" s="15" customFormat="1">
+      <c r="A19" s="38">
+        <v>10</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC19" s="12"/>
+      <c r="C19" s="14">
+        <v>2</v>
+      </c>
       <c r="AD19" s="12"/>
       <c r="AE19" s="12"/>
-    </row>
-    <row r="20" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="AF19" s="12"/>
+    </row>
+    <row r="20" spans="1:32" s="15" customFormat="1">
+      <c r="A20" s="38">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC20" s="12"/>
+      <c r="C20" s="14">
+        <v>2</v>
+      </c>
       <c r="AD20" s="12"/>
       <c r="AE20" s="12"/>
-    </row>
-    <row r="21" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="AF20" s="12"/>
+    </row>
+    <row r="21" spans="1:32" s="15" customFormat="1">
+      <c r="A21" s="38">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="14">
+      <c r="C21" s="14">
         <v>1.8</v>
       </c>
-      <c r="AC21" s="12"/>
       <c r="AD21" s="12"/>
       <c r="AE21" s="12"/>
-    </row>
-    <row r="22" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="AF21" s="12"/>
+    </row>
+    <row r="22" spans="1:32" s="15" customFormat="1">
+      <c r="A22" s="38">
+        <v>13</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="14">
+      <c r="C22" s="14">
         <v>2.5</v>
       </c>
-      <c r="AC22" s="12"/>
       <c r="AD22" s="12"/>
       <c r="AE22" s="12"/>
-    </row>
-    <row r="23" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="AF22" s="12"/>
+    </row>
+    <row r="23" spans="1:32" s="15" customFormat="1">
+      <c r="A23" s="38">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="14">
+      <c r="C23" s="14">
         <v>1.2</v>
       </c>
-      <c r="AC23" s="12"/>
       <c r="AD23" s="12"/>
       <c r="AE23" s="12"/>
-    </row>
-    <row r="24" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="AF23" s="12"/>
+    </row>
+    <row r="24" spans="1:32" s="15" customFormat="1">
+      <c r="A24" s="38">
+        <v>15</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="14">
+      <c r="C24" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AC24" s="12"/>
       <c r="AD24" s="12"/>
       <c r="AE24" s="12"/>
-    </row>
-    <row r="25" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="AF24" s="12"/>
+    </row>
+    <row r="25" spans="1:32" s="15" customFormat="1">
+      <c r="A25" s="38">
+        <v>16</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="14">
+      <c r="C25" s="14">
         <v>1.5</v>
       </c>
-      <c r="AC25" s="12"/>
       <c r="AD25" s="12"/>
       <c r="AE25" s="12"/>
-    </row>
-    <row r="26" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="AF25" s="12"/>
+    </row>
+    <row r="26" spans="1:32" s="15" customFormat="1">
+      <c r="A26" s="38">
+        <v>17</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="14">
+      <c r="C26" s="14">
         <v>1.8</v>
       </c>
-      <c r="AC26" s="12"/>
       <c r="AD26" s="12"/>
       <c r="AE26" s="12"/>
-    </row>
-    <row r="27" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="AF26" s="12"/>
+    </row>
+    <row r="27" spans="1:32" s="15" customFormat="1">
+      <c r="A27" s="38">
+        <v>18</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC27" s="12"/>
+      <c r="C27" s="14">
+        <v>2</v>
+      </c>
       <c r="AD27" s="12"/>
       <c r="AE27" s="12"/>
-    </row>
-    <row r="28" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="AF27" s="12"/>
+    </row>
+    <row r="28" spans="1:32" s="15" customFormat="1">
+      <c r="A28" s="38">
+        <v>19</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="14">
+      <c r="C28" s="14">
         <v>3</v>
       </c>
-      <c r="AC28" s="12"/>
       <c r="AD28" s="12"/>
       <c r="AE28" s="12"/>
-    </row>
-    <row r="29" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="AF28" s="12"/>
+    </row>
+    <row r="29" spans="1:32" s="15" customFormat="1">
+      <c r="A29" s="38">
+        <v>20</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="14">
+      <c r="C29" s="14">
         <v>3</v>
       </c>
-      <c r="AC29" s="12"/>
       <c r="AD29" s="12"/>
       <c r="AE29" s="12"/>
-    </row>
-    <row r="30" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="AF29" s="12"/>
+    </row>
+    <row r="30" spans="1:32" s="15" customFormat="1">
+      <c r="A30" s="38">
+        <v>21</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="14">
+      <c r="C30" s="14">
         <v>1.5</v>
       </c>
-      <c r="AC30" s="12"/>
       <c r="AD30" s="12"/>
       <c r="AE30" s="12"/>
-    </row>
-    <row r="31" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="AF30" s="12"/>
+    </row>
+    <row r="31" spans="1:32" s="15" customFormat="1">
+      <c r="A31" s="38">
+        <v>22</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC31" s="12"/>
+      <c r="C31" s="14">
+        <v>2</v>
+      </c>
       <c r="AD31" s="12"/>
       <c r="AE31" s="12"/>
-    </row>
-    <row r="32" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="AF31" s="12"/>
+    </row>
+    <row r="32" spans="1:32" s="15" customFormat="1">
+      <c r="A32" s="38">
+        <v>23</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="14">
+      <c r="C32" s="14">
         <v>2.5</v>
       </c>
-      <c r="AC32" s="12"/>
       <c r="AD32" s="12"/>
       <c r="AE32" s="12"/>
-    </row>
-    <row r="33" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="AF32" s="12"/>
+    </row>
+    <row r="33" spans="1:32" s="15" customFormat="1">
+      <c r="A33" s="38">
+        <v>24</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC33" s="12"/>
+      <c r="C33" s="14">
+        <v>2</v>
+      </c>
       <c r="AD33" s="12"/>
       <c r="AE33" s="12"/>
-    </row>
-    <row r="34" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="AF33" s="12"/>
+    </row>
+    <row r="34" spans="1:32" s="15" customFormat="1">
+      <c r="A34" s="38">
+        <v>25</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC34" s="12"/>
+      <c r="C34" s="14">
+        <v>2</v>
+      </c>
       <c r="AD34" s="12"/>
       <c r="AE34" s="12"/>
-    </row>
-    <row r="35" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="AF34" s="12"/>
+    </row>
+    <row r="35" spans="1:32" s="15" customFormat="1">
+      <c r="A35" s="38">
+        <v>26</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC35" s="12"/>
+      <c r="C35" s="14">
+        <v>2</v>
+      </c>
       <c r="AD35" s="12"/>
       <c r="AE35" s="12"/>
-    </row>
-    <row r="36" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="AF35" s="12"/>
+    </row>
+    <row r="36" spans="1:32" s="15" customFormat="1">
+      <c r="A36" s="38">
+        <v>27</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="14">
+      <c r="C36" s="14">
         <v>1.5</v>
       </c>
-      <c r="AC36" s="12"/>
       <c r="AD36" s="12"/>
       <c r="AE36" s="12"/>
-    </row>
-    <row r="37" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="AF36" s="12"/>
+    </row>
+    <row r="37" spans="1:32" s="15" customFormat="1">
+      <c r="A37" s="38">
+        <v>28</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="14">
+      <c r="C37" s="14">
         <v>3</v>
       </c>
-      <c r="AC37" s="12"/>
       <c r="AD37" s="12"/>
       <c r="AE37" s="12"/>
-    </row>
-    <row r="38" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="AF37" s="12"/>
+    </row>
+    <row r="38" spans="1:32" s="15" customFormat="1">
+      <c r="A38" s="38">
+        <v>29</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC38" s="12"/>
+      <c r="C38" s="14">
+        <v>2</v>
+      </c>
       <c r="AD38" s="12"/>
       <c r="AE38" s="12"/>
-    </row>
-    <row r="39" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="AF38" s="12"/>
+    </row>
+    <row r="39" spans="1:32" s="15" customFormat="1">
+      <c r="A39" s="38">
+        <v>30</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC39" s="12"/>
+      <c r="C39" s="14">
+        <v>2</v>
+      </c>
       <c r="AD39" s="12"/>
       <c r="AE39" s="12"/>
-    </row>
-    <row r="40" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="AF39" s="12"/>
+    </row>
+    <row r="40" spans="1:32" s="15" customFormat="1">
+      <c r="A40" s="38">
+        <v>31</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="14">
+      <c r="C40" s="14">
         <v>2.5</v>
       </c>
-      <c r="AC40" s="12"/>
       <c r="AD40" s="12"/>
       <c r="AE40" s="12"/>
-    </row>
-    <row r="41" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="AF40" s="12"/>
+    </row>
+    <row r="41" spans="1:32" s="15" customFormat="1">
+      <c r="A41" s="38">
+        <v>32</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC41" s="12"/>
+      <c r="C41" s="14">
+        <v>2</v>
+      </c>
       <c r="AD41" s="12"/>
       <c r="AE41" s="12"/>
-    </row>
-    <row r="42" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+      <c r="AF41" s="12"/>
+    </row>
+    <row r="42" spans="1:32" s="15" customFormat="1">
+      <c r="A42" s="38">
+        <v>33</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="14">
+      <c r="C42" s="14">
         <v>2.5</v>
       </c>
-      <c r="AC42" s="12"/>
       <c r="AD42" s="12"/>
       <c r="AE42" s="12"/>
-    </row>
-    <row r="43" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+      <c r="AF42" s="12"/>
+    </row>
+    <row r="43" spans="1:32" s="15" customFormat="1">
+      <c r="A43" s="38">
+        <v>34</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC43" s="12"/>
+      <c r="C43" s="14">
+        <v>2</v>
+      </c>
       <c r="AD43" s="12"/>
       <c r="AE43" s="12"/>
-    </row>
-    <row r="44" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+      <c r="AF43" s="12"/>
+    </row>
+    <row r="44" spans="1:32" s="15" customFormat="1">
+      <c r="A44" s="38">
+        <v>35</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC44" s="12"/>
+      <c r="C44" s="14">
+        <v>2</v>
+      </c>
       <c r="AD44" s="12"/>
       <c r="AE44" s="12"/>
-    </row>
-    <row r="45" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="AF44" s="12"/>
+    </row>
+    <row r="45" spans="1:32" s="15" customFormat="1">
+      <c r="A45" s="38">
+        <v>36</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="14">
+      <c r="C45" s="14">
         <v>2.5</v>
       </c>
-      <c r="AC45" s="12"/>
       <c r="AD45" s="12"/>
       <c r="AE45" s="12"/>
-    </row>
-    <row r="46" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+      <c r="AF45" s="12"/>
+    </row>
+    <row r="46" spans="1:32" s="15" customFormat="1">
+      <c r="A46" s="38">
+        <v>37</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="14">
+      <c r="C46" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AC46" s="12"/>
       <c r="AD46" s="12"/>
       <c r="AE46" s="12"/>
-    </row>
-    <row r="47" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+      <c r="AF46" s="12"/>
+    </row>
+    <row r="47" spans="1:32" s="15" customFormat="1">
+      <c r="A47" s="38">
+        <v>38</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="14">
+      <c r="C47" s="14">
         <v>2.5</v>
       </c>
-      <c r="AC47" s="12"/>
       <c r="AD47" s="12"/>
       <c r="AE47" s="12"/>
-    </row>
-    <row r="48" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+      <c r="AF47" s="12"/>
+    </row>
+    <row r="48" spans="1:32" s="15" customFormat="1">
+      <c r="A48" s="38">
+        <v>39</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC48" s="12"/>
+      <c r="C48" s="14">
+        <v>2</v>
+      </c>
       <c r="AD48" s="12"/>
       <c r="AE48" s="12"/>
-    </row>
-    <row r="49" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+      <c r="AF48" s="12"/>
+    </row>
+    <row r="49" spans="1:32" s="15" customFormat="1">
+      <c r="A49" s="38">
+        <v>40</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC49" s="12"/>
+      <c r="C49" s="14">
+        <v>2</v>
+      </c>
       <c r="AD49" s="12"/>
       <c r="AE49" s="12"/>
-    </row>
-    <row r="50" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="AF49" s="12"/>
+    </row>
+    <row r="50" spans="1:32" s="15" customFormat="1">
+      <c r="A50" s="38">
+        <v>41</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="14">
+      <c r="C50" s="14">
         <v>3</v>
       </c>
-      <c r="AC50" s="12"/>
       <c r="AD50" s="12"/>
       <c r="AE50" s="12"/>
-    </row>
-    <row r="51" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+      <c r="AF50" s="12"/>
+    </row>
+    <row r="51" spans="1:32" s="15" customFormat="1">
+      <c r="A51" s="38">
+        <v>42</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="14">
+      <c r="C51" s="14">
         <v>3</v>
       </c>
-      <c r="AC51" s="12"/>
       <c r="AD51" s="12"/>
       <c r="AE51" s="12"/>
-    </row>
-    <row r="52" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+      <c r="AF51" s="12"/>
+    </row>
+    <row r="52" spans="1:32" s="15" customFormat="1">
+      <c r="A52" s="38">
+        <v>43</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC52" s="12"/>
+      <c r="C52" s="14">
+        <v>2</v>
+      </c>
       <c r="AD52" s="12"/>
       <c r="AE52" s="12"/>
-    </row>
-    <row r="53" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+      <c r="AF52" s="12"/>
+    </row>
+    <row r="53" spans="1:32" s="15" customFormat="1">
+      <c r="A53" s="38">
+        <v>44</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="14">
+      <c r="C53" s="14">
         <v>2.5</v>
       </c>
-      <c r="AC53" s="12"/>
       <c r="AD53" s="12"/>
       <c r="AE53" s="12"/>
-    </row>
-    <row r="54" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+      <c r="AF53" s="12"/>
+    </row>
+    <row r="54" spans="1:32" s="15" customFormat="1">
+      <c r="A54" s="38">
+        <v>45</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B54" s="14">
+      <c r="C54" s="14">
         <v>2.5</v>
       </c>
-      <c r="AC54" s="12"/>
       <c r="AD54" s="12"/>
       <c r="AE54" s="12"/>
-    </row>
-    <row r="55" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+      <c r="AF54" s="12"/>
+    </row>
+    <row r="55" spans="1:32" s="15" customFormat="1">
+      <c r="A55" s="38">
+        <v>46</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC55" s="12"/>
+      <c r="C55" s="14">
+        <v>2</v>
+      </c>
       <c r="AD55" s="12"/>
       <c r="AE55" s="12"/>
-    </row>
-    <row r="56" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+      <c r="AF55" s="12"/>
+    </row>
+    <row r="56" spans="1:32" s="15" customFormat="1">
+      <c r="A56" s="38">
+        <v>47</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC56" s="12"/>
+      <c r="C56" s="14">
+        <v>2</v>
+      </c>
       <c r="AD56" s="12"/>
       <c r="AE56" s="12"/>
-    </row>
-    <row r="57" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+      <c r="AF56" s="12"/>
+    </row>
+    <row r="57" spans="1:32" s="15" customFormat="1">
+      <c r="A57" s="38">
+        <v>48</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B57" s="14">
+      <c r="C57" s="14">
         <v>2.5</v>
       </c>
-      <c r="AC57" s="12"/>
       <c r="AD57" s="12"/>
       <c r="AE57" s="12"/>
-    </row>
-    <row r="58" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+      <c r="AF57" s="12"/>
+    </row>
+    <row r="58" spans="1:32" s="15" customFormat="1">
+      <c r="A58" s="38">
+        <v>49</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="14">
+      <c r="C58" s="14">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AC58" s="12"/>
       <c r="AD58" s="12"/>
       <c r="AE58" s="12"/>
-    </row>
-    <row r="59" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
+      <c r="AF58" s="12"/>
+    </row>
+    <row r="59" spans="1:32" s="15" customFormat="1">
+      <c r="A59" s="38">
+        <v>50</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="14">
+      <c r="C59" s="14">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AC59" s="12"/>
       <c r="AD59" s="12"/>
       <c r="AE59" s="12"/>
-    </row>
-    <row r="60" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
+      <c r="AF59" s="12"/>
+    </row>
+    <row r="60" spans="1:32" s="15" customFormat="1">
+      <c r="A60" s="38">
+        <v>51</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="14">
+      <c r="C60" s="14">
         <v>1.8</v>
       </c>
-      <c r="AC60" s="12"/>
       <c r="AD60" s="12"/>
       <c r="AE60" s="12"/>
-    </row>
-    <row r="61" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
+      <c r="AF60" s="12"/>
+    </row>
+    <row r="61" spans="1:32" s="15" customFormat="1">
+      <c r="A61" s="38">
+        <v>52</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B61" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC61" s="12"/>
+      <c r="C61" s="14">
+        <v>2</v>
+      </c>
       <c r="AD61" s="12"/>
       <c r="AE61" s="12"/>
-    </row>
-    <row r="62" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
+      <c r="AF61" s="12"/>
+    </row>
+    <row r="62" spans="1:32" s="15" customFormat="1">
+      <c r="A62" s="38">
+        <v>53</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B62" s="14">
+      <c r="C62" s="14">
         <v>2.5</v>
       </c>
-      <c r="AC62" s="12"/>
       <c r="AD62" s="12"/>
       <c r="AE62" s="12"/>
-    </row>
-    <row r="63" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
+      <c r="AF62" s="12"/>
+    </row>
+    <row r="63" spans="1:32" s="15" customFormat="1">
+      <c r="A63" s="38">
+        <v>54</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="14">
+      <c r="C63" s="14">
         <v>3</v>
       </c>
-      <c r="AC63" s="12"/>
       <c r="AD63" s="12"/>
       <c r="AE63" s="12"/>
-    </row>
-    <row r="64" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
+      <c r="AF63" s="12"/>
+    </row>
+    <row r="64" spans="1:32" s="15" customFormat="1">
+      <c r="A64" s="38">
+        <v>55</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B64" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC64" s="12"/>
+      <c r="C64" s="14">
+        <v>2</v>
+      </c>
       <c r="AD64" s="12"/>
       <c r="AE64" s="12"/>
-    </row>
-    <row r="65" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
+      <c r="AF64" s="12"/>
+    </row>
+    <row r="65" spans="1:32" s="15" customFormat="1">
+      <c r="A65" s="38">
+        <v>56</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B65" s="14">
+      <c r="C65" s="14">
         <v>2.5</v>
       </c>
-      <c r="AC65" s="12"/>
       <c r="AD65" s="12"/>
       <c r="AE65" s="12"/>
-    </row>
-    <row r="66" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
+      <c r="AF65" s="12"/>
+    </row>
+    <row r="66" spans="1:32" s="15" customFormat="1">
+      <c r="A66" s="38">
+        <v>57</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B66" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC66" s="12"/>
+      <c r="C66" s="14">
+        <v>2</v>
+      </c>
       <c r="AD66" s="12"/>
       <c r="AE66" s="12"/>
-    </row>
-    <row r="67" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
+      <c r="AF66" s="12"/>
+    </row>
+    <row r="67" spans="1:32" s="15" customFormat="1">
+      <c r="A67" s="38">
+        <v>58</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B67" s="14">
+      <c r="C67" s="14">
         <v>1.5</v>
       </c>
-      <c r="AC67" s="12"/>
       <c r="AD67" s="12"/>
       <c r="AE67" s="12"/>
-    </row>
-    <row r="68" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
+      <c r="AF67" s="12"/>
+    </row>
+    <row r="68" spans="1:32" s="15" customFormat="1">
+      <c r="A68" s="38">
+        <v>59</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B68" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC68" s="12"/>
+      <c r="C68" s="14">
+        <v>2</v>
+      </c>
       <c r="AD68" s="12"/>
       <c r="AE68" s="12"/>
-    </row>
-    <row r="69" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
+      <c r="AF68" s="12"/>
+    </row>
+    <row r="69" spans="1:32" s="15" customFormat="1">
+      <c r="A69" s="38">
+        <v>60</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B69" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC69" s="12"/>
+      <c r="C69" s="14">
+        <v>2</v>
+      </c>
       <c r="AD69" s="12"/>
       <c r="AE69" s="12"/>
-    </row>
-    <row r="70" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
+      <c r="AF69" s="12"/>
+    </row>
+    <row r="70" spans="1:32" s="15" customFormat="1">
+      <c r="A70" s="38">
+        <v>61</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B70" s="14">
+      <c r="C70" s="14">
         <v>3</v>
       </c>
-      <c r="AC70" s="12"/>
       <c r="AD70" s="12"/>
       <c r="AE70" s="12"/>
-    </row>
-    <row r="71" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
+      <c r="AF70" s="12"/>
+    </row>
+    <row r="71" spans="1:32" s="15" customFormat="1">
+      <c r="A71" s="38">
+        <v>62</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B71" s="14">
+      <c r="C71" s="14">
         <v>2.8</v>
       </c>
-      <c r="AC71" s="12"/>
       <c r="AD71" s="12"/>
       <c r="AE71" s="12"/>
-    </row>
-    <row r="72" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
+      <c r="AF71" s="12"/>
+    </row>
+    <row r="72" spans="1:32" s="15" customFormat="1">
+      <c r="A72" s="38">
+        <v>63</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B72" s="14">
+      <c r="C72" s="14">
         <v>2.5</v>
       </c>
-      <c r="AC72" s="12"/>
       <c r="AD72" s="12"/>
       <c r="AE72" s="12"/>
-    </row>
-    <row r="73" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
+      <c r="AF72" s="12"/>
+    </row>
+    <row r="73" spans="1:32" s="15" customFormat="1">
+      <c r="A73" s="38">
+        <v>64</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B73" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC73" s="12"/>
+      <c r="C73" s="14">
+        <v>2</v>
+      </c>
       <c r="AD73" s="12"/>
       <c r="AE73" s="12"/>
-    </row>
-    <row r="74" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
+      <c r="AF73" s="12"/>
+    </row>
+    <row r="74" spans="1:32" s="15" customFormat="1">
+      <c r="A74" s="38">
+        <v>65</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B74" s="14">
+      <c r="C74" s="14">
         <v>1.8</v>
       </c>
-      <c r="AC74" s="12"/>
       <c r="AD74" s="12"/>
       <c r="AE74" s="12"/>
-    </row>
-    <row r="75" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
+      <c r="AF74" s="12"/>
+    </row>
+    <row r="75" spans="1:32" s="15" customFormat="1">
+      <c r="A75" s="38">
+        <v>66</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B75" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC75" s="12"/>
+      <c r="C75" s="14">
+        <v>2</v>
+      </c>
       <c r="AD75" s="12"/>
       <c r="AE75" s="12"/>
-    </row>
-    <row r="76" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
+      <c r="AF75" s="12"/>
+    </row>
+    <row r="76" spans="1:32" s="15" customFormat="1">
+      <c r="A76" s="38">
+        <v>67</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B76" s="14">
+      <c r="C76" s="14">
         <v>1.8</v>
       </c>
-      <c r="AC76" s="12"/>
       <c r="AD76" s="12"/>
       <c r="AE76" s="12"/>
-    </row>
-    <row r="77" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
+      <c r="AF76" s="12"/>
+    </row>
+    <row r="77" spans="1:32" s="15" customFormat="1">
+      <c r="A77" s="38">
+        <v>68</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B77" s="14">
+      <c r="C77" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AC77" s="12"/>
       <c r="AD77" s="12"/>
       <c r="AE77" s="12"/>
-    </row>
-    <row r="78" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
+      <c r="AF77" s="12"/>
+    </row>
+    <row r="78" spans="1:32" s="15" customFormat="1">
+      <c r="A78" s="38">
+        <v>69</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B78" s="14">
+      <c r="C78" s="14">
         <v>1.5</v>
       </c>
-      <c r="AC78" s="12"/>
       <c r="AD78" s="12"/>
       <c r="AE78" s="12"/>
-    </row>
-    <row r="79" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
+      <c r="AF78" s="12"/>
+    </row>
+    <row r="79" spans="1:32" s="15" customFormat="1">
+      <c r="A79" s="38">
+        <v>70</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B79" s="14">
+      <c r="C79" s="14">
         <v>2.5</v>
       </c>
-      <c r="AC79" s="12"/>
       <c r="AD79" s="12"/>
       <c r="AE79" s="12"/>
-    </row>
-    <row r="80" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
+      <c r="AF79" s="12"/>
+    </row>
+    <row r="80" spans="1:32" s="15" customFormat="1">
+      <c r="A80" s="38">
         <v>71</v>
       </c>
-      <c r="B80" s="14">
+      <c r="B80" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" s="14">
         <v>1.8</v>
       </c>
-      <c r="AC80" s="12"/>
       <c r="AD80" s="12"/>
       <c r="AE80" s="12"/>
-    </row>
-    <row r="81" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
+      <c r="AF80" s="12"/>
+    </row>
+    <row r="81" spans="1:32" s="15" customFormat="1">
+      <c r="A81" s="38">
+        <v>72</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B81" s="14">
+      <c r="C81" s="14">
         <v>2.5</v>
       </c>
-      <c r="AC81" s="12"/>
       <c r="AD81" s="12"/>
       <c r="AE81" s="12"/>
-    </row>
-    <row r="82" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
+      <c r="AF81" s="12"/>
+    </row>
+    <row r="82" spans="1:32" s="15" customFormat="1">
+      <c r="A82" s="38">
+        <v>73</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B82" s="14">
+      <c r="C82" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AC82" s="12"/>
       <c r="AD82" s="12"/>
       <c r="AE82" s="12"/>
-    </row>
-    <row r="83" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
+      <c r="AF82" s="12"/>
+    </row>
+    <row r="83" spans="1:32" s="15" customFormat="1">
+      <c r="A83" s="38">
+        <v>74</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B83" s="14">
+      <c r="C83" s="14">
         <v>2.5</v>
       </c>
-      <c r="AC83" s="12"/>
       <c r="AD83" s="12"/>
       <c r="AE83" s="12"/>
-    </row>
-    <row r="84" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
+      <c r="AF83" s="12"/>
+    </row>
+    <row r="84" spans="1:32" s="15" customFormat="1">
+      <c r="A84" s="38">
+        <v>75</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B84" s="14">
+      <c r="C84" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AC84" s="12"/>
       <c r="AD84" s="12"/>
       <c r="AE84" s="12"/>
-    </row>
-    <row r="85" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
+      <c r="AF84" s="12"/>
+    </row>
+    <row r="85" spans="1:32" s="15" customFormat="1">
+      <c r="A85" s="38">
+        <v>76</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B85" s="14">
+      <c r="C85" s="14">
         <v>3</v>
       </c>
-      <c r="AC85" s="12"/>
       <c r="AD85" s="12"/>
       <c r="AE85" s="12"/>
-    </row>
-    <row r="86" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
+      <c r="AF85" s="12"/>
+    </row>
+    <row r="86" spans="1:32" s="15" customFormat="1">
+      <c r="A86" s="38">
+        <v>77</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B86" s="14">
+      <c r="C86" s="14">
         <v>2.8</v>
       </c>
-      <c r="AC86" s="12"/>
       <c r="AD86" s="12"/>
       <c r="AE86" s="12"/>
-    </row>
-    <row r="87" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
+      <c r="AF86" s="12"/>
+    </row>
+    <row r="87" spans="1:32" s="15" customFormat="1">
+      <c r="A87" s="38">
+        <v>78</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B87" s="14">
+      <c r="C87" s="14">
         <v>2.5</v>
       </c>
-      <c r="AC87" s="12"/>
       <c r="AD87" s="12"/>
       <c r="AE87" s="12"/>
-    </row>
-    <row r="88" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
+      <c r="AF87" s="12"/>
+    </row>
+    <row r="88" spans="1:32" s="15" customFormat="1">
+      <c r="A88" s="38">
+        <v>79</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B88" s="14">
+      <c r="C88" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AC88" s="12"/>
       <c r="AD88" s="12"/>
       <c r="AE88" s="12"/>
-    </row>
-    <row r="89" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
+      <c r="AF88" s="12"/>
+    </row>
+    <row r="89" spans="1:32" s="15" customFormat="1">
+      <c r="A89" s="38">
+        <v>80</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B89" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC89" s="12"/>
+      <c r="C89" s="14">
+        <v>2</v>
+      </c>
       <c r="AD89" s="12"/>
       <c r="AE89" s="12"/>
-    </row>
-    <row r="90" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
+      <c r="AF89" s="12"/>
+    </row>
+    <row r="90" spans="1:32" s="15" customFormat="1">
+      <c r="A90" s="38">
+        <v>81</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B90" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC90" s="12"/>
+      <c r="C90" s="14">
+        <v>2</v>
+      </c>
       <c r="AD90" s="12"/>
       <c r="AE90" s="12"/>
-    </row>
-    <row r="91" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
+      <c r="AF90" s="12"/>
+    </row>
+    <row r="91" spans="1:32" s="15" customFormat="1">
+      <c r="A91" s="38">
+        <v>82</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B91" s="14">
+      <c r="C91" s="14">
         <v>3</v>
       </c>
-      <c r="AC91" s="12"/>
       <c r="AD91" s="12"/>
       <c r="AE91" s="12"/>
-    </row>
-    <row r="92" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
+      <c r="AF91" s="12"/>
+    </row>
+    <row r="92" spans="1:32" s="15" customFormat="1">
+      <c r="A92" s="38">
+        <v>83</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B92" s="14">
+      <c r="C92" s="14">
         <v>2.8</v>
       </c>
-      <c r="AC92" s="12"/>
       <c r="AD92" s="12"/>
       <c r="AE92" s="12"/>
-    </row>
-    <row r="93" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
+      <c r="AF92" s="12"/>
+    </row>
+    <row r="93" spans="1:32" s="15" customFormat="1">
+      <c r="A93" s="38">
+        <v>84</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B93" s="14">
+      <c r="C93" s="14">
         <v>1.8</v>
       </c>
-      <c r="AC93" s="12"/>
       <c r="AD93" s="12"/>
       <c r="AE93" s="12"/>
-    </row>
-    <row r="94" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
-      <c r="B94" s="14"/>
-      <c r="AC94" s="12"/>
+      <c r="AF93" s="12"/>
+    </row>
+    <row r="94" spans="1:32" s="15" customFormat="1" ht="15" thickBot="1">
+      <c r="A94" s="38"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="14"/>
       <c r="AD94" s="12"/>
       <c r="AE94" s="12"/>
-    </row>
-    <row r="95" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
+      <c r="AF94" s="12"/>
+    </row>
+    <row r="95" spans="1:32" s="15" customFormat="1" ht="15">
+      <c r="A95" s="38"/>
+      <c r="B95" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B95" s="14"/>
-      <c r="AC95" s="12"/>
+      <c r="C95" s="14"/>
       <c r="AD95" s="12"/>
       <c r="AE95" s="12"/>
-    </row>
-    <row r="96" spans="1:31" s="31" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="29"/>
-      <c r="B96" s="30"/>
-      <c r="AC96" s="32"/>
+      <c r="AF95" s="12"/>
+    </row>
+    <row r="96" spans="1:32" s="31" customFormat="1" ht="16" thickBot="1">
+      <c r="A96" s="39"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="30"/>
       <c r="AD96" s="32"/>
       <c r="AE96" s="32"/>
-    </row>
-    <row r="97" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+      <c r="AF96" s="32"/>
+    </row>
+    <row r="97" spans="1:32" s="15" customFormat="1" ht="15">
+      <c r="A97" s="38"/>
+      <c r="B97" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B97" s="14"/>
-      <c r="AC97" s="12"/>
+      <c r="C97" s="14"/>
       <c r="AD97" s="12"/>
       <c r="AE97" s="12"/>
-    </row>
-    <row r="98" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="6" t="s">
+      <c r="AF97" s="12"/>
+    </row>
+    <row r="98" spans="1:32" s="15" customFormat="1">
+      <c r="A98" s="38">
+        <v>1</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B98" s="14">
+      <c r="C98" s="14">
         <v>0.8</v>
       </c>
-      <c r="AC98" s="12"/>
       <c r="AD98" s="12"/>
       <c r="AE98" s="12"/>
-    </row>
-    <row r="99" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="6" t="s">
+      <c r="AF98" s="12"/>
+    </row>
+    <row r="99" spans="1:32" s="15" customFormat="1">
+      <c r="A99" s="38">
+        <v>2</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B99" s="14">
+      <c r="C99" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AC99" s="12"/>
       <c r="AD99" s="12"/>
       <c r="AE99" s="12"/>
-    </row>
-    <row r="100" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="6" t="s">
+      <c r="AF99" s="12"/>
+    </row>
+    <row r="100" spans="1:32" s="15" customFormat="1">
+      <c r="A100" s="38">
+        <v>3</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B100" s="14">
+      <c r="C100" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AC100" s="12"/>
       <c r="AD100" s="12"/>
       <c r="AE100" s="12"/>
-    </row>
-    <row r="101" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="6" t="s">
+      <c r="AF100" s="12"/>
+    </row>
+    <row r="101" spans="1:32" s="15" customFormat="1">
+      <c r="A101" s="38">
+        <v>4</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B101" s="14">
+      <c r="C101" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AC101" s="12"/>
       <c r="AD101" s="12"/>
       <c r="AE101" s="12"/>
-    </row>
-    <row r="102" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="6" t="s">
+      <c r="AF101" s="12"/>
+    </row>
+    <row r="102" spans="1:32" s="15" customFormat="1">
+      <c r="A102" s="38">
+        <v>5</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B102" s="14">
+      <c r="C102" s="14">
         <v>0.8</v>
       </c>
-      <c r="AC102" s="12"/>
       <c r="AD102" s="12"/>
       <c r="AE102" s="12"/>
-    </row>
-    <row r="103" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="6" t="s">
+      <c r="AF102" s="12"/>
+    </row>
+    <row r="103" spans="1:32" s="15" customFormat="1">
+      <c r="A103" s="38">
+        <v>6</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B103" s="14">
+      <c r="C103" s="14">
         <v>1</v>
       </c>
-      <c r="AC103" s="12"/>
       <c r="AD103" s="12"/>
       <c r="AE103" s="12"/>
-    </row>
-    <row r="104" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="6" t="s">
+      <c r="AF103" s="12"/>
+    </row>
+    <row r="104" spans="1:32" s="15" customFormat="1">
+      <c r="A104" s="38">
+        <v>7</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B104" s="14">
+      <c r="C104" s="14">
         <v>1</v>
       </c>
-      <c r="AC104" s="12"/>
       <c r="AD104" s="12"/>
       <c r="AE104" s="12"/>
-    </row>
-    <row r="105" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="6" t="s">
+      <c r="AF104" s="12"/>
+    </row>
+    <row r="105" spans="1:32" s="15" customFormat="1">
+      <c r="A105" s="38">
+        <v>8</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B105" s="14">
+      <c r="C105" s="14">
         <v>1</v>
       </c>
-      <c r="AC105" s="12"/>
       <c r="AD105" s="12"/>
       <c r="AE105" s="12"/>
-    </row>
-    <row r="106" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="6" t="s">
+      <c r="AF105" s="12"/>
+    </row>
+    <row r="106" spans="1:32" s="15" customFormat="1">
+      <c r="A106" s="38">
+        <v>9</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B106" s="14">
+      <c r="C106" s="14">
         <v>0.8</v>
       </c>
-      <c r="AC106" s="12"/>
       <c r="AD106" s="12"/>
       <c r="AE106" s="12"/>
-    </row>
-    <row r="107" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="6" t="s">
+      <c r="AF106" s="12"/>
+    </row>
+    <row r="107" spans="1:32" s="15" customFormat="1">
+      <c r="A107" s="38">
+        <v>10</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B107" s="14">
+      <c r="C107" s="14">
         <v>1</v>
       </c>
-      <c r="AC107" s="12"/>
       <c r="AD107" s="12"/>
       <c r="AE107" s="12"/>
-    </row>
-    <row r="108" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="6" t="s">
+      <c r="AF107" s="12"/>
+    </row>
+    <row r="108" spans="1:32" s="15" customFormat="1">
+      <c r="A108" s="38">
+        <v>11</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B108" s="14">
+      <c r="C108" s="14">
         <v>1</v>
       </c>
-      <c r="AC108" s="12"/>
       <c r="AD108" s="12"/>
       <c r="AE108" s="12"/>
-    </row>
-    <row r="109" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="6" t="s">
+      <c r="AF108" s="12"/>
+    </row>
+    <row r="109" spans="1:32" s="15" customFormat="1">
+      <c r="A109" s="38">
+        <v>12</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B109" s="14">
+      <c r="C109" s="14">
         <v>1</v>
       </c>
-      <c r="AC109" s="12"/>
       <c r="AD109" s="12"/>
       <c r="AE109" s="12"/>
-    </row>
-    <row r="110" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="6"/>
-      <c r="B110" s="14"/>
-      <c r="AC110" s="12"/>
+      <c r="AF109" s="12"/>
+    </row>
+    <row r="110" spans="1:32" s="15" customFormat="1" ht="15" thickBot="1">
+      <c r="A110" s="38"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="14"/>
       <c r="AD110" s="12"/>
       <c r="AE110" s="12"/>
-    </row>
-    <row r="111" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="8" t="s">
+      <c r="AF110" s="12"/>
+    </row>
+    <row r="111" spans="1:32" s="15" customFormat="1" ht="15">
+      <c r="A111" s="38"/>
+      <c r="B111" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B111" s="14"/>
-      <c r="AC111" s="12"/>
+      <c r="C111" s="14"/>
       <c r="AD111" s="12"/>
       <c r="AE111" s="12"/>
-    </row>
-    <row r="112" spans="1:31" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
-      <c r="B112" s="25">
+      <c r="AF111" s="12"/>
+    </row>
+    <row r="112" spans="1:32" s="15" customFormat="1" ht="18">
+      <c r="A112" s="38"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="25">
         <v>20000</v>
       </c>
-      <c r="C112" s="23"/>
       <c r="D112" s="23"/>
       <c r="E112" s="23"/>
       <c r="F112" s="23"/>
@@ -2867,1470 +3164,1785 @@
       <c r="M112" s="23"/>
       <c r="N112" s="23"/>
       <c r="O112" s="23"/>
-      <c r="AC112" s="12"/>
+      <c r="P112" s="23"/>
       <c r="AD112" s="12"/>
       <c r="AE112" s="12"/>
-    </row>
-    <row r="113" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
-      <c r="B113" s="14"/>
-      <c r="AC113" s="12"/>
+      <c r="AF112" s="12"/>
+    </row>
+    <row r="113" spans="1:32" s="15" customFormat="1" ht="15" thickBot="1">
+      <c r="A113" s="38"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="14"/>
       <c r="AD113" s="12"/>
       <c r="AE113" s="12"/>
-    </row>
-    <row r="114" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" s="8" t="s">
+      <c r="AF113" s="12"/>
+    </row>
+    <row r="114" spans="1:32" s="15" customFormat="1" ht="15">
+      <c r="A114" s="38"/>
+      <c r="B114" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B114" s="14"/>
-      <c r="AC114" s="12"/>
+      <c r="C114" s="14"/>
       <c r="AD114" s="12"/>
       <c r="AE114" s="12"/>
-    </row>
-    <row r="115" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
-      <c r="B115" s="14">
+      <c r="AF114" s="12"/>
+    </row>
+    <row r="115" spans="1:32" s="15" customFormat="1" ht="15" thickBot="1">
+      <c r="A115" s="38"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="14">
         <v>1</v>
       </c>
-      <c r="AC115" s="12"/>
       <c r="AD115" s="12"/>
       <c r="AE115" s="12"/>
-    </row>
-    <row r="116" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116" s="7" t="s">
+      <c r="AF115" s="12"/>
+    </row>
+    <row r="116" spans="1:32" s="15" customFormat="1" ht="15">
+      <c r="A116" s="38"/>
+      <c r="B116" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B116" s="14"/>
-      <c r="AC116" s="12"/>
+      <c r="C116" s="14"/>
       <c r="AD116" s="12"/>
       <c r="AE116" s="12"/>
-    </row>
-    <row r="117" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="3">
+      <c r="AF116" s="12"/>
+    </row>
+    <row r="117" spans="1:32" s="15" customFormat="1">
+      <c r="A117" s="38">
         <v>1</v>
       </c>
-      <c r="B117" s="14">
+      <c r="B117" s="3">
+        <v>1</v>
+      </c>
+      <c r="C117" s="14">
         <v>0.7</v>
       </c>
-      <c r="AC117" s="12"/>
       <c r="AD117" s="12"/>
       <c r="AE117" s="12"/>
-    </row>
-    <row r="118" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="3">
-        <v>2</v>
-      </c>
-      <c r="B118" s="14">
+      <c r="AF117" s="12"/>
+    </row>
+    <row r="118" spans="1:32" s="15" customFormat="1">
+      <c r="A118" s="38">
+        <v>2</v>
+      </c>
+      <c r="B118" s="3">
+        <v>2</v>
+      </c>
+      <c r="C118" s="14">
         <v>0.75</v>
       </c>
-      <c r="AC118" s="12"/>
       <c r="AD118" s="12"/>
       <c r="AE118" s="12"/>
-    </row>
-    <row r="119" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="3">
+      <c r="AF118" s="12"/>
+    </row>
+    <row r="119" spans="1:32" s="15" customFormat="1">
+      <c r="A119" s="38">
         <v>3</v>
       </c>
-      <c r="B119" s="14">
+      <c r="B119" s="3">
+        <v>3</v>
+      </c>
+      <c r="C119" s="14">
         <v>0.8</v>
       </c>
-      <c r="AC119" s="12"/>
       <c r="AD119" s="12"/>
       <c r="AE119" s="12"/>
-    </row>
-    <row r="120" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="3">
+      <c r="AF119" s="12"/>
+    </row>
+    <row r="120" spans="1:32" s="15" customFormat="1">
+      <c r="A120" s="38">
         <v>4</v>
       </c>
-      <c r="B120" s="14">
+      <c r="B120" s="3">
+        <v>4</v>
+      </c>
+      <c r="C120" s="14">
         <v>0.85</v>
       </c>
-      <c r="AC120" s="12"/>
       <c r="AD120" s="12"/>
       <c r="AE120" s="12"/>
-    </row>
-    <row r="121" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="3">
+      <c r="AF120" s="12"/>
+    </row>
+    <row r="121" spans="1:32" s="15" customFormat="1">
+      <c r="A121" s="38">
         <v>5</v>
       </c>
-      <c r="B121" s="14">
+      <c r="B121" s="3">
+        <v>5</v>
+      </c>
+      <c r="C121" s="14">
         <v>0.9</v>
       </c>
-      <c r="AC121" s="12"/>
       <c r="AD121" s="12"/>
       <c r="AE121" s="12"/>
-    </row>
-    <row r="122" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="3">
+      <c r="AF121" s="12"/>
+    </row>
+    <row r="122" spans="1:32" s="15" customFormat="1">
+      <c r="A122" s="38">
         <v>6</v>
       </c>
-      <c r="B122" s="14">
+      <c r="B122" s="3">
+        <v>6</v>
+      </c>
+      <c r="C122" s="14">
         <v>0.95</v>
       </c>
-      <c r="AC122" s="12"/>
       <c r="AD122" s="12"/>
       <c r="AE122" s="12"/>
-    </row>
-    <row r="123" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="3">
+      <c r="AF122" s="12"/>
+    </row>
+    <row r="123" spans="1:32" s="15" customFormat="1">
+      <c r="A123" s="38">
         <v>7</v>
       </c>
-      <c r="B123" s="14">
+      <c r="B123" s="3">
+        <v>7</v>
+      </c>
+      <c r="C123" s="14">
         <v>1</v>
       </c>
-      <c r="AC123" s="12"/>
       <c r="AD123" s="12"/>
       <c r="AE123" s="12"/>
-    </row>
-    <row r="124" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="3">
+      <c r="AF123" s="12"/>
+    </row>
+    <row r="124" spans="1:32" s="15" customFormat="1">
+      <c r="A124" s="38">
         <v>8</v>
       </c>
-      <c r="B124" s="14">
+      <c r="B124" s="3">
+        <v>8</v>
+      </c>
+      <c r="C124" s="14">
         <v>1</v>
       </c>
-      <c r="AC124" s="12"/>
       <c r="AD124" s="12"/>
       <c r="AE124" s="12"/>
-    </row>
-    <row r="125" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="3">
+      <c r="AF124" s="12"/>
+    </row>
+    <row r="125" spans="1:32" s="15" customFormat="1">
+      <c r="A125" s="38">
         <v>9</v>
       </c>
-      <c r="B125" s="14">
+      <c r="B125" s="3">
+        <v>9</v>
+      </c>
+      <c r="C125" s="14">
         <v>1</v>
       </c>
-      <c r="AC125" s="12"/>
       <c r="AD125" s="12"/>
       <c r="AE125" s="12"/>
-    </row>
-    <row r="126" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="3">
+      <c r="AF125" s="12"/>
+    </row>
+    <row r="126" spans="1:32" s="15" customFormat="1">
+      <c r="A126" s="38">
         <v>10</v>
       </c>
-      <c r="B126" s="14">
+      <c r="B126" s="3">
+        <v>10</v>
+      </c>
+      <c r="C126" s="14">
         <v>1</v>
       </c>
-      <c r="AC126" s="12"/>
       <c r="AD126" s="12"/>
       <c r="AE126" s="12"/>
-    </row>
-    <row r="127" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="3">
+      <c r="AF126" s="12"/>
+    </row>
+    <row r="127" spans="1:32" s="15" customFormat="1">
+      <c r="A127" s="38">
         <v>11</v>
       </c>
-      <c r="B127" s="14">
+      <c r="B127" s="3">
+        <v>11</v>
+      </c>
+      <c r="C127" s="14">
         <v>1.05</v>
       </c>
-      <c r="AC127" s="12"/>
       <c r="AD127" s="12"/>
       <c r="AE127" s="12"/>
-    </row>
-    <row r="128" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="3">
+      <c r="AF127" s="12"/>
+    </row>
+    <row r="128" spans="1:32" s="15" customFormat="1">
+      <c r="A128" s="38">
         <v>12</v>
       </c>
-      <c r="B128" s="14">
+      <c r="B128" s="3">
+        <v>12</v>
+      </c>
+      <c r="C128" s="14">
         <v>1.05</v>
       </c>
-      <c r="AC128" s="12"/>
       <c r="AD128" s="12"/>
       <c r="AE128" s="12"/>
-    </row>
-    <row r="129" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="3">
+      <c r="AF128" s="12"/>
+    </row>
+    <row r="129" spans="1:32" s="15" customFormat="1">
+      <c r="A129" s="38">
         <v>13</v>
       </c>
-      <c r="B129" s="14">
+      <c r="B129" s="3">
+        <v>13</v>
+      </c>
+      <c r="C129" s="14">
         <v>1.05</v>
       </c>
-      <c r="AC129" s="12"/>
       <c r="AD129" s="12"/>
       <c r="AE129" s="12"/>
-    </row>
-    <row r="130" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="3">
+      <c r="AF129" s="12"/>
+    </row>
+    <row r="130" spans="1:32" s="15" customFormat="1">
+      <c r="A130" s="38">
         <v>14</v>
       </c>
-      <c r="B130" s="14">
+      <c r="B130" s="3">
+        <v>14</v>
+      </c>
+      <c r="C130" s="14">
         <v>1.05</v>
       </c>
-      <c r="AC130" s="12"/>
       <c r="AD130" s="12"/>
       <c r="AE130" s="12"/>
-    </row>
-    <row r="131" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="3">
+      <c r="AF130" s="12"/>
+    </row>
+    <row r="131" spans="1:32" s="15" customFormat="1">
+      <c r="A131" s="38">
         <v>15</v>
       </c>
-      <c r="B131" s="14">
+      <c r="B131" s="3">
+        <v>15</v>
+      </c>
+      <c r="C131" s="14">
         <v>1.05</v>
       </c>
-      <c r="AC131" s="12"/>
       <c r="AD131" s="12"/>
       <c r="AE131" s="12"/>
-    </row>
-    <row r="132" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="3">
+      <c r="AF131" s="12"/>
+    </row>
+    <row r="132" spans="1:32" s="15" customFormat="1">
+      <c r="A132" s="38">
         <v>16</v>
       </c>
-      <c r="B132" s="14">
+      <c r="B132" s="3">
+        <v>16</v>
+      </c>
+      <c r="C132" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AC132" s="12"/>
       <c r="AD132" s="12"/>
       <c r="AE132" s="12"/>
-    </row>
-    <row r="133" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="3">
+      <c r="AF132" s="12"/>
+    </row>
+    <row r="133" spans="1:32" s="15" customFormat="1">
+      <c r="A133" s="38">
         <v>17</v>
       </c>
-      <c r="B133" s="14">
+      <c r="B133" s="3">
+        <v>17</v>
+      </c>
+      <c r="C133" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AC133" s="12"/>
       <c r="AD133" s="12"/>
       <c r="AE133" s="12"/>
-    </row>
-    <row r="134" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="3">
+      <c r="AF133" s="12"/>
+    </row>
+    <row r="134" spans="1:32" s="15" customFormat="1">
+      <c r="A134" s="38">
         <v>18</v>
       </c>
-      <c r="B134" s="14">
+      <c r="B134" s="3">
+        <v>18</v>
+      </c>
+      <c r="C134" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AC134" s="12"/>
       <c r="AD134" s="12"/>
       <c r="AE134" s="12"/>
-    </row>
-    <row r="135" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="3">
+      <c r="AF134" s="12"/>
+    </row>
+    <row r="135" spans="1:32" s="15" customFormat="1">
+      <c r="A135" s="38">
         <v>19</v>
       </c>
-      <c r="B135" s="14">
+      <c r="B135" s="3">
+        <v>19</v>
+      </c>
+      <c r="C135" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AC135" s="12"/>
       <c r="AD135" s="12"/>
       <c r="AE135" s="12"/>
-    </row>
-    <row r="136" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="3">
+      <c r="AF135" s="12"/>
+    </row>
+    <row r="136" spans="1:32" s="15" customFormat="1">
+      <c r="A136" s="38">
         <v>20</v>
       </c>
-      <c r="B136" s="14">
+      <c r="B136" s="3">
+        <v>20</v>
+      </c>
+      <c r="C136" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AC136" s="12"/>
       <c r="AD136" s="12"/>
       <c r="AE136" s="12"/>
-    </row>
-    <row r="137" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="3">
+      <c r="AF136" s="12"/>
+    </row>
+    <row r="137" spans="1:32" s="15" customFormat="1">
+      <c r="A137" s="38">
         <v>21</v>
       </c>
-      <c r="B137" s="14">
+      <c r="B137" s="3">
+        <v>21</v>
+      </c>
+      <c r="C137" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AC137" s="12"/>
       <c r="AD137" s="12"/>
       <c r="AE137" s="12"/>
-    </row>
-    <row r="138" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="3">
+      <c r="AF137" s="12"/>
+    </row>
+    <row r="138" spans="1:32" s="15" customFormat="1">
+      <c r="A138" s="38">
         <v>22</v>
       </c>
-      <c r="B138" s="14">
+      <c r="B138" s="3">
+        <v>22</v>
+      </c>
+      <c r="C138" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AC138" s="12"/>
       <c r="AD138" s="12"/>
       <c r="AE138" s="12"/>
-    </row>
-    <row r="139" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="3">
+      <c r="AF138" s="12"/>
+    </row>
+    <row r="139" spans="1:32" s="15" customFormat="1">
+      <c r="A139" s="38">
         <v>23</v>
       </c>
-      <c r="B139" s="14">
+      <c r="B139" s="3">
+        <v>23</v>
+      </c>
+      <c r="C139" s="14">
         <v>1.2</v>
       </c>
-      <c r="AC139" s="12"/>
       <c r="AD139" s="12"/>
       <c r="AE139" s="12"/>
-    </row>
-    <row r="140" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="3">
+      <c r="AF139" s="12"/>
+    </row>
+    <row r="140" spans="1:32" s="15" customFormat="1">
+      <c r="A140" s="38">
         <v>24</v>
       </c>
-      <c r="B140" s="14">
+      <c r="B140" s="3">
+        <v>24</v>
+      </c>
+      <c r="C140" s="14">
         <v>1.2</v>
       </c>
-      <c r="AC140" s="12"/>
       <c r="AD140" s="12"/>
       <c r="AE140" s="12"/>
-    </row>
-    <row r="141" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="3">
+      <c r="AF140" s="12"/>
+    </row>
+    <row r="141" spans="1:32" s="15" customFormat="1">
+      <c r="A141" s="38">
         <v>25</v>
       </c>
-      <c r="B141" s="14">
+      <c r="B141" s="3">
+        <v>25</v>
+      </c>
+      <c r="C141" s="14">
         <v>1.2</v>
       </c>
-      <c r="AC141" s="12"/>
       <c r="AD141" s="12"/>
       <c r="AE141" s="12"/>
-    </row>
-    <row r="142" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="3">
+      <c r="AF141" s="12"/>
+    </row>
+    <row r="142" spans="1:32" s="15" customFormat="1">
+      <c r="A142" s="38">
         <v>26</v>
       </c>
-      <c r="B142" s="14">
+      <c r="B142" s="3">
+        <v>26</v>
+      </c>
+      <c r="C142" s="14">
         <v>1.25</v>
       </c>
-      <c r="AC142" s="12"/>
       <c r="AD142" s="12"/>
       <c r="AE142" s="12"/>
-    </row>
-    <row r="143" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="3">
+      <c r="AF142" s="12"/>
+    </row>
+    <row r="143" spans="1:32" s="15" customFormat="1">
+      <c r="A143" s="38">
         <v>27</v>
       </c>
-      <c r="B143" s="14">
+      <c r="B143" s="3">
+        <v>27</v>
+      </c>
+      <c r="C143" s="14">
         <v>1.25</v>
       </c>
-      <c r="AC143" s="12"/>
       <c r="AD143" s="12"/>
       <c r="AE143" s="12"/>
-    </row>
-    <row r="144" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="3">
+      <c r="AF143" s="12"/>
+    </row>
+    <row r="144" spans="1:32" s="15" customFormat="1">
+      <c r="A144" s="38">
         <v>28</v>
       </c>
-      <c r="B144" s="14">
+      <c r="B144" s="3">
+        <v>28</v>
+      </c>
+      <c r="C144" s="14">
         <v>1.25</v>
       </c>
-      <c r="AC144" s="12"/>
       <c r="AD144" s="12"/>
       <c r="AE144" s="12"/>
-    </row>
-    <row r="145" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="3">
+      <c r="AF144" s="12"/>
+    </row>
+    <row r="145" spans="1:32" s="15" customFormat="1">
+      <c r="A145" s="38">
         <v>29</v>
       </c>
-      <c r="B145" s="14">
+      <c r="B145" s="3">
+        <v>29</v>
+      </c>
+      <c r="C145" s="14">
         <v>1.25</v>
       </c>
-      <c r="AC145" s="12"/>
       <c r="AD145" s="12"/>
       <c r="AE145" s="12"/>
-    </row>
-    <row r="146" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="3">
+      <c r="AF145" s="12"/>
+    </row>
+    <row r="146" spans="1:32" s="15" customFormat="1">
+      <c r="A146" s="38">
         <v>30</v>
       </c>
-      <c r="B146" s="14">
+      <c r="B146" s="3">
+        <v>30</v>
+      </c>
+      <c r="C146" s="14">
         <v>1.25</v>
       </c>
-      <c r="AC146" s="12"/>
       <c r="AD146" s="12"/>
       <c r="AE146" s="12"/>
-    </row>
-    <row r="147" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="3" t="s">
+      <c r="AF146" s="12"/>
+    </row>
+    <row r="147" spans="1:32" s="15" customFormat="1">
+      <c r="A147" s="38">
+        <v>31</v>
+      </c>
+      <c r="B147" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B147" s="14">
+      <c r="C147" s="14">
         <v>3</v>
       </c>
-      <c r="AC147" s="12"/>
       <c r="AD147" s="12"/>
       <c r="AE147" s="12"/>
-    </row>
-    <row r="148" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
-      <c r="B148" s="14"/>
-      <c r="AC148" s="12"/>
+      <c r="AF147" s="12"/>
+    </row>
+    <row r="148" spans="1:32" s="15" customFormat="1" ht="15" thickBot="1">
+      <c r="A148" s="38"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="14"/>
       <c r="AD148" s="12"/>
       <c r="AE148" s="12"/>
-    </row>
-    <row r="149" spans="1:31" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A149" s="8" t="s">
+      <c r="AF148" s="12"/>
+    </row>
+    <row r="149" spans="1:32" s="15" customFormat="1" ht="30">
+      <c r="A149" s="38"/>
+      <c r="B149" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B149" s="14"/>
-      <c r="AC149" s="12"/>
+      <c r="C149" s="14"/>
       <c r="AD149" s="12"/>
       <c r="AE149" s="12"/>
-    </row>
-    <row r="150" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="4" t="s">
+      <c r="AF149" s="12"/>
+    </row>
+    <row r="150" spans="1:32" s="15" customFormat="1">
+      <c r="A150" s="38">
+        <v>1</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B150" s="14">
+      <c r="C150" s="14">
         <v>1</v>
       </c>
-      <c r="AC150" s="12"/>
       <c r="AD150" s="12"/>
       <c r="AE150" s="12"/>
-    </row>
-    <row r="151" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="4" t="s">
+      <c r="AF150" s="12"/>
+    </row>
+    <row r="151" spans="1:32" s="15" customFormat="1">
+      <c r="A151" s="38">
+        <v>2</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B151" s="14">
+      <c r="C151" s="14">
         <v>0.9</v>
       </c>
-      <c r="AC151" s="12"/>
       <c r="AD151" s="12"/>
       <c r="AE151" s="12"/>
-    </row>
-    <row r="152" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="2"/>
-      <c r="B152" s="14"/>
-      <c r="AC152" s="12"/>
+      <c r="AF151" s="12"/>
+    </row>
+    <row r="152" spans="1:32" s="15" customFormat="1" ht="15" thickBot="1">
+      <c r="A152" s="38"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="14"/>
       <c r="AD152" s="12"/>
       <c r="AE152" s="12"/>
-    </row>
-    <row r="153" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A153" s="8" t="s">
+      <c r="AF152" s="12"/>
+    </row>
+    <row r="153" spans="1:32" s="15" customFormat="1" ht="15">
+      <c r="A153" s="38"/>
+      <c r="B153" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B153" s="14"/>
-      <c r="AC153" s="12"/>
+      <c r="C153" s="14"/>
       <c r="AD153" s="12"/>
       <c r="AE153" s="12"/>
-    </row>
-    <row r="154" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="5">
+      <c r="AF153" s="12"/>
+    </row>
+    <row r="154" spans="1:32" s="15" customFormat="1">
+      <c r="A154" s="38">
         <v>1</v>
       </c>
-      <c r="B154" s="14">
+      <c r="B154" s="5">
         <v>1</v>
       </c>
-      <c r="AC154" s="12"/>
+      <c r="C154" s="14">
+        <v>1</v>
+      </c>
       <c r="AD154" s="12"/>
       <c r="AE154" s="12"/>
-    </row>
-    <row r="155" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="5">
-        <v>2</v>
-      </c>
-      <c r="B155" s="14">
+      <c r="AF154" s="12"/>
+    </row>
+    <row r="155" spans="1:32" s="15" customFormat="1">
+      <c r="A155" s="38">
+        <v>2</v>
+      </c>
+      <c r="B155" s="5">
+        <v>2</v>
+      </c>
+      <c r="C155" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AC155" s="12"/>
       <c r="AD155" s="12"/>
       <c r="AE155" s="12"/>
-    </row>
-    <row r="156" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="5">
+      <c r="AF155" s="12"/>
+    </row>
+    <row r="156" spans="1:32" s="15" customFormat="1">
+      <c r="A156" s="38">
         <v>3</v>
       </c>
-      <c r="B156" s="14">
+      <c r="B156" s="5">
+        <v>3</v>
+      </c>
+      <c r="C156" s="14">
         <v>1.1499999999999999</v>
       </c>
-      <c r="AC156" s="12"/>
       <c r="AD156" s="12"/>
       <c r="AE156" s="12"/>
-    </row>
-    <row r="157" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="5" t="s">
+      <c r="AF156" s="12"/>
+    </row>
+    <row r="157" spans="1:32" s="15" customFormat="1">
+      <c r="A157" s="38">
+        <v>4</v>
+      </c>
+      <c r="B157" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B157" s="14">
+      <c r="C157" s="14">
         <v>1.2</v>
       </c>
-      <c r="AC157" s="12"/>
       <c r="AD157" s="12"/>
       <c r="AE157" s="12"/>
-    </row>
-    <row r="158" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="9"/>
-      <c r="B158" s="14"/>
-      <c r="AC158" s="12"/>
+      <c r="AF157" s="12"/>
+    </row>
+    <row r="158" spans="1:32" s="15" customFormat="1" ht="15" thickBot="1">
+      <c r="A158" s="38"/>
+      <c r="B158" s="9"/>
+      <c r="C158" s="14"/>
       <c r="AD158" s="12"/>
       <c r="AE158" s="12"/>
-    </row>
-    <row r="159" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A159" s="8" t="s">
+      <c r="AF158" s="12"/>
+    </row>
+    <row r="159" spans="1:32" s="15" customFormat="1" ht="15">
+      <c r="A159" s="38"/>
+      <c r="B159" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B159" s="14"/>
-      <c r="AC159" s="12"/>
+      <c r="C159" s="14"/>
       <c r="AD159" s="12"/>
       <c r="AE159" s="12"/>
-    </row>
-    <row r="160" spans="1:31" s="15" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="4" t="s">
+      <c r="AF159" s="12"/>
+    </row>
+    <row r="160" spans="1:32" s="15" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A160" s="38">
+        <v>1</v>
+      </c>
+      <c r="B160" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B160" s="14">
+      <c r="C160" s="14">
         <v>0.9</v>
       </c>
-      <c r="AC160" s="12"/>
       <c r="AD160" s="12"/>
       <c r="AE160" s="12"/>
-    </row>
-    <row r="161" spans="1:31" s="15" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="4" t="s">
+      <c r="AF160" s="12"/>
+    </row>
+    <row r="161" spans="1:32" s="15" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A161" s="38">
+        <v>2</v>
+      </c>
+      <c r="B161" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B161" s="14">
+      <c r="C161" s="14">
         <v>1</v>
       </c>
-      <c r="AC161" s="12"/>
       <c r="AD161" s="12"/>
       <c r="AE161" s="12"/>
-    </row>
-    <row r="162" spans="1:31" s="15" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="4" t="s">
+      <c r="AF161" s="12"/>
+    </row>
+    <row r="162" spans="1:32" s="15" customFormat="1" ht="46.5" customHeight="1">
+      <c r="A162" s="38">
+        <v>3</v>
+      </c>
+      <c r="B162" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B162" s="14">
+      <c r="C162" s="14">
         <v>1</v>
       </c>
-      <c r="AC162" s="12"/>
       <c r="AD162" s="12"/>
       <c r="AE162" s="12"/>
-    </row>
-    <row r="163" spans="1:31" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="4" t="s">
+      <c r="AF162" s="12"/>
+    </row>
+    <row r="163" spans="1:32" s="15" customFormat="1" ht="45" customHeight="1">
+      <c r="A163" s="38">
+        <v>4</v>
+      </c>
+      <c r="B163" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B163" s="14">
+      <c r="C163" s="14">
         <v>0.9</v>
       </c>
-      <c r="AC163" s="12"/>
       <c r="AD163" s="12"/>
       <c r="AE163" s="12"/>
-    </row>
-    <row r="164" spans="1:31" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="4" t="s">
+      <c r="AF163" s="12"/>
+    </row>
+    <row r="164" spans="1:32" s="15" customFormat="1" ht="45" customHeight="1">
+      <c r="A164" s="38">
+        <v>5</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B164" s="14">
+      <c r="C164" s="14">
         <v>1</v>
       </c>
-      <c r="AC164" s="12"/>
       <c r="AD164" s="12"/>
       <c r="AE164" s="12"/>
-    </row>
-    <row r="165" spans="1:31" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="4" t="s">
+      <c r="AF164" s="12"/>
+    </row>
+    <row r="165" spans="1:32" s="15" customFormat="1" ht="60" customHeight="1">
+      <c r="A165" s="38">
+        <v>6</v>
+      </c>
+      <c r="B165" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B165" s="14">
+      <c r="C165" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AC165" s="12"/>
       <c r="AD165" s="12"/>
       <c r="AE165" s="12"/>
-    </row>
-    <row r="166" spans="1:31" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="4" t="s">
+      <c r="AF165" s="12"/>
+    </row>
+    <row r="166" spans="1:32" s="15" customFormat="1" ht="30" customHeight="1">
+      <c r="A166" s="38">
+        <v>7</v>
+      </c>
+      <c r="B166" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B166" s="14">
+      <c r="C166" s="14">
         <v>0.9</v>
       </c>
-      <c r="AC166" s="12"/>
       <c r="AD166" s="12"/>
       <c r="AE166" s="12"/>
-    </row>
-    <row r="167" spans="1:31" s="15" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="4" t="s">
+      <c r="AF166" s="12"/>
+    </row>
+    <row r="167" spans="1:32" s="15" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A167" s="38">
+        <v>8</v>
+      </c>
+      <c r="B167" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B167" s="14">
+      <c r="C167" s="14">
         <v>1</v>
       </c>
-      <c r="AC167" s="12"/>
       <c r="AD167" s="12"/>
       <c r="AE167" s="12"/>
-    </row>
-    <row r="168" spans="1:31" s="15" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="4" t="s">
+      <c r="AF167" s="12"/>
+    </row>
+    <row r="168" spans="1:32" s="15" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A168" s="38">
+        <v>9</v>
+      </c>
+      <c r="B168" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B168" s="14">
+      <c r="C168" s="14">
         <v>0.9</v>
       </c>
-      <c r="AC168" s="12"/>
       <c r="AD168" s="12"/>
       <c r="AE168" s="12"/>
-    </row>
-    <row r="169" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="4" t="s">
+      <c r="AF168" s="12"/>
+    </row>
+    <row r="169" spans="1:32" s="15" customFormat="1">
+      <c r="A169" s="38">
+        <v>10</v>
+      </c>
+      <c r="B169" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B169" s="14">
+      <c r="C169" s="14">
         <v>0.9</v>
       </c>
-      <c r="AC169" s="12"/>
       <c r="AD169" s="12"/>
       <c r="AE169" s="12"/>
-    </row>
-    <row r="170" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="2"/>
-      <c r="B170" s="14"/>
-      <c r="AC170" s="12"/>
+      <c r="AF169" s="12"/>
+    </row>
+    <row r="170" spans="1:32" s="15" customFormat="1" ht="15" thickBot="1">
+      <c r="A170" s="38"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="14"/>
       <c r="AD170" s="12"/>
       <c r="AE170" s="12"/>
-    </row>
-    <row r="171" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A171" s="8" t="s">
+      <c r="AF170" s="12"/>
+    </row>
+    <row r="171" spans="1:32" s="15" customFormat="1" ht="15">
+      <c r="A171" s="38"/>
+      <c r="B171" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B171" s="14"/>
-      <c r="AC171" s="12"/>
+      <c r="C171" s="14"/>
       <c r="AD171" s="12"/>
       <c r="AE171" s="12"/>
-    </row>
-    <row r="172" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="4" t="s">
+      <c r="AF171" s="12"/>
+    </row>
+    <row r="172" spans="1:32" s="15" customFormat="1">
+      <c r="A172" s="38"/>
+      <c r="B172" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B172" s="14"/>
-      <c r="AC172" s="12"/>
+      <c r="C172" s="14"/>
       <c r="AD172" s="12"/>
       <c r="AE172" s="12"/>
-    </row>
-    <row r="173" spans="1:31" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="4" t="s">
+      <c r="AF172" s="12"/>
+    </row>
+    <row r="173" spans="1:32" s="15" customFormat="1" ht="30" customHeight="1">
+      <c r="A173" s="38">
+        <v>1</v>
+      </c>
+      <c r="B173" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B173" s="14">
+      <c r="C173" s="14">
         <v>1</v>
       </c>
-      <c r="AC173" s="12"/>
       <c r="AD173" s="12"/>
       <c r="AE173" s="12"/>
-    </row>
-    <row r="174" spans="1:31" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="4" t="s">
+      <c r="AF173" s="12"/>
+    </row>
+    <row r="174" spans="1:32" s="15" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A174" s="38"/>
+      <c r="B174" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B174" s="27">
+      <c r="C174" s="27">
         <v>1</v>
       </c>
-      <c r="C174" s="27">
-        <v>2</v>
-      </c>
       <c r="D174" s="27">
+        <v>2</v>
+      </c>
+      <c r="E174" s="27">
         <v>3</v>
       </c>
-      <c r="E174" s="27">
+      <c r="F174" s="27">
         <v>4</v>
       </c>
-      <c r="F174" s="27" t="s">
+      <c r="G174" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="AC174" s="12"/>
       <c r="AD174" s="12"/>
       <c r="AE174" s="12"/>
-    </row>
-    <row r="175" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="4" t="s">
+      <c r="AF174" s="12"/>
+    </row>
+    <row r="175" spans="1:32" s="15" customFormat="1">
+      <c r="A175" s="38">
+        <v>2</v>
+      </c>
+      <c r="B175" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B175" s="17">
+      <c r="C175" s="17">
         <v>0.68</v>
       </c>
-      <c r="C175" s="22">
-        <f>B175/2</f>
+      <c r="D175" s="22">
+        <f>C175/2</f>
         <v>0.34</v>
       </c>
-      <c r="D175" s="22">
-        <f>B175/3</f>
+      <c r="E175" s="22">
+        <f>C175/3</f>
         <v>0.22666666666666668</v>
       </c>
-      <c r="E175" s="22">
-        <f>B175/4</f>
+      <c r="F175" s="22">
+        <f>C175/4</f>
         <v>0.17</v>
       </c>
-      <c r="F175" s="22">
-        <f>B175/5</f>
+      <c r="G175" s="22">
+        <f>C175/5</f>
         <v>0.13600000000000001</v>
       </c>
-      <c r="G175" s="22"/>
       <c r="H175" s="22"/>
       <c r="I175" s="22"/>
-      <c r="AC175" s="12"/>
+      <c r="J175" s="22"/>
       <c r="AD175" s="12"/>
       <c r="AE175" s="12"/>
-    </row>
-    <row r="176" spans="1:31" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="4" t="s">
+      <c r="AF175" s="12"/>
+    </row>
+    <row r="176" spans="1:32" s="15" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A176" s="38">
+        <v>3</v>
+      </c>
+      <c r="B176" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B176" s="17">
+      <c r="C176" s="17">
         <v>0.72</v>
       </c>
-      <c r="C176" s="22">
-        <f t="shared" ref="C176:C182" si="0">B176/2</f>
+      <c r="D176" s="22">
+        <f t="shared" ref="D176:D182" si="0">C176/2</f>
         <v>0.36</v>
       </c>
-      <c r="D176" s="22">
-        <f t="shared" ref="D176:D182" si="1">B176/3</f>
+      <c r="E176" s="22">
+        <f t="shared" ref="E176:E182" si="1">C176/3</f>
         <v>0.24</v>
       </c>
-      <c r="E176" s="22">
-        <f t="shared" ref="E176:E182" si="2">B176/4</f>
+      <c r="F176" s="22">
+        <f t="shared" ref="F176:F182" si="2">C176/4</f>
         <v>0.18</v>
       </c>
-      <c r="F176" s="22">
-        <f t="shared" ref="F176:F182" si="3">B176/5</f>
+      <c r="G176" s="22">
+        <f t="shared" ref="G176:G182" si="3">C176/5</f>
         <v>0.14399999999999999</v>
       </c>
-      <c r="G176" s="22"/>
       <c r="H176" s="22"/>
       <c r="I176" s="22"/>
-      <c r="AC176" s="12"/>
+      <c r="J176" s="22"/>
       <c r="AD176" s="12"/>
       <c r="AE176" s="12"/>
-    </row>
-    <row r="177" spans="1:31" s="15" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="4" t="s">
+      <c r="AF176" s="12"/>
+    </row>
+    <row r="177" spans="1:32" s="15" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A177" s="38">
+        <v>4</v>
+      </c>
+      <c r="B177" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B177" s="17">
+      <c r="C177" s="17">
         <v>0.69</v>
       </c>
-      <c r="C177" s="22">
+      <c r="D177" s="22">
         <f t="shared" si="0"/>
         <v>0.34499999999999997</v>
       </c>
-      <c r="D177" s="22">
+      <c r="E177" s="22">
         <f t="shared" si="1"/>
         <v>0.22999999999999998</v>
       </c>
-      <c r="E177" s="22">
+      <c r="F177" s="22">
         <f t="shared" si="2"/>
         <v>0.17249999999999999</v>
       </c>
-      <c r="F177" s="22">
+      <c r="G177" s="22">
         <f t="shared" si="3"/>
         <v>0.13799999999999998</v>
       </c>
-      <c r="G177" s="22"/>
       <c r="H177" s="22"/>
       <c r="I177" s="22"/>
-      <c r="AC177" s="12"/>
+      <c r="J177" s="22"/>
       <c r="AD177" s="12"/>
       <c r="AE177" s="12"/>
-    </row>
-    <row r="178" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="4" t="s">
+      <c r="AF177" s="12"/>
+    </row>
+    <row r="178" spans="1:32" s="15" customFormat="1">
+      <c r="A178" s="38">
+        <v>5</v>
+      </c>
+      <c r="B178" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B178" s="17">
+      <c r="C178" s="17">
         <v>0.74</v>
       </c>
-      <c r="C178" s="22">
+      <c r="D178" s="22">
         <f t="shared" si="0"/>
         <v>0.37</v>
       </c>
-      <c r="D178" s="22">
+      <c r="E178" s="22">
         <f t="shared" si="1"/>
         <v>0.24666666666666667</v>
       </c>
-      <c r="E178" s="22">
+      <c r="F178" s="22">
         <f t="shared" si="2"/>
         <v>0.185</v>
       </c>
-      <c r="F178" s="22">
+      <c r="G178" s="22">
         <f t="shared" si="3"/>
         <v>0.14799999999999999</v>
       </c>
-      <c r="G178" s="22"/>
       <c r="H178" s="22"/>
       <c r="I178" s="22"/>
-      <c r="AC178" s="12"/>
+      <c r="J178" s="22"/>
       <c r="AD178" s="12"/>
       <c r="AE178" s="12"/>
-    </row>
-    <row r="179" spans="1:31" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="4" t="s">
+      <c r="AF178" s="12"/>
+    </row>
+    <row r="179" spans="1:32" s="15" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A179" s="38">
+        <v>6</v>
+      </c>
+      <c r="B179" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B179" s="17">
+      <c r="C179" s="17">
         <v>0.65</v>
       </c>
-      <c r="C179" s="22">
+      <c r="D179" s="22">
         <f t="shared" si="0"/>
         <v>0.32500000000000001</v>
       </c>
-      <c r="D179" s="22">
+      <c r="E179" s="22">
         <f t="shared" si="1"/>
         <v>0.21666666666666667</v>
       </c>
-      <c r="E179" s="22">
+      <c r="F179" s="22">
         <f t="shared" si="2"/>
         <v>0.16250000000000001</v>
       </c>
-      <c r="F179" s="22">
+      <c r="G179" s="22">
         <f t="shared" si="3"/>
         <v>0.13</v>
       </c>
-      <c r="G179" s="22"/>
       <c r="H179" s="22"/>
       <c r="I179" s="22"/>
-      <c r="AC179" s="12"/>
+      <c r="J179" s="22"/>
       <c r="AD179" s="12"/>
       <c r="AE179" s="12"/>
-    </row>
-    <row r="180" spans="1:31" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="4" t="s">
+      <c r="AF179" s="12"/>
+    </row>
+    <row r="180" spans="1:32" s="15" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A180" s="38">
+        <v>7</v>
+      </c>
+      <c r="B180" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B180" s="17">
+      <c r="C180" s="17">
         <v>0.73</v>
       </c>
-      <c r="C180" s="22">
+      <c r="D180" s="22">
         <f t="shared" si="0"/>
         <v>0.36499999999999999</v>
       </c>
-      <c r="D180" s="22">
+      <c r="E180" s="22">
         <f t="shared" si="1"/>
         <v>0.24333333333333332</v>
       </c>
-      <c r="E180" s="22">
+      <c r="F180" s="22">
         <f t="shared" si="2"/>
         <v>0.1825</v>
       </c>
-      <c r="F180" s="22">
+      <c r="G180" s="22">
         <f t="shared" si="3"/>
         <v>0.14599999999999999</v>
       </c>
-      <c r="G180" s="22"/>
       <c r="H180" s="22"/>
       <c r="I180" s="22"/>
-      <c r="AC180" s="12"/>
+      <c r="J180" s="22"/>
       <c r="AD180" s="12"/>
       <c r="AE180" s="12"/>
-    </row>
-    <row r="181" spans="1:31" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="4" t="s">
+      <c r="AF180" s="12"/>
+    </row>
+    <row r="181" spans="1:32" s="15" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A181" s="38">
+        <v>8</v>
+      </c>
+      <c r="B181" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B181" s="17">
+      <c r="C181" s="17">
         <v>0.71</v>
       </c>
-      <c r="C181" s="22">
+      <c r="D181" s="22">
         <f t="shared" si="0"/>
         <v>0.35499999999999998</v>
       </c>
-      <c r="D181" s="22">
+      <c r="E181" s="22">
         <f t="shared" si="1"/>
         <v>0.23666666666666666</v>
       </c>
-      <c r="E181" s="22">
+      <c r="F181" s="22">
         <f t="shared" si="2"/>
         <v>0.17749999999999999</v>
       </c>
-      <c r="F181" s="22">
+      <c r="G181" s="22">
         <f t="shared" si="3"/>
         <v>0.14199999999999999</v>
       </c>
-      <c r="G181" s="22"/>
       <c r="H181" s="22"/>
       <c r="I181" s="22"/>
-      <c r="AC181" s="12"/>
+      <c r="J181" s="22"/>
       <c r="AD181" s="12"/>
       <c r="AE181" s="12"/>
-    </row>
-    <row r="182" spans="1:31" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="4" t="s">
+      <c r="AF181" s="12"/>
+    </row>
+    <row r="182" spans="1:32" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A182" s="38">
+        <v>9</v>
+      </c>
+      <c r="B182" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B182" s="17">
+      <c r="C182" s="17">
         <v>0.72</v>
       </c>
-      <c r="C182" s="22">
+      <c r="D182" s="22">
         <f t="shared" si="0"/>
         <v>0.36</v>
       </c>
-      <c r="D182" s="22">
+      <c r="E182" s="22">
         <f t="shared" si="1"/>
         <v>0.24</v>
       </c>
-      <c r="E182" s="22">
+      <c r="F182" s="22">
         <f t="shared" si="2"/>
         <v>0.18</v>
       </c>
-      <c r="F182" s="22">
+      <c r="G182" s="22">
         <f t="shared" si="3"/>
         <v>0.14399999999999999</v>
       </c>
-      <c r="G182" s="22"/>
       <c r="H182" s="22"/>
       <c r="I182" s="22"/>
-      <c r="AC182" s="12"/>
+      <c r="J182" s="22"/>
       <c r="AD182" s="12"/>
       <c r="AE182" s="12"/>
-    </row>
-    <row r="183" spans="1:31" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="2"/>
-      <c r="B183" s="14"/>
-      <c r="AC183" s="12"/>
+      <c r="AF182" s="12"/>
+    </row>
+    <row r="183" spans="1:32" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A183" s="38"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="14"/>
       <c r="AD183" s="12"/>
       <c r="AE183" s="12"/>
-    </row>
-    <row r="184" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A184" s="1" t="s">
+      <c r="AF183" s="12"/>
+    </row>
+    <row r="184" spans="1:32" s="15" customFormat="1" ht="15">
+      <c r="A184" s="38"/>
+      <c r="B184" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B184" s="14"/>
-      <c r="AC184" s="12"/>
+      <c r="C184" s="14"/>
       <c r="AD184" s="12"/>
       <c r="AE184" s="12"/>
-    </row>
-    <row r="185" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="5">
+      <c r="AF184" s="12"/>
+    </row>
+    <row r="185" spans="1:32" s="15" customFormat="1">
+      <c r="A185" s="38">
         <v>1</v>
       </c>
-      <c r="B185" s="14">
+      <c r="B185" s="5">
+        <v>1</v>
+      </c>
+      <c r="C185" s="14">
         <v>1.2</v>
       </c>
-      <c r="AC185" s="12"/>
       <c r="AD185" s="12"/>
       <c r="AE185" s="12"/>
-    </row>
-    <row r="186" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="5">
-        <v>2</v>
-      </c>
-      <c r="B186" s="14">
+      <c r="AF185" s="12"/>
+    </row>
+    <row r="186" spans="1:32" s="15" customFormat="1">
+      <c r="A186" s="38">
+        <v>2</v>
+      </c>
+      <c r="B186" s="5">
+        <v>2</v>
+      </c>
+      <c r="C186" s="14">
         <v>1.2</v>
       </c>
-      <c r="AC186" s="12"/>
       <c r="AD186" s="12"/>
       <c r="AE186" s="12"/>
-    </row>
-    <row r="187" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="5">
+      <c r="AF186" s="12"/>
+    </row>
+    <row r="187" spans="1:32" s="15" customFormat="1">
+      <c r="A187" s="38">
         <v>3</v>
       </c>
-      <c r="B187" s="14">
+      <c r="B187" s="5">
+        <v>3</v>
+      </c>
+      <c r="C187" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AC187" s="12"/>
       <c r="AD187" s="12"/>
       <c r="AE187" s="12"/>
-    </row>
-    <row r="188" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="5">
+      <c r="AF187" s="12"/>
+    </row>
+    <row r="188" spans="1:32" s="15" customFormat="1">
+      <c r="A188" s="38">
         <v>4</v>
       </c>
-      <c r="B188" s="14">
+      <c r="B188" s="5">
+        <v>4</v>
+      </c>
+      <c r="C188" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AC188" s="12"/>
       <c r="AD188" s="12"/>
       <c r="AE188" s="12"/>
-    </row>
-    <row r="189" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="5">
+      <c r="AF188" s="12"/>
+    </row>
+    <row r="189" spans="1:32" s="15" customFormat="1">
+      <c r="A189" s="38">
         <v>5</v>
       </c>
-      <c r="B189" s="14">
+      <c r="B189" s="5">
+        <v>5</v>
+      </c>
+      <c r="C189" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AC189" s="12"/>
       <c r="AD189" s="12"/>
       <c r="AE189" s="12"/>
-    </row>
-    <row r="190" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="5">
+      <c r="AF189" s="12"/>
+    </row>
+    <row r="190" spans="1:32" s="15" customFormat="1">
+      <c r="A190" s="38">
         <v>6</v>
       </c>
-      <c r="B190" s="14">
+      <c r="B190" s="5">
+        <v>6</v>
+      </c>
+      <c r="C190" s="14">
         <v>1</v>
       </c>
-      <c r="AC190" s="12"/>
       <c r="AD190" s="12"/>
       <c r="AE190" s="12"/>
-    </row>
-    <row r="191" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="5">
+      <c r="AF190" s="12"/>
+    </row>
+    <row r="191" spans="1:32" s="15" customFormat="1">
+      <c r="A191" s="38">
         <v>7</v>
       </c>
-      <c r="B191" s="14">
+      <c r="B191" s="5">
+        <v>7</v>
+      </c>
+      <c r="C191" s="14">
         <v>1</v>
       </c>
-      <c r="AC191" s="12"/>
       <c r="AD191" s="12"/>
       <c r="AE191" s="12"/>
-    </row>
-    <row r="192" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="5">
+      <c r="AF191" s="12"/>
+    </row>
+    <row r="192" spans="1:32" s="15" customFormat="1">
+      <c r="A192" s="38">
         <v>8</v>
       </c>
-      <c r="B192" s="14">
+      <c r="B192" s="5">
+        <v>8</v>
+      </c>
+      <c r="C192" s="14">
         <v>1</v>
       </c>
-      <c r="AC192" s="12"/>
       <c r="AD192" s="12"/>
       <c r="AE192" s="12"/>
-    </row>
-    <row r="193" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="5">
+      <c r="AF192" s="12"/>
+    </row>
+    <row r="193" spans="1:32" s="15" customFormat="1">
+      <c r="A193" s="38">
         <v>9</v>
       </c>
-      <c r="B193" s="14">
+      <c r="B193" s="5">
+        <v>9</v>
+      </c>
+      <c r="C193" s="14">
         <v>1</v>
       </c>
-      <c r="AC193" s="12"/>
       <c r="AD193" s="12"/>
       <c r="AE193" s="12"/>
-    </row>
-    <row r="194" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="5">
+      <c r="AF193" s="12"/>
+    </row>
+    <row r="194" spans="1:32" s="15" customFormat="1">
+      <c r="A194" s="38">
         <v>10</v>
       </c>
-      <c r="B194" s="14">
+      <c r="B194" s="5">
+        <v>10</v>
+      </c>
+      <c r="C194" s="14">
         <v>1</v>
       </c>
-      <c r="AC194" s="12"/>
       <c r="AD194" s="12"/>
       <c r="AE194" s="12"/>
-    </row>
-    <row r="195" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="5">
+      <c r="AF194" s="12"/>
+    </row>
+    <row r="195" spans="1:32" s="15" customFormat="1">
+      <c r="A195" s="38">
         <v>11</v>
       </c>
-      <c r="B195" s="14">
+      <c r="B195" s="5">
+        <v>11</v>
+      </c>
+      <c r="C195" s="14">
         <v>1</v>
       </c>
-      <c r="AC195" s="12"/>
       <c r="AD195" s="12"/>
       <c r="AE195" s="12"/>
-    </row>
-    <row r="196" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="5">
+      <c r="AF195" s="12"/>
+    </row>
+    <row r="196" spans="1:32" s="15" customFormat="1">
+      <c r="A196" s="38">
         <v>12</v>
       </c>
-      <c r="B196" s="14">
+      <c r="B196" s="5">
+        <v>12</v>
+      </c>
+      <c r="C196" s="14">
         <v>1</v>
       </c>
-      <c r="AC196" s="12"/>
       <c r="AD196" s="12"/>
       <c r="AE196" s="12"/>
-    </row>
-    <row r="197" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="5">
+      <c r="AF196" s="12"/>
+    </row>
+    <row r="197" spans="1:32" s="15" customFormat="1">
+      <c r="A197" s="38">
         <v>13</v>
       </c>
-      <c r="B197" s="14">
+      <c r="B197" s="5">
+        <v>13</v>
+      </c>
+      <c r="C197" s="14">
         <v>0.9</v>
       </c>
-      <c r="AC197" s="12"/>
       <c r="AD197" s="12"/>
       <c r="AE197" s="12"/>
-    </row>
-    <row r="198" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="5">
+      <c r="AF197" s="12"/>
+    </row>
+    <row r="198" spans="1:32" s="15" customFormat="1">
+      <c r="A198" s="38">
         <v>14</v>
       </c>
-      <c r="B198" s="14">
+      <c r="B198" s="5">
+        <v>14</v>
+      </c>
+      <c r="C198" s="14">
         <v>0.9</v>
       </c>
-      <c r="AC198" s="12"/>
       <c r="AD198" s="12"/>
       <c r="AE198" s="12"/>
-    </row>
-    <row r="199" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="5">
+      <c r="AF198" s="12"/>
+    </row>
+    <row r="199" spans="1:32" s="15" customFormat="1">
+      <c r="A199" s="38">
         <v>15</v>
       </c>
-      <c r="B199" s="14">
+      <c r="B199" s="5">
+        <v>15</v>
+      </c>
+      <c r="C199" s="14">
         <v>0.9</v>
       </c>
-      <c r="AC199" s="12"/>
       <c r="AD199" s="12"/>
       <c r="AE199" s="12"/>
-    </row>
-    <row r="200" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="5">
+      <c r="AF199" s="12"/>
+    </row>
+    <row r="200" spans="1:32" s="15" customFormat="1">
+      <c r="A200" s="38">
         <v>16</v>
       </c>
-      <c r="B200" s="14">
+      <c r="B200" s="5">
+        <v>16</v>
+      </c>
+      <c r="C200" s="14">
         <v>0.9</v>
       </c>
-      <c r="AC200" s="12"/>
       <c r="AD200" s="12"/>
       <c r="AE200" s="12"/>
-    </row>
-    <row r="201" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="5">
+      <c r="AF200" s="12"/>
+    </row>
+    <row r="201" spans="1:32" s="15" customFormat="1">
+      <c r="A201" s="38">
         <v>17</v>
       </c>
-      <c r="B201" s="14">
+      <c r="B201" s="5">
+        <v>17</v>
+      </c>
+      <c r="C201" s="14">
         <v>0.9</v>
       </c>
-      <c r="AC201" s="12"/>
       <c r="AD201" s="12"/>
       <c r="AE201" s="12"/>
-    </row>
-    <row r="202" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="5">
+      <c r="AF201" s="12"/>
+    </row>
+    <row r="202" spans="1:32" s="15" customFormat="1">
+      <c r="A202" s="38">
         <v>18</v>
       </c>
-      <c r="B202" s="14">
+      <c r="B202" s="5">
+        <v>18</v>
+      </c>
+      <c r="C202" s="14">
         <v>0.8</v>
       </c>
-      <c r="AC202" s="12"/>
       <c r="AD202" s="12"/>
       <c r="AE202" s="12"/>
-    </row>
-    <row r="203" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="5">
+      <c r="AF202" s="12"/>
+    </row>
+    <row r="203" spans="1:32" s="15" customFormat="1">
+      <c r="A203" s="38">
         <v>19</v>
       </c>
-      <c r="B203" s="14">
+      <c r="B203" s="5">
+        <v>19</v>
+      </c>
+      <c r="C203" s="14">
         <v>0.8</v>
       </c>
-      <c r="AC203" s="12"/>
       <c r="AD203" s="12"/>
       <c r="AE203" s="12"/>
-    </row>
-    <row r="204" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="5">
+      <c r="AF203" s="12"/>
+    </row>
+    <row r="204" spans="1:32" s="15" customFormat="1">
+      <c r="A204" s="38">
         <v>20</v>
       </c>
-      <c r="B204" s="14">
+      <c r="B204" s="5">
+        <v>20</v>
+      </c>
+      <c r="C204" s="14">
         <v>0.8</v>
       </c>
-      <c r="AC204" s="12"/>
       <c r="AD204" s="12"/>
       <c r="AE204" s="12"/>
-    </row>
-    <row r="205" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="5">
+      <c r="AF204" s="12"/>
+    </row>
+    <row r="205" spans="1:32" s="15" customFormat="1">
+      <c r="A205" s="38">
         <v>21</v>
       </c>
-      <c r="B205" s="14">
+      <c r="B205" s="5">
+        <v>21</v>
+      </c>
+      <c r="C205" s="14">
         <v>0.8</v>
       </c>
-      <c r="AC205" s="12"/>
       <c r="AD205" s="12"/>
       <c r="AE205" s="12"/>
-    </row>
-    <row r="206" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="5">
+      <c r="AF205" s="12"/>
+    </row>
+    <row r="206" spans="1:32" s="15" customFormat="1">
+      <c r="A206" s="38">
         <v>22</v>
       </c>
-      <c r="B206" s="14">
+      <c r="B206" s="5">
+        <v>22</v>
+      </c>
+      <c r="C206" s="14">
         <v>0.8</v>
       </c>
-      <c r="AC206" s="12"/>
       <c r="AD206" s="12"/>
       <c r="AE206" s="12"/>
-    </row>
-    <row r="207" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="5">
+      <c r="AF206" s="12"/>
+    </row>
+    <row r="207" spans="1:32" s="15" customFormat="1">
+      <c r="A207" s="38">
         <v>23</v>
       </c>
-      <c r="B207" s="14">
+      <c r="B207" s="5">
+        <v>23</v>
+      </c>
+      <c r="C207" s="14">
         <v>0.8</v>
       </c>
-      <c r="AC207" s="12"/>
       <c r="AD207" s="12"/>
       <c r="AE207" s="12"/>
-    </row>
-    <row r="208" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="5">
+      <c r="AF207" s="12"/>
+    </row>
+    <row r="208" spans="1:32" s="15" customFormat="1">
+      <c r="A208" s="38">
         <v>24</v>
       </c>
-      <c r="B208" s="14">
+      <c r="B208" s="5">
+        <v>24</v>
+      </c>
+      <c r="C208" s="14">
         <v>0.8</v>
       </c>
-      <c r="AC208" s="12"/>
       <c r="AD208" s="12"/>
       <c r="AE208" s="12"/>
-    </row>
-    <row r="209" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="5" t="s">
+      <c r="AF208" s="12"/>
+    </row>
+    <row r="209" spans="1:32" s="15" customFormat="1">
+      <c r="A209" s="38">
+        <v>25</v>
+      </c>
+      <c r="B209" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B209" s="14">
+      <c r="C209" s="14">
         <v>0.8</v>
       </c>
-      <c r="AC209" s="12"/>
       <c r="AD209" s="12"/>
       <c r="AE209" s="12"/>
-    </row>
-    <row r="210" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="5"/>
-      <c r="B210" s="14"/>
-      <c r="AC210" s="12"/>
+      <c r="AF209" s="12"/>
+    </row>
+    <row r="210" spans="1:32" s="15" customFormat="1" ht="15" thickBot="1">
+      <c r="A210" s="38"/>
+      <c r="B210" s="5"/>
+      <c r="C210" s="14"/>
       <c r="AD210" s="12"/>
       <c r="AE210" s="12"/>
-    </row>
-    <row r="211" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A211" s="37" t="s">
+      <c r="AF210" s="12"/>
+    </row>
+    <row r="211" spans="1:32" s="15" customFormat="1" ht="15">
+      <c r="A211" s="38"/>
+      <c r="B211" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B211" s="14"/>
-      <c r="AC211" s="12"/>
+      <c r="C211" s="14"/>
       <c r="AD211" s="12"/>
       <c r="AE211" s="12"/>
-    </row>
-    <row r="212" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="9"/>
-      <c r="B212" s="14"/>
-      <c r="AC212" s="12"/>
+      <c r="AF211" s="12"/>
+    </row>
+    <row r="212" spans="1:32" s="15" customFormat="1" ht="15" thickBot="1">
+      <c r="A212" s="38"/>
+      <c r="B212" s="9"/>
+      <c r="C212" s="14"/>
       <c r="AD212" s="12"/>
       <c r="AE212" s="12"/>
-    </row>
-    <row r="213" spans="1:31" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A213" s="1" t="s">
+      <c r="AF212" s="12"/>
+    </row>
+    <row r="213" spans="1:32" s="15" customFormat="1" ht="15">
+      <c r="A213" s="38"/>
+      <c r="B213" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B213" s="14"/>
-      <c r="AC213" s="12"/>
+      <c r="C213" s="14"/>
       <c r="AD213" s="12"/>
       <c r="AE213" s="12"/>
-    </row>
-    <row r="214" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="4" t="s">
+      <c r="AF213" s="12"/>
+    </row>
+    <row r="214" spans="1:32" s="15" customFormat="1">
+      <c r="A214" s="38">
+        <v>1</v>
+      </c>
+      <c r="B214" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B214" s="14">
+      <c r="C214" s="14">
         <v>0.8</v>
       </c>
-      <c r="AC214" s="12"/>
       <c r="AD214" s="12"/>
       <c r="AE214" s="12"/>
-    </row>
-    <row r="215" spans="1:31" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A215" s="4" t="s">
+      <c r="AF214" s="12"/>
+    </row>
+    <row r="215" spans="1:32" s="15" customFormat="1" ht="28">
+      <c r="A215" s="38">
+        <v>2</v>
+      </c>
+      <c r="B215" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B215" s="14">
+      <c r="C215" s="14">
         <v>1</v>
       </c>
-      <c r="AC215" s="12"/>
       <c r="AD215" s="12"/>
       <c r="AE215" s="12"/>
-    </row>
-    <row r="216" spans="1:31" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A216" s="4" t="s">
+      <c r="AF215" s="12"/>
+    </row>
+    <row r="216" spans="1:32" s="15" customFormat="1" ht="28">
+      <c r="A216" s="38">
+        <v>3</v>
+      </c>
+      <c r="B216" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B216" s="14">
+      <c r="C216" s="14">
         <v>1.2</v>
       </c>
-      <c r="AC216" s="12"/>
       <c r="AD216" s="12"/>
       <c r="AE216" s="12"/>
-    </row>
-    <row r="217" spans="1:31" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A217" s="4" t="s">
+      <c r="AF216" s="12"/>
+    </row>
+    <row r="217" spans="1:32" s="15" customFormat="1" ht="28">
+      <c r="A217" s="38">
+        <v>4</v>
+      </c>
+      <c r="B217" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B217" s="14">
+      <c r="C217" s="14">
         <v>1.5</v>
       </c>
-      <c r="AC217" s="12"/>
       <c r="AD217" s="12"/>
       <c r="AE217" s="12"/>
-    </row>
-    <row r="218" spans="1:31" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A218" s="4" t="s">
+      <c r="AF217" s="12"/>
+    </row>
+    <row r="218" spans="1:32" s="15" customFormat="1" ht="28">
+      <c r="A218" s="38">
+        <v>5</v>
+      </c>
+      <c r="B218" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B218" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC218" s="12"/>
+      <c r="C218" s="14">
+        <v>2</v>
+      </c>
       <c r="AD218" s="12"/>
       <c r="AE218" s="12"/>
-    </row>
-    <row r="219" spans="1:31" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A219" s="4" t="s">
+      <c r="AF218" s="12"/>
+    </row>
+    <row r="219" spans="1:32" s="15" customFormat="1" ht="28">
+      <c r="A219" s="38">
+        <v>6</v>
+      </c>
+      <c r="B219" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B219" s="14">
+      <c r="C219" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AC219" s="12"/>
       <c r="AD219" s="12"/>
       <c r="AE219" s="12"/>
-    </row>
-    <row r="220" spans="1:31" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A220" s="4" t="s">
+      <c r="AF219" s="12"/>
+    </row>
+    <row r="220" spans="1:32" s="15" customFormat="1" ht="28">
+      <c r="A220" s="38">
+        <v>7</v>
+      </c>
+      <c r="B220" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B220" s="14">
+      <c r="C220" s="14">
         <v>2.5</v>
       </c>
-      <c r="AC220" s="12"/>
       <c r="AD220" s="12"/>
       <c r="AE220" s="12"/>
-    </row>
-    <row r="221" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="4" t="s">
+      <c r="AF220" s="12"/>
+    </row>
+    <row r="221" spans="1:32" s="15" customFormat="1">
+      <c r="A221" s="38">
+        <v>8</v>
+      </c>
+      <c r="B221" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B221" s="14">
+      <c r="C221" s="14">
         <v>3</v>
       </c>
-      <c r="AC221" s="12"/>
       <c r="AD221" s="12"/>
       <c r="AE221" s="12"/>
-    </row>
-    <row r="222" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="2"/>
-      <c r="B222" s="14"/>
-      <c r="AC222" s="12"/>
+      <c r="AF221" s="12"/>
+    </row>
+    <row r="222" spans="1:32" s="15" customFormat="1" ht="15" thickBot="1">
+      <c r="A222" s="38"/>
+      <c r="B222" s="2"/>
+      <c r="C222" s="14"/>
       <c r="AD222" s="12"/>
       <c r="AE222" s="12"/>
-    </row>
-    <row r="223" spans="1:31" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="8" t="s">
+      <c r="AF222" s="12"/>
+    </row>
+    <row r="223" spans="1:32" s="15" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A223" s="38"/>
+      <c r="B223" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B223" s="14"/>
-      <c r="AC223" s="12"/>
+      <c r="C223" s="14"/>
       <c r="AD223" s="12"/>
       <c r="AE223" s="12"/>
-    </row>
-    <row r="224" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="10" t="s">
+      <c r="AF223" s="12"/>
+    </row>
+    <row r="224" spans="1:32" s="15" customFormat="1">
+      <c r="A224" s="38">
+        <v>1</v>
+      </c>
+      <c r="B224" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B224" s="14"/>
-      <c r="AC224" s="12"/>
+      <c r="C224" s="14"/>
       <c r="AD224" s="12"/>
       <c r="AE224" s="12"/>
-    </row>
-    <row r="225" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="10" t="s">
+      <c r="AF224" s="12"/>
+    </row>
+    <row r="225" spans="1:32" s="15" customFormat="1">
+      <c r="A225" s="38"/>
+      <c r="B225" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B225" s="17">
+      <c r="C225" s="17">
         <v>0.99</v>
       </c>
-      <c r="AC225" s="12"/>
       <c r="AD225" s="12"/>
       <c r="AE225" s="12"/>
-    </row>
-    <row r="226" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="10" t="s">
+      <c r="AF225" s="12"/>
+    </row>
+    <row r="226" spans="1:32" s="15" customFormat="1">
+      <c r="A226" s="38">
+        <v>2</v>
+      </c>
+      <c r="B226" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B226" s="17"/>
-      <c r="AC226" s="12"/>
+      <c r="C226" s="17"/>
       <c r="AD226" s="12"/>
       <c r="AE226" s="12"/>
-    </row>
-    <row r="227" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="10" t="s">
+      <c r="AF226" s="12"/>
+    </row>
+    <row r="227" spans="1:32" s="15" customFormat="1">
+      <c r="A227" s="38"/>
+      <c r="B227" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B227" s="17">
+      <c r="C227" s="17">
         <v>0.99</v>
       </c>
-      <c r="AC227" s="12"/>
       <c r="AD227" s="12"/>
       <c r="AE227" s="12"/>
-    </row>
-    <row r="228" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="10" t="s">
+      <c r="AF227" s="12"/>
+    </row>
+    <row r="228" spans="1:32" s="15" customFormat="1">
+      <c r="A228" s="38">
+        <v>3</v>
+      </c>
+      <c r="B228" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B228" s="17"/>
-      <c r="AC228" s="12"/>
+      <c r="C228" s="17"/>
       <c r="AD228" s="12"/>
       <c r="AE228" s="12"/>
-    </row>
-    <row r="229" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="10" t="s">
+      <c r="AF228" s="12"/>
+    </row>
+    <row r="229" spans="1:32" s="15" customFormat="1">
+      <c r="A229" s="38"/>
+      <c r="B229" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B229" s="17">
+      <c r="C229" s="17">
         <v>0.99</v>
       </c>
-      <c r="AC229" s="12"/>
       <c r="AD229" s="12"/>
       <c r="AE229" s="12"/>
-    </row>
-    <row r="230" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="10" t="s">
+      <c r="AF229" s="12"/>
+    </row>
+    <row r="230" spans="1:32" s="15" customFormat="1">
+      <c r="A230" s="38">
+        <v>4</v>
+      </c>
+      <c r="B230" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B230" s="17"/>
-      <c r="AC230" s="12"/>
+      <c r="C230" s="17"/>
       <c r="AD230" s="12"/>
       <c r="AE230" s="12"/>
-    </row>
-    <row r="231" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="10" t="s">
+      <c r="AF230" s="12"/>
+    </row>
+    <row r="231" spans="1:32" s="15" customFormat="1">
+      <c r="A231" s="38"/>
+      <c r="B231" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B231" s="17">
+      <c r="C231" s="17">
         <v>0.98</v>
       </c>
-      <c r="AC231" s="12"/>
       <c r="AD231" s="12"/>
       <c r="AE231" s="12"/>
-    </row>
-    <row r="232" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="10" t="s">
+      <c r="AF231" s="12"/>
+    </row>
+    <row r="232" spans="1:32" s="15" customFormat="1">
+      <c r="A232" s="38">
+        <v>5</v>
+      </c>
+      <c r="B232" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B232" s="17"/>
-      <c r="AC232" s="12"/>
+      <c r="C232" s="17"/>
       <c r="AD232" s="12"/>
       <c r="AE232" s="12"/>
-    </row>
-    <row r="233" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="10" t="s">
+      <c r="AF232" s="12"/>
+    </row>
+    <row r="233" spans="1:32" s="15" customFormat="1">
+      <c r="A233" s="38"/>
+      <c r="B233" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B233" s="17">
+      <c r="C233" s="17">
         <v>0.98</v>
       </c>
-      <c r="AC233" s="12"/>
       <c r="AD233" s="12"/>
       <c r="AE233" s="12"/>
-    </row>
-    <row r="234" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="10" t="s">
+      <c r="AF233" s="12"/>
+    </row>
+    <row r="234" spans="1:32" s="15" customFormat="1">
+      <c r="A234" s="38">
+        <v>6</v>
+      </c>
+      <c r="B234" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B234" s="17"/>
-      <c r="AC234" s="12"/>
+      <c r="C234" s="17"/>
       <c r="AD234" s="12"/>
       <c r="AE234" s="12"/>
-    </row>
-    <row r="235" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="10" t="s">
+      <c r="AF234" s="12"/>
+    </row>
+    <row r="235" spans="1:32" s="15" customFormat="1">
+      <c r="A235" s="38"/>
+      <c r="B235" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B235" s="17">
+      <c r="C235" s="17">
         <v>0.99</v>
       </c>
-      <c r="AC235" s="12"/>
       <c r="AD235" s="12"/>
       <c r="AE235" s="12"/>
-    </row>
-    <row r="236" spans="1:31" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="11"/>
-      <c r="B236" s="17"/>
-      <c r="AC236" s="12"/>
+      <c r="AF235" s="12"/>
+    </row>
+    <row r="236" spans="1:32" s="15" customFormat="1" ht="15" thickBot="1">
+      <c r="A236" s="38"/>
+      <c r="B236" s="11"/>
+      <c r="C236" s="17"/>
       <c r="AD236" s="12"/>
       <c r="AE236" s="12"/>
-    </row>
-    <row r="238" spans="1:31" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A238" s="13"/>
-      <c r="C238" s="19"/>
-      <c r="D238" s="19">
-        <f>B7*B11*B100*B112*B126*B150*B154*B164*B173*B186*B215*B244</f>
+      <c r="AF236" s="12"/>
+    </row>
+    <row r="238" spans="1:32" s="15" customFormat="1" ht="18">
+      <c r="A238" s="38"/>
+      <c r="B238" s="13"/>
+      <c r="D238" s="19"/>
+      <c r="E238" s="19">
+        <f>C7*C11*C100*C112*C126*C150*C154*C164*C173*C186*C215*C244</f>
         <v>580800.00000000012</v>
       </c>
-      <c r="E238" s="19"/>
       <c r="F238" s="19"/>
       <c r="G238" s="19"/>
       <c r="H238" s="19"/>
@@ -4339,62 +4951,67 @@
       <c r="K238" s="19"/>
       <c r="L238" s="19"/>
       <c r="M238" s="19"/>
-      <c r="AC238" s="12"/>
+      <c r="N238" s="19"/>
       <c r="AD238" s="12"/>
       <c r="AE238" s="12"/>
-    </row>
-    <row r="239" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A239"/>
-      <c r="C239" s="19"/>
+      <c r="AF238" s="12"/>
+    </row>
+    <row r="239" spans="1:32" s="15" customFormat="1">
+      <c r="A239" s="38"/>
+      <c r="B239"/>
       <c r="D239" s="19"/>
       <c r="E239" s="19"/>
       <c r="F239" s="19"/>
-      <c r="AC239" s="12"/>
+      <c r="G239" s="19"/>
       <c r="AD239" s="12"/>
       <c r="AE239" s="12"/>
-    </row>
-    <row r="240" spans="1:31" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A240" s="13"/>
-      <c r="C240" s="19"/>
+      <c r="AF239" s="12"/>
+    </row>
+    <row r="240" spans="1:32" s="15" customFormat="1" ht="18">
+      <c r="A240" s="38"/>
+      <c r="B240" s="13"/>
       <c r="D240" s="19"/>
       <c r="E240" s="19"/>
       <c r="F240" s="19"/>
-      <c r="AC240" s="12"/>
+      <c r="G240" s="19"/>
       <c r="AD240" s="12"/>
       <c r="AE240" s="12"/>
-    </row>
-    <row r="243" spans="1:31" ht="21" x14ac:dyDescent="0.25">
-      <c r="A243" s="28" t="s">
+      <c r="AF240" s="12"/>
+    </row>
+    <row r="243" spans="1:32" ht="20">
+      <c r="B243" s="28" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="244" spans="1:31" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A244" s="20" t="s">
+    <row r="244" spans="1:32" s="15" customFormat="1" ht="18">
+      <c r="A244" s="38"/>
+      <c r="B244" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="B244" s="16">
+      <c r="C244" s="16">
         <v>20</v>
       </c>
-      <c r="AC244" s="12"/>
       <c r="AD244" s="12"/>
       <c r="AE244" s="12"/>
-    </row>
-    <row r="245" spans="1:31" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A245" s="20" t="s">
+      <c r="AF244" s="12"/>
+    </row>
+    <row r="245" spans="1:32" s="15" customFormat="1" ht="18">
+      <c r="A245" s="38"/>
+      <c r="B245" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="B245" s="16">
-        <v>2</v>
-      </c>
-      <c r="AC245" s="12"/>
+      <c r="C245" s="16">
+        <v>2</v>
+      </c>
       <c r="AD245" s="12"/>
       <c r="AE245" s="12"/>
-    </row>
-    <row r="249" spans="1:31" ht="21" x14ac:dyDescent="0.25">
-      <c r="A249" s="28"/>
+      <c r="AF245" s="12"/>
+    </row>
+    <row r="249" spans="1:32" ht="20">
+      <c r="B249" s="28"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A4">
+  <conditionalFormatting sqref="B4">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4407,1554 +5024,2110 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK358"/>
+  <dimension ref="A1:AL358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="C320" sqref="C320"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="A350" sqref="A350"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="53.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="15" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="15" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="15" customWidth="1"/>
-    <col min="11" max="28" width="8.83203125" style="15"/>
-    <col min="29" max="31" width="8.83203125" style="12"/>
+    <col min="2" max="2" width="53.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="15" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="15" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="15" customWidth="1"/>
+    <col min="12" max="29" width="8.83203125" style="15"/>
+    <col min="30" max="32" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B1" s="14"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B2" s="14"/>
-    </row>
-    <row r="3" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
-    </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1">
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3" ht="15">
+      <c r="B4" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B4" s="14"/>
-    </row>
-    <row r="5" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="14"/>
-    </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1">
+      <c r="B5" s="2"/>
+      <c r="C5" s="14"/>
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="B6" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="14"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="18">
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="18">
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="18">
+      <c r="C8" s="18">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="18">
+      <c r="C9" s="18">
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="18">
+      <c r="C10" s="18">
         <v>1.18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="18">
+      <c r="C11" s="18">
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="18">
+      <c r="C12" s="18">
         <v>1.22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="18">
+      <c r="C13" s="18">
         <v>1.24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="18">
+      <c r="C14" s="18">
         <v>1.26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="18">
+      <c r="C15" s="18">
         <v>1.28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="18">
+      <c r="C16" s="18">
         <v>1.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="18">
+      <c r="C17" s="18">
         <v>1.32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="18">
+      <c r="C18" s="18">
         <v>1.34</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="18">
+      <c r="C19" s="18">
         <v>1.36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="18">
+      <c r="C20" s="18">
         <v>1.38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="18">
+      <c r="C21" s="18">
         <v>1.4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="18">
+      <c r="C22" s="18">
         <v>1.42</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="18">
+      <c r="C23" s="18">
         <v>1.44</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="18">
+      <c r="C24" s="18">
         <v>1.46</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="18">
+      <c r="C25" s="18">
         <v>1.48</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26" s="3">
         <v>21</v>
       </c>
-      <c r="B26" s="18">
+      <c r="C26" s="18">
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3">
         <v>22</v>
       </c>
-      <c r="B27" s="18">
+      <c r="C27" s="18">
         <v>1.51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>22</v>
+      </c>
+      <c r="B28" s="3">
         <v>23</v>
       </c>
-      <c r="B28" s="18">
+      <c r="C28" s="18">
         <v>1.52</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29" s="3">
         <v>24</v>
       </c>
-      <c r="B29" s="18">
+      <c r="C29" s="18">
         <v>1.53</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>24</v>
+      </c>
+      <c r="B30" s="3">
         <v>25</v>
       </c>
-      <c r="B30" s="18">
+      <c r="C30" s="18">
         <v>1.54</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31" s="3">
         <v>26</v>
       </c>
-      <c r="B31" s="18">
+      <c r="C31" s="18">
         <v>1.55</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>26</v>
+      </c>
+      <c r="B32" s="3">
         <v>27</v>
       </c>
-      <c r="B32" s="18">
+      <c r="C32" s="18">
         <v>1.56</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>27</v>
+      </c>
+      <c r="B33" s="3">
         <v>28</v>
       </c>
-      <c r="B33" s="18">
+      <c r="C33" s="18">
         <v>1.57</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>28</v>
+      </c>
+      <c r="B34" s="3">
         <v>29</v>
       </c>
-      <c r="B34" s="18">
+      <c r="C34" s="18">
         <v>1.58</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>29</v>
+      </c>
+      <c r="B35" s="3">
         <v>30</v>
       </c>
-      <c r="B35" s="18">
+      <c r="C35" s="18">
         <v>1.59</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="B36" s="3">
         <v>31</v>
       </c>
-      <c r="B36" s="18">
+      <c r="C36" s="18">
         <v>1.6</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>31</v>
+      </c>
+      <c r="B37" s="3">
         <v>32</v>
       </c>
-      <c r="B37" s="18">
+      <c r="C37" s="18">
         <v>1.61</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>32</v>
+      </c>
+      <c r="B38" s="3">
         <v>33</v>
       </c>
-      <c r="B38" s="18">
+      <c r="C38" s="18">
         <v>1.62</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>33</v>
+      </c>
+      <c r="B39" s="3">
         <v>34</v>
       </c>
-      <c r="B39" s="18">
+      <c r="C39" s="18">
         <v>1.63</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>34</v>
+      </c>
+      <c r="B40" s="3">
         <v>35</v>
       </c>
-      <c r="B40" s="18">
+      <c r="C40" s="18">
         <v>1.64</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>35</v>
+      </c>
+      <c r="B41" s="3">
         <v>36</v>
       </c>
-      <c r="B41" s="18">
+      <c r="C41" s="18">
         <v>1.65</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>36</v>
+      </c>
+      <c r="B42" s="3">
         <v>37</v>
       </c>
-      <c r="B42" s="18">
+      <c r="C42" s="18">
         <v>1.66</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>37</v>
+      </c>
+      <c r="B43" s="3">
         <v>38</v>
       </c>
-      <c r="B43" s="18">
+      <c r="C43" s="18">
         <v>1.67</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>38</v>
+      </c>
+      <c r="B44" s="3">
         <v>39</v>
       </c>
-      <c r="B44" s="18">
+      <c r="C44" s="18">
         <v>1.68</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>39</v>
+      </c>
+      <c r="B45" s="3">
         <v>40</v>
       </c>
-      <c r="B45" s="18">
+      <c r="C45" s="18">
         <v>1.69</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>40</v>
+      </c>
+      <c r="B46" s="3">
         <v>41</v>
       </c>
-      <c r="B46" s="18">
+      <c r="C46" s="18">
         <v>1.7</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>41</v>
+      </c>
+      <c r="B47" s="3">
         <v>42</v>
       </c>
-      <c r="B47" s="18">
+      <c r="C47" s="18">
         <v>1.71</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>42</v>
+      </c>
+      <c r="B48" s="3">
         <v>43</v>
       </c>
-      <c r="B48" s="18">
+      <c r="C48" s="18">
         <v>1.72</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>43</v>
+      </c>
+      <c r="B49" s="3">
         <v>44</v>
       </c>
-      <c r="B49" s="18">
+      <c r="C49" s="18">
         <v>1.73</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>44</v>
+      </c>
+      <c r="B50" s="3">
         <v>45</v>
       </c>
-      <c r="B50" s="18">
+      <c r="C50" s="18">
         <v>1.74</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>45</v>
+      </c>
+      <c r="B51" s="3">
         <v>46</v>
       </c>
-      <c r="B51" s="18">
+      <c r="C51" s="18">
         <v>1.75</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>46</v>
+      </c>
+      <c r="B52" s="3">
         <v>47</v>
       </c>
-      <c r="B52" s="18">
+      <c r="C52" s="18">
         <v>1.76</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>47</v>
+      </c>
+      <c r="B53" s="3">
         <v>48</v>
       </c>
-      <c r="B53" s="18">
+      <c r="C53" s="18">
         <v>1.77</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>48</v>
+      </c>
+      <c r="B54" s="3">
         <v>49</v>
       </c>
-      <c r="B54" s="18">
+      <c r="C54" s="18">
         <v>1.78</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>49</v>
+      </c>
+      <c r="B55" s="3">
         <v>50</v>
       </c>
-      <c r="B55" s="18">
+      <c r="C55" s="18">
         <v>1.79</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>50</v>
+      </c>
+      <c r="B56" s="3">
         <v>51</v>
       </c>
-      <c r="B56" s="18">
+      <c r="C56" s="18">
         <v>1.8</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>51</v>
+      </c>
+      <c r="B57" s="3">
         <v>52</v>
       </c>
-      <c r="B57" s="18">
+      <c r="C57" s="18">
         <v>1.81</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>52</v>
+      </c>
+      <c r="B58" s="3">
         <v>53</v>
       </c>
-      <c r="B58" s="18">
+      <c r="C58" s="18">
         <v>1.82</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>53</v>
+      </c>
+      <c r="B59" s="3">
         <v>54</v>
       </c>
-      <c r="B59" s="18">
+      <c r="C59" s="18">
         <v>1.83</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>54</v>
+      </c>
+      <c r="B60" s="3">
         <v>55</v>
       </c>
-      <c r="B60" s="18">
+      <c r="C60" s="18">
         <v>1.84</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>55</v>
+      </c>
+      <c r="B61" s="3">
         <v>56</v>
       </c>
-      <c r="B61" s="18">
+      <c r="C61" s="18">
         <v>1.85</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>56</v>
+      </c>
+      <c r="B62" s="3">
         <v>57</v>
       </c>
-      <c r="B62" s="18">
+      <c r="C62" s="18">
         <v>1.86</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>57</v>
+      </c>
+      <c r="B63" s="3">
         <v>58</v>
       </c>
-      <c r="B63" s="18">
+      <c r="C63" s="18">
         <v>1.87</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>58</v>
+      </c>
+      <c r="B64" s="3">
         <v>59</v>
       </c>
-      <c r="B64" s="18">
+      <c r="C64" s="18">
         <v>1.88</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>59</v>
+      </c>
+      <c r="B65" s="3">
         <v>60</v>
       </c>
-      <c r="B65" s="18">
+      <c r="C65" s="18">
         <v>1.89</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>60</v>
+      </c>
+      <c r="B66" s="3">
         <v>61</v>
       </c>
-      <c r="B66" s="18">
+      <c r="C66" s="18">
         <v>1.9</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>61</v>
+      </c>
+      <c r="B67" s="3">
         <v>62</v>
       </c>
-      <c r="B67" s="18">
+      <c r="C67" s="18">
         <v>1.905</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>62</v>
+      </c>
+      <c r="B68" s="3">
         <v>63</v>
       </c>
-      <c r="B68" s="18">
+      <c r="C68" s="18">
         <v>1.91</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>63</v>
+      </c>
+      <c r="B69" s="3">
         <v>64</v>
       </c>
-      <c r="B69" s="18">
+      <c r="C69" s="18">
         <v>1.915</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>64</v>
+      </c>
+      <c r="B70" s="3">
         <v>65</v>
       </c>
-      <c r="B70" s="18">
+      <c r="C70" s="18">
         <v>1.92</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>65</v>
+      </c>
+      <c r="B71" s="3">
         <v>66</v>
       </c>
-      <c r="B71" s="18">
+      <c r="C71" s="18">
         <v>1.925</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>66</v>
+      </c>
+      <c r="B72" s="3">
         <v>67</v>
       </c>
-      <c r="B72" s="18">
+      <c r="C72" s="18">
         <v>1.93</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>67</v>
+      </c>
+      <c r="B73" s="3">
         <v>68</v>
       </c>
-      <c r="B73" s="18">
+      <c r="C73" s="18">
         <v>1.9350000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>68</v>
+      </c>
+      <c r="B74" s="3">
         <v>69</v>
       </c>
-      <c r="B74" s="18">
+      <c r="C74" s="18">
         <v>1.94</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>69</v>
+      </c>
+      <c r="B75" s="3">
         <v>70</v>
       </c>
-      <c r="B75" s="18">
+      <c r="C75" s="18">
         <v>1.9450000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>70</v>
+      </c>
+      <c r="B76" s="3">
         <v>71</v>
       </c>
-      <c r="B76" s="18">
+      <c r="C76" s="18">
         <v>1.95</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>71</v>
+      </c>
+      <c r="B77" s="3">
         <v>72</v>
       </c>
-      <c r="B77" s="18">
+      <c r="C77" s="18">
         <v>1.9550000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>72</v>
+      </c>
+      <c r="B78" s="3">
         <v>73</v>
       </c>
-      <c r="B78" s="18">
+      <c r="C78" s="18">
         <v>1.96</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>73</v>
+      </c>
+      <c r="B79" s="3">
         <v>74</v>
       </c>
-      <c r="B79" s="18">
+      <c r="C79" s="18">
         <v>1.9650000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>74</v>
+      </c>
+      <c r="B80" s="3">
         <v>75</v>
       </c>
-      <c r="B80" s="18">
+      <c r="C80" s="18">
         <v>1.97</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>75</v>
+      </c>
+      <c r="B81" s="3">
         <v>76</v>
       </c>
-      <c r="B81" s="18">
+      <c r="C81" s="18">
         <v>1.9750000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>76</v>
+      </c>
+      <c r="B82" s="3">
         <v>77</v>
       </c>
-      <c r="B82" s="18">
+      <c r="C82" s="18">
         <v>1.98</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="3">
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>77</v>
+      </c>
+      <c r="B83" s="3">
         <v>78</v>
       </c>
-      <c r="B83" s="18">
+      <c r="C83" s="18">
         <v>1.9850000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="3">
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>78</v>
+      </c>
+      <c r="B84" s="3">
         <v>79</v>
       </c>
-      <c r="B84" s="18">
+      <c r="C84" s="18">
         <v>1.99</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>79</v>
+      </c>
+      <c r="B85" s="3">
         <v>80</v>
       </c>
-      <c r="B85" s="18">
+      <c r="C85" s="18">
         <v>1.9950000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="3">
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>80</v>
+      </c>
+      <c r="B86" s="3">
         <v>81</v>
       </c>
-      <c r="B86" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="3">
+      <c r="C86" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>81</v>
+      </c>
+      <c r="B87" s="3">
         <v>82</v>
       </c>
-      <c r="B87" s="18">
+      <c r="C87" s="18">
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="3">
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>82</v>
+      </c>
+      <c r="B88" s="3">
         <v>83</v>
       </c>
-      <c r="B88" s="18">
+      <c r="C88" s="18">
         <v>2.1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="3">
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>83</v>
+      </c>
+      <c r="B89" s="3">
         <v>84</v>
       </c>
-      <c r="B89" s="18">
+      <c r="C89" s="18">
         <v>2.15</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="3">
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>84</v>
+      </c>
+      <c r="B90" s="3">
         <v>85</v>
       </c>
-      <c r="B90" s="18">
+      <c r="C90" s="18">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="3">
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>85</v>
+      </c>
+      <c r="B91" s="3">
         <v>86</v>
       </c>
-      <c r="B91" s="18">
+      <c r="C91" s="18">
         <v>2.25</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="3">
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>86</v>
+      </c>
+      <c r="B92" s="3">
         <v>87</v>
       </c>
-      <c r="B92" s="18">
+      <c r="C92" s="18">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="3">
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>87</v>
+      </c>
+      <c r="B93" s="3">
         <v>88</v>
       </c>
-      <c r="B93" s="18">
+      <c r="C93" s="18">
         <v>2.35</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="3">
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>88</v>
+      </c>
+      <c r="B94" s="3">
         <v>89</v>
       </c>
-      <c r="B94" s="18">
+      <c r="C94" s="18">
         <v>2.4</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="3">
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>89</v>
+      </c>
+      <c r="B95" s="3">
         <v>90</v>
       </c>
-      <c r="B95" s="18">
+      <c r="C95" s="18">
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="3">
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>90</v>
+      </c>
+      <c r="B96" s="3">
         <v>91</v>
       </c>
-      <c r="B96" s="18">
+      <c r="C96" s="18">
         <v>2.5</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="3">
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>91</v>
+      </c>
+      <c r="B97" s="3">
         <v>92</v>
       </c>
-      <c r="B97" s="18">
+      <c r="C97" s="18">
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="3">
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>92</v>
+      </c>
+      <c r="B98" s="3">
         <v>93</v>
       </c>
-      <c r="B98" s="18">
+      <c r="C98" s="18">
         <v>2.6</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="3">
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>93</v>
+      </c>
+      <c r="B99" s="3">
         <v>94</v>
       </c>
-      <c r="B99" s="18">
+      <c r="C99" s="18">
         <v>2.65</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="3">
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>94</v>
+      </c>
+      <c r="B100" s="3">
         <v>95</v>
       </c>
-      <c r="B100" s="18">
+      <c r="C100" s="18">
         <v>2.7</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="3">
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>95</v>
+      </c>
+      <c r="B101" s="3">
         <v>96</v>
       </c>
-      <c r="B101" s="18">
+      <c r="C101" s="18">
         <v>2.75</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="3">
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>96</v>
+      </c>
+      <c r="B102" s="3">
         <v>97</v>
       </c>
-      <c r="B102" s="18">
+      <c r="C102" s="18">
         <v>2.8</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="3">
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>97</v>
+      </c>
+      <c r="B103" s="3">
         <v>98</v>
       </c>
-      <c r="B103" s="18">
+      <c r="C103" s="18">
         <v>2.85</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="3">
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>98</v>
+      </c>
+      <c r="B104" s="3">
         <v>99</v>
       </c>
-      <c r="B104" s="18">
+      <c r="C104" s="18">
         <v>2.9</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="3">
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>99</v>
+      </c>
+      <c r="B105" s="3">
         <v>100</v>
       </c>
-      <c r="B105" s="18">
+      <c r="C105" s="18">
         <v>2.95</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>100</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B106" s="18">
+      <c r="C106" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
-      <c r="B107" s="14"/>
-    </row>
-    <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
+    <row r="107" spans="1:3" ht="15" thickBot="1">
+      <c r="B107" s="2"/>
+      <c r="C107" s="14"/>
+    </row>
+    <row r="108" spans="1:3" ht="15">
+      <c r="B108" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B108" s="14"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
+      <c r="C108" s="14"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B109" s="24">
+      <c r="C109" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>2</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B110" s="24">
+      <c r="C110" s="24">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>3</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B111" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
+      <c r="C111" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>4</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B112" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
+      <c r="C112" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>5</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B113" s="24">
+      <c r="C113" s="24">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>6</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B114" s="24">
+      <c r="C114" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>7</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B115" s="24">
+      <c r="C115" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>8</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B116" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
+      <c r="C116" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>9</v>
+      </c>
+      <c r="B117" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B117" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="s">
+      <c r="C117" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>10</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B118" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
+      <c r="C118" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>11</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B119" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="4" t="s">
+      <c r="C119" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>12</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B120" s="24">
+      <c r="C120" s="24">
         <v>1.8</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="4" t="s">
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>13</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B121" s="24">
+      <c r="C121" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="4" t="s">
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>14</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B122" s="24">
+      <c r="C122" s="24">
         <v>1.2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>15</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B123" s="24">
+      <c r="C123" s="24">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="4" t="s">
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>16</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B124" s="24">
+      <c r="C124" s="24">
         <v>1.5</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="s">
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>17</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B125" s="24">
+      <c r="C125" s="24">
         <v>1.8</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>18</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B126" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="4" t="s">
+      <c r="C126" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>19</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B127" s="24">
+      <c r="C127" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="4" t="s">
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>20</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B128" s="24">
+      <c r="C128" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="4" t="s">
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>21</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B129" s="24">
+      <c r="C129" s="24">
         <v>1.5</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="4" t="s">
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>22</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B130" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="4" t="s">
+      <c r="C130" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>23</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B131" s="24">
+      <c r="C131" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="4" t="s">
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>24</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B132" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="4" t="s">
+      <c r="C132" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>25</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B133" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="4" t="s">
+      <c r="C133" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>26</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B134" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
+      <c r="C134" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>27</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B135" s="24">
+      <c r="C135" s="24">
         <v>1.5</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="4" t="s">
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>28</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B136" s="24">
+      <c r="C136" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="4" t="s">
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>29</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B137" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="4" t="s">
+      <c r="C137" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>30</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B138" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="4" t="s">
+      <c r="C138" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>31</v>
+      </c>
+      <c r="B139" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B139" s="24">
+      <c r="C139" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="4" t="s">
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>32</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B140" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="4" t="s">
+      <c r="C140" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>33</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B141" s="24">
+      <c r="C141" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="4" t="s">
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>34</v>
+      </c>
+      <c r="B142" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B142" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
+      <c r="C142" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>35</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B143" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="4" t="s">
+      <c r="C143" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>36</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B144" s="24">
+      <c r="C144" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="4" t="s">
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>37</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B145" s="24">
+      <c r="C145" s="24">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="4" t="s">
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>38</v>
+      </c>
+      <c r="B146" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B146" s="24">
+      <c r="C146" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="4" t="s">
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>39</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B147" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="4" t="s">
+      <c r="C147" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>40</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B148" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="4" t="s">
+      <c r="C148" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>41</v>
+      </c>
+      <c r="B149" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B149" s="24">
+      <c r="C149" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="4" t="s">
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>42</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B150" s="24">
+      <c r="C150" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="4" t="s">
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>43</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B151" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="4" t="s">
+      <c r="C151" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>44</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B152" s="24">
+      <c r="C152" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="4" t="s">
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>45</v>
+      </c>
+      <c r="B153" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B153" s="24">
+      <c r="C153" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="4" t="s">
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>46</v>
+      </c>
+      <c r="B154" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B154" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="4" t="s">
+      <c r="C154" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>47</v>
+      </c>
+      <c r="B155" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B155" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="4" t="s">
+      <c r="C155" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>48</v>
+      </c>
+      <c r="B156" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B156" s="24">
+      <c r="C156" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="4" t="s">
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>49</v>
+      </c>
+      <c r="B157" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B157" s="24">
+      <c r="C157" s="24">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="4" t="s">
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>50</v>
+      </c>
+      <c r="B158" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B158" s="24">
+      <c r="C158" s="24">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="4" t="s">
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>51</v>
+      </c>
+      <c r="B159" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B159" s="24">
+      <c r="C159" s="24">
         <v>1.8</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="4" t="s">
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>52</v>
+      </c>
+      <c r="B160" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B160" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="4" t="s">
+      <c r="C160" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>53</v>
+      </c>
+      <c r="B161" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B161" s="24">
+      <c r="C161" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="4" t="s">
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>54</v>
+      </c>
+      <c r="B162" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B162" s="24">
+      <c r="C162" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="4" t="s">
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>55</v>
+      </c>
+      <c r="B163" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B163" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="4" t="s">
+      <c r="C163" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>56</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B164" s="24">
+      <c r="C164" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="4" t="s">
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>57</v>
+      </c>
+      <c r="B165" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B165" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="4" t="s">
+      <c r="C165" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>58</v>
+      </c>
+      <c r="B166" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B166" s="24">
+      <c r="C166" s="24">
         <v>1.5</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="4" t="s">
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>59</v>
+      </c>
+      <c r="B167" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B167" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="4" t="s">
+      <c r="C167" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>60</v>
+      </c>
+      <c r="B168" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B168" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="4" t="s">
+      <c r="C168" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>61</v>
+      </c>
+      <c r="B169" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B169" s="24">
+      <c r="C169" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="4" t="s">
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>62</v>
+      </c>
+      <c r="B170" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B170" s="24">
+      <c r="C170" s="24">
         <v>2.8</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="4" t="s">
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>63</v>
+      </c>
+      <c r="B171" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B171" s="24">
+      <c r="C171" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="4" t="s">
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>64</v>
+      </c>
+      <c r="B172" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B172" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="4" t="s">
+      <c r="C172" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>65</v>
+      </c>
+      <c r="B173" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B173" s="24">
+      <c r="C173" s="24">
         <v>1.8</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="4" t="s">
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>66</v>
+      </c>
+      <c r="B174" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B174" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="4" t="s">
+      <c r="C174" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>67</v>
+      </c>
+      <c r="B175" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B175" s="24">
+      <c r="C175" s="24">
         <v>1.8</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="4" t="s">
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>68</v>
+      </c>
+      <c r="B176" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B176" s="24">
+      <c r="C176" s="24">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="4" t="s">
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <v>69</v>
+      </c>
+      <c r="B177" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B177" s="24">
+      <c r="C177" s="24">
         <v>1.5</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="4" t="s">
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>70</v>
+      </c>
+      <c r="B178" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B178" s="24">
+      <c r="C178" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="4" t="s">
+    <row r="179" spans="1:3">
+      <c r="A179">
         <v>71</v>
       </c>
-      <c r="B179" s="24">
+      <c r="B179" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C179" s="24">
         <v>1.8</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="4" t="s">
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>72</v>
+      </c>
+      <c r="B180" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B180" s="24">
+      <c r="C180" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="4" t="s">
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <v>73</v>
+      </c>
+      <c r="B181" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B181" s="24">
+      <c r="C181" s="24">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="4" t="s">
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <v>74</v>
+      </c>
+      <c r="B182" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B182" s="24">
+      <c r="C182" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="4" t="s">
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <v>75</v>
+      </c>
+      <c r="B183" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B183" s="24">
+      <c r="C183" s="24">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="4" t="s">
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>76</v>
+      </c>
+      <c r="B184" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B184" s="24">
+      <c r="C184" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="4" t="s">
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <v>77</v>
+      </c>
+      <c r="B185" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B185" s="24">
+      <c r="C185" s="24">
         <v>2.8</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" s="4" t="s">
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>78</v>
+      </c>
+      <c r="B186" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B186" s="24">
+      <c r="C186" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" s="4" t="s">
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>79</v>
+      </c>
+      <c r="B187" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B187" s="24">
+      <c r="C187" s="24">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" s="4" t="s">
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>80</v>
+      </c>
+      <c r="B188" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B188" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" s="4" t="s">
+      <c r="C188" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189">
+        <v>81</v>
+      </c>
+      <c r="B189" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B189" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" s="4" t="s">
+      <c r="C189" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190">
+        <v>82</v>
+      </c>
+      <c r="B190" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B190" s="24">
+      <c r="C190" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" s="4" t="s">
+    <row r="191" spans="1:3">
+      <c r="A191">
+        <v>83</v>
+      </c>
+      <c r="B191" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B191" s="24">
+      <c r="C191" s="24">
         <v>2.8</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" s="4" t="s">
+    <row r="192" spans="1:3">
+      <c r="A192">
+        <v>84</v>
+      </c>
+      <c r="B192" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B192" s="24">
+      <c r="C192" s="24">
         <v>1.8</v>
       </c>
     </row>
-    <row r="193" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="2"/>
-      <c r="B193" s="14"/>
-    </row>
-    <row r="194" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A194" s="1" t="s">
+    <row r="193" spans="1:32" ht="15" thickBot="1">
+      <c r="B193" s="2"/>
+      <c r="C193" s="14"/>
+    </row>
+    <row r="194" spans="1:32" ht="15">
+      <c r="B194" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B194" s="14"/>
-    </row>
-    <row r="195" spans="1:31" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="29"/>
-      <c r="B195" s="30"/>
-      <c r="C195" s="31"/>
+      <c r="C194" s="14"/>
+    </row>
+    <row r="195" spans="1:32" s="33" customFormat="1" ht="16" thickBot="1">
+      <c r="B195" s="29"/>
+      <c r="C195" s="30"/>
       <c r="D195" s="31"/>
       <c r="E195" s="31"/>
       <c r="F195" s="31"/>
@@ -5980,1334 +7153,1772 @@
       <c r="Z195" s="31"/>
       <c r="AA195" s="31"/>
       <c r="AB195" s="31"/>
-      <c r="AC195" s="32"/>
+      <c r="AC195" s="31"/>
       <c r="AD195" s="32"/>
       <c r="AE195" s="32"/>
-    </row>
-    <row r="196" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A196" s="1" t="s">
+      <c r="AF195" s="32"/>
+    </row>
+    <row r="196" spans="1:32" ht="15">
+      <c r="B196" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B196" s="14"/>
-    </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A197" s="36" t="s">
+      <c r="C196" s="14"/>
+    </row>
+    <row r="197" spans="1:32">
+      <c r="A197">
+        <v>1</v>
+      </c>
+      <c r="B197" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="B197" s="24"/>
-    </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A198" s="36" t="s">
+      <c r="C197" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:32">
+      <c r="A198">
+        <v>2</v>
+      </c>
+      <c r="B198" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="B198" s="24"/>
-    </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A199" s="36" t="s">
+      <c r="C198" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:32">
+      <c r="A199">
+        <v>3</v>
+      </c>
+      <c r="B199" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="B199" s="24"/>
-    </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A200" s="36" t="s">
+      <c r="C199" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:32">
+      <c r="A200">
+        <v>4</v>
+      </c>
+      <c r="B200" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="B200" s="24"/>
-    </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A201" s="36" t="s">
+      <c r="C200" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:32">
+      <c r="A201">
+        <v>5</v>
+      </c>
+      <c r="B201" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="B201" s="24"/>
-    </row>
-    <row r="202" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A202" s="36" t="s">
+      <c r="C201" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:32">
+      <c r="A202">
+        <v>6</v>
+      </c>
+      <c r="B202" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="B202" s="24"/>
-    </row>
-    <row r="203" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A203" s="36" t="s">
+      <c r="C202" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:32">
+      <c r="A203">
+        <v>7</v>
+      </c>
+      <c r="B203" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="B203" s="24"/>
-    </row>
-    <row r="204" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A204" s="36" t="s">
+      <c r="C203" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:32">
+      <c r="A204">
+        <v>8</v>
+      </c>
+      <c r="B204" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="B204" s="24"/>
-    </row>
-    <row r="205" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A205" s="36" t="s">
+      <c r="C204" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:32">
+      <c r="A205">
+        <v>9</v>
+      </c>
+      <c r="B205" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="B205" s="17">
+      <c r="C205" s="17">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A206" s="36" t="s">
+    <row r="206" spans="1:32">
+      <c r="A206">
+        <v>10</v>
+      </c>
+      <c r="B206" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="B206" s="24"/>
-    </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A207" s="36" t="s">
+      <c r="C206" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="207" spans="1:32">
+      <c r="A207">
+        <v>11</v>
+      </c>
+      <c r="B207" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="B207" s="24"/>
-    </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A208" s="36" t="s">
+      <c r="C207" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:32">
+      <c r="A208">
+        <v>12</v>
+      </c>
+      <c r="B208" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="B208" s="24"/>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A209" s="36" t="s">
+      <c r="C208" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209">
+        <v>13</v>
+      </c>
+      <c r="B209" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="B209" s="24"/>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A210" s="36" t="s">
+      <c r="C209" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210">
+        <v>14</v>
+      </c>
+      <c r="B210" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="B210" s="24"/>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A211" s="36" t="s">
+      <c r="C210" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211">
+        <v>15</v>
+      </c>
+      <c r="B211" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="B211" s="24"/>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A212" s="36" t="s">
+      <c r="C211" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212">
+        <v>16</v>
+      </c>
+      <c r="B212" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="B212" s="24"/>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A213" s="36" t="s">
+      <c r="C212" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213">
+        <v>17</v>
+      </c>
+      <c r="B213" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="B213" s="24"/>
-    </row>
-    <row r="214" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="6"/>
-      <c r="B214" s="14"/>
-    </row>
-    <row r="215" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A215" s="8" t="s">
+      <c r="C213" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="15" thickBot="1">
+      <c r="B214" s="6"/>
+      <c r="C214" s="14"/>
+    </row>
+    <row r="215" spans="1:8" ht="15">
+      <c r="B215" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B215" s="14"/>
-    </row>
-    <row r="216" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A216" s="4"/>
-      <c r="B216" s="26">
+      <c r="C215" s="14"/>
+    </row>
+    <row r="216" spans="1:8" ht="18">
+      <c r="B216" s="4"/>
+      <c r="C216" s="26">
         <v>2000</v>
       </c>
-      <c r="C216" s="21"/>
       <c r="D216" s="21"/>
       <c r="E216" s="21"/>
       <c r="F216" s="21"/>
       <c r="G216" s="21"/>
-    </row>
-    <row r="217" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="4"/>
-      <c r="B217" s="14"/>
-    </row>
-    <row r="218" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A218" s="8" t="s">
+      <c r="H216" s="21"/>
+    </row>
+    <row r="217" spans="1:8" ht="15" thickBot="1">
+      <c r="B217" s="4"/>
+      <c r="C217" s="14"/>
+    </row>
+    <row r="218" spans="1:8" ht="15">
+      <c r="B218" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B218" s="14"/>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A219" s="4"/>
-      <c r="B219" s="14">
+      <c r="C218" s="14"/>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="B219" s="4"/>
+      <c r="C219" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="4"/>
-      <c r="B220" s="14"/>
-    </row>
-    <row r="221" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A221" s="7" t="s">
+    <row r="220" spans="1:8" ht="15" thickBot="1">
+      <c r="B220" s="4"/>
+      <c r="C220" s="14"/>
+    </row>
+    <row r="221" spans="1:8" ht="15">
+      <c r="B221" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B221" s="14"/>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A222" s="34">
+      <c r="C221" s="14"/>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222">
         <v>1</v>
       </c>
-      <c r="B222" s="17"/>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A223" s="34">
-        <v>2</v>
-      </c>
-      <c r="B223" s="17"/>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A224" s="34">
+      <c r="B222" s="34">
+        <v>1</v>
+      </c>
+      <c r="C222" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223">
+        <v>2</v>
+      </c>
+      <c r="B223" s="34">
+        <v>2</v>
+      </c>
+      <c r="C223" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224">
         <v>3</v>
       </c>
-      <c r="B224" s="17"/>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225" s="34">
+      <c r="B224" s="34">
+        <v>3</v>
+      </c>
+      <c r="C224" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225">
         <v>4</v>
       </c>
-      <c r="B225" s="17"/>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226" s="34">
+      <c r="B225" s="34">
+        <v>4</v>
+      </c>
+      <c r="C225" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226">
         <v>5</v>
       </c>
-      <c r="B226" s="17"/>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227" s="34">
+      <c r="B226" s="34">
+        <v>5</v>
+      </c>
+      <c r="C226" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227">
         <v>6</v>
       </c>
-      <c r="B227" s="17"/>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A228" s="34">
+      <c r="B227" s="34">
+        <v>6</v>
+      </c>
+      <c r="C227" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228">
         <v>7</v>
       </c>
-      <c r="B228" s="17"/>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229" s="34">
+      <c r="B228" s="34">
+        <v>7</v>
+      </c>
+      <c r="C228" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229">
         <v>8</v>
       </c>
-      <c r="B229" s="17"/>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A230" s="34">
+      <c r="B229" s="34">
+        <v>8</v>
+      </c>
+      <c r="C229" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230">
         <v>9</v>
       </c>
-      <c r="B230" s="17"/>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A231" s="34">
+      <c r="B230" s="34">
+        <v>9</v>
+      </c>
+      <c r="C230" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231">
         <v>10</v>
       </c>
-      <c r="B231" s="17"/>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A232" s="34">
+      <c r="B231" s="34">
+        <v>10</v>
+      </c>
+      <c r="C231" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232">
         <v>11</v>
       </c>
-      <c r="B232" s="17"/>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A233" s="34">
+      <c r="B232" s="34">
+        <v>11</v>
+      </c>
+      <c r="C232" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233">
         <v>12</v>
       </c>
-      <c r="B233" s="17"/>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A234" s="34">
+      <c r="B233" s="34">
+        <v>12</v>
+      </c>
+      <c r="C233" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234">
         <v>13</v>
       </c>
-      <c r="B234" s="17"/>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A235" s="34">
+      <c r="B234" s="34">
+        <v>13</v>
+      </c>
+      <c r="C234" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235">
         <v>14</v>
       </c>
-      <c r="B235" s="17"/>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A236" s="34">
+      <c r="B235" s="34">
+        <v>14</v>
+      </c>
+      <c r="C235" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236">
         <v>15</v>
       </c>
-      <c r="B236" s="17"/>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A237" s="34">
+      <c r="B236" s="34">
+        <v>15</v>
+      </c>
+      <c r="C236" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237">
         <v>16</v>
       </c>
-      <c r="B237" s="17">
+      <c r="B237" s="34">
+        <v>16</v>
+      </c>
+      <c r="C237" s="17">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A238" s="34">
+    <row r="238" spans="1:3">
+      <c r="A238">
         <v>17</v>
       </c>
-      <c r="B238" s="17"/>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A239" s="34">
+      <c r="B238" s="34">
+        <v>17</v>
+      </c>
+      <c r="C238" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239">
         <v>18</v>
       </c>
-      <c r="B239" s="17"/>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A240" s="34">
+      <c r="B239" s="34">
+        <v>18</v>
+      </c>
+      <c r="C239" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240">
         <v>19</v>
       </c>
-      <c r="B240" s="17"/>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A241" s="34">
+      <c r="B240" s="34">
+        <v>19</v>
+      </c>
+      <c r="C240" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241">
         <v>20</v>
       </c>
-      <c r="B241" s="17"/>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A242" s="34">
+      <c r="B241" s="34">
+        <v>20</v>
+      </c>
+      <c r="C241" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242">
         <v>21</v>
       </c>
-      <c r="B242" s="17"/>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A243" s="34">
+      <c r="B242" s="34">
+        <v>21</v>
+      </c>
+      <c r="C242" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243">
         <v>22</v>
       </c>
-      <c r="B243" s="17"/>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A244" s="34">
+      <c r="B243" s="34">
+        <v>22</v>
+      </c>
+      <c r="C243" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244">
         <v>23</v>
       </c>
-      <c r="B244" s="17"/>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A245" s="34">
+      <c r="B244" s="34">
+        <v>23</v>
+      </c>
+      <c r="C244" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245">
         <v>24</v>
       </c>
-      <c r="B245" s="17"/>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A246" s="34">
+      <c r="B245" s="34">
+        <v>24</v>
+      </c>
+      <c r="C245" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246">
         <v>25</v>
       </c>
-      <c r="B246" s="17"/>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A247" s="34">
+      <c r="B246" s="34">
+        <v>25</v>
+      </c>
+      <c r="C246" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247">
         <v>26</v>
       </c>
-      <c r="B247" s="17"/>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A248" s="34">
+      <c r="B247" s="34">
+        <v>26</v>
+      </c>
+      <c r="C247" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248">
         <v>27</v>
       </c>
-      <c r="B248" s="17"/>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A249" s="34">
+      <c r="B248" s="34">
+        <v>27</v>
+      </c>
+      <c r="C248" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249">
         <v>28</v>
       </c>
-      <c r="B249" s="17"/>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A250" s="34">
+      <c r="B249" s="34">
+        <v>28</v>
+      </c>
+      <c r="C249" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250">
         <v>29</v>
       </c>
-      <c r="B250" s="17"/>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A251" s="34">
+      <c r="B250" s="34">
+        <v>29</v>
+      </c>
+      <c r="C250" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251">
         <v>30</v>
       </c>
-      <c r="B251" s="17"/>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A252" s="34" t="s">
+      <c r="B251" s="34">
+        <v>30</v>
+      </c>
+      <c r="C251" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252">
+        <v>31</v>
+      </c>
+      <c r="B252" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="B252" s="17"/>
-    </row>
-    <row r="253" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="35"/>
-      <c r="B253" s="14"/>
-    </row>
-    <row r="254" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A254" s="8" t="s">
+      <c r="C252" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="15" thickBot="1">
+      <c r="B253" s="35"/>
+      <c r="C253" s="14"/>
+    </row>
+    <row r="254" spans="1:3" ht="30">
+      <c r="B254" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B254" s="14"/>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A255" s="4" t="s">
+      <c r="C254" s="14"/>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255">
+        <v>1</v>
+      </c>
+      <c r="B255" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B255" s="24">
+      <c r="C255" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A256" s="4" t="s">
+    <row r="256" spans="1:3">
+      <c r="A256">
+        <v>2</v>
+      </c>
+      <c r="B256" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B256" s="24">
+      <c r="C256" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="4"/>
-      <c r="B257" s="14"/>
-    </row>
-    <row r="258" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A258" s="8" t="s">
+    <row r="257" spans="1:3" ht="15" thickBot="1">
+      <c r="B257" s="4"/>
+      <c r="C257" s="14"/>
+    </row>
+    <row r="258" spans="1:3" ht="30">
+      <c r="B258" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B258" s="14"/>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A259" s="34">
+      <c r="C258" s="14"/>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259">
         <v>1</v>
       </c>
-      <c r="B259" s="24"/>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A260" s="34">
-        <v>2</v>
-      </c>
-      <c r="B260" s="24"/>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A261" s="34">
+      <c r="B259" s="34">
+        <v>1</v>
+      </c>
+      <c r="C259" s="24"/>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260">
+        <v>2</v>
+      </c>
+      <c r="B260" s="34">
+        <v>2</v>
+      </c>
+      <c r="C260" s="24"/>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261">
         <v>3</v>
       </c>
-      <c r="B261" s="17">
+      <c r="B261" s="34">
+        <v>3</v>
+      </c>
+      <c r="C261" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A262" s="34" t="s">
+    <row r="262" spans="1:3">
+      <c r="A262">
+        <v>4</v>
+      </c>
+      <c r="B262" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="B262" s="24"/>
-    </row>
-    <row r="263" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="5"/>
-      <c r="B263" s="24"/>
-    </row>
-    <row r="264" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A264" s="8" t="s">
+      <c r="C262" s="24"/>
+    </row>
+    <row r="263" spans="1:3" ht="15" thickBot="1">
+      <c r="B263" s="5"/>
+      <c r="C263" s="24"/>
+    </row>
+    <row r="264" spans="1:3" ht="15">
+      <c r="B264" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B264" s="14"/>
-    </row>
-    <row r="265" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="4" t="s">
+      <c r="C264" s="14"/>
+    </row>
+    <row r="265" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A265">
+        <v>1</v>
+      </c>
+      <c r="B265" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B265" s="14">
+      <c r="C265" s="14">
         <v>0.9</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="4" t="s">
+    <row r="266" spans="1:3" ht="43.5" customHeight="1">
+      <c r="A266">
+        <v>2</v>
+      </c>
+      <c r="B266" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B266" s="14">
+      <c r="C266" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="4" t="s">
+    <row r="267" spans="1:3" ht="46.5" customHeight="1">
+      <c r="A267">
+        <v>3</v>
+      </c>
+      <c r="B267" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B267" s="14">
+      <c r="C267" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="4" t="s">
+    <row r="268" spans="1:3" ht="45" customHeight="1">
+      <c r="A268">
+        <v>4</v>
+      </c>
+      <c r="B268" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B268" s="14">
+      <c r="C268" s="14">
         <v>0.9</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="4" t="s">
+    <row r="269" spans="1:3" ht="45" customHeight="1">
+      <c r="A269">
+        <v>5</v>
+      </c>
+      <c r="B269" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B269" s="14">
+      <c r="C269" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="4" t="s">
+    <row r="270" spans="1:3" ht="60" customHeight="1">
+      <c r="A270">
+        <v>6</v>
+      </c>
+      <c r="B270" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B270" s="14">
+      <c r="C270" s="14">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="4" t="s">
+    <row r="271" spans="1:3" ht="30" customHeight="1">
+      <c r="A271">
+        <v>7</v>
+      </c>
+      <c r="B271" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B271" s="14">
+      <c r="C271" s="14">
         <v>0.9</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="4" t="s">
+    <row r="272" spans="1:3" ht="45.75" customHeight="1">
+      <c r="A272">
+        <v>8</v>
+      </c>
+      <c r="B272" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B272" s="14">
+      <c r="C272" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:37" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="4" t="s">
+    <row r="273" spans="1:38" ht="29.25" customHeight="1">
+      <c r="A273">
+        <v>9</v>
+      </c>
+      <c r="B273" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B273" s="14">
+      <c r="C273" s="14">
         <v>0.9</v>
       </c>
     </row>
-    <row r="274" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A274" s="4" t="s">
+    <row r="274" spans="1:38">
+      <c r="A274">
+        <v>10</v>
+      </c>
+      <c r="B274" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B274" s="14">
+      <c r="C274" s="14">
         <v>0.9</v>
       </c>
     </row>
-    <row r="275" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="4"/>
-      <c r="B275" s="14"/>
-    </row>
-    <row r="276" spans="1:37" ht="16" x14ac:dyDescent="0.2">
-      <c r="A276" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B276" s="14"/>
-    </row>
-    <row r="277" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A277" s="4" t="s">
+    <row r="275" spans="1:38" ht="15" thickBot="1">
+      <c r="B275" s="4"/>
+      <c r="C275" s="14"/>
+    </row>
+    <row r="276" spans="1:38" ht="15">
+      <c r="B276" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C276" s="14"/>
+    </row>
+    <row r="277" spans="1:38">
+      <c r="B277" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B277" s="14"/>
-    </row>
-    <row r="278" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="4" t="s">
+      <c r="C277" s="14"/>
+    </row>
+    <row r="278" spans="1:38" ht="30" customHeight="1">
+      <c r="A278">
+        <v>1</v>
+      </c>
+      <c r="B278" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B278" s="14">
+      <c r="C278" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="4" t="s">
+    <row r="279" spans="1:38" ht="15.75" customHeight="1">
+      <c r="B279" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B279" s="27">
+      <c r="C279" s="27">
         <v>1</v>
       </c>
-      <c r="C279" s="27">
-        <v>2</v>
-      </c>
       <c r="D279" s="27">
+        <v>2</v>
+      </c>
+      <c r="E279" s="27">
         <v>3</v>
       </c>
-      <c r="E279" s="27">
+      <c r="F279" s="27">
         <v>4</v>
       </c>
-      <c r="F279" s="27" t="s">
+      <c r="G279" s="27" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="280" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A280" s="4" t="s">
+    <row r="280" spans="1:38">
+      <c r="A280">
+        <v>2</v>
+      </c>
+      <c r="B280" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B280" s="17">
+      <c r="C280" s="17">
         <v>0.68</v>
       </c>
-      <c r="C280" s="22">
-        <f>B280/2</f>
+      <c r="D280" s="22">
+        <f>C280/2</f>
         <v>0.34</v>
       </c>
-      <c r="D280" s="22">
-        <f>B280/3</f>
+      <c r="E280" s="22">
+        <f>C280/3</f>
         <v>0.22666666666666668</v>
       </c>
-      <c r="E280" s="22">
-        <f>B280/4</f>
+      <c r="F280" s="22">
+        <f>C280/4</f>
         <v>0.17</v>
       </c>
-      <c r="F280" s="22">
-        <f>B280/5</f>
+      <c r="G280" s="22">
+        <f>C280/5</f>
         <v>0.13600000000000001</v>
       </c>
-      <c r="G280" s="22"/>
       <c r="H280" s="22"/>
       <c r="I280" s="22"/>
-      <c r="AC280" s="15"/>
+      <c r="J280" s="22"/>
       <c r="AD280" s="15"/>
       <c r="AE280" s="15"/>
       <c r="AF280" s="15"/>
       <c r="AG280" s="15"/>
       <c r="AH280" s="15"/>
-      <c r="AI280" s="12"/>
+      <c r="AI280" s="15"/>
       <c r="AJ280" s="12"/>
       <c r="AK280" s="12"/>
-    </row>
-    <row r="281" spans="1:37" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="4" t="s">
+      <c r="AL280" s="12"/>
+    </row>
+    <row r="281" spans="1:38" ht="30.75" customHeight="1">
+      <c r="A281">
+        <v>3</v>
+      </c>
+      <c r="B281" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B281" s="17">
+      <c r="C281" s="17">
         <v>0.72</v>
       </c>
-      <c r="C281" s="22">
-        <f t="shared" ref="C281:C287" si="0">B281/2</f>
+      <c r="D281" s="22">
+        <f t="shared" ref="D281:D287" si="0">C281/2</f>
         <v>0.36</v>
       </c>
-      <c r="D281" s="22">
-        <f t="shared" ref="D281:D287" si="1">B281/3</f>
+      <c r="E281" s="22">
+        <f t="shared" ref="E281:E287" si="1">C281/3</f>
         <v>0.24</v>
       </c>
-      <c r="E281" s="22">
-        <f t="shared" ref="E281:E287" si="2">B281/4</f>
+      <c r="F281" s="22">
+        <f t="shared" ref="F281:F287" si="2">C281/4</f>
         <v>0.18</v>
       </c>
-      <c r="F281" s="22">
-        <f t="shared" ref="F281:F287" si="3">B281/5</f>
+      <c r="G281" s="22">
+        <f t="shared" ref="G281:G287" si="3">C281/5</f>
         <v>0.14399999999999999</v>
       </c>
-      <c r="G281" s="22"/>
       <c r="H281" s="22"/>
       <c r="I281" s="22"/>
-      <c r="AC281" s="15"/>
+      <c r="J281" s="22"/>
       <c r="AD281" s="15"/>
       <c r="AE281" s="15"/>
       <c r="AF281" s="15"/>
       <c r="AG281" s="15"/>
       <c r="AH281" s="15"/>
-      <c r="AI281" s="12"/>
+      <c r="AI281" s="15"/>
       <c r="AJ281" s="12"/>
       <c r="AK281" s="12"/>
-    </row>
-    <row r="282" spans="1:37" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="4" t="s">
+      <c r="AL281" s="12"/>
+    </row>
+    <row r="282" spans="1:38" ht="32.25" customHeight="1">
+      <c r="A282">
+        <v>4</v>
+      </c>
+      <c r="B282" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B282" s="17">
+      <c r="C282" s="17">
         <v>0.69</v>
       </c>
-      <c r="C282" s="22">
+      <c r="D282" s="22">
         <f t="shared" si="0"/>
         <v>0.34499999999999997</v>
       </c>
-      <c r="D282" s="22">
+      <c r="E282" s="22">
         <f t="shared" si="1"/>
         <v>0.22999999999999998</v>
       </c>
-      <c r="E282" s="22">
+      <c r="F282" s="22">
         <f t="shared" si="2"/>
         <v>0.17249999999999999</v>
       </c>
-      <c r="F282" s="22">
+      <c r="G282" s="22">
         <f t="shared" si="3"/>
         <v>0.13799999999999998</v>
       </c>
-      <c r="G282" s="22"/>
       <c r="H282" s="22"/>
       <c r="I282" s="22"/>
-      <c r="AC282" s="15"/>
+      <c r="J282" s="22"/>
       <c r="AD282" s="15"/>
       <c r="AE282" s="15"/>
       <c r="AF282" s="15"/>
       <c r="AG282" s="15"/>
       <c r="AH282" s="15"/>
-      <c r="AI282" s="12"/>
+      <c r="AI282" s="15"/>
       <c r="AJ282" s="12"/>
       <c r="AK282" s="12"/>
-    </row>
-    <row r="283" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A283" s="4" t="s">
+      <c r="AL282" s="12"/>
+    </row>
+    <row r="283" spans="1:38">
+      <c r="A283">
+        <v>5</v>
+      </c>
+      <c r="B283" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B283" s="17">
+      <c r="C283" s="17">
         <v>0.74</v>
       </c>
-      <c r="C283" s="22">
+      <c r="D283" s="22">
         <f t="shared" si="0"/>
         <v>0.37</v>
       </c>
-      <c r="D283" s="22">
+      <c r="E283" s="22">
         <f t="shared" si="1"/>
         <v>0.24666666666666667</v>
       </c>
-      <c r="E283" s="22">
+      <c r="F283" s="22">
         <f t="shared" si="2"/>
         <v>0.185</v>
       </c>
-      <c r="F283" s="22">
+      <c r="G283" s="22">
         <f t="shared" si="3"/>
         <v>0.14799999999999999</v>
       </c>
-      <c r="G283" s="22"/>
       <c r="H283" s="22"/>
       <c r="I283" s="22"/>
-      <c r="AC283" s="15"/>
+      <c r="J283" s="22"/>
       <c r="AD283" s="15"/>
       <c r="AE283" s="15"/>
       <c r="AF283" s="15"/>
       <c r="AG283" s="15"/>
       <c r="AH283" s="15"/>
-      <c r="AI283" s="12"/>
+      <c r="AI283" s="15"/>
       <c r="AJ283" s="12"/>
       <c r="AK283" s="12"/>
-    </row>
-    <row r="284" spans="1:37" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="4" t="s">
+      <c r="AL283" s="12"/>
+    </row>
+    <row r="284" spans="1:38" ht="30.75" customHeight="1">
+      <c r="A284">
+        <v>6</v>
+      </c>
+      <c r="B284" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B284" s="17">
+      <c r="C284" s="17">
         <v>0.65</v>
       </c>
-      <c r="C284" s="22">
+      <c r="D284" s="22">
         <f t="shared" si="0"/>
         <v>0.32500000000000001</v>
       </c>
-      <c r="D284" s="22">
+      <c r="E284" s="22">
         <f t="shared" si="1"/>
         <v>0.21666666666666667</v>
       </c>
-      <c r="E284" s="22">
+      <c r="F284" s="22">
         <f t="shared" si="2"/>
         <v>0.16250000000000001</v>
       </c>
-      <c r="F284" s="22">
+      <c r="G284" s="22">
         <f t="shared" si="3"/>
         <v>0.13</v>
       </c>
-      <c r="G284" s="22"/>
       <c r="H284" s="22"/>
       <c r="I284" s="22"/>
-      <c r="AC284" s="15"/>
+      <c r="J284" s="22"/>
       <c r="AD284" s="15"/>
       <c r="AE284" s="15"/>
       <c r="AF284" s="15"/>
       <c r="AG284" s="15"/>
       <c r="AH284" s="15"/>
-      <c r="AI284" s="12"/>
+      <c r="AI284" s="15"/>
       <c r="AJ284" s="12"/>
       <c r="AK284" s="12"/>
-    </row>
-    <row r="285" spans="1:37" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="4" t="s">
+      <c r="AL284" s="12"/>
+    </row>
+    <row r="285" spans="1:38" ht="30.75" customHeight="1">
+      <c r="A285">
+        <v>7</v>
+      </c>
+      <c r="B285" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B285" s="17">
+      <c r="C285" s="17">
         <v>0.73</v>
       </c>
-      <c r="C285" s="22">
+      <c r="D285" s="22">
         <f t="shared" si="0"/>
         <v>0.36499999999999999</v>
       </c>
-      <c r="D285" s="22">
+      <c r="E285" s="22">
         <f t="shared" si="1"/>
         <v>0.24333333333333332</v>
       </c>
-      <c r="E285" s="22">
+      <c r="F285" s="22">
         <f t="shared" si="2"/>
         <v>0.1825</v>
       </c>
-      <c r="F285" s="22">
+      <c r="G285" s="22">
         <f t="shared" si="3"/>
         <v>0.14599999999999999</v>
       </c>
-      <c r="G285" s="22"/>
       <c r="H285" s="22"/>
       <c r="I285" s="22"/>
-      <c r="AC285" s="15"/>
+      <c r="J285" s="22"/>
       <c r="AD285" s="15"/>
       <c r="AE285" s="15"/>
       <c r="AF285" s="15"/>
       <c r="AG285" s="15"/>
       <c r="AH285" s="15"/>
-      <c r="AI285" s="12"/>
+      <c r="AI285" s="15"/>
       <c r="AJ285" s="12"/>
       <c r="AK285" s="12"/>
-    </row>
-    <row r="286" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="4" t="s">
+      <c r="AL285" s="12"/>
+    </row>
+    <row r="286" spans="1:38" ht="16.5" customHeight="1">
+      <c r="A286">
+        <v>8</v>
+      </c>
+      <c r="B286" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B286" s="17">
+      <c r="C286" s="17">
         <v>0.71</v>
       </c>
-      <c r="C286" s="22">
+      <c r="D286" s="22">
         <f t="shared" si="0"/>
         <v>0.35499999999999998</v>
       </c>
-      <c r="D286" s="22">
+      <c r="E286" s="22">
         <f t="shared" si="1"/>
         <v>0.23666666666666666</v>
       </c>
-      <c r="E286" s="22">
+      <c r="F286" s="22">
         <f t="shared" si="2"/>
         <v>0.17749999999999999</v>
       </c>
-      <c r="F286" s="22">
+      <c r="G286" s="22">
         <f t="shared" si="3"/>
         <v>0.14199999999999999</v>
       </c>
-      <c r="G286" s="22"/>
       <c r="H286" s="22"/>
       <c r="I286" s="22"/>
-      <c r="AC286" s="15"/>
+      <c r="J286" s="22"/>
       <c r="AD286" s="15"/>
       <c r="AE286" s="15"/>
       <c r="AF286" s="15"/>
       <c r="AG286" s="15"/>
       <c r="AH286" s="15"/>
-      <c r="AI286" s="12"/>
+      <c r="AI286" s="15"/>
       <c r="AJ286" s="12"/>
       <c r="AK286" s="12"/>
-    </row>
-    <row r="287" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="4" t="s">
+      <c r="AL286" s="12"/>
+    </row>
+    <row r="287" spans="1:38" ht="15" customHeight="1">
+      <c r="A287">
+        <v>9</v>
+      </c>
+      <c r="B287" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B287" s="17">
+      <c r="C287" s="17">
         <v>0.72</v>
       </c>
-      <c r="C287" s="22">
+      <c r="D287" s="22">
         <f t="shared" si="0"/>
         <v>0.36</v>
       </c>
-      <c r="D287" s="22">
+      <c r="E287" s="22">
         <f t="shared" si="1"/>
         <v>0.24</v>
       </c>
-      <c r="E287" s="22">
+      <c r="F287" s="22">
         <f t="shared" si="2"/>
         <v>0.18</v>
       </c>
-      <c r="F287" s="22">
+      <c r="G287" s="22">
         <f t="shared" si="3"/>
         <v>0.14399999999999999</v>
       </c>
-      <c r="G287" s="22"/>
       <c r="H287" s="22"/>
       <c r="I287" s="22"/>
-      <c r="AC287" s="15"/>
+      <c r="J287" s="22"/>
       <c r="AD287" s="15"/>
       <c r="AE287" s="15"/>
       <c r="AF287" s="15"/>
       <c r="AG287" s="15"/>
       <c r="AH287" s="15"/>
-      <c r="AI287" s="12"/>
+      <c r="AI287" s="15"/>
       <c r="AJ287" s="12"/>
       <c r="AK287" s="12"/>
-    </row>
-    <row r="288" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="4"/>
-      <c r="B288" s="14"/>
-    </row>
-    <row r="289" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A289" s="1" t="s">
+      <c r="AL287" s="12"/>
+    </row>
+    <row r="288" spans="1:38" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B288" s="4"/>
+      <c r="C288" s="14"/>
+    </row>
+    <row r="289" spans="1:3" ht="15">
+      <c r="B289" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B289" s="14"/>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A290" s="5">
+      <c r="C289" s="14"/>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290">
         <v>1</v>
       </c>
-      <c r="B290" s="24">
+      <c r="B290" s="5">
+        <v>1</v>
+      </c>
+      <c r="C290" s="24">
         <v>1.2</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A291" s="5">
-        <v>2</v>
-      </c>
-      <c r="B291" s="24">
+    <row r="291" spans="1:3">
+      <c r="A291">
+        <v>2</v>
+      </c>
+      <c r="B291" s="5">
+        <v>2</v>
+      </c>
+      <c r="C291" s="24">
         <v>1.2</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A292" s="5">
+    <row r="292" spans="1:3">
+      <c r="A292">
         <v>3</v>
       </c>
-      <c r="B292" s="24">
+      <c r="B292" s="5">
+        <v>3</v>
+      </c>
+      <c r="C292" s="24">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A293" s="5">
+    <row r="293" spans="1:3">
+      <c r="A293">
         <v>4</v>
       </c>
-      <c r="B293" s="24">
+      <c r="B293" s="5">
+        <v>4</v>
+      </c>
+      <c r="C293" s="24">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A294" s="5">
+    <row r="294" spans="1:3">
+      <c r="A294">
         <v>5</v>
       </c>
-      <c r="B294" s="24">
+      <c r="B294" s="5">
+        <v>5</v>
+      </c>
+      <c r="C294" s="24">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A295" s="5">
+    <row r="295" spans="1:3">
+      <c r="A295">
         <v>6</v>
       </c>
-      <c r="B295" s="24">
+      <c r="B295" s="5">
+        <v>6</v>
+      </c>
+      <c r="C295" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A296" s="5">
+    <row r="296" spans="1:3">
+      <c r="A296">
         <v>7</v>
       </c>
-      <c r="B296" s="24">
+      <c r="B296" s="5">
+        <v>7</v>
+      </c>
+      <c r="C296" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A297" s="5">
+    <row r="297" spans="1:3">
+      <c r="A297">
         <v>8</v>
       </c>
-      <c r="B297" s="24">
+      <c r="B297" s="5">
+        <v>8</v>
+      </c>
+      <c r="C297" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A298" s="5">
+    <row r="298" spans="1:3">
+      <c r="A298">
         <v>9</v>
       </c>
-      <c r="B298" s="24">
+      <c r="B298" s="5">
+        <v>9</v>
+      </c>
+      <c r="C298" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A299" s="5">
+    <row r="299" spans="1:3">
+      <c r="A299">
         <v>10</v>
       </c>
-      <c r="B299" s="24">
+      <c r="B299" s="5">
+        <v>10</v>
+      </c>
+      <c r="C299" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A300" s="5">
+    <row r="300" spans="1:3">
+      <c r="A300">
         <v>11</v>
       </c>
-      <c r="B300" s="24">
+      <c r="B300" s="5">
+        <v>11</v>
+      </c>
+      <c r="C300" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A301" s="5">
+    <row r="301" spans="1:3">
+      <c r="A301">
         <v>12</v>
       </c>
-      <c r="B301" s="24">
+      <c r="B301" s="5">
+        <v>12</v>
+      </c>
+      <c r="C301" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A302" s="5">
+    <row r="302" spans="1:3">
+      <c r="A302">
         <v>13</v>
       </c>
-      <c r="B302" s="24">
+      <c r="B302" s="5">
+        <v>13</v>
+      </c>
+      <c r="C302" s="24">
         <v>0.9</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A303" s="5">
+    <row r="303" spans="1:3">
+      <c r="A303">
         <v>14</v>
       </c>
-      <c r="B303" s="24">
+      <c r="B303" s="5">
+        <v>14</v>
+      </c>
+      <c r="C303" s="24">
         <v>0.9</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A304" s="5">
+    <row r="304" spans="1:3">
+      <c r="A304">
         <v>15</v>
       </c>
-      <c r="B304" s="24">
+      <c r="B304" s="5">
+        <v>15</v>
+      </c>
+      <c r="C304" s="24">
         <v>0.9</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A305" s="5">
+    <row r="305" spans="1:3">
+      <c r="A305">
         <v>16</v>
       </c>
-      <c r="B305" s="24">
+      <c r="B305" s="5">
+        <v>16</v>
+      </c>
+      <c r="C305" s="24">
         <v>0.9</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A306" s="5">
+    <row r="306" spans="1:3">
+      <c r="A306">
         <v>17</v>
       </c>
-      <c r="B306" s="24">
+      <c r="B306" s="5">
+        <v>17</v>
+      </c>
+      <c r="C306" s="24">
         <v>0.9</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A307" s="5">
+    <row r="307" spans="1:3">
+      <c r="A307">
         <v>18</v>
       </c>
-      <c r="B307" s="24">
+      <c r="B307" s="5">
+        <v>18</v>
+      </c>
+      <c r="C307" s="24">
         <v>0.8</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A308" s="5">
+    <row r="308" spans="1:3">
+      <c r="A308">
         <v>19</v>
       </c>
-      <c r="B308" s="24">
+      <c r="B308" s="5">
+        <v>19</v>
+      </c>
+      <c r="C308" s="24">
         <v>0.8</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A309" s="5">
+    <row r="309" spans="1:3">
+      <c r="A309">
         <v>20</v>
       </c>
-      <c r="B309" s="24">
+      <c r="B309" s="5">
+        <v>20</v>
+      </c>
+      <c r="C309" s="24">
         <v>0.8</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A310" s="5">
+    <row r="310" spans="1:3">
+      <c r="A310">
         <v>21</v>
       </c>
-      <c r="B310" s="24">
+      <c r="B310" s="5">
+        <v>21</v>
+      </c>
+      <c r="C310" s="24">
         <v>0.8</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A311" s="5">
+    <row r="311" spans="1:3">
+      <c r="A311">
         <v>22</v>
       </c>
-      <c r="B311" s="24">
+      <c r="B311" s="5">
+        <v>22</v>
+      </c>
+      <c r="C311" s="24">
         <v>0.8</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A312" s="5">
+    <row r="312" spans="1:3">
+      <c r="A312">
         <v>23</v>
       </c>
-      <c r="B312" s="24">
+      <c r="B312" s="5">
+        <v>23</v>
+      </c>
+      <c r="C312" s="24">
         <v>0.8</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A313" s="5">
+    <row r="313" spans="1:3">
+      <c r="A313">
         <v>24</v>
       </c>
-      <c r="B313" s="24">
+      <c r="B313" s="5">
+        <v>24</v>
+      </c>
+      <c r="C313" s="24">
         <v>0.8</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A314" s="5" t="s">
+    <row r="314" spans="1:3">
+      <c r="A314">
+        <v>25</v>
+      </c>
+      <c r="B314" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B314" s="24">
+      <c r="C314" s="24">
         <v>0.8</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="9"/>
-      <c r="B315" s="14"/>
-    </row>
-    <row r="316" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A316" s="1" t="s">
+    <row r="315" spans="1:3" ht="15" thickBot="1">
+      <c r="B315" s="9"/>
+      <c r="C315" s="14"/>
+    </row>
+    <row r="316" spans="1:3" ht="15">
+      <c r="B316" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B316" s="14"/>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A317" s="4" t="s">
+      <c r="C316" s="14"/>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317">
+        <v>1</v>
+      </c>
+      <c r="B317" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B317" s="18">
+      <c r="C317" s="18">
         <v>0.9</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="4" t="s">
+    <row r="318" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A318">
+        <v>2</v>
+      </c>
+      <c r="B318" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B318" s="18">
+      <c r="C318" s="18">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A319" s="4" t="s">
+    <row r="319" spans="1:3">
+      <c r="A319">
+        <v>3</v>
+      </c>
+      <c r="B319" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B319" s="18">
+      <c r="C319" s="18">
         <v>1.2</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="2"/>
-      <c r="B320" s="14"/>
-    </row>
-    <row r="321" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A321" s="1" t="s">
+    <row r="320" spans="1:3" ht="15" thickBot="1">
+      <c r="B320" s="2"/>
+      <c r="C320" s="14"/>
+    </row>
+    <row r="321" spans="1:3" ht="15">
+      <c r="B321" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B321" s="14"/>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A322" s="4" t="s">
+      <c r="C321" s="14"/>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322">
+        <v>1</v>
+      </c>
+      <c r="B322" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B322" s="24">
+      <c r="C322" s="24">
         <v>0.8</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A323" s="4" t="s">
+    <row r="323" spans="1:3" ht="28">
+      <c r="A323">
+        <v>2</v>
+      </c>
+      <c r="B323" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B323" s="24">
+      <c r="C323" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A324" s="4" t="s">
+    <row r="324" spans="1:3" ht="28">
+      <c r="A324">
+        <v>3</v>
+      </c>
+      <c r="B324" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B324" s="24">
+      <c r="C324" s="24">
         <v>1.2</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A325" s="4" t="s">
+    <row r="325" spans="1:3" ht="28">
+      <c r="A325">
+        <v>4</v>
+      </c>
+      <c r="B325" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B325" s="24">
+      <c r="C325" s="24">
         <v>1.5</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A326" s="4" t="s">
+    <row r="326" spans="1:3" ht="28">
+      <c r="A326">
+        <v>5</v>
+      </c>
+      <c r="B326" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B326" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A327" s="4" t="s">
+      <c r="C326" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="28">
+      <c r="A327">
+        <v>6</v>
+      </c>
+      <c r="B327" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B327" s="24">
+      <c r="C327" s="24">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A328" s="4" t="s">
+    <row r="328" spans="1:3" ht="28">
+      <c r="A328">
+        <v>7</v>
+      </c>
+      <c r="B328" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B328" s="24">
+      <c r="C328" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A329" s="4" t="s">
+    <row r="329" spans="1:3">
+      <c r="A329">
+        <v>8</v>
+      </c>
+      <c r="B329" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B329" s="24">
+      <c r="C329" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="2"/>
-      <c r="B330" s="14"/>
-    </row>
-    <row r="331" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="8" t="s">
+    <row r="330" spans="1:3" ht="15" thickBot="1">
+      <c r="B330" s="2"/>
+      <c r="C330" s="14"/>
+    </row>
+    <row r="331" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B331" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B331" s="14"/>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A332" s="10" t="s">
+      <c r="C331" s="14"/>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332">
+        <v>1</v>
+      </c>
+      <c r="B332" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B332" s="14"/>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A333" s="10" t="s">
+      <c r="C332" s="14"/>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="B333" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B333" s="17">
+      <c r="C333" s="17">
         <v>0.99</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A334" s="10" t="s">
+    <row r="334" spans="1:3">
+      <c r="B334" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B334" s="17"/>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A335" s="10" t="s">
+      <c r="C334" s="17"/>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335">
+        <v>2</v>
+      </c>
+      <c r="B335" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B335" s="17"/>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A336" s="10" t="s">
+      <c r="C335" s="17"/>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="B336" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B336" s="17">
+      <c r="C336" s="17">
         <v>0.99</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A337" s="10" t="s">
+    <row r="337" spans="1:7">
+      <c r="B337" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B337" s="17"/>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A338" s="10" t="s">
+      <c r="C337" s="17"/>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338">
+        <v>3</v>
+      </c>
+      <c r="B338" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B338" s="17"/>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A339" s="10" t="s">
+      <c r="C338" s="17"/>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="B339" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B339" s="17">
+      <c r="C339" s="17">
         <v>0.99</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A340" s="10" t="s">
+    <row r="340" spans="1:7">
+      <c r="B340" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B340" s="17"/>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A341" s="10" t="s">
+      <c r="C340" s="17"/>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341">
+        <v>4</v>
+      </c>
+      <c r="B341" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B341" s="17"/>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A342" s="10" t="s">
+      <c r="C341" s="17"/>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="B342" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B342" s="17">
+      <c r="C342" s="17">
         <v>0.98</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A343" s="10" t="s">
+    <row r="343" spans="1:7">
+      <c r="B343" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B343" s="17"/>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A344" s="10" t="s">
+      <c r="C343" s="17"/>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344">
+        <v>5</v>
+      </c>
+      <c r="B344" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B344" s="17"/>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A345" s="10" t="s">
+      <c r="C344" s="17"/>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="B345" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B345" s="17">
+      <c r="C345" s="17">
         <v>0.98</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A346" s="10" t="s">
+    <row r="346" spans="1:7">
+      <c r="B346" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B346" s="17"/>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A347" s="10" t="s">
+      <c r="C346" s="17"/>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347">
+        <v>6</v>
+      </c>
+      <c r="B347" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B347" s="17"/>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A348" s="10" t="s">
+      <c r="C347" s="17"/>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="B348" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B348" s="17">
+      <c r="C348" s="17">
         <v>0.99</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="11" t="s">
+    <row r="349" spans="1:7" ht="15" thickBot="1">
+      <c r="B349" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B349" s="17"/>
-    </row>
-    <row r="351" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A351" s="13" t="s">
+      <c r="C349" s="17"/>
+    </row>
+    <row r="351" spans="1:7" ht="18">
+      <c r="B351" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C351" s="19"/>
       <c r="D351" s="19"/>
       <c r="E351" s="19"/>
       <c r="F351" s="19"/>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C352" s="19"/>
+      <c r="G351" s="19"/>
+    </row>
+    <row r="352" spans="1:7">
       <c r="D352" s="19"/>
       <c r="E352" s="19"/>
       <c r="F352" s="19"/>
-    </row>
-    <row r="353" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A353" s="13" t="s">
+      <c r="G352" s="19"/>
+    </row>
+    <row r="353" spans="2:7" ht="18">
+      <c r="B353" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C353" s="19"/>
       <c r="D353" s="19"/>
       <c r="E353" s="19"/>
       <c r="F353" s="19"/>
-    </row>
-    <row r="356" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A356" s="28" t="s">
+      <c r="G353" s="19"/>
+    </row>
+    <row r="356" spans="2:7" ht="20">
+      <c r="B356" s="28" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A357" s="20" t="s">
+    <row r="357" spans="2:7" ht="18">
+      <c r="B357" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="B357" s="16">
+      <c r="C357" s="16">
         <v>80</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A358" s="20" t="s">
+    <row r="358" spans="2:7" ht="18">
+      <c r="B358" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B358" s="16">
+      <c r="C358" s="16">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A4">
+  <conditionalFormatting sqref="B4">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -7320,5 +8931,10 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/public/local/fixtures/calculator/Мониторинг калькуляторы.xlsx
+++ b/public/local/fixtures/calculator/Мониторинг калькуляторы.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="37520" windowHeight="21140" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="37520" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="Мониторинг одного здания" sheetId="3" r:id="rId1"/>
     <sheet name="Мониторинг нескольких зданий" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" refMode="R1C1" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1207,7 +1207,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1251,6 +1251,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -1348,7 +1350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="47">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1379,12 +1381,14 @@
     <cellStyle name="Comma" xfId="42" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1663,7 +1667,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1673,7 +1677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF249"/>
   <sheetViews>
-    <sheetView topLeftCell="A208" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
       <selection activeCell="A236" sqref="A236"/>
     </sheetView>
   </sheetViews>
@@ -5036,8 +5040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="A350" sqref="A350"/>
+    <sheetView topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="D261" sqref="D261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7788,7 +7792,9 @@
       <c r="B259" s="34">
         <v>1</v>
       </c>
-      <c r="C259" s="24"/>
+      <c r="C259" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260">
@@ -7797,7 +7803,9 @@
       <c r="B260" s="34">
         <v>2</v>
       </c>
-      <c r="C260" s="24"/>
+      <c r="C260" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261">
@@ -7817,7 +7825,9 @@
       <c r="B262" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C262" s="24"/>
+      <c r="C262" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="263" spans="1:3" ht="15" thickBot="1">
       <c r="B263" s="5"/>
@@ -8931,6 +8941,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/public/local/fixtures/calculator/Мониторинг калькуляторы.xlsx
+++ b/public/local/fixtures/calculator/Мониторинг калькуляторы.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uzhne/project-extras/imarket/expert/src/public/local/fixtures/calculator/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="37520" windowHeight="21140"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="37520" windowHeight="21140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Мониторинг одного здания" sheetId="3" r:id="rId1"/>
     <sheet name="Мониторинг нескольких зданий" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,9 +45,6 @@
     <t>Московская область</t>
   </si>
   <si>
-    <t>Санкт-Петерьборг</t>
-  </si>
-  <si>
     <t>Ленинградская область</t>
   </si>
   <si>
@@ -593,6 +595,9 @@
   </si>
   <si>
     <t>Удаленность объектов друг от друга*</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург</t>
   </si>
 </sst>
 </file>
@@ -1667,7 +1672,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1677,11 +1682,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A236" sqref="A236"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="38"/>
     <col min="2" max="2" width="53.6640625" customWidth="1"/>
@@ -1698,32 +1703,32 @@
     <col min="30" max="32" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C1" s="14"/>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C2" s="14"/>
     </row>
-    <row r="3" spans="1:32" ht="15" thickBot="1">
+    <row r="3" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:32" ht="15">
+    <row r="4" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" s="14"/>
     </row>
-    <row r="5" spans="1:32" ht="15" thickBot="1">
+    <row r="5" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="14"/>
     </row>
-    <row r="6" spans="1:32" ht="15">
+    <row r="6" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C6" s="14"/>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="38">
         <v>1</v>
       </c>
@@ -1734,7 +1739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" s="15" customFormat="1" ht="15" thickBot="1">
+    <row r="8" spans="1:32" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38"/>
       <c r="B8" s="2"/>
       <c r="C8" s="14"/>
@@ -1742,17 +1747,17 @@
       <c r="AE8" s="12"/>
       <c r="AF8" s="12"/>
     </row>
-    <row r="9" spans="1:32" s="15" customFormat="1" ht="15">
+    <row r="9" spans="1:32" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C9" s="14"/>
       <c r="AD9" s="12"/>
       <c r="AE9" s="12"/>
       <c r="AF9" s="12"/>
     </row>
-    <row r="10" spans="1:32" s="15" customFormat="1">
+    <row r="10" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38">
         <v>1</v>
       </c>
@@ -1766,7 +1771,7 @@
       <c r="AE10" s="12"/>
       <c r="AF10" s="12"/>
     </row>
-    <row r="11" spans="1:32" s="15" customFormat="1">
+    <row r="11" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38">
         <v>2</v>
       </c>
@@ -1780,12 +1785,12 @@
       <c r="AE11" s="12"/>
       <c r="AF11" s="12"/>
     </row>
-    <row r="12" spans="1:32" s="15" customFormat="1">
+    <row r="12" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38">
         <v>3</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>6</v>
+        <v>190</v>
       </c>
       <c r="C12" s="14">
         <v>2</v>
@@ -1794,12 +1799,12 @@
       <c r="AE12" s="12"/>
       <c r="AF12" s="12"/>
     </row>
-    <row r="13" spans="1:32" s="15" customFormat="1">
+    <row r="13" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="38">
         <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="14">
         <v>2</v>
@@ -1808,12 +1813,12 @@
       <c r="AE13" s="12"/>
       <c r="AF13" s="12"/>
     </row>
-    <row r="14" spans="1:32" s="15" customFormat="1">
+    <row r="14" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="38">
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="14">
         <v>2.2000000000000002</v>
@@ -1822,12 +1827,12 @@
       <c r="AE14" s="12"/>
       <c r="AF14" s="12"/>
     </row>
-    <row r="15" spans="1:32" s="15" customFormat="1">
+    <row r="15" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38">
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="14">
         <v>2.5</v>
@@ -1836,12 +1841,12 @@
       <c r="AE15" s="12"/>
       <c r="AF15" s="12"/>
     </row>
-    <row r="16" spans="1:32" s="15" customFormat="1">
+    <row r="16" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38">
         <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="14">
         <v>3</v>
@@ -1850,12 +1855,12 @@
       <c r="AE16" s="12"/>
       <c r="AF16" s="12"/>
     </row>
-    <row r="17" spans="1:32" s="15" customFormat="1">
+    <row r="17" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38">
         <v>8</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="14">
         <v>2</v>
@@ -1864,12 +1869,12 @@
       <c r="AE17" s="12"/>
       <c r="AF17" s="12"/>
     </row>
-    <row r="18" spans="1:32" s="15" customFormat="1">
+    <row r="18" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="38">
         <v>9</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="14">
         <v>2</v>
@@ -1878,12 +1883,12 @@
       <c r="AE18" s="12"/>
       <c r="AF18" s="12"/>
     </row>
-    <row r="19" spans="1:32" s="15" customFormat="1">
+    <row r="19" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="38">
         <v>10</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="14">
         <v>2</v>
@@ -1892,12 +1897,12 @@
       <c r="AE19" s="12"/>
       <c r="AF19" s="12"/>
     </row>
-    <row r="20" spans="1:32" s="15" customFormat="1">
+    <row r="20" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="38">
         <v>11</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="14">
         <v>2</v>
@@ -1906,12 +1911,12 @@
       <c r="AE20" s="12"/>
       <c r="AF20" s="12"/>
     </row>
-    <row r="21" spans="1:32" s="15" customFormat="1">
+    <row r="21" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="38">
         <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="14">
         <v>1.8</v>
@@ -1920,12 +1925,12 @@
       <c r="AE21" s="12"/>
       <c r="AF21" s="12"/>
     </row>
-    <row r="22" spans="1:32" s="15" customFormat="1">
+    <row r="22" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="38">
         <v>13</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="14">
         <v>2.5</v>
@@ -1934,12 +1939,12 @@
       <c r="AE22" s="12"/>
       <c r="AF22" s="12"/>
     </row>
-    <row r="23" spans="1:32" s="15" customFormat="1">
+    <row r="23" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="38">
         <v>14</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="14">
         <v>1.2</v>
@@ -1948,12 +1953,12 @@
       <c r="AE23" s="12"/>
       <c r="AF23" s="12"/>
     </row>
-    <row r="24" spans="1:32" s="15" customFormat="1">
+    <row r="24" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="38">
         <v>15</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="14">
         <v>2.2000000000000002</v>
@@ -1962,12 +1967,12 @@
       <c r="AE24" s="12"/>
       <c r="AF24" s="12"/>
     </row>
-    <row r="25" spans="1:32" s="15" customFormat="1">
+    <row r="25" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="38">
         <v>16</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="14">
         <v>1.5</v>
@@ -1976,12 +1981,12 @@
       <c r="AE25" s="12"/>
       <c r="AF25" s="12"/>
     </row>
-    <row r="26" spans="1:32" s="15" customFormat="1">
+    <row r="26" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="38">
         <v>17</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="14">
         <v>1.8</v>
@@ -1990,12 +1995,12 @@
       <c r="AE26" s="12"/>
       <c r="AF26" s="12"/>
     </row>
-    <row r="27" spans="1:32" s="15" customFormat="1">
+    <row r="27" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38">
         <v>18</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="14">
         <v>2</v>
@@ -2004,12 +2009,12 @@
       <c r="AE27" s="12"/>
       <c r="AF27" s="12"/>
     </row>
-    <row r="28" spans="1:32" s="15" customFormat="1">
+    <row r="28" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="38">
         <v>19</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" s="14">
         <v>3</v>
@@ -2018,12 +2023,12 @@
       <c r="AE28" s="12"/>
       <c r="AF28" s="12"/>
     </row>
-    <row r="29" spans="1:32" s="15" customFormat="1">
+    <row r="29" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="38">
         <v>20</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="14">
         <v>3</v>
@@ -2032,12 +2037,12 @@
       <c r="AE29" s="12"/>
       <c r="AF29" s="12"/>
     </row>
-    <row r="30" spans="1:32" s="15" customFormat="1">
+    <row r="30" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="38">
         <v>21</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="14">
         <v>1.5</v>
@@ -2046,12 +2051,12 @@
       <c r="AE30" s="12"/>
       <c r="AF30" s="12"/>
     </row>
-    <row r="31" spans="1:32" s="15" customFormat="1">
+    <row r="31" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="38">
         <v>22</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="14">
         <v>2</v>
@@ -2060,12 +2065,12 @@
       <c r="AE31" s="12"/>
       <c r="AF31" s="12"/>
     </row>
-    <row r="32" spans="1:32" s="15" customFormat="1">
+    <row r="32" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="38">
         <v>23</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="14">
         <v>2.5</v>
@@ -2074,12 +2079,12 @@
       <c r="AE32" s="12"/>
       <c r="AF32" s="12"/>
     </row>
-    <row r="33" spans="1:32" s="15" customFormat="1">
+    <row r="33" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="38">
         <v>24</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="14">
         <v>2</v>
@@ -2088,12 +2093,12 @@
       <c r="AE33" s="12"/>
       <c r="AF33" s="12"/>
     </row>
-    <row r="34" spans="1:32" s="15" customFormat="1">
+    <row r="34" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="38">
         <v>25</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" s="14">
         <v>2</v>
@@ -2102,12 +2107,12 @@
       <c r="AE34" s="12"/>
       <c r="AF34" s="12"/>
     </row>
-    <row r="35" spans="1:32" s="15" customFormat="1">
+    <row r="35" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="38">
         <v>26</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="14">
         <v>2</v>
@@ -2116,12 +2121,12 @@
       <c r="AE35" s="12"/>
       <c r="AF35" s="12"/>
     </row>
-    <row r="36" spans="1:32" s="15" customFormat="1">
+    <row r="36" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="38">
         <v>27</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="14">
         <v>1.5</v>
@@ -2130,12 +2135,12 @@
       <c r="AE36" s="12"/>
       <c r="AF36" s="12"/>
     </row>
-    <row r="37" spans="1:32" s="15" customFormat="1">
+    <row r="37" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="38">
         <v>28</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" s="14">
         <v>3</v>
@@ -2144,12 +2149,12 @@
       <c r="AE37" s="12"/>
       <c r="AF37" s="12"/>
     </row>
-    <row r="38" spans="1:32" s="15" customFormat="1">
+    <row r="38" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="38">
         <v>29</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="14">
         <v>2</v>
@@ -2158,12 +2163,12 @@
       <c r="AE38" s="12"/>
       <c r="AF38" s="12"/>
     </row>
-    <row r="39" spans="1:32" s="15" customFormat="1">
+    <row r="39" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="38">
         <v>30</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" s="14">
         <v>2</v>
@@ -2172,12 +2177,12 @@
       <c r="AE39" s="12"/>
       <c r="AF39" s="12"/>
     </row>
-    <row r="40" spans="1:32" s="15" customFormat="1">
+    <row r="40" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="38">
         <v>31</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" s="14">
         <v>2.5</v>
@@ -2186,12 +2191,12 @@
       <c r="AE40" s="12"/>
       <c r="AF40" s="12"/>
     </row>
-    <row r="41" spans="1:32" s="15" customFormat="1">
+    <row r="41" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="38">
         <v>32</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C41" s="14">
         <v>2</v>
@@ -2200,12 +2205,12 @@
       <c r="AE41" s="12"/>
       <c r="AF41" s="12"/>
     </row>
-    <row r="42" spans="1:32" s="15" customFormat="1">
+    <row r="42" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="38">
         <v>33</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="14">
         <v>2.5</v>
@@ -2214,12 +2219,12 @@
       <c r="AE42" s="12"/>
       <c r="AF42" s="12"/>
     </row>
-    <row r="43" spans="1:32" s="15" customFormat="1">
+    <row r="43" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="38">
         <v>34</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="14">
         <v>2</v>
@@ -2228,12 +2233,12 @@
       <c r="AE43" s="12"/>
       <c r="AF43" s="12"/>
     </row>
-    <row r="44" spans="1:32" s="15" customFormat="1">
+    <row r="44" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="38">
         <v>35</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C44" s="14">
         <v>2</v>
@@ -2242,12 +2247,12 @@
       <c r="AE44" s="12"/>
       <c r="AF44" s="12"/>
     </row>
-    <row r="45" spans="1:32" s="15" customFormat="1">
+    <row r="45" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="38">
         <v>36</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C45" s="14">
         <v>2.5</v>
@@ -2256,12 +2261,12 @@
       <c r="AE45" s="12"/>
       <c r="AF45" s="12"/>
     </row>
-    <row r="46" spans="1:32" s="15" customFormat="1">
+    <row r="46" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="38">
         <v>37</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C46" s="14">
         <v>2.2000000000000002</v>
@@ -2270,12 +2275,12 @@
       <c r="AE46" s="12"/>
       <c r="AF46" s="12"/>
     </row>
-    <row r="47" spans="1:32" s="15" customFormat="1">
+    <row r="47" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="38">
         <v>38</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C47" s="14">
         <v>2.5</v>
@@ -2284,12 +2289,12 @@
       <c r="AE47" s="12"/>
       <c r="AF47" s="12"/>
     </row>
-    <row r="48" spans="1:32" s="15" customFormat="1">
+    <row r="48" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="38">
         <v>39</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48" s="14">
         <v>2</v>
@@ -2298,12 +2303,12 @@
       <c r="AE48" s="12"/>
       <c r="AF48" s="12"/>
     </row>
-    <row r="49" spans="1:32" s="15" customFormat="1">
+    <row r="49" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="38">
         <v>40</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49" s="14">
         <v>2</v>
@@ -2312,12 +2317,12 @@
       <c r="AE49" s="12"/>
       <c r="AF49" s="12"/>
     </row>
-    <row r="50" spans="1:32" s="15" customFormat="1">
+    <row r="50" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="38">
         <v>41</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50" s="14">
         <v>3</v>
@@ -2326,12 +2331,12 @@
       <c r="AE50" s="12"/>
       <c r="AF50" s="12"/>
     </row>
-    <row r="51" spans="1:32" s="15" customFormat="1">
+    <row r="51" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="38">
         <v>42</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51" s="14">
         <v>3</v>
@@ -2340,12 +2345,12 @@
       <c r="AE51" s="12"/>
       <c r="AF51" s="12"/>
     </row>
-    <row r="52" spans="1:32" s="15" customFormat="1">
+    <row r="52" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="38">
         <v>43</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C52" s="14">
         <v>2</v>
@@ -2354,12 +2359,12 @@
       <c r="AE52" s="12"/>
       <c r="AF52" s="12"/>
     </row>
-    <row r="53" spans="1:32" s="15" customFormat="1">
+    <row r="53" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="38">
         <v>44</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C53" s="14">
         <v>2.5</v>
@@ -2368,12 +2373,12 @@
       <c r="AE53" s="12"/>
       <c r="AF53" s="12"/>
     </row>
-    <row r="54" spans="1:32" s="15" customFormat="1">
+    <row r="54" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="38">
         <v>45</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C54" s="14">
         <v>2.5</v>
@@ -2382,12 +2387,12 @@
       <c r="AE54" s="12"/>
       <c r="AF54" s="12"/>
     </row>
-    <row r="55" spans="1:32" s="15" customFormat="1">
+    <row r="55" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="38">
         <v>46</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C55" s="14">
         <v>2</v>
@@ -2396,12 +2401,12 @@
       <c r="AE55" s="12"/>
       <c r="AF55" s="12"/>
     </row>
-    <row r="56" spans="1:32" s="15" customFormat="1">
+    <row r="56" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="38">
         <v>47</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C56" s="14">
         <v>2</v>
@@ -2410,12 +2415,12 @@
       <c r="AE56" s="12"/>
       <c r="AF56" s="12"/>
     </row>
-    <row r="57" spans="1:32" s="15" customFormat="1">
+    <row r="57" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="38">
         <v>48</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C57" s="14">
         <v>2.5</v>
@@ -2424,12 +2429,12 @@
       <c r="AE57" s="12"/>
       <c r="AF57" s="12"/>
     </row>
-    <row r="58" spans="1:32" s="15" customFormat="1">
+    <row r="58" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="38">
         <v>49</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C58" s="14">
         <v>2.2999999999999998</v>
@@ -2438,12 +2443,12 @@
       <c r="AE58" s="12"/>
       <c r="AF58" s="12"/>
     </row>
-    <row r="59" spans="1:32" s="15" customFormat="1">
+    <row r="59" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="38">
         <v>50</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C59" s="14">
         <v>2.2999999999999998</v>
@@ -2452,12 +2457,12 @@
       <c r="AE59" s="12"/>
       <c r="AF59" s="12"/>
     </row>
-    <row r="60" spans="1:32" s="15" customFormat="1">
+    <row r="60" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="38">
         <v>51</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C60" s="14">
         <v>1.8</v>
@@ -2466,12 +2471,12 @@
       <c r="AE60" s="12"/>
       <c r="AF60" s="12"/>
     </row>
-    <row r="61" spans="1:32" s="15" customFormat="1">
+    <row r="61" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="38">
         <v>52</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C61" s="14">
         <v>2</v>
@@ -2480,12 +2485,12 @@
       <c r="AE61" s="12"/>
       <c r="AF61" s="12"/>
     </row>
-    <row r="62" spans="1:32" s="15" customFormat="1">
+    <row r="62" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="38">
         <v>53</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C62" s="14">
         <v>2.5</v>
@@ -2494,12 +2499,12 @@
       <c r="AE62" s="12"/>
       <c r="AF62" s="12"/>
     </row>
-    <row r="63" spans="1:32" s="15" customFormat="1">
+    <row r="63" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="38">
         <v>54</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C63" s="14">
         <v>3</v>
@@ -2508,12 +2513,12 @@
       <c r="AE63" s="12"/>
       <c r="AF63" s="12"/>
     </row>
-    <row r="64" spans="1:32" s="15" customFormat="1">
+    <row r="64" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="38">
         <v>55</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C64" s="14">
         <v>2</v>
@@ -2522,12 +2527,12 @@
       <c r="AE64" s="12"/>
       <c r="AF64" s="12"/>
     </row>
-    <row r="65" spans="1:32" s="15" customFormat="1">
+    <row r="65" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="38">
         <v>56</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C65" s="14">
         <v>2.5</v>
@@ -2536,12 +2541,12 @@
       <c r="AE65" s="12"/>
       <c r="AF65" s="12"/>
     </row>
-    <row r="66" spans="1:32" s="15" customFormat="1">
+    <row r="66" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="38">
         <v>57</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C66" s="14">
         <v>2</v>
@@ -2550,12 +2555,12 @@
       <c r="AE66" s="12"/>
       <c r="AF66" s="12"/>
     </row>
-    <row r="67" spans="1:32" s="15" customFormat="1">
+    <row r="67" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="38">
         <v>58</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C67" s="14">
         <v>1.5</v>
@@ -2564,12 +2569,12 @@
       <c r="AE67" s="12"/>
       <c r="AF67" s="12"/>
     </row>
-    <row r="68" spans="1:32" s="15" customFormat="1">
+    <row r="68" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="38">
         <v>59</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C68" s="14">
         <v>2</v>
@@ -2578,12 +2583,12 @@
       <c r="AE68" s="12"/>
       <c r="AF68" s="12"/>
     </row>
-    <row r="69" spans="1:32" s="15" customFormat="1">
+    <row r="69" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="38">
         <v>60</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C69" s="14">
         <v>2</v>
@@ -2592,12 +2597,12 @@
       <c r="AE69" s="12"/>
       <c r="AF69" s="12"/>
     </row>
-    <row r="70" spans="1:32" s="15" customFormat="1">
+    <row r="70" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="38">
         <v>61</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C70" s="14">
         <v>3</v>
@@ -2606,12 +2611,12 @@
       <c r="AE70" s="12"/>
       <c r="AF70" s="12"/>
     </row>
-    <row r="71" spans="1:32" s="15" customFormat="1">
+    <row r="71" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="38">
         <v>62</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C71" s="14">
         <v>2.8</v>
@@ -2620,12 +2625,12 @@
       <c r="AE71" s="12"/>
       <c r="AF71" s="12"/>
     </row>
-    <row r="72" spans="1:32" s="15" customFormat="1">
+    <row r="72" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="38">
         <v>63</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C72" s="14">
         <v>2.5</v>
@@ -2634,12 +2639,12 @@
       <c r="AE72" s="12"/>
       <c r="AF72" s="12"/>
     </row>
-    <row r="73" spans="1:32" s="15" customFormat="1">
+    <row r="73" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="38">
         <v>64</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C73" s="14">
         <v>2</v>
@@ -2648,12 +2653,12 @@
       <c r="AE73" s="12"/>
       <c r="AF73" s="12"/>
     </row>
-    <row r="74" spans="1:32" s="15" customFormat="1">
+    <row r="74" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="38">
         <v>65</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C74" s="14">
         <v>1.8</v>
@@ -2662,12 +2667,12 @@
       <c r="AE74" s="12"/>
       <c r="AF74" s="12"/>
     </row>
-    <row r="75" spans="1:32" s="15" customFormat="1">
+    <row r="75" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="38">
         <v>66</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C75" s="14">
         <v>2</v>
@@ -2676,12 +2681,12 @@
       <c r="AE75" s="12"/>
       <c r="AF75" s="12"/>
     </row>
-    <row r="76" spans="1:32" s="15" customFormat="1">
+    <row r="76" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="38">
         <v>67</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C76" s="14">
         <v>1.8</v>
@@ -2690,12 +2695,12 @@
       <c r="AE76" s="12"/>
       <c r="AF76" s="12"/>
     </row>
-    <row r="77" spans="1:32" s="15" customFormat="1">
+    <row r="77" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="38">
         <v>68</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C77" s="14">
         <v>2.2000000000000002</v>
@@ -2704,12 +2709,12 @@
       <c r="AE77" s="12"/>
       <c r="AF77" s="12"/>
     </row>
-    <row r="78" spans="1:32" s="15" customFormat="1">
+    <row r="78" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="38">
         <v>69</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C78" s="14">
         <v>1.5</v>
@@ -2718,12 +2723,12 @@
       <c r="AE78" s="12"/>
       <c r="AF78" s="12"/>
     </row>
-    <row r="79" spans="1:32" s="15" customFormat="1">
+    <row r="79" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="38">
         <v>70</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C79" s="14">
         <v>2.5</v>
@@ -2732,12 +2737,12 @@
       <c r="AE79" s="12"/>
       <c r="AF79" s="12"/>
     </row>
-    <row r="80" spans="1:32" s="15" customFormat="1">
+    <row r="80" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="38">
         <v>71</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C80" s="14">
         <v>1.8</v>
@@ -2746,12 +2751,12 @@
       <c r="AE80" s="12"/>
       <c r="AF80" s="12"/>
     </row>
-    <row r="81" spans="1:32" s="15" customFormat="1">
+    <row r="81" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="38">
         <v>72</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C81" s="14">
         <v>2.5</v>
@@ -2760,12 +2765,12 @@
       <c r="AE81" s="12"/>
       <c r="AF81" s="12"/>
     </row>
-    <row r="82" spans="1:32" s="15" customFormat="1">
+    <row r="82" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="38">
         <v>73</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C82" s="14">
         <v>2.2000000000000002</v>
@@ -2774,12 +2779,12 @@
       <c r="AE82" s="12"/>
       <c r="AF82" s="12"/>
     </row>
-    <row r="83" spans="1:32" s="15" customFormat="1">
+    <row r="83" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="38">
         <v>74</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C83" s="14">
         <v>2.5</v>
@@ -2788,12 +2793,12 @@
       <c r="AE83" s="12"/>
       <c r="AF83" s="12"/>
     </row>
-    <row r="84" spans="1:32" s="15" customFormat="1">
+    <row r="84" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="38">
         <v>75</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C84" s="14">
         <v>2.2000000000000002</v>
@@ -2802,12 +2807,12 @@
       <c r="AE84" s="12"/>
       <c r="AF84" s="12"/>
     </row>
-    <row r="85" spans="1:32" s="15" customFormat="1">
+    <row r="85" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="38">
         <v>76</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C85" s="14">
         <v>3</v>
@@ -2816,12 +2821,12 @@
       <c r="AE85" s="12"/>
       <c r="AF85" s="12"/>
     </row>
-    <row r="86" spans="1:32" s="15" customFormat="1">
+    <row r="86" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="38">
         <v>77</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C86" s="14">
         <v>2.8</v>
@@ -2830,12 +2835,12 @@
       <c r="AE86" s="12"/>
       <c r="AF86" s="12"/>
     </row>
-    <row r="87" spans="1:32" s="15" customFormat="1">
+    <row r="87" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="38">
         <v>78</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C87" s="14">
         <v>2.5</v>
@@ -2844,12 +2849,12 @@
       <c r="AE87" s="12"/>
       <c r="AF87" s="12"/>
     </row>
-    <row r="88" spans="1:32" s="15" customFormat="1">
+    <row r="88" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="38">
         <v>79</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C88" s="14">
         <v>2.2000000000000002</v>
@@ -2858,12 +2863,12 @@
       <c r="AE88" s="12"/>
       <c r="AF88" s="12"/>
     </row>
-    <row r="89" spans="1:32" s="15" customFormat="1">
+    <row r="89" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="38">
         <v>80</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C89" s="14">
         <v>2</v>
@@ -2872,12 +2877,12 @@
       <c r="AE89" s="12"/>
       <c r="AF89" s="12"/>
     </row>
-    <row r="90" spans="1:32" s="15" customFormat="1">
+    <row r="90" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="38">
         <v>81</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C90" s="14">
         <v>2</v>
@@ -2886,12 +2891,12 @@
       <c r="AE90" s="12"/>
       <c r="AF90" s="12"/>
     </row>
-    <row r="91" spans="1:32" s="15" customFormat="1">
+    <row r="91" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="38">
         <v>82</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C91" s="14">
         <v>3</v>
@@ -2900,12 +2905,12 @@
       <c r="AE91" s="12"/>
       <c r="AF91" s="12"/>
     </row>
-    <row r="92" spans="1:32" s="15" customFormat="1">
+    <row r="92" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="38">
         <v>83</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C92" s="14">
         <v>2.8</v>
@@ -2914,12 +2919,12 @@
       <c r="AE92" s="12"/>
       <c r="AF92" s="12"/>
     </row>
-    <row r="93" spans="1:32" s="15" customFormat="1">
+    <row r="93" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="38">
         <v>84</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C93" s="14">
         <v>1.8</v>
@@ -2928,7 +2933,7 @@
       <c r="AE93" s="12"/>
       <c r="AF93" s="12"/>
     </row>
-    <row r="94" spans="1:32" s="15" customFormat="1" ht="15" thickBot="1">
+    <row r="94" spans="1:32" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="38"/>
       <c r="B94" s="2"/>
       <c r="C94" s="14"/>
@@ -2936,7 +2941,7 @@
       <c r="AE94" s="12"/>
       <c r="AF94" s="12"/>
     </row>
-    <row r="95" spans="1:32" s="15" customFormat="1" ht="15">
+    <row r="95" spans="1:32" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="38"/>
       <c r="B95" s="1" t="s">
         <v>0</v>
@@ -2946,7 +2951,7 @@
       <c r="AE95" s="12"/>
       <c r="AF95" s="12"/>
     </row>
-    <row r="96" spans="1:32" s="31" customFormat="1" ht="16" thickBot="1">
+    <row r="96" spans="1:32" s="31" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="39"/>
       <c r="B96" s="29"/>
       <c r="C96" s="30"/>
@@ -2954,22 +2959,22 @@
       <c r="AE96" s="32"/>
       <c r="AF96" s="32"/>
     </row>
-    <row r="97" spans="1:32" s="15" customFormat="1" ht="15">
+    <row r="97" spans="1:32" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="38"/>
       <c r="B97" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C97" s="14"/>
       <c r="AD97" s="12"/>
       <c r="AE97" s="12"/>
       <c r="AF97" s="12"/>
     </row>
-    <row r="98" spans="1:32" s="15" customFormat="1">
+    <row r="98" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="38">
         <v>1</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C98" s="14">
         <v>0.8</v>
@@ -2978,12 +2983,12 @@
       <c r="AE98" s="12"/>
       <c r="AF98" s="12"/>
     </row>
-    <row r="99" spans="1:32" s="15" customFormat="1">
+    <row r="99" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="38">
         <v>2</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C99" s="14">
         <v>1.1000000000000001</v>
@@ -2992,12 +2997,12 @@
       <c r="AE99" s="12"/>
       <c r="AF99" s="12"/>
     </row>
-    <row r="100" spans="1:32" s="15" customFormat="1">
+    <row r="100" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="38">
         <v>3</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C100" s="14">
         <v>1.1000000000000001</v>
@@ -3006,12 +3011,12 @@
       <c r="AE100" s="12"/>
       <c r="AF100" s="12"/>
     </row>
-    <row r="101" spans="1:32" s="15" customFormat="1">
+    <row r="101" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="38">
         <v>4</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C101" s="14">
         <v>1.1000000000000001</v>
@@ -3020,12 +3025,12 @@
       <c r="AE101" s="12"/>
       <c r="AF101" s="12"/>
     </row>
-    <row r="102" spans="1:32" s="15" customFormat="1">
+    <row r="102" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="38">
         <v>5</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C102" s="14">
         <v>0.8</v>
@@ -3034,12 +3039,12 @@
       <c r="AE102" s="12"/>
       <c r="AF102" s="12"/>
     </row>
-    <row r="103" spans="1:32" s="15" customFormat="1">
+    <row r="103" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="38">
         <v>6</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C103" s="14">
         <v>1</v>
@@ -3048,12 +3053,12 @@
       <c r="AE103" s="12"/>
       <c r="AF103" s="12"/>
     </row>
-    <row r="104" spans="1:32" s="15" customFormat="1">
+    <row r="104" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="38">
         <v>7</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="14">
         <v>1</v>
@@ -3062,12 +3067,12 @@
       <c r="AE104" s="12"/>
       <c r="AF104" s="12"/>
     </row>
-    <row r="105" spans="1:32" s="15" customFormat="1">
+    <row r="105" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="38">
         <v>8</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C105" s="14">
         <v>1</v>
@@ -3076,12 +3081,12 @@
       <c r="AE105" s="12"/>
       <c r="AF105" s="12"/>
     </row>
-    <row r="106" spans="1:32" s="15" customFormat="1">
+    <row r="106" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="38">
         <v>9</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C106" s="14">
         <v>0.8</v>
@@ -3090,12 +3095,12 @@
       <c r="AE106" s="12"/>
       <c r="AF106" s="12"/>
     </row>
-    <row r="107" spans="1:32" s="15" customFormat="1">
+    <row r="107" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="38">
         <v>10</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C107" s="14">
         <v>1</v>
@@ -3104,12 +3109,12 @@
       <c r="AE107" s="12"/>
       <c r="AF107" s="12"/>
     </row>
-    <row r="108" spans="1:32" s="15" customFormat="1">
+    <row r="108" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="38">
         <v>11</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C108" s="14">
         <v>1</v>
@@ -3118,12 +3123,12 @@
       <c r="AE108" s="12"/>
       <c r="AF108" s="12"/>
     </row>
-    <row r="109" spans="1:32" s="15" customFormat="1">
+    <row r="109" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="38">
         <v>12</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C109" s="14">
         <v>1</v>
@@ -3132,7 +3137,7 @@
       <c r="AE109" s="12"/>
       <c r="AF109" s="12"/>
     </row>
-    <row r="110" spans="1:32" s="15" customFormat="1" ht="15" thickBot="1">
+    <row r="110" spans="1:32" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="38"/>
       <c r="B110" s="6"/>
       <c r="C110" s="14"/>
@@ -3140,17 +3145,17 @@
       <c r="AE110" s="12"/>
       <c r="AF110" s="12"/>
     </row>
-    <row r="111" spans="1:32" s="15" customFormat="1" ht="15">
+    <row r="111" spans="1:32" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="38"/>
       <c r="B111" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C111" s="14"/>
       <c r="AD111" s="12"/>
       <c r="AE111" s="12"/>
       <c r="AF111" s="12"/>
     </row>
-    <row r="112" spans="1:32" s="15" customFormat="1" ht="18">
+    <row r="112" spans="1:32" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A112" s="38"/>
       <c r="B112" s="4"/>
       <c r="C112" s="25">
@@ -3173,7 +3178,7 @@
       <c r="AE112" s="12"/>
       <c r="AF112" s="12"/>
     </row>
-    <row r="113" spans="1:32" s="15" customFormat="1" ht="15" thickBot="1">
+    <row r="113" spans="1:32" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="38"/>
       <c r="B113" s="2"/>
       <c r="C113" s="14"/>
@@ -3181,17 +3186,17 @@
       <c r="AE113" s="12"/>
       <c r="AF113" s="12"/>
     </row>
-    <row r="114" spans="1:32" s="15" customFormat="1" ht="15">
+    <row r="114" spans="1:32" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="38"/>
       <c r="B114" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C114" s="14"/>
       <c r="AD114" s="12"/>
       <c r="AE114" s="12"/>
       <c r="AF114" s="12"/>
     </row>
-    <row r="115" spans="1:32" s="15" customFormat="1" ht="15" thickBot="1">
+    <row r="115" spans="1:32" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="38"/>
       <c r="B115" s="4"/>
       <c r="C115" s="14">
@@ -3201,17 +3206,17 @@
       <c r="AE115" s="12"/>
       <c r="AF115" s="12"/>
     </row>
-    <row r="116" spans="1:32" s="15" customFormat="1" ht="15">
+    <row r="116" spans="1:32" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="38"/>
       <c r="B116" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C116" s="14"/>
       <c r="AD116" s="12"/>
       <c r="AE116" s="12"/>
       <c r="AF116" s="12"/>
     </row>
-    <row r="117" spans="1:32" s="15" customFormat="1">
+    <row r="117" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="38">
         <v>1</v>
       </c>
@@ -3225,7 +3230,7 @@
       <c r="AE117" s="12"/>
       <c r="AF117" s="12"/>
     </row>
-    <row r="118" spans="1:32" s="15" customFormat="1">
+    <row r="118" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="38">
         <v>2</v>
       </c>
@@ -3239,7 +3244,7 @@
       <c r="AE118" s="12"/>
       <c r="AF118" s="12"/>
     </row>
-    <row r="119" spans="1:32" s="15" customFormat="1">
+    <row r="119" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="38">
         <v>3</v>
       </c>
@@ -3253,7 +3258,7 @@
       <c r="AE119" s="12"/>
       <c r="AF119" s="12"/>
     </row>
-    <row r="120" spans="1:32" s="15" customFormat="1">
+    <row r="120" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="38">
         <v>4</v>
       </c>
@@ -3267,7 +3272,7 @@
       <c r="AE120" s="12"/>
       <c r="AF120" s="12"/>
     </row>
-    <row r="121" spans="1:32" s="15" customFormat="1">
+    <row r="121" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="38">
         <v>5</v>
       </c>
@@ -3281,7 +3286,7 @@
       <c r="AE121" s="12"/>
       <c r="AF121" s="12"/>
     </row>
-    <row r="122" spans="1:32" s="15" customFormat="1">
+    <row r="122" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="38">
         <v>6</v>
       </c>
@@ -3295,7 +3300,7 @@
       <c r="AE122" s="12"/>
       <c r="AF122" s="12"/>
     </row>
-    <row r="123" spans="1:32" s="15" customFormat="1">
+    <row r="123" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="38">
         <v>7</v>
       </c>
@@ -3309,7 +3314,7 @@
       <c r="AE123" s="12"/>
       <c r="AF123" s="12"/>
     </row>
-    <row r="124" spans="1:32" s="15" customFormat="1">
+    <row r="124" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="38">
         <v>8</v>
       </c>
@@ -3323,7 +3328,7 @@
       <c r="AE124" s="12"/>
       <c r="AF124" s="12"/>
     </row>
-    <row r="125" spans="1:32" s="15" customFormat="1">
+    <row r="125" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="38">
         <v>9</v>
       </c>
@@ -3337,7 +3342,7 @@
       <c r="AE125" s="12"/>
       <c r="AF125" s="12"/>
     </row>
-    <row r="126" spans="1:32" s="15" customFormat="1">
+    <row r="126" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="38">
         <v>10</v>
       </c>
@@ -3351,7 +3356,7 @@
       <c r="AE126" s="12"/>
       <c r="AF126" s="12"/>
     </row>
-    <row r="127" spans="1:32" s="15" customFormat="1">
+    <row r="127" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="38">
         <v>11</v>
       </c>
@@ -3365,7 +3370,7 @@
       <c r="AE127" s="12"/>
       <c r="AF127" s="12"/>
     </row>
-    <row r="128" spans="1:32" s="15" customFormat="1">
+    <row r="128" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="38">
         <v>12</v>
       </c>
@@ -3379,7 +3384,7 @@
       <c r="AE128" s="12"/>
       <c r="AF128" s="12"/>
     </row>
-    <row r="129" spans="1:32" s="15" customFormat="1">
+    <row r="129" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="38">
         <v>13</v>
       </c>
@@ -3393,7 +3398,7 @@
       <c r="AE129" s="12"/>
       <c r="AF129" s="12"/>
     </row>
-    <row r="130" spans="1:32" s="15" customFormat="1">
+    <row r="130" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="38">
         <v>14</v>
       </c>
@@ -3407,7 +3412,7 @@
       <c r="AE130" s="12"/>
       <c r="AF130" s="12"/>
     </row>
-    <row r="131" spans="1:32" s="15" customFormat="1">
+    <row r="131" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="38">
         <v>15</v>
       </c>
@@ -3421,7 +3426,7 @@
       <c r="AE131" s="12"/>
       <c r="AF131" s="12"/>
     </row>
-    <row r="132" spans="1:32" s="15" customFormat="1">
+    <row r="132" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="38">
         <v>16</v>
       </c>
@@ -3435,7 +3440,7 @@
       <c r="AE132" s="12"/>
       <c r="AF132" s="12"/>
     </row>
-    <row r="133" spans="1:32" s="15" customFormat="1">
+    <row r="133" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="38">
         <v>17</v>
       </c>
@@ -3449,7 +3454,7 @@
       <c r="AE133" s="12"/>
       <c r="AF133" s="12"/>
     </row>
-    <row r="134" spans="1:32" s="15" customFormat="1">
+    <row r="134" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="38">
         <v>18</v>
       </c>
@@ -3463,7 +3468,7 @@
       <c r="AE134" s="12"/>
       <c r="AF134" s="12"/>
     </row>
-    <row r="135" spans="1:32" s="15" customFormat="1">
+    <row r="135" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="38">
         <v>19</v>
       </c>
@@ -3477,7 +3482,7 @@
       <c r="AE135" s="12"/>
       <c r="AF135" s="12"/>
     </row>
-    <row r="136" spans="1:32" s="15" customFormat="1">
+    <row r="136" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="38">
         <v>20</v>
       </c>
@@ -3491,7 +3496,7 @@
       <c r="AE136" s="12"/>
       <c r="AF136" s="12"/>
     </row>
-    <row r="137" spans="1:32" s="15" customFormat="1">
+    <row r="137" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="38">
         <v>21</v>
       </c>
@@ -3505,7 +3510,7 @@
       <c r="AE137" s="12"/>
       <c r="AF137" s="12"/>
     </row>
-    <row r="138" spans="1:32" s="15" customFormat="1">
+    <row r="138" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="38">
         <v>22</v>
       </c>
@@ -3519,7 +3524,7 @@
       <c r="AE138" s="12"/>
       <c r="AF138" s="12"/>
     </row>
-    <row r="139" spans="1:32" s="15" customFormat="1">
+    <row r="139" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="38">
         <v>23</v>
       </c>
@@ -3533,7 +3538,7 @@
       <c r="AE139" s="12"/>
       <c r="AF139" s="12"/>
     </row>
-    <row r="140" spans="1:32" s="15" customFormat="1">
+    <row r="140" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="38">
         <v>24</v>
       </c>
@@ -3547,7 +3552,7 @@
       <c r="AE140" s="12"/>
       <c r="AF140" s="12"/>
     </row>
-    <row r="141" spans="1:32" s="15" customFormat="1">
+    <row r="141" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="38">
         <v>25</v>
       </c>
@@ -3561,7 +3566,7 @@
       <c r="AE141" s="12"/>
       <c r="AF141" s="12"/>
     </row>
-    <row r="142" spans="1:32" s="15" customFormat="1">
+    <row r="142" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="38">
         <v>26</v>
       </c>
@@ -3575,7 +3580,7 @@
       <c r="AE142" s="12"/>
       <c r="AF142" s="12"/>
     </row>
-    <row r="143" spans="1:32" s="15" customFormat="1">
+    <row r="143" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="38">
         <v>27</v>
       </c>
@@ -3589,7 +3594,7 @@
       <c r="AE143" s="12"/>
       <c r="AF143" s="12"/>
     </row>
-    <row r="144" spans="1:32" s="15" customFormat="1">
+    <row r="144" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="38">
         <v>28</v>
       </c>
@@ -3603,7 +3608,7 @@
       <c r="AE144" s="12"/>
       <c r="AF144" s="12"/>
     </row>
-    <row r="145" spans="1:32" s="15" customFormat="1">
+    <row r="145" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="38">
         <v>29</v>
       </c>
@@ -3617,7 +3622,7 @@
       <c r="AE145" s="12"/>
       <c r="AF145" s="12"/>
     </row>
-    <row r="146" spans="1:32" s="15" customFormat="1">
+    <row r="146" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="38">
         <v>30</v>
       </c>
@@ -3631,12 +3636,12 @@
       <c r="AE146" s="12"/>
       <c r="AF146" s="12"/>
     </row>
-    <row r="147" spans="1:32" s="15" customFormat="1">
+    <row r="147" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="38">
         <v>31</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C147" s="14">
         <v>3</v>
@@ -3645,7 +3650,7 @@
       <c r="AE147" s="12"/>
       <c r="AF147" s="12"/>
     </row>
-    <row r="148" spans="1:32" s="15" customFormat="1" ht="15" thickBot="1">
+    <row r="148" spans="1:32" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="38"/>
       <c r="B148" s="3"/>
       <c r="C148" s="14"/>
@@ -3653,22 +3658,22 @@
       <c r="AE148" s="12"/>
       <c r="AF148" s="12"/>
     </row>
-    <row r="149" spans="1:32" s="15" customFormat="1" ht="30">
+    <row r="149" spans="1:32" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A149" s="38"/>
       <c r="B149" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C149" s="14"/>
       <c r="AD149" s="12"/>
       <c r="AE149" s="12"/>
       <c r="AF149" s="12"/>
     </row>
-    <row r="150" spans="1:32" s="15" customFormat="1">
+    <row r="150" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="38">
         <v>1</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C150" s="14">
         <v>1</v>
@@ -3677,12 +3682,12 @@
       <c r="AE150" s="12"/>
       <c r="AF150" s="12"/>
     </row>
-    <row r="151" spans="1:32" s="15" customFormat="1">
+    <row r="151" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="38">
         <v>2</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C151" s="14">
         <v>0.9</v>
@@ -3691,7 +3696,7 @@
       <c r="AE151" s="12"/>
       <c r="AF151" s="12"/>
     </row>
-    <row r="152" spans="1:32" s="15" customFormat="1" ht="15" thickBot="1">
+    <row r="152" spans="1:32" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="38"/>
       <c r="B152" s="2"/>
       <c r="C152" s="14"/>
@@ -3699,17 +3704,17 @@
       <c r="AE152" s="12"/>
       <c r="AF152" s="12"/>
     </row>
-    <row r="153" spans="1:32" s="15" customFormat="1" ht="15">
+    <row r="153" spans="1:32" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="38"/>
       <c r="B153" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C153" s="14"/>
       <c r="AD153" s="12"/>
       <c r="AE153" s="12"/>
       <c r="AF153" s="12"/>
     </row>
-    <row r="154" spans="1:32" s="15" customFormat="1">
+    <row r="154" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="38">
         <v>1</v>
       </c>
@@ -3723,7 +3728,7 @@
       <c r="AE154" s="12"/>
       <c r="AF154" s="12"/>
     </row>
-    <row r="155" spans="1:32" s="15" customFormat="1">
+    <row r="155" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="38">
         <v>2</v>
       </c>
@@ -3737,7 +3742,7 @@
       <c r="AE155" s="12"/>
       <c r="AF155" s="12"/>
     </row>
-    <row r="156" spans="1:32" s="15" customFormat="1">
+    <row r="156" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="38">
         <v>3</v>
       </c>
@@ -3751,12 +3756,12 @@
       <c r="AE156" s="12"/>
       <c r="AF156" s="12"/>
     </row>
-    <row r="157" spans="1:32" s="15" customFormat="1">
+    <row r="157" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="38">
         <v>4</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C157" s="14">
         <v>1.2</v>
@@ -3765,7 +3770,7 @@
       <c r="AE157" s="12"/>
       <c r="AF157" s="12"/>
     </row>
-    <row r="158" spans="1:32" s="15" customFormat="1" ht="15" thickBot="1">
+    <row r="158" spans="1:32" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="38"/>
       <c r="B158" s="9"/>
       <c r="C158" s="14"/>
@@ -3773,22 +3778,22 @@
       <c r="AE158" s="12"/>
       <c r="AF158" s="12"/>
     </row>
-    <row r="159" spans="1:32" s="15" customFormat="1" ht="15">
+    <row r="159" spans="1:32" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="38"/>
       <c r="B159" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C159" s="14"/>
       <c r="AD159" s="12"/>
       <c r="AE159" s="12"/>
       <c r="AF159" s="12"/>
     </row>
-    <row r="160" spans="1:32" s="15" customFormat="1" ht="28.5" customHeight="1">
+    <row r="160" spans="1:32" s="15" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="38">
         <v>1</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C160" s="14">
         <v>0.9</v>
@@ -3797,12 +3802,12 @@
       <c r="AE160" s="12"/>
       <c r="AF160" s="12"/>
     </row>
-    <row r="161" spans="1:32" s="15" customFormat="1" ht="43.5" customHeight="1">
+    <row r="161" spans="1:32" s="15" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="38">
         <v>2</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C161" s="14">
         <v>1</v>
@@ -3811,12 +3816,12 @@
       <c r="AE161" s="12"/>
       <c r="AF161" s="12"/>
     </row>
-    <row r="162" spans="1:32" s="15" customFormat="1" ht="46.5" customHeight="1">
+    <row r="162" spans="1:32" s="15" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="38">
         <v>3</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C162" s="14">
         <v>1</v>
@@ -3825,12 +3830,12 @@
       <c r="AE162" s="12"/>
       <c r="AF162" s="12"/>
     </row>
-    <row r="163" spans="1:32" s="15" customFormat="1" ht="45" customHeight="1">
+    <row r="163" spans="1:32" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="38">
         <v>4</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C163" s="14">
         <v>0.9</v>
@@ -3839,12 +3844,12 @@
       <c r="AE163" s="12"/>
       <c r="AF163" s="12"/>
     </row>
-    <row r="164" spans="1:32" s="15" customFormat="1" ht="45" customHeight="1">
+    <row r="164" spans="1:32" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="38">
         <v>5</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C164" s="14">
         <v>1</v>
@@ -3853,12 +3858,12 @@
       <c r="AE164" s="12"/>
       <c r="AF164" s="12"/>
     </row>
-    <row r="165" spans="1:32" s="15" customFormat="1" ht="60" customHeight="1">
+    <row r="165" spans="1:32" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="38">
         <v>6</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C165" s="14">
         <v>1.1000000000000001</v>
@@ -3867,12 +3872,12 @@
       <c r="AE165" s="12"/>
       <c r="AF165" s="12"/>
     </row>
-    <row r="166" spans="1:32" s="15" customFormat="1" ht="30" customHeight="1">
+    <row r="166" spans="1:32" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="38">
         <v>7</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C166" s="14">
         <v>0.9</v>
@@ -3881,12 +3886,12 @@
       <c r="AE166" s="12"/>
       <c r="AF166" s="12"/>
     </row>
-    <row r="167" spans="1:32" s="15" customFormat="1" ht="45.75" customHeight="1">
+    <row r="167" spans="1:32" s="15" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="38">
         <v>8</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C167" s="14">
         <v>1</v>
@@ -3895,12 +3900,12 @@
       <c r="AE167" s="12"/>
       <c r="AF167" s="12"/>
     </row>
-    <row r="168" spans="1:32" s="15" customFormat="1" ht="29.25" customHeight="1">
+    <row r="168" spans="1:32" s="15" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="38">
         <v>9</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C168" s="14">
         <v>0.9</v>
@@ -3909,12 +3914,12 @@
       <c r="AE168" s="12"/>
       <c r="AF168" s="12"/>
     </row>
-    <row r="169" spans="1:32" s="15" customFormat="1">
+    <row r="169" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="38">
         <v>10</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C169" s="14">
         <v>0.9</v>
@@ -3923,7 +3928,7 @@
       <c r="AE169" s="12"/>
       <c r="AF169" s="12"/>
     </row>
-    <row r="170" spans="1:32" s="15" customFormat="1" ht="15" thickBot="1">
+    <row r="170" spans="1:32" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="38"/>
       <c r="B170" s="2"/>
       <c r="C170" s="14"/>
@@ -3931,32 +3936,32 @@
       <c r="AE170" s="12"/>
       <c r="AF170" s="12"/>
     </row>
-    <row r="171" spans="1:32" s="15" customFormat="1" ht="15">
+    <row r="171" spans="1:32" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="38"/>
       <c r="B171" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C171" s="14"/>
       <c r="AD171" s="12"/>
       <c r="AE171" s="12"/>
       <c r="AF171" s="12"/>
     </row>
-    <row r="172" spans="1:32" s="15" customFormat="1">
+    <row r="172" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="38"/>
       <c r="B172" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C172" s="14"/>
       <c r="AD172" s="12"/>
       <c r="AE172" s="12"/>
       <c r="AF172" s="12"/>
     </row>
-    <row r="173" spans="1:32" s="15" customFormat="1" ht="30" customHeight="1">
+    <row r="173" spans="1:32" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="38">
         <v>1</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C173" s="14">
         <v>1</v>
@@ -3965,10 +3970,10 @@
       <c r="AE173" s="12"/>
       <c r="AF173" s="12"/>
     </row>
-    <row r="174" spans="1:32" s="15" customFormat="1" ht="15.75" customHeight="1">
+    <row r="174" spans="1:32" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="38"/>
       <c r="B174" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C174" s="27">
         <v>1</v>
@@ -3983,18 +3988,18 @@
         <v>4</v>
       </c>
       <c r="G174" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AD174" s="12"/>
       <c r="AE174" s="12"/>
       <c r="AF174" s="12"/>
     </row>
-    <row r="175" spans="1:32" s="15" customFormat="1">
+    <row r="175" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="38">
         <v>2</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C175" s="17">
         <v>0.68</v>
@@ -4022,12 +4027,12 @@
       <c r="AE175" s="12"/>
       <c r="AF175" s="12"/>
     </row>
-    <row r="176" spans="1:32" s="15" customFormat="1" ht="30.75" customHeight="1">
+    <row r="176" spans="1:32" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="38">
         <v>3</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C176" s="17">
         <v>0.72</v>
@@ -4055,12 +4060,12 @@
       <c r="AE176" s="12"/>
       <c r="AF176" s="12"/>
     </row>
-    <row r="177" spans="1:32" s="15" customFormat="1" ht="32.25" customHeight="1">
+    <row r="177" spans="1:32" s="15" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="38">
         <v>4</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C177" s="17">
         <v>0.69</v>
@@ -4088,12 +4093,12 @@
       <c r="AE177" s="12"/>
       <c r="AF177" s="12"/>
     </row>
-    <row r="178" spans="1:32" s="15" customFormat="1">
+    <row r="178" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="38">
         <v>5</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C178" s="17">
         <v>0.74</v>
@@ -4121,12 +4126,12 @@
       <c r="AE178" s="12"/>
       <c r="AF178" s="12"/>
     </row>
-    <row r="179" spans="1:32" s="15" customFormat="1" ht="30.75" customHeight="1">
+    <row r="179" spans="1:32" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="38">
         <v>6</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C179" s="17">
         <v>0.65</v>
@@ -4154,12 +4159,12 @@
       <c r="AE179" s="12"/>
       <c r="AF179" s="12"/>
     </row>
-    <row r="180" spans="1:32" s="15" customFormat="1" ht="30.75" customHeight="1">
+    <row r="180" spans="1:32" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="38">
         <v>7</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C180" s="17">
         <v>0.73</v>
@@ -4187,12 +4192,12 @@
       <c r="AE180" s="12"/>
       <c r="AF180" s="12"/>
     </row>
-    <row r="181" spans="1:32" s="15" customFormat="1" ht="16.5" customHeight="1">
+    <row r="181" spans="1:32" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="38">
         <v>8</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C181" s="17">
         <v>0.71</v>
@@ -4220,12 +4225,12 @@
       <c r="AE181" s="12"/>
       <c r="AF181" s="12"/>
     </row>
-    <row r="182" spans="1:32" s="15" customFormat="1" ht="15" customHeight="1">
+    <row r="182" spans="1:32" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="38">
         <v>9</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C182" s="17">
         <v>0.72</v>
@@ -4253,7 +4258,7 @@
       <c r="AE182" s="12"/>
       <c r="AF182" s="12"/>
     </row>
-    <row r="183" spans="1:32" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="183" spans="1:32" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="38"/>
       <c r="B183" s="2"/>
       <c r="C183" s="14"/>
@@ -4261,17 +4266,17 @@
       <c r="AE183" s="12"/>
       <c r="AF183" s="12"/>
     </row>
-    <row r="184" spans="1:32" s="15" customFormat="1" ht="15">
+    <row r="184" spans="1:32" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="38"/>
       <c r="B184" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C184" s="14"/>
       <c r="AD184" s="12"/>
       <c r="AE184" s="12"/>
       <c r="AF184" s="12"/>
     </row>
-    <row r="185" spans="1:32" s="15" customFormat="1">
+    <row r="185" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="38">
         <v>1</v>
       </c>
@@ -4285,7 +4290,7 @@
       <c r="AE185" s="12"/>
       <c r="AF185" s="12"/>
     </row>
-    <row r="186" spans="1:32" s="15" customFormat="1">
+    <row r="186" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="38">
         <v>2</v>
       </c>
@@ -4299,7 +4304,7 @@
       <c r="AE186" s="12"/>
       <c r="AF186" s="12"/>
     </row>
-    <row r="187" spans="1:32" s="15" customFormat="1">
+    <row r="187" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="38">
         <v>3</v>
       </c>
@@ -4313,7 +4318,7 @@
       <c r="AE187" s="12"/>
       <c r="AF187" s="12"/>
     </row>
-    <row r="188" spans="1:32" s="15" customFormat="1">
+    <row r="188" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="38">
         <v>4</v>
       </c>
@@ -4327,7 +4332,7 @@
       <c r="AE188" s="12"/>
       <c r="AF188" s="12"/>
     </row>
-    <row r="189" spans="1:32" s="15" customFormat="1">
+    <row r="189" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="38">
         <v>5</v>
       </c>
@@ -4341,7 +4346,7 @@
       <c r="AE189" s="12"/>
       <c r="AF189" s="12"/>
     </row>
-    <row r="190" spans="1:32" s="15" customFormat="1">
+    <row r="190" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="38">
         <v>6</v>
       </c>
@@ -4355,7 +4360,7 @@
       <c r="AE190" s="12"/>
       <c r="AF190" s="12"/>
     </row>
-    <row r="191" spans="1:32" s="15" customFormat="1">
+    <row r="191" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="38">
         <v>7</v>
       </c>
@@ -4369,7 +4374,7 @@
       <c r="AE191" s="12"/>
       <c r="AF191" s="12"/>
     </row>
-    <row r="192" spans="1:32" s="15" customFormat="1">
+    <row r="192" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="38">
         <v>8</v>
       </c>
@@ -4383,7 +4388,7 @@
       <c r="AE192" s="12"/>
       <c r="AF192" s="12"/>
     </row>
-    <row r="193" spans="1:32" s="15" customFormat="1">
+    <row r="193" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="38">
         <v>9</v>
       </c>
@@ -4397,7 +4402,7 @@
       <c r="AE193" s="12"/>
       <c r="AF193" s="12"/>
     </row>
-    <row r="194" spans="1:32" s="15" customFormat="1">
+    <row r="194" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="38">
         <v>10</v>
       </c>
@@ -4411,7 +4416,7 @@
       <c r="AE194" s="12"/>
       <c r="AF194" s="12"/>
     </row>
-    <row r="195" spans="1:32" s="15" customFormat="1">
+    <row r="195" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="38">
         <v>11</v>
       </c>
@@ -4425,7 +4430,7 @@
       <c r="AE195" s="12"/>
       <c r="AF195" s="12"/>
     </row>
-    <row r="196" spans="1:32" s="15" customFormat="1">
+    <row r="196" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="38">
         <v>12</v>
       </c>
@@ -4439,7 +4444,7 @@
       <c r="AE196" s="12"/>
       <c r="AF196" s="12"/>
     </row>
-    <row r="197" spans="1:32" s="15" customFormat="1">
+    <row r="197" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="38">
         <v>13</v>
       </c>
@@ -4453,7 +4458,7 @@
       <c r="AE197" s="12"/>
       <c r="AF197" s="12"/>
     </row>
-    <row r="198" spans="1:32" s="15" customFormat="1">
+    <row r="198" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="38">
         <v>14</v>
       </c>
@@ -4467,7 +4472,7 @@
       <c r="AE198" s="12"/>
       <c r="AF198" s="12"/>
     </row>
-    <row r="199" spans="1:32" s="15" customFormat="1">
+    <row r="199" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="38">
         <v>15</v>
       </c>
@@ -4481,7 +4486,7 @@
       <c r="AE199" s="12"/>
       <c r="AF199" s="12"/>
     </row>
-    <row r="200" spans="1:32" s="15" customFormat="1">
+    <row r="200" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="38">
         <v>16</v>
       </c>
@@ -4495,7 +4500,7 @@
       <c r="AE200" s="12"/>
       <c r="AF200" s="12"/>
     </row>
-    <row r="201" spans="1:32" s="15" customFormat="1">
+    <row r="201" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="38">
         <v>17</v>
       </c>
@@ -4509,7 +4514,7 @@
       <c r="AE201" s="12"/>
       <c r="AF201" s="12"/>
     </row>
-    <row r="202" spans="1:32" s="15" customFormat="1">
+    <row r="202" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="38">
         <v>18</v>
       </c>
@@ -4523,7 +4528,7 @@
       <c r="AE202" s="12"/>
       <c r="AF202" s="12"/>
     </row>
-    <row r="203" spans="1:32" s="15" customFormat="1">
+    <row r="203" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="38">
         <v>19</v>
       </c>
@@ -4537,7 +4542,7 @@
       <c r="AE203" s="12"/>
       <c r="AF203" s="12"/>
     </row>
-    <row r="204" spans="1:32" s="15" customFormat="1">
+    <row r="204" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="38">
         <v>20</v>
       </c>
@@ -4551,7 +4556,7 @@
       <c r="AE204" s="12"/>
       <c r="AF204" s="12"/>
     </row>
-    <row r="205" spans="1:32" s="15" customFormat="1">
+    <row r="205" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="38">
         <v>21</v>
       </c>
@@ -4565,7 +4570,7 @@
       <c r="AE205" s="12"/>
       <c r="AF205" s="12"/>
     </row>
-    <row r="206" spans="1:32" s="15" customFormat="1">
+    <row r="206" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="38">
         <v>22</v>
       </c>
@@ -4579,7 +4584,7 @@
       <c r="AE206" s="12"/>
       <c r="AF206" s="12"/>
     </row>
-    <row r="207" spans="1:32" s="15" customFormat="1">
+    <row r="207" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="38">
         <v>23</v>
       </c>
@@ -4593,7 +4598,7 @@
       <c r="AE207" s="12"/>
       <c r="AF207" s="12"/>
     </row>
-    <row r="208" spans="1:32" s="15" customFormat="1">
+    <row r="208" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="38">
         <v>24</v>
       </c>
@@ -4607,12 +4612,12 @@
       <c r="AE208" s="12"/>
       <c r="AF208" s="12"/>
     </row>
-    <row r="209" spans="1:32" s="15" customFormat="1">
+    <row r="209" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="38">
         <v>25</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C209" s="14">
         <v>0.8</v>
@@ -4621,7 +4626,7 @@
       <c r="AE209" s="12"/>
       <c r="AF209" s="12"/>
     </row>
-    <row r="210" spans="1:32" s="15" customFormat="1" ht="15" thickBot="1">
+    <row r="210" spans="1:32" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="38"/>
       <c r="B210" s="5"/>
       <c r="C210" s="14"/>
@@ -4629,7 +4634,7 @@
       <c r="AE210" s="12"/>
       <c r="AF210" s="12"/>
     </row>
-    <row r="211" spans="1:32" s="15" customFormat="1" ht="15">
+    <row r="211" spans="1:32" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="38"/>
       <c r="B211" s="37" t="s">
         <v>1</v>
@@ -4639,7 +4644,7 @@
       <c r="AE211" s="12"/>
       <c r="AF211" s="12"/>
     </row>
-    <row r="212" spans="1:32" s="15" customFormat="1" ht="15" thickBot="1">
+    <row r="212" spans="1:32" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="38"/>
       <c r="B212" s="9"/>
       <c r="C212" s="14"/>
@@ -4647,22 +4652,22 @@
       <c r="AE212" s="12"/>
       <c r="AF212" s="12"/>
     </row>
-    <row r="213" spans="1:32" s="15" customFormat="1" ht="15">
+    <row r="213" spans="1:32" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="38"/>
       <c r="B213" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C213" s="14"/>
       <c r="AD213" s="12"/>
       <c r="AE213" s="12"/>
       <c r="AF213" s="12"/>
     </row>
-    <row r="214" spans="1:32" s="15" customFormat="1">
+    <row r="214" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="38">
         <v>1</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C214" s="14">
         <v>0.8</v>
@@ -4671,12 +4676,12 @@
       <c r="AE214" s="12"/>
       <c r="AF214" s="12"/>
     </row>
-    <row r="215" spans="1:32" s="15" customFormat="1" ht="28">
+    <row r="215" spans="1:32" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A215" s="38">
         <v>2</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C215" s="14">
         <v>1</v>
@@ -4685,12 +4690,12 @@
       <c r="AE215" s="12"/>
       <c r="AF215" s="12"/>
     </row>
-    <row r="216" spans="1:32" s="15" customFormat="1" ht="28">
+    <row r="216" spans="1:32" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A216" s="38">
         <v>3</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C216" s="14">
         <v>1.2</v>
@@ -4699,12 +4704,12 @@
       <c r="AE216" s="12"/>
       <c r="AF216" s="12"/>
     </row>
-    <row r="217" spans="1:32" s="15" customFormat="1" ht="28">
+    <row r="217" spans="1:32" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A217" s="38">
         <v>4</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C217" s="14">
         <v>1.5</v>
@@ -4713,12 +4718,12 @@
       <c r="AE217" s="12"/>
       <c r="AF217" s="12"/>
     </row>
-    <row r="218" spans="1:32" s="15" customFormat="1" ht="28">
+    <row r="218" spans="1:32" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A218" s="38">
         <v>5</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C218" s="14">
         <v>2</v>
@@ -4727,12 +4732,12 @@
       <c r="AE218" s="12"/>
       <c r="AF218" s="12"/>
     </row>
-    <row r="219" spans="1:32" s="15" customFormat="1" ht="28">
+    <row r="219" spans="1:32" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A219" s="38">
         <v>6</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C219" s="14">
         <v>2.2000000000000002</v>
@@ -4741,12 +4746,12 @@
       <c r="AE219" s="12"/>
       <c r="AF219" s="12"/>
     </row>
-    <row r="220" spans="1:32" s="15" customFormat="1" ht="28">
+    <row r="220" spans="1:32" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A220" s="38">
         <v>7</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C220" s="14">
         <v>2.5</v>
@@ -4755,12 +4760,12 @@
       <c r="AE220" s="12"/>
       <c r="AF220" s="12"/>
     </row>
-    <row r="221" spans="1:32" s="15" customFormat="1">
+    <row r="221" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="38">
         <v>8</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C221" s="14">
         <v>3</v>
@@ -4769,7 +4774,7 @@
       <c r="AE221" s="12"/>
       <c r="AF221" s="12"/>
     </row>
-    <row r="222" spans="1:32" s="15" customFormat="1" ht="15" thickBot="1">
+    <row r="222" spans="1:32" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" s="38"/>
       <c r="B222" s="2"/>
       <c r="C222" s="14"/>
@@ -4777,7 +4782,7 @@
       <c r="AE222" s="12"/>
       <c r="AF222" s="12"/>
     </row>
-    <row r="223" spans="1:32" s="15" customFormat="1" ht="14.25" customHeight="1">
+    <row r="223" spans="1:32" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="38"/>
       <c r="B223" s="8" t="s">
         <v>3</v>
@@ -4787,22 +4792,22 @@
       <c r="AE223" s="12"/>
       <c r="AF223" s="12"/>
     </row>
-    <row r="224" spans="1:32" s="15" customFormat="1">
+    <row r="224" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="38">
         <v>1</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C224" s="14"/>
       <c r="AD224" s="12"/>
       <c r="AE224" s="12"/>
       <c r="AF224" s="12"/>
     </row>
-    <row r="225" spans="1:32" s="15" customFormat="1">
+    <row r="225" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" s="38"/>
       <c r="B225" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C225" s="17">
         <v>0.99</v>
@@ -4811,22 +4816,22 @@
       <c r="AE225" s="12"/>
       <c r="AF225" s="12"/>
     </row>
-    <row r="226" spans="1:32" s="15" customFormat="1">
+    <row r="226" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="38">
         <v>2</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C226" s="17"/>
       <c r="AD226" s="12"/>
       <c r="AE226" s="12"/>
       <c r="AF226" s="12"/>
     </row>
-    <row r="227" spans="1:32" s="15" customFormat="1">
+    <row r="227" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="38"/>
       <c r="B227" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C227" s="17">
         <v>0.99</v>
@@ -4835,22 +4840,22 @@
       <c r="AE227" s="12"/>
       <c r="AF227" s="12"/>
     </row>
-    <row r="228" spans="1:32" s="15" customFormat="1">
+    <row r="228" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="38">
         <v>3</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C228" s="17"/>
       <c r="AD228" s="12"/>
       <c r="AE228" s="12"/>
       <c r="AF228" s="12"/>
     </row>
-    <row r="229" spans="1:32" s="15" customFormat="1">
+    <row r="229" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="38"/>
       <c r="B229" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C229" s="17">
         <v>0.99</v>
@@ -4859,22 +4864,22 @@
       <c r="AE229" s="12"/>
       <c r="AF229" s="12"/>
     </row>
-    <row r="230" spans="1:32" s="15" customFormat="1">
+    <row r="230" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="38">
         <v>4</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C230" s="17"/>
       <c r="AD230" s="12"/>
       <c r="AE230" s="12"/>
       <c r="AF230" s="12"/>
     </row>
-    <row r="231" spans="1:32" s="15" customFormat="1">
+    <row r="231" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="38"/>
       <c r="B231" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C231" s="17">
         <v>0.98</v>
@@ -4883,22 +4888,22 @@
       <c r="AE231" s="12"/>
       <c r="AF231" s="12"/>
     </row>
-    <row r="232" spans="1:32" s="15" customFormat="1">
+    <row r="232" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A232" s="38">
         <v>5</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C232" s="17"/>
       <c r="AD232" s="12"/>
       <c r="AE232" s="12"/>
       <c r="AF232" s="12"/>
     </row>
-    <row r="233" spans="1:32" s="15" customFormat="1">
+    <row r="233" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A233" s="38"/>
       <c r="B233" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C233" s="17">
         <v>0.98</v>
@@ -4907,22 +4912,22 @@
       <c r="AE233" s="12"/>
       <c r="AF233" s="12"/>
     </row>
-    <row r="234" spans="1:32" s="15" customFormat="1">
+    <row r="234" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="38">
         <v>6</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C234" s="17"/>
       <c r="AD234" s="12"/>
       <c r="AE234" s="12"/>
       <c r="AF234" s="12"/>
     </row>
-    <row r="235" spans="1:32" s="15" customFormat="1">
+    <row r="235" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="38"/>
       <c r="B235" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C235" s="17">
         <v>0.99</v>
@@ -4931,7 +4936,7 @@
       <c r="AE235" s="12"/>
       <c r="AF235" s="12"/>
     </row>
-    <row r="236" spans="1:32" s="15" customFormat="1" ht="15" thickBot="1">
+    <row r="236" spans="1:32" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A236" s="38"/>
       <c r="B236" s="11"/>
       <c r="C236" s="17"/>
@@ -4939,7 +4944,7 @@
       <c r="AE236" s="12"/>
       <c r="AF236" s="12"/>
     </row>
-    <row r="238" spans="1:32" s="15" customFormat="1" ht="18">
+    <row r="238" spans="1:32" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A238" s="38"/>
       <c r="B238" s="13"/>
       <c r="D238" s="19"/>
@@ -4960,7 +4965,7 @@
       <c r="AE238" s="12"/>
       <c r="AF238" s="12"/>
     </row>
-    <row r="239" spans="1:32" s="15" customFormat="1">
+    <row r="239" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" s="38"/>
       <c r="B239"/>
       <c r="D239" s="19"/>
@@ -4971,7 +4976,7 @@
       <c r="AE239" s="12"/>
       <c r="AF239" s="12"/>
     </row>
-    <row r="240" spans="1:32" s="15" customFormat="1" ht="18">
+    <row r="240" spans="1:32" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A240" s="38"/>
       <c r="B240" s="13"/>
       <c r="D240" s="19"/>
@@ -4982,15 +4987,15 @@
       <c r="AE240" s="12"/>
       <c r="AF240" s="12"/>
     </row>
-    <row r="243" spans="1:32" ht="20">
+    <row r="243" spans="1:32" ht="21" x14ac:dyDescent="0.25">
       <c r="B243" s="28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="244" spans="1:32" s="15" customFormat="1" ht="18">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="244" spans="1:32" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A244" s="38"/>
       <c r="B244" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C244" s="16">
         <v>20</v>
@@ -4999,10 +5004,10 @@
       <c r="AE244" s="12"/>
       <c r="AF244" s="12"/>
     </row>
-    <row r="245" spans="1:32" s="15" customFormat="1" ht="18">
+    <row r="245" spans="1:32" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A245" s="38"/>
       <c r="B245" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C245" s="16">
         <v>2</v>
@@ -5011,7 +5016,7 @@
       <c r="AE245" s="12"/>
       <c r="AF245" s="12"/>
     </row>
-    <row r="249" spans="1:32" ht="20">
+    <row r="249" spans="1:32" ht="21" x14ac:dyDescent="0.25">
       <c r="B249" s="28"/>
     </row>
   </sheetData>
@@ -5028,11 +5033,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5040,11 +5040,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL358"/>
   <sheetViews>
-    <sheetView topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="D261" sqref="D261"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="53.6640625" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="15" bestFit="1" customWidth="1"/>
@@ -5060,32 +5060,32 @@
     <col min="30" max="32" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C1" s="14"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C2" s="14"/>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1">
+    <row r="3" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:3" ht="15">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" s="14"/>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1">
+    <row r="5" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="14"/>
     </row>
-    <row r="6" spans="1:3" ht="15">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C6" s="14"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>7</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>8</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>9</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>11</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>12</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>13</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>14</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>15</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>16</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>17</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>18</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>19</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>20</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>21</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>22</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>23</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>24</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>25</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>26</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>27</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>28</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>29</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>30</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>31</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>32</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>33</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>34</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>35</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>36</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>37</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>38</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>39</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>40</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>41</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>42</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>43</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>44</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>45</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>46</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>47</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>48</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>49</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>50</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>51</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>52</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>53</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>54</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>55</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>56</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>57</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>58</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>59</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>60</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>61</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>1.905</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>62</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>63</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>1.915</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>64</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>65</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>1.925</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>66</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>67</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>1.9350000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>68</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>69</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>1.9450000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>70</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>71</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>1.9550000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>72</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>73</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>1.9650000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>74</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>75</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>1.9750000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>76</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>77</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>1.9850000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>78</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>79</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>1.9950000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>80</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>81</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>82</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>83</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>84</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>85</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>86</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>87</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>88</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>89</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>90</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>91</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>92</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>93</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>94</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>95</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>96</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>97</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>98</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>99</v>
       </c>
@@ -6174,28 +6174,28 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>100</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C106" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15" thickBot="1">
+    <row r="107" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
       <c r="C107" s="14"/>
     </row>
-    <row r="108" spans="1:3" ht="15">
+    <row r="108" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C108" s="14"/>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2</v>
       </c>
@@ -6217,919 +6217,919 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>3</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>6</v>
+        <v>190</v>
       </c>
       <c r="C111" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>4</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C112" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>5</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C113" s="24">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>6</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C114" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>7</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C115" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>8</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C116" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>9</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C117" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>10</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C118" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>11</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C119" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>12</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C120" s="24">
         <v>1.8</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>13</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C121" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>14</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C122" s="24">
         <v>1.2</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>15</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C123" s="24">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>16</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C124" s="24">
         <v>1.5</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>17</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C125" s="24">
         <v>1.8</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>18</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C126" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>19</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C127" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>20</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C128" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>21</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C129" s="24">
         <v>1.5</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>22</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C130" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>23</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C131" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>24</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C132" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>25</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C133" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>26</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C134" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>27</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C135" s="24">
         <v>1.5</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>28</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C136" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>29</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C137" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>30</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C138" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>31</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C139" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>32</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C140" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>33</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C141" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>34</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C142" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>35</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C143" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>36</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C144" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>37</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C145" s="24">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>38</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C146" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>39</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C147" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>40</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C148" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>41</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C149" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>42</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C150" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>43</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C151" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>44</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C152" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>45</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C153" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>46</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C154" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>47</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C155" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>48</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C156" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>49</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C157" s="24">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>50</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C158" s="24">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>51</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C159" s="24">
         <v>1.8</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>52</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C160" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>53</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C161" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>54</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C162" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>55</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C163" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>56</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C164" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>57</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C165" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>58</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C166" s="24">
         <v>1.5</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>59</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C167" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>60</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C168" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>61</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C169" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>62</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C170" s="24">
         <v>2.8</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>63</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C171" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>64</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C172" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>65</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C173" s="24">
         <v>1.8</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>66</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C174" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>67</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C175" s="24">
         <v>1.8</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>68</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C176" s="24">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>69</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C177" s="24">
         <v>1.5</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>70</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C178" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>71</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C179" s="24">
         <v>1.8</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>72</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C180" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>73</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C181" s="24">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>74</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C182" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>75</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C183" s="24">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>76</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C184" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>77</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C185" s="24">
         <v>2.8</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>78</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C186" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>79</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C187" s="24">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>80</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C188" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>81</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C189" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>82</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C190" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>83</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C191" s="24">
         <v>2.8</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>84</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C192" s="24">
         <v>1.8</v>
       </c>
     </row>
-    <row r="193" spans="1:32" ht="15" thickBot="1">
+    <row r="193" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B193" s="2"/>
       <c r="C193" s="14"/>
     </row>
-    <row r="194" spans="1:32" ht="15">
+    <row r="194" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B194" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C194" s="14"/>
     </row>
-    <row r="195" spans="1:32" s="33" customFormat="1" ht="16" thickBot="1">
+    <row r="195" spans="1:32" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B195" s="29"/>
       <c r="C195" s="30"/>
       <c r="D195" s="31"/>
@@ -7162,210 +7162,210 @@
       <c r="AE195" s="32"/>
       <c r="AF195" s="32"/>
     </row>
-    <row r="196" spans="1:32" ht="15">
+    <row r="196" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B196" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C196" s="14"/>
     </row>
-    <row r="197" spans="1:32">
+    <row r="197" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>1</v>
       </c>
       <c r="B197" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C197" s="17">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:32">
+    <row r="198" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>2</v>
       </c>
       <c r="B198" s="36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C198" s="17">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:32">
+    <row r="199" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>3</v>
       </c>
       <c r="B199" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C199" s="17">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:32">
+    <row r="200" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>4</v>
       </c>
       <c r="B200" s="36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C200" s="17">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:32">
+    <row r="201" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>5</v>
       </c>
       <c r="B201" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C201" s="17">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="202" spans="1:32">
+    <row r="202" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>6</v>
       </c>
       <c r="B202" s="36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C202" s="17">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:32">
+    <row r="203" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>7</v>
       </c>
       <c r="B203" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C203" s="17">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:32">
+    <row r="204" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>8</v>
       </c>
       <c r="B204" s="36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C204" s="17">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:32">
+    <row r="205" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>9</v>
       </c>
       <c r="B205" s="36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C205" s="17">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:32">
+    <row r="206" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>10</v>
       </c>
       <c r="B206" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C206" s="17">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:32">
+    <row r="207" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>11</v>
       </c>
       <c r="B207" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C207" s="17">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:32">
+    <row r="208" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>12</v>
       </c>
       <c r="B208" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C208" s="17">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>13</v>
       </c>
       <c r="B209" s="36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C209" s="17">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>14</v>
       </c>
       <c r="B210" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C210" s="17">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>15</v>
       </c>
       <c r="B211" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C211" s="17">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>16</v>
       </c>
       <c r="B212" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C212" s="17">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>17</v>
       </c>
       <c r="B213" s="36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C213" s="17">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="15" thickBot="1">
+    <row r="214" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B214" s="6"/>
       <c r="C214" s="14"/>
     </row>
-    <row r="215" spans="1:8" ht="15">
+    <row r="215" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B215" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C215" s="14"/>
     </row>
-    <row r="216" spans="1:8" ht="18">
+    <row r="216" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B216" s="4"/>
       <c r="C216" s="26">
         <v>2000</v>
@@ -7376,33 +7376,33 @@
       <c r="G216" s="21"/>
       <c r="H216" s="21"/>
     </row>
-    <row r="217" spans="1:8" ht="15" thickBot="1">
+    <row r="217" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B217" s="4"/>
       <c r="C217" s="14"/>
     </row>
-    <row r="218" spans="1:8" ht="15">
+    <row r="218" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B218" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C218" s="14"/>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B219" s="4"/>
       <c r="C219" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="15" thickBot="1">
+    <row r="220" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B220" s="4"/>
       <c r="C220" s="14"/>
     </row>
-    <row r="221" spans="1:8" ht="15">
+    <row r="221" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B221" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C221" s="14"/>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>1</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>3</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>4</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>5</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>6</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>7</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>8</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>9</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>10</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>11</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>12</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>13</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>14</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>15</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>16</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>17</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>18</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>19</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>20</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>21</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>22</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>23</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>24</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>25</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>26</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>27</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>28</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>29</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>30</v>
       </c>
@@ -7732,60 +7732,60 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>31</v>
       </c>
       <c r="B252" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C252" s="17">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="15" thickBot="1">
+    <row r="253" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B253" s="35"/>
       <c r="C253" s="14"/>
     </row>
-    <row r="254" spans="1:3" ht="30">
+    <row r="254" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B254" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C254" s="14"/>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>1</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C255" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>2</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C256" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="15" thickBot="1">
+    <row r="257" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B257" s="4"/>
       <c r="C257" s="14"/>
     </row>
-    <row r="258" spans="1:3" ht="30">
+    <row r="258" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B258" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C258" s="14"/>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>1</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>2</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>3</v>
       </c>
@@ -7818,167 +7818,167 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>4</v>
       </c>
       <c r="B262" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C262" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="15" thickBot="1">
+    <row r="263" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B263" s="5"/>
       <c r="C263" s="24"/>
     </row>
-    <row r="264" spans="1:3" ht="15">
+    <row r="264" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B264" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C264" s="14"/>
     </row>
-    <row r="265" spans="1:3" ht="28.5" customHeight="1">
+    <row r="265" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>1</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C265" s="14">
         <v>0.9</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="43.5" customHeight="1">
+    <row r="266" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>2</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C266" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="46.5" customHeight="1">
+    <row r="267" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>3</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C267" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="45" customHeight="1">
+    <row r="268" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>4</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C268" s="14">
         <v>0.9</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="45" customHeight="1">
+    <row r="269" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>5</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C269" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="60" customHeight="1">
+    <row r="270" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>6</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C270" s="14">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="30" customHeight="1">
+    <row r="271" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>7</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C271" s="14">
         <v>0.9</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="45.75" customHeight="1">
+    <row r="272" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>8</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C272" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:38" ht="29.25" customHeight="1">
+    <row r="273" spans="1:38" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>9</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C273" s="14">
         <v>0.9</v>
       </c>
     </row>
-    <row r="274" spans="1:38">
+    <row r="274" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>10</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C274" s="14">
         <v>0.9</v>
       </c>
     </row>
-    <row r="275" spans="1:38" ht="15" thickBot="1">
+    <row r="275" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B275" s="4"/>
       <c r="C275" s="14"/>
     </row>
-    <row r="276" spans="1:38" ht="15">
+    <row r="276" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="B276" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C276" s="14"/>
     </row>
-    <row r="277" spans="1:38">
+    <row r="277" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B277" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C277" s="14"/>
     </row>
-    <row r="278" spans="1:38" ht="30" customHeight="1">
+    <row r="278" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>1</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C278" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:38" ht="15.75" customHeight="1">
+    <row r="279" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B279" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C279" s="27">
         <v>1</v>
@@ -7993,15 +7993,15 @@
         <v>4</v>
       </c>
       <c r="G279" s="27" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="280" spans="1:38">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="280" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>2</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C280" s="17">
         <v>0.68</v>
@@ -8035,12 +8035,12 @@
       <c r="AK280" s="12"/>
       <c r="AL280" s="12"/>
     </row>
-    <row r="281" spans="1:38" ht="30.75" customHeight="1">
+    <row r="281" spans="1:38" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>3</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C281" s="17">
         <v>0.72</v>
@@ -8074,12 +8074,12 @@
       <c r="AK281" s="12"/>
       <c r="AL281" s="12"/>
     </row>
-    <row r="282" spans="1:38" ht="32.25" customHeight="1">
+    <row r="282" spans="1:38" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>4</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C282" s="17">
         <v>0.69</v>
@@ -8113,12 +8113,12 @@
       <c r="AK282" s="12"/>
       <c r="AL282" s="12"/>
     </row>
-    <row r="283" spans="1:38">
+    <row r="283" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>5</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C283" s="17">
         <v>0.74</v>
@@ -8152,12 +8152,12 @@
       <c r="AK283" s="12"/>
       <c r="AL283" s="12"/>
     </row>
-    <row r="284" spans="1:38" ht="30.75" customHeight="1">
+    <row r="284" spans="1:38" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>6</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C284" s="17">
         <v>0.65</v>
@@ -8191,12 +8191,12 @@
       <c r="AK284" s="12"/>
       <c r="AL284" s="12"/>
     </row>
-    <row r="285" spans="1:38" ht="30.75" customHeight="1">
+    <row r="285" spans="1:38" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>7</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C285" s="17">
         <v>0.73</v>
@@ -8230,12 +8230,12 @@
       <c r="AK285" s="12"/>
       <c r="AL285" s="12"/>
     </row>
-    <row r="286" spans="1:38" ht="16.5" customHeight="1">
+    <row r="286" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>8</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C286" s="17">
         <v>0.71</v>
@@ -8269,12 +8269,12 @@
       <c r="AK286" s="12"/>
       <c r="AL286" s="12"/>
     </row>
-    <row r="287" spans="1:38" ht="15" customHeight="1">
+    <row r="287" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>9</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C287" s="17">
         <v>0.72</v>
@@ -8308,17 +8308,17 @@
       <c r="AK287" s="12"/>
       <c r="AL287" s="12"/>
     </row>
-    <row r="288" spans="1:38" ht="15.75" customHeight="1" thickBot="1">
+    <row r="288" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B288" s="4"/>
       <c r="C288" s="14"/>
     </row>
-    <row r="289" spans="1:3" ht="15">
+    <row r="289" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B289" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C289" s="14"/>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>1</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>2</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>3</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>4</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>5</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>6</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>7</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>8</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>9</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>10</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>11</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>12</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>13</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>14</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>15</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>16</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>17</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>18</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>19</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>20</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>21</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>22</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>23</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>24</v>
       </c>
@@ -8582,346 +8582,346 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>25</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C314" s="24">
         <v>0.8</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="15" thickBot="1">
+    <row r="315" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B315" s="9"/>
       <c r="C315" s="14"/>
     </row>
-    <row r="316" spans="1:3" ht="15">
+    <row r="316" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B316" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C316" s="14"/>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>1</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C317" s="18">
         <v>0.9</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="14.25" customHeight="1">
+    <row r="318" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>2</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C318" s="18">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>3</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C319" s="18">
         <v>1.2</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="15" thickBot="1">
+    <row r="320" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B320" s="2"/>
       <c r="C320" s="14"/>
     </row>
-    <row r="321" spans="1:3" ht="15">
+    <row r="321" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B321" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C321" s="14"/>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>1</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C322" s="24">
         <v>0.8</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="28">
+    <row r="323" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>2</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C323" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="28">
+    <row r="324" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>3</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C324" s="24">
         <v>1.2</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="28">
+    <row r="325" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>4</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C325" s="24">
         <v>1.5</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="28">
+    <row r="326" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>5</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C326" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="28">
+    <row r="327" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>6</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C327" s="24">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="28">
+    <row r="328" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>7</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C328" s="24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>8</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C329" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="15" thickBot="1">
+    <row r="330" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B330" s="2"/>
       <c r="C330" s="14"/>
     </row>
-    <row r="331" spans="1:3" ht="14.25" customHeight="1">
+    <row r="331" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B331" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C331" s="14"/>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>1</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C332" s="14"/>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B333" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C333" s="17">
         <v>0.99</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B334" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C334" s="17"/>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>2</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C335" s="17"/>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B336" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C336" s="17">
         <v>0.99</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B337" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C337" s="17"/>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>3</v>
       </c>
       <c r="B338" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C338" s="17"/>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B339" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C339" s="17">
         <v>0.99</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B340" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C340" s="17"/>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>4</v>
       </c>
       <c r="B341" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C341" s="17"/>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B342" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C342" s="17">
         <v>0.98</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B343" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C343" s="17"/>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>5</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C344" s="17"/>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B345" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C345" s="17">
         <v>0.98</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B346" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C346" s="17"/>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>6</v>
       </c>
       <c r="B347" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C347" s="17"/>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B348" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C348" s="17">
         <v>0.99</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="15" thickBot="1">
+    <row r="349" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B349" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C349" s="17"/>
     </row>
-    <row r="351" spans="1:7" ht="18">
+    <row r="351" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="B351" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D351" s="19"/>
       <c r="E351" s="19"/>
       <c r="F351" s="19"/>
       <c r="G351" s="19"/>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D352" s="19"/>
       <c r="E352" s="19"/>
       <c r="F352" s="19"/>
       <c r="G352" s="19"/>
     </row>
-    <row r="353" spans="2:7" ht="18">
+    <row r="353" spans="2:7" ht="19" x14ac:dyDescent="0.25">
       <c r="B353" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D353" s="19"/>
       <c r="E353" s="19"/>
       <c r="F353" s="19"/>
       <c r="G353" s="19"/>
     </row>
-    <row r="356" spans="2:7" ht="20">
+    <row r="356" spans="2:7" ht="21" x14ac:dyDescent="0.25">
       <c r="B356" s="28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="357" spans="2:7" ht="18">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="357" spans="2:7" ht="19" x14ac:dyDescent="0.25">
       <c r="B357" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C357" s="16">
         <v>80</v>
       </c>
     </row>
-    <row r="358" spans="2:7" ht="18">
+    <row r="358" spans="2:7" ht="19" x14ac:dyDescent="0.25">
       <c r="B358" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C358" s="16">
         <v>2</v>
@@ -8942,10 +8942,5 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>